--- a/2016Robbertmetingen.xlsx
+++ b/2016Robbertmetingen.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Kalibratiemetingen" sheetId="1" r:id="rId1"/>
-    <sheet name="Impedantiemeter" sheetId="2" r:id="rId2"/>
-    <sheet name="PeriodeTest" sheetId="3" r:id="rId3"/>
+    <sheet name="Blad1" sheetId="4" r:id="rId2"/>
+    <sheet name="Impedantiemeter" sheetId="2" r:id="rId3"/>
+    <sheet name="PeriodeTest" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
   <si>
     <t>Sample nummer</t>
   </si>
@@ -95,15 +96,6 @@
     <t>Top B shunt µs</t>
   </si>
   <si>
-    <t>Periode</t>
-  </si>
-  <si>
-    <t>Faseverschil</t>
-  </si>
-  <si>
-    <t>Verhouding</t>
-  </si>
-  <si>
     <t>Gain resistance</t>
   </si>
   <si>
@@ -135,6 +127,132 @@
   </si>
   <si>
     <t>afwijking in percent tov leeg</t>
+  </si>
+  <si>
+    <t>Gemiddele periode</t>
+  </si>
+  <si>
+    <t>nxt pk B</t>
+  </si>
+  <si>
+    <t>nxt pk A</t>
+  </si>
+  <si>
+    <t>Periode A</t>
+  </si>
+  <si>
+    <t>Periode B</t>
+  </si>
+  <si>
+    <t>Faseverschil 1 (°)</t>
+  </si>
+  <si>
+    <t>Faseverschil 2 (°)</t>
+  </si>
+  <si>
+    <t>freq awg</t>
+  </si>
+  <si>
+    <t>AWG</t>
+  </si>
+  <si>
+    <t>9V</t>
+  </si>
+  <si>
+    <t>Uitleg:</t>
+  </si>
+  <si>
+    <t>Top is telkens waar de piek van dat kanaal voorkomt. (in microseconden). Zo kan de faseverschuiving bepaald worden. Deze waarden zijn gemeten met de picoscope. Van elk kanaal worden 2 opeenvolgende pieken bepaald. Hieruit wordt de periode tweemaal berekend, de gemiddelde periode en ook tweemaal het faseverschil. De in te stellen parameters op de PCB worden ook meegegeven, de gebruikte toestellen en frequentie.</t>
+  </si>
+  <si>
+    <t>Hier worden een aantal materialen in de humidity sensor gestoken, om te kijken of het aantal periodicos veranderen. Dit blijkt het geval te zijn. Wel moet in het achterhoofd gehouden worden dat de lege meting eraf getrokken wordt, en dat een verschil van 700 flanken overeen komt met een verschil van ongeveer 1% humidity</t>
+  </si>
+  <si>
+    <t>heeft geregend</t>
+  </si>
+  <si>
+    <t>Periodicos lege meters</t>
+  </si>
+  <si>
+    <t>3,0-7</t>
+  </si>
+  <si>
+    <t>3,0-18</t>
+  </si>
+  <si>
+    <t>opmerking</t>
+  </si>
+  <si>
+    <t>battery 4,8v</t>
+  </si>
+  <si>
+    <t>knoppen zijn belachelijk slecht</t>
+  </si>
+  <si>
+    <t>batterij net vervangen, werkte niet meer</t>
+  </si>
+  <si>
+    <t>3,0-12</t>
+  </si>
+  <si>
+    <t>3,0-3</t>
+  </si>
+  <si>
+    <t>3,0-8</t>
+  </si>
+  <si>
+    <t>dat consistency</t>
+  </si>
+  <si>
+    <t>3,0-1</t>
+  </si>
+  <si>
+    <t>3,0-10</t>
+  </si>
+  <si>
+    <t>3,0-11</t>
+  </si>
+  <si>
+    <t>3,0-14</t>
+  </si>
+  <si>
+    <t>3,0-13</t>
+  </si>
+  <si>
+    <t>3,0-5</t>
+  </si>
+  <si>
+    <t>opmerking 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">op 08/07 heeft het heel veel geregend. </t>
+  </si>
+  <si>
+    <t>3,0-6</t>
+  </si>
+  <si>
+    <t>geeft heel wisselende waarden tussen 21k en 23k, stabiliseert na een tijd naar 21k</t>
+  </si>
+  <si>
+    <t>3,0-16</t>
+  </si>
+  <si>
+    <t>staat oude/andere software op</t>
+  </si>
+  <si>
+    <t>2,3-1</t>
+  </si>
+  <si>
+    <t>staat oude/andere software op, batterij 6,4V</t>
+  </si>
+  <si>
+    <t>3,0-17</t>
+  </si>
+  <si>
+    <t>3,0-15</t>
+  </si>
+  <si>
+    <t>3,0-4</t>
   </si>
 </sst>
 </file>
@@ -144,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -173,8 +291,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,18 +309,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -202,23 +352,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Verklarende tekst" xfId="1" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -231,6 +442,1196 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-BE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kalibratiemetingen!$B$4:$B$50000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49997"/>
+                <c:pt idx="0">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kalibratiemetingen!$F$4:$F$50000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49997"/>
+                <c:pt idx="0">
+                  <c:v>6274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5081</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5379</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4834</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5908</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3614</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3713</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4436</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3546</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5720</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4329</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3097</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5232</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2723</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3339</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB0E-428C-97C1-A82916D913E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="307533840"/>
+        <c:axId val="307534496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="307533840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Gehaka</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> humidity</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307534496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="307534496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Periodicos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307533840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,493 +1931,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375"/>
-    <col min="2" max="2" width="17.140625"/>
-    <col min="3" max="3" width="14.140625"/>
-    <col min="4" max="4" width="16.42578125"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11"/>
-    <col min="8" max="8" width="18.140625"/>
-    <col min="9" max="9" width="14.5703125"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="8"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375"/>
     <col min="11" max="11" width="8.5703125"/>
-    <col min="12" max="12" width="24.140625"/>
-    <col min="13" max="1025" width="8.5703125"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>COUNT(A$4:A$65000)</f>
+        <v>22</v>
+      </c>
+      <c r="B1" s="12">
+        <f>COUNT(B$4:B$65000)</f>
+        <v>24</v>
+      </c>
+      <c r="C1" s="12">
+        <f>COUNT(C$4:C$65000)</f>
+        <v>12</v>
+      </c>
+      <c r="D1" s="12">
+        <f t="shared" ref="D1:N1" si="0">COUNT(D$4:D$65000)</f>
+        <v>0</v>
+      </c>
+      <c r="E1" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F1" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G1" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="20">
         <v>8703</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="21">
         <v>17.8</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="E4" s="5">
+      <c r="C4" s="22"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="23">
         <v>21629</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="24">
         <v>6274</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="23">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="20">
         <v>729</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="25">
         <v>42551</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="20">
         <v>8705</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="21">
         <v>14.6</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="E5" s="5">
+      <c r="C5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="23">
         <v>21696</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="24">
         <v>5635</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="23">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="20">
         <v>729</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="25">
         <v>42551</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="20">
         <v>8667</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="21">
         <v>13.7</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="E6" s="5">
+      <c r="C6" s="22"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="23">
         <v>21709</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="24">
         <v>4577</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="23">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="20">
         <v>729</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="25">
         <v>42551</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="20">
         <v>8708</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="21">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="E7" s="5">
+      <c r="C7" s="22"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="23">
         <v>21719</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="24">
         <v>3728</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="23">
         <v>31</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="20">
         <v>729</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="25">
         <v>42551</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="20">
         <v>8717</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="21">
         <v>14.6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="E8" s="5">
+      <c r="C8" s="22"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="23">
         <v>21686</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="24">
         <v>5617</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="23">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="20">
         <v>729</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="25">
         <v>42551</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21">
         <v>16.100000000000001</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="E9" s="5">
+      <c r="C9" s="22"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="23">
         <v>21647</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="24">
         <v>5908</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="23">
         <v>33</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="20">
         <v>729</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="25">
         <v>42551</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21">
         <v>13.9</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="E10" s="5">
+      <c r="C10" s="22"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="23">
         <v>21646</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="24">
         <v>5081</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="23">
         <v>32</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="20">
         <v>729</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="25">
         <v>42551</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="20">
         <v>8723</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="21">
         <v>12</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="E11" s="5">
+      <c r="C11" s="22"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="23">
         <v>21682</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="24">
         <v>3935</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="23">
         <v>33</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="20">
         <v>729</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="25">
         <v>42551</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="20">
         <v>8649</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="21">
         <v>14.8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="E12" s="5">
+      <c r="C12" s="22"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="23">
         <v>21538</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="24">
         <v>5546</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="23">
         <v>31</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="20">
         <v>729</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="25">
         <v>42551</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="20">
         <v>8647</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="21">
         <v>13.7</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5">
+      <c r="C13" s="22"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23">
         <v>21548</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="24">
         <v>5379</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="23">
         <v>31</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="20">
         <v>729</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="25">
         <v>42551</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="20">
         <v>123</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="21">
         <v>12.1</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="E14" s="5">
+      <c r="C14" s="22"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="23">
         <v>21572</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="24">
         <v>4834</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="23">
         <v>31</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="20">
         <v>729</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="25">
         <v>42551</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="20" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1024,17 +2506,17 @@
       <c r="A15">
         <v>121</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="7">
         <v>15.1</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="E15" s="5">
+      <c r="C15" s="9"/>
+      <c r="E15" s="10">
         <v>21521</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="11">
         <v>5908</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="10">
         <v>31</v>
       </c>
       <c r="H15" t="s">
@@ -1049,7 +2531,7 @@
       <c r="K15" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="1">
         <v>42551</v>
       </c>
       <c r="M15" t="s">
@@ -1063,29 +2545,29 @@
       <c r="A16">
         <v>8892</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="7">
         <v>11.2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="9">
         <v>31.3</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="10">
         <v>22250</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="11">
         <v>3614</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="10">
         <v>25</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
       <c r="I16">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J16" t="s">
         <v>15</v>
@@ -1093,7 +2575,7 @@
       <c r="K16" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="1">
         <v>42556</v>
       </c>
       <c r="M16" t="s">
@@ -1104,29 +2586,29 @@
       <c r="A17">
         <v>175</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="7">
         <v>11.2</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="9">
         <v>31.3</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="10">
         <v>22353</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="11">
         <v>3713</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="10">
         <v>26</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J17" t="s">
         <v>15</v>
@@ -1134,7 +2616,7 @@
       <c r="K17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="1">
         <v>42556</v>
       </c>
       <c r="M17" t="s">
@@ -1145,29 +2627,29 @@
       <c r="A18">
         <v>212</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="7">
         <v>14.5</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="9">
         <v>31.5</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="10">
         <v>22372</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="11">
         <v>4436</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="10">
         <v>26</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
       </c>
       <c r="I18">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="J18" t="s">
         <v>15</v>
@@ -1175,7 +2657,7 @@
       <c r="K18" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="1">
         <v>42556</v>
       </c>
       <c r="M18" t="s">
@@ -1186,29 +2668,29 @@
       <c r="A19">
         <v>173</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>31.4</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="8">
         <v>22366</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>1680</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="8">
         <v>26</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
       </c>
       <c r="I19">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -1216,7 +2698,7 @@
       <c r="K19" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="1">
         <v>42556</v>
       </c>
       <c r="M19" t="s">
@@ -1227,29 +2709,29 @@
       <c r="A20">
         <v>174</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>11</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <v>31.3</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="8">
         <v>22367</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <v>3546</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="8">
         <v>26</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
       <c r="I20">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
@@ -1257,7 +2739,7 @@
       <c r="K20" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="1">
         <v>42556</v>
       </c>
       <c r="M20" t="s">
@@ -1268,29 +2750,29 @@
       <c r="A21">
         <v>8894</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>13.8</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>31.8</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="8">
         <v>22306</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <v>5720</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="8">
         <v>26</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
       </c>
       <c r="I21">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="J21" t="s">
         <v>15</v>
@@ -1298,7 +2780,7 @@
       <c r="K21" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="1">
         <v>42556</v>
       </c>
       <c r="M21" t="s">
@@ -1309,29 +2791,29 @@
       <c r="A22">
         <v>8895</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>11.8</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <v>31.7</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="8">
         <v>22306</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6">
         <v>4329</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="8">
         <v>26</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
       </c>
       <c r="I22">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -1339,7 +2821,7 @@
       <c r="K22" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="1">
         <v>42556</v>
       </c>
       <c r="M22" t="s">
@@ -1350,29 +2832,29 @@
       <c r="A23">
         <v>8840</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>10.8</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <v>31.6</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="8">
         <v>22203</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <v>3097</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="8">
         <v>25</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
       </c>
       <c r="I23">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
@@ -1380,7 +2862,7 @@
       <c r="K23" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="1">
         <v>42556</v>
       </c>
       <c r="M23" t="s">
@@ -1391,29 +2873,29 @@
       <c r="A24">
         <v>8850</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>13.4</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <v>31.4</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="8">
         <v>22217</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <v>5232</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="8">
         <v>25</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
       </c>
       <c r="I24">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="J24" t="s">
         <v>15</v>
@@ -1421,7 +2903,7 @@
       <c r="K24" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="1">
         <v>42556</v>
       </c>
       <c r="M24" t="s">
@@ -1432,29 +2914,29 @@
       <c r="A25">
         <v>8852</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>10.8</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <v>31.5</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="8">
         <v>22215</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <v>2723</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="8">
         <v>25</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
       </c>
       <c r="I25">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="J25" t="s">
         <v>15</v>
@@ -1462,7 +2944,7 @@
       <c r="K25" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="1">
         <v>42556</v>
       </c>
       <c r="M25" t="s">
@@ -1473,29 +2955,29 @@
       <c r="A26">
         <v>8851</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>10.8</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <v>31.5</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="8">
         <v>22216</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <v>3339</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="8">
         <v>26</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
       </c>
       <c r="I26">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="J26" t="s">
         <v>15</v>
@@ -1503,7 +2985,7 @@
       <c r="K26" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="1">
         <v>42556</v>
       </c>
       <c r="M26" t="s">
@@ -1514,29 +2996,29 @@
       <c r="A27">
         <v>8858</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>10.8</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <v>31.6</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="8">
         <v>22212</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <v>3076</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="8">
         <v>26</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
       </c>
       <c r="I27">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="J27" t="s">
         <v>15</v>
@@ -1544,7 +3026,7 @@
       <c r="K27" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="1">
         <v>42556</v>
       </c>
       <c r="M27" t="s">
@@ -1552,81 +3034,1083 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L28" s="6">
-        <v>42556</v>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28">
+        <v>729</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="1">
+        <v>42558</v>
       </c>
       <c r="M28" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="26">
+        <v>42559</v>
+      </c>
+      <c r="C3" s="26">
+        <v>42559</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>24888</v>
+      </c>
+      <c r="C4">
+        <v>24933</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>16469</v>
+      </c>
+      <c r="C5">
+        <v>16482</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>17109</v>
+      </c>
+      <c r="C6">
+        <v>17083</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>21039</v>
+      </c>
+      <c r="C7">
+        <v>21075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>17225</v>
+      </c>
+      <c r="C8">
+        <v>17237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>20472</v>
+      </c>
+      <c r="C9">
+        <v>20472</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>17155</v>
+      </c>
+      <c r="C10">
+        <v>17053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>23131</v>
+      </c>
+      <c r="C11">
+        <v>23142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>20786</v>
+      </c>
+      <c r="C12">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>23576</v>
+      </c>
+      <c r="C13">
+        <v>23584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>16736</v>
+      </c>
+      <c r="C14">
+        <v>16740</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>23538</v>
+      </c>
+      <c r="C15">
+        <v>21597</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>16855</v>
+      </c>
+      <c r="C16">
+        <v>16863</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17">
+        <v>17667</v>
+      </c>
+      <c r="C17">
+        <v>17660</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <v>20042</v>
+      </c>
+      <c r="C18">
+        <v>20108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <v>20633</v>
+      </c>
+      <c r="C19">
+        <v>20621</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="M3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>30</v>
+      <c r="N3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>617</v>
+      </c>
+      <c r="B4">
+        <v>705</v>
+      </c>
+      <c r="C4">
+        <v>956</v>
+      </c>
+      <c r="D4">
+        <v>1048</v>
+      </c>
+      <c r="E4">
+        <f>C4-A4</f>
+        <v>339</v>
+      </c>
+      <c r="F4">
+        <f>D4-B4</f>
+        <v>343</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(E4:F4)</f>
+        <v>341</v>
+      </c>
+      <c r="H4">
+        <f>((B4-A4)/G4)*360</f>
+        <v>92.903225806451616</v>
+      </c>
+      <c r="I4">
+        <f>(D4-C4)/G4*360</f>
+        <v>97.126099706744867</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>680</v>
+      </c>
+      <c r="B5">
+        <v>826</v>
+      </c>
+      <c r="C5">
+        <v>1184</v>
+      </c>
+      <c r="D5">
+        <v>1324</v>
+      </c>
+      <c r="E5">
+        <f>C5-A5</f>
+        <v>504</v>
+      </c>
+      <c r="F5">
+        <f>D5-B5</f>
+        <v>498</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(E5:F5)</f>
+        <v>501</v>
+      </c>
+      <c r="H5">
+        <f>((B5-A5)/G5)*360</f>
+        <v>104.91017964071855</v>
+      </c>
+      <c r="I5">
+        <f>(D5-C5)/G5*360</f>
+        <v>100.59880239520957</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1170</v>
+      </c>
+      <c r="B6">
+        <v>1508</v>
+      </c>
+      <c r="C6">
+        <v>2166</v>
+      </c>
+      <c r="D6">
+        <v>2514</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E31" si="0">C6-A6</f>
+        <v>996</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F31" si="1">D6-B6</f>
+        <v>1006</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G31" si="2">AVERAGE(E6:F6)</f>
+        <v>1001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H31" si="3">((B6-A6)/G6)*360</f>
+        <v>121.55844155844156</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I31" si="4">(D6-C6)/G6*360</f>
+        <v>125.15484515484515</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8050</v>
+      </c>
+      <c r="B7">
+        <v>13000</v>
+      </c>
+      <c r="C7">
+        <v>18200</v>
+      </c>
+      <c r="D7">
+        <v>23000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>10150</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>10075</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>176.87344913151364</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>171.5136476426799</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,17 +4120,31 @@
     <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="7" t="s">
-        <v>36</v>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
+      <c r="A5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B5">
         <v>21089</v>
@@ -1673,8 +4171,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
+      <c r="A6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B6">
         <v>22307</v>
@@ -1701,8 +4199,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
+      <c r="A7" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B7">
         <v>21307</v>
@@ -1729,8 +4227,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
+      <c r="A8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B8">
         <v>21084</v>
@@ -1757,8 +4255,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
+      <c r="A9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B9">
         <v>21034</v>
@@ -1775,7 +4273,7 @@
       <c r="F9">
         <v>21062</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="3">
         <f>AVERAGE(B9:F9)</f>
         <v>21050.6</v>
       </c>
@@ -1784,7 +4282,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2016Robbertmetingen.xlsx
+++ b/2016Robbertmetingen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Kalibratiemetingen" sheetId="1" r:id="rId1"/>
@@ -399,12 +399,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -426,6 +420,12 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -826,8 +826,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1933,19 +1934,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="8"/>
+    <col min="2" max="2" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="6"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375"/>
@@ -1961,27 +1962,27 @@
         <f>COUNT(A$4:A$65000)</f>
         <v>22</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="10">
         <f>COUNT(B$4:B$65000)</f>
         <v>24</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="10">
         <f>COUNT(C$4:C$65000)</f>
         <v>12</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="10">
         <f t="shared" ref="D1:N1" si="0">COUNT(D$4:D$65000)</f>
         <v>0</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -2015,490 +2016,490 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="18">
         <v>8703</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <v>17.8</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="23">
+      <c r="C4" s="20"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="21">
         <v>21629</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <v>6274</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="21">
         <v>30</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="18">
         <v>729</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="23">
         <v>42551</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="18">
         <v>8705</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>14.6</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="23">
+      <c r="C5" s="20"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="21">
         <v>21696</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="22">
         <v>5635</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="21">
         <v>31</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <v>729</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="23">
         <v>42551</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <v>8667</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <v>13.7</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="23">
+      <c r="C6" s="20"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="21">
         <v>21709</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="22">
         <v>4577</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="21">
         <v>31</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <v>729</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="23">
         <v>42551</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>8708</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <v>12</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="23">
+      <c r="C7" s="20"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="21">
         <v>21719</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="22">
         <v>3728</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="21">
         <v>31</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <v>729</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="23">
         <v>42551</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="18">
         <v>8717</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="19">
         <v>14.6</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="23">
+      <c r="C8" s="20"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="21">
         <v>21686</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="22">
         <v>5617</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="21">
         <v>33</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="18">
         <v>729</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="23">
         <v>42551</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19">
         <v>16.100000000000001</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="23">
+      <c r="C9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="21">
         <v>21647</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="22">
         <v>5908</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="21">
         <v>33</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <v>729</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="23">
         <v>42551</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19">
         <v>13.9</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="23">
+      <c r="C10" s="20"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="21">
         <v>21646</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <v>5081</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="21">
         <v>32</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="18">
         <v>729</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="23">
         <v>42551</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="18">
         <v>8723</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="19">
         <v>12</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="23">
+      <c r="C11" s="20"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="21">
         <v>21682</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="22">
         <v>3935</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="21">
         <v>33</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="18">
         <v>729</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="23">
         <v>42551</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="18">
         <v>8649</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="19">
         <v>14.8</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="23">
+      <c r="C12" s="20"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="21">
         <v>21538</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <v>5546</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="21">
         <v>31</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="18">
         <v>729</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="23">
         <v>42551</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="18">
         <v>8647</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="19">
         <v>13.7</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23">
+      <c r="C13" s="20"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="21">
         <v>21548</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="22">
         <v>5379</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="21">
         <v>31</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="18">
         <v>729</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="23">
         <v>42551</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="18">
         <v>123</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="19">
         <v>12.1</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="23">
+      <c r="C14" s="20"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="21">
         <v>21572</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <v>4834</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="21">
         <v>31</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="18">
         <v>729</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="23">
         <v>42551</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2506,17 +2507,17 @@
       <c r="A15">
         <v>121</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>15.1</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="E15" s="10">
+      <c r="C15" s="7"/>
+      <c r="E15" s="8">
         <v>21521</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>5908</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <v>31</v>
       </c>
       <c r="H15" t="s">
@@ -2545,22 +2546,22 @@
       <c r="A16">
         <v>8892</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>11.2</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>31.3</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <v>22250</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>3614</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="8">
         <v>25</v>
       </c>
       <c r="H16" t="s">
@@ -2586,22 +2587,22 @@
       <c r="A17">
         <v>175</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>11.2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>31.3</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>22353</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>3713</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
         <v>26</v>
       </c>
       <c r="H17" t="s">
@@ -2627,22 +2628,22 @@
       <c r="A18">
         <v>212</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>14.5</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>31.5</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <v>22372</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>4436</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="8">
         <v>26</v>
       </c>
       <c r="H18" t="s">
@@ -2668,22 +2669,22 @@
       <c r="A19">
         <v>173</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>31.4</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>22366</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>1680</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>26</v>
       </c>
       <c r="H19" t="s">
@@ -2709,22 +2710,22 @@
       <c r="A20">
         <v>174</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>11</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>31.3</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>22367</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <v>3546</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>26</v>
       </c>
       <c r="H20" t="s">
@@ -2750,22 +2751,22 @@
       <c r="A21">
         <v>8894</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>13.8</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>31.8</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>22306</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="4">
         <v>5720</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>26</v>
       </c>
       <c r="H21" t="s">
@@ -2791,22 +2792,22 @@
       <c r="A22">
         <v>8895</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>11.8</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>31.7</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <v>22306</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>4329</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <v>26</v>
       </c>
       <c r="H22" t="s">
@@ -2832,22 +2833,22 @@
       <c r="A23">
         <v>8840</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>10.8</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>31.6</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <v>22203</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="4">
         <v>3097</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>25</v>
       </c>
       <c r="H23" t="s">
@@ -2873,22 +2874,22 @@
       <c r="A24">
         <v>8850</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>13.4</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>31.4</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="6">
         <v>22217</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="4">
         <v>5232</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="6">
         <v>25</v>
       </c>
       <c r="H24" t="s">
@@ -2914,22 +2915,22 @@
       <c r="A25">
         <v>8852</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>10.8</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>31.5</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="6">
         <v>22215</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="4">
         <v>2723</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="6">
         <v>25</v>
       </c>
       <c r="H25" t="s">
@@ -2955,22 +2956,22 @@
       <c r="A26">
         <v>8851</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>10.8</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>31.5</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="6">
         <v>22216</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>3339</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>26</v>
       </c>
       <c r="H26" t="s">
@@ -2996,22 +2997,22 @@
       <c r="A27">
         <v>8858</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>10.8</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <v>31.6</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="6">
         <v>22212</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="4">
         <v>3076</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="6">
         <v>26</v>
       </c>
       <c r="H27" t="s">
@@ -3088,10 +3089,10 @@
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="24">
         <v>42559</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
         <v>42559</v>
       </c>
       <c r="D3" s="2"/>
@@ -3317,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3343,20 +3344,20 @@
       <c r="A1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3569,25 +3570,37 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2315</v>
+      </c>
+      <c r="B8">
+        <v>3200</v>
+      </c>
+      <c r="C8">
+        <v>4300</v>
+      </c>
+      <c r="D8">
+        <v>5200</v>
+      </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1985</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" t="e">
+        <v>1992.5</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
+        <v>159.89962358845673</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>162.60978670012548</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -4124,15 +4137,15 @@
       <c r="A1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G4" s="2" t="s">

--- a/2016Robbertmetingen.xlsx
+++ b/2016Robbertmetingen.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Kalibratiemetingen" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad1" sheetId="4" r:id="rId2"/>
+    <sheet name="LegePeriodicos" sheetId="4" r:id="rId2"/>
     <sheet name="Impedantiemeter" sheetId="2" r:id="rId3"/>
     <sheet name="PeriodeTest" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="76">
   <si>
     <t>Sample nummer</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>Hier worden een aantal materialen in de humidity sensor gestoken, om te kijken of het aantal periodicos veranderen. Dit blijkt het geval te zijn. Wel moet in het achterhoofd gehouden worden dat de lege meting eraf getrokken wordt, en dat een verschil van 700 flanken overeen komt met een verschil van ongeveer 1% humidity</t>
-  </si>
-  <si>
-    <t>heeft geregend</t>
   </si>
   <si>
     <t>Periodicos lege meters</t>
@@ -394,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -426,6 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -625,6 +623,39 @@
                 <c:pt idx="23">
                   <c:v>10.8</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -705,6 +736,36 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3076</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5479</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5222</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4905</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4857</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5068</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5386</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5589</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4876</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1932,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,7 +2012,7 @@
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375"/>
     <col min="11" max="11" width="8.5703125"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="8.5703125"/>
@@ -1960,15 +2021,15 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>COUNT(A$4:A$65000)</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B1" s="10">
         <f>COUNT(B$4:B$65000)</f>
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C1" s="10">
         <f>COUNT(C$4:C$65000)</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D1" s="10">
         <f t="shared" ref="D1:N1" si="0">COUNT(D$4:D$65000)</f>
@@ -1976,15 +2037,15 @@
       </c>
       <c r="E1" s="10">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F1" s="10">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G1" s="10">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H1">
         <f t="shared" si="0"/>
@@ -1992,7 +2053,7 @@
       </c>
       <c r="I1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J1">
         <f t="shared" si="0"/>
@@ -2004,7 +2065,7 @@
       </c>
       <c r="L1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M1">
         <f t="shared" si="0"/>
@@ -3035,8 +3096,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9200</v>
+      </c>
+      <c r="B28" s="4">
+        <v>14.1</v>
+      </c>
+      <c r="C28" s="6">
+        <v>28.7</v>
+      </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="E28" s="6">
+        <v>21798</v>
+      </c>
+      <c r="F28" s="4">
+        <v>5479</v>
+      </c>
+      <c r="G28" s="6">
+        <v>29</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -3051,10 +3130,366 @@
         <v>16</v>
       </c>
       <c r="L28" s="1">
-        <v>42558</v>
+        <v>42562</v>
       </c>
       <c r="M28" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9201</v>
+      </c>
+      <c r="B29" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="C29" s="6">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="6">
+        <v>21874</v>
+      </c>
+      <c r="F29" s="4">
+        <v>5222</v>
+      </c>
+      <c r="G29" s="6">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29">
+        <v>729</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="27">
+        <v>42562</v>
+      </c>
+      <c r="M29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>9199</v>
+      </c>
+      <c r="B30" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="C30" s="6">
+        <v>28.5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="6">
+        <v>21900</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4905</v>
+      </c>
+      <c r="G30" s="6">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30">
+        <v>729</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="27">
+        <v>42562</v>
+      </c>
+      <c r="M30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="C31" s="6">
+        <v>28.5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31">
+        <v>729</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="27">
+        <v>42562</v>
+      </c>
+      <c r="M31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9192</v>
+      </c>
+      <c r="B32" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="C32" s="6">
+        <v>28.1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="6">
+        <v>21962</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4857</v>
+      </c>
+      <c r="G32" s="6">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32">
+        <v>729</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="27">
+        <v>42562</v>
+      </c>
+      <c r="M32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9165</v>
+      </c>
+      <c r="B33" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="C33" s="6">
+        <v>27.8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="6">
+        <v>21987</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4007</v>
+      </c>
+      <c r="G33" s="6">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33">
+        <v>729</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="27">
+        <v>42562</v>
+      </c>
+      <c r="M33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9162</v>
+      </c>
+      <c r="B34" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="C34" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="6">
+        <v>22004</v>
+      </c>
+      <c r="F34" s="4">
+        <v>5068</v>
+      </c>
+      <c r="G34" s="6">
+        <v>30</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <v>729</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="27">
+        <v>42562</v>
+      </c>
+      <c r="M34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9163</v>
+      </c>
+      <c r="B35" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="C35" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="6">
+        <v>22009</v>
+      </c>
+      <c r="F35" s="4">
+        <v>5386</v>
+      </c>
+      <c r="G35" s="6">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35">
+        <v>729</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="27">
+        <v>42562</v>
+      </c>
+      <c r="M35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9164</v>
+      </c>
+      <c r="B36" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="C36" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="6">
+        <v>22016</v>
+      </c>
+      <c r="F36" s="4">
+        <v>5589</v>
+      </c>
+      <c r="G36" s="6">
+        <v>30</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36">
+        <v>729</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="27">
+        <v>42562</v>
+      </c>
+      <c r="M36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>195</v>
+      </c>
+      <c r="B37" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="C37" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="E37" s="6">
+        <v>22050</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4876</v>
+      </c>
+      <c r="G37" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8932</v>
+      </c>
+      <c r="B38" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="C38" s="6">
+        <v>27.7</v>
+      </c>
+      <c r="E38" s="6">
+        <v>21987</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3899</v>
+      </c>
+      <c r="G38" s="6">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3069,7 +3504,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,7 +3517,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3097,15 +3532,15 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>24888</v>
@@ -3114,15 +3549,15 @@
         <v>24933</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>16469</v>
@@ -3131,12 +3566,12 @@
         <v>16482</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>17109</v>
@@ -3145,12 +3580,12 @@
         <v>17083</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>21039</v>
@@ -3161,7 +3596,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>17225</v>
@@ -3172,7 +3607,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>20472</v>
@@ -3181,12 +3616,12 @@
         <v>20472</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>17155</v>
@@ -3197,7 +3632,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>23131</v>
@@ -3208,7 +3643,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>20786</v>
@@ -3219,7 +3654,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>23576</v>
@@ -3230,7 +3665,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>16736</v>
@@ -3239,12 +3674,12 @@
         <v>16740</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>23538</v>
@@ -3253,12 +3688,12 @@
         <v>21597</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>16855</v>
@@ -3267,12 +3702,12 @@
         <v>16863</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <v>17667</v>
@@ -3281,12 +3716,12 @@
         <v>17660</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>20042</v>
@@ -3295,12 +3730,12 @@
         <v>20108</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>20633</v>
@@ -3318,7 +3753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/2016Robbertmetingen.xlsx
+++ b/2016Robbertmetingen.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="129">
   <si>
     <t>Sample nummer</t>
   </si>
@@ -388,6 +388,33 @@
   <si>
     <t>cycls²</t>
   </si>
+  <si>
+    <t>papier</t>
+  </si>
+  <si>
+    <t>papier voegt 59 cycli toe, verwaarloosbaar dus</t>
+  </si>
+  <si>
+    <t>meting om te zien of papier goed is voor platen te isoleren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">een streepje plastic voegt 8 toe. </t>
+  </si>
+  <si>
+    <t>plakband</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>isolatie dmv papier</t>
+  </si>
+  <si>
+    <t>gehaka had het ook moeilijk: hum tss 10,9 en 11,2</t>
+  </si>
+  <si>
+    <t>opnieuw samplenummer dat serieus afwijkt qua cyclos</t>
+  </si>
 </sst>
 </file>
 
@@ -640,18 +667,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -683,6 +698,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,6 +1387,54 @@
                 <c:pt idx="97">
                   <c:v>5526</c:v>
                 </c:pt>
+                <c:pt idx="98">
+                  <c:v>4579</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3844</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3203</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2225</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2853</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2915</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3376</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4890</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5706</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5666</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4763</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4626</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4891</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4849</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5505</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1650,6 +1725,54 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>15.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,6 +2190,54 @@
                       <c:pt idx="97">
                         <c:v>15.6</c:v>
                       </c:pt>
+                      <c:pt idx="98">
+                        <c:v>12.2</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>12.2</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>11.1</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>11.1</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>11.1</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>11.1</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>11.1</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>11.1</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>13.3</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>15.9</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>15.8</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>15.8</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>15.8</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>15.8</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>15.8</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>15.8</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:xVal>
@@ -2372,6 +2543,54 @@
                       </c:pt>
                       <c:pt idx="97">
                         <c:v>5526</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>4579</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>3844</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>3203</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>2225</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>2853</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>2915</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>3072</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>3376</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>4890</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>5706</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>5666</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>4763</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>4626</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>4891</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>4849</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>5505</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2981,6 +3200,54 @@
                 <c:pt idx="87">
                   <c:v>15.6</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>15.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3250,6 +3517,54 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>5526</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4579</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3844</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3203</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2225</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2853</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2915</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3376</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4890</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5706</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5666</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4763</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4626</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4891</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4849</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3413,7 +3728,440 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-BE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Agostometer!$C$3:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sample cycli</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5873</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6595</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Agostometer!$G$3:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8ED4-44C6-AE6B-79B919DCC338}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420114696"/>
+        <c:axId val="420115024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420114696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420115024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420115024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420114696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3991,6 +4739,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4052,6 +5316,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4359,8 +5658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U573"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q118" sqref="Q118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4377,7 +5676,7 @@
     <col min="14" max="14" width="8.5703125"/>
     <col min="15" max="15" width="10.7109375"/>
     <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.85546875" customWidth="1"/>
+    <col min="17" max="17" width="44.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5703125"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
@@ -4388,27 +5687,27 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <f t="shared" ref="A1:D1" si="0">COUNT(A$4:A$65000)</f>
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B1">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C1">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D1">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="G1">
         <f>COUNT(G$4:G$65000)</f>
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="H1">
         <f>COUNT(H$4:H$65000)</f>
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="J1">
         <f t="shared" ref="J1:Q1" si="1">COUNT(J$4:J$65000)</f>
@@ -4444,18 +5743,18 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="N2" s="29" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="N2" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
     </row>
     <row r="3" spans="1:21" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -4509,10 +5808,10 @@
       <c r="Q3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="R3" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4531,11 +5830,11 @@
       </c>
       <c r="E4" s="26">
         <f>IF(I4,G4-F4,TRIM(""))</f>
-        <v>2.6195042613520769</v>
+        <v>2.4932182440782462</v>
       </c>
       <c r="F4" s="24">
         <f>IF(Kalibratiemetingen!C4&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C4+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>15.180495738647924</v>
+        <v>15.306781755921754</v>
       </c>
       <c r="G4" s="2">
         <v>17.8</v>
@@ -4575,12 +5874,12 @@
         <f>C4*C4</f>
         <v>39363076</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="U4" s="52">
+      <c r="U4" s="48">
         <f>COUNTIF(I4:I50003,"=1")</f>
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -4598,11 +5897,11 @@
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:E68" si="2">IF(I5,G5-F5,TRIM(""))</f>
-        <v>0.3568662632801658</v>
+        <v>0.20410249245238354</v>
       </c>
       <c r="F5" s="24">
         <f>IF(Kalibratiemetingen!C5&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C5+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.243133736719834</v>
+        <v>14.395897507547616</v>
       </c>
       <c r="G5" s="2">
         <v>14.6</v>
@@ -4642,12 +5941,12 @@
         <f t="shared" ref="S5:S68" si="4">C5*C5</f>
         <v>31753225</v>
       </c>
-      <c r="T5" s="53" t="s">
+      <c r="T5" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="U5" s="54">
+      <c r="U5" s="50">
         <f>-SUM(R4:R50003)</f>
-        <v>-5757495.1000000024</v>
+        <v>-6690606.5000000019</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -4665,11 +5964,11 @@
       </c>
       <c r="E6" s="26">
         <f t="shared" si="2"/>
-        <v>1.0088678251579815</v>
+        <v>0.81226451871190974</v>
       </c>
       <c r="F6" s="24">
         <f>IF(Kalibratiemetingen!C6&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C6+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.691132174842018</v>
+        <v>12.88773548128809</v>
       </c>
       <c r="G6" s="2">
         <v>13.7</v>
@@ -4709,12 +6008,12 @@
         <f t="shared" si="4"/>
         <v>20948929</v>
       </c>
-      <c r="T6" s="53" t="s">
+      <c r="T6" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="55">
+      <c r="U6" s="51">
         <f>AVERAGEIF(I4:I50003,"=1",G4:G50003)</f>
-        <v>12.901075268817195</v>
+        <v>12.979816513761453</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -4732,11 +6031,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" si="2"/>
-        <v>0.55428306715634079</v>
+        <v>0.32250039800712571</v>
       </c>
       <c r="F7" s="24">
         <f>IF(Kalibratiemetingen!C7&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C7+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.445716932843659</v>
+        <v>11.677499601992874</v>
       </c>
       <c r="G7" s="2">
         <v>12</v>
@@ -4776,12 +6075,12 @@
         <f t="shared" si="4"/>
         <v>13897984</v>
       </c>
-      <c r="T7" s="53" t="s">
+      <c r="T7" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="U7" s="55">
+      <c r="U7" s="51">
         <f>AVERAGEIF(I4:I50003,"=1",C4:C50003)</f>
-        <v>4720.1182795698924</v>
+        <v>4641.5963302752298</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -4799,11 +6098,11 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" si="2"/>
-        <v>0.38327082671476198</v>
+        <v>0.22976120367419206</v>
       </c>
       <c r="F8" s="24">
         <f>IF(Kalibratiemetingen!C8&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C8+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.216729173285238</v>
+        <v>14.370238796325808</v>
       </c>
       <c r="G8" s="2">
         <v>14.6</v>
@@ -4843,12 +6142,12 @@
         <f t="shared" si="4"/>
         <v>31550689</v>
       </c>
-      <c r="T8" s="53" t="s">
+      <c r="T8" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="U8" s="55">
+      <c r="U8" s="51">
         <f>SUMIF(I4:I50003,"=1",C4:C50003)/U4</f>
-        <v>4720.1182795698924</v>
+        <v>4641.5963302752298</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -4864,11 +6163,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="2"/>
-        <v>1.4563970511888229</v>
+        <v>1.3149453722549858</v>
       </c>
       <c r="F9" s="24">
         <f>IF(Kalibratiemetingen!C9&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C9+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.643602948811179</v>
+        <v>14.785054627745016</v>
       </c>
       <c r="G9" s="2">
         <v>16.100000000000001</v>
@@ -4908,12 +6207,12 @@
         <f t="shared" si="4"/>
         <v>34904464</v>
       </c>
-      <c r="T9" s="53" t="s">
+      <c r="T9" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="U9" s="55">
+      <c r="U9" s="51">
         <f>SUMIF(I4:I50003,"=1",C4:C50003)</f>
-        <v>438971</v>
+        <v>505934</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -4929,11 +6228,11 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="2"/>
-        <v>0.46954004898934443</v>
+        <v>0.29382060450132386</v>
       </c>
       <c r="F10" s="24">
         <f>IF(Kalibratiemetingen!C10&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C10+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.430459951010656</v>
+        <v>13.606179395498676</v>
       </c>
       <c r="G10" s="2">
         <v>13.9</v>
@@ -4973,12 +6272,12 @@
         <f t="shared" si="4"/>
         <v>25816561</v>
       </c>
-      <c r="T10" s="53" t="s">
+      <c r="T10" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="U10" s="55">
+      <c r="U10" s="51">
         <f>SUMIF(I4:I50003,"=1",G4:G50003)</f>
-        <v>1199.799999999999</v>
+        <v>1414.7999999999984</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -4996,11 +6295,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="2"/>
-        <v>0.25063058765850599</v>
+        <v>2.7425218956349084E-2</v>
       </c>
       <c r="F11" s="24">
         <f>IF(Kalibratiemetingen!C11&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C11+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.749369412341494</v>
+        <v>11.972574781043651</v>
       </c>
       <c r="G11" s="2">
         <v>12</v>
@@ -5040,12 +6339,12 @@
         <f t="shared" si="4"/>
         <v>15484225</v>
       </c>
-      <c r="T11" s="53" t="s">
+      <c r="T11" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="U11" s="55">
+      <c r="U11" s="51">
         <f>SUMIF(I4:I50003,"=1",S4:S500003)</f>
-        <v>2136277467</v>
+        <v>2435102116</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -5063,11 +6362,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="2"/>
-        <v>0.68742216026232938</v>
+        <v>0.53097056460465097</v>
       </c>
       <c r="F12" s="24">
         <f>IF(Kalibratiemetingen!C12&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C12+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.112577839737671</v>
+        <v>14.26902943539535</v>
       </c>
       <c r="G12" s="2">
         <v>14.8</v>
@@ -5107,8 +6406,8 @@
         <f t="shared" si="4"/>
         <v>30758116</v>
       </c>
-      <c r="T12" s="56"/>
-      <c r="U12" s="55"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="51"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -5125,11 +6424,11 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="2"/>
-        <v>-0.16760216787227122</v>
+        <v>-0.33097361461525487</v>
       </c>
       <c r="F13" s="24">
         <f>IF(Kalibratiemetingen!C13&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C13+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.867602167872271</v>
+        <v>14.030973614615254</v>
       </c>
       <c r="G13" s="2">
         <v>13.7</v>
@@ -5169,12 +6468,12 @@
         <f t="shared" si="4"/>
         <v>28933641</v>
       </c>
-      <c r="T13" s="53" t="s">
+      <c r="T13" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="U13" s="55">
+      <c r="U13" s="51">
         <f>U5+U6*U9</f>
-        <v>-94297.18817204982</v>
+        <v>-123676.01192661561</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -5192,11 +6491,11 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="2"/>
-        <v>-0.96813066388039104</v>
+        <v>-1.1540848581772192</v>
       </c>
       <c r="F14" s="24">
         <f>IF(Kalibratiemetingen!C14&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C14+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.068130663880391</v>
+        <v>13.254084858177219</v>
       </c>
       <c r="G14" s="2">
         <v>12.1</v>
@@ -5236,12 +6535,12 @@
         <f t="shared" si="4"/>
         <v>23367556</v>
       </c>
-      <c r="T14" s="53" t="s">
+      <c r="T14" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="U14" s="55">
+      <c r="U14" s="51">
         <f>-U11+(U9*U9)/U4</f>
-        <v>-64282425.69892478</v>
+        <v>-86760718.238532066</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -5259,11 +6558,11 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="2"/>
-        <v>0.45639705118882112</v>
+        <v>0.31494537225498398</v>
       </c>
       <c r="F15" s="24">
         <f>IF(Kalibratiemetingen!C15&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C15+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.643602948811179</v>
+        <v>14.785054627745016</v>
       </c>
       <c r="G15" s="5">
         <v>15.1</v>
@@ -5302,8 +6601,8 @@
         <f t="shared" si="4"/>
         <v>34904464</v>
       </c>
-      <c r="T15" s="56"/>
-      <c r="U15" s="55"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="51"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -5320,11 +6619,11 @@
       </c>
       <c r="E16" s="26">
         <f t="shared" si="2"/>
-        <v>-7.8488031091231036E-2</v>
+        <v>-0.31499443092143231</v>
       </c>
       <c r="F16" s="24">
         <f>IF(Kalibratiemetingen!C16&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C16+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.27848803109123</v>
+        <v>11.514994430921432</v>
       </c>
       <c r="G16" s="5">
         <v>11.2</v>
@@ -5365,12 +6664,12 @@
         <f t="shared" si="4"/>
         <v>13060996</v>
       </c>
-      <c r="T16" s="53" t="s">
+      <c r="T16" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="U16" s="55">
+      <c r="U16" s="51">
         <f>U13/U14</f>
-        <v>1.4669201908108311E-3</v>
+        <v>1.4254839567670703E-3</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5388,11 +6687,11 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="2"/>
-        <v>-0.22371312998149762</v>
+        <v>-0.45611734264137027</v>
       </c>
       <c r="F17" s="24">
         <f>IF(Kalibratiemetingen!C17&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C17+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.423713129981497</v>
+        <v>11.65611734264137</v>
       </c>
       <c r="G17" s="5">
         <v>11.2</v>
@@ -5433,12 +6732,12 @@
         <f t="shared" si="4"/>
         <v>13786369</v>
       </c>
-      <c r="T17" s="57" t="s">
+      <c r="T17" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="U17" s="58">
+      <c r="U17" s="54">
         <f>U6-U16*U7</f>
-        <v>5.9770384615008361</v>
+        <v>6.3632954111652049</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -5456,11 +6755,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="2"/>
-        <v>2.0157035720623036</v>
+        <v>1.8132577566160624</v>
       </c>
       <c r="F18" s="24">
         <f>IF(Kalibratiemetingen!C18&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C18+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.484296427937696</v>
+        <v>12.686742243383938</v>
       </c>
       <c r="G18" s="9">
         <v>14.5</v>
@@ -5517,11 +6816,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="2"/>
-        <v>1.358535617936834</v>
+        <v>1.0418915414660201</v>
       </c>
       <c r="F19" s="24">
         <f>IF(Kalibratiemetingen!C19&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C19+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>8.4414643820631667</v>
+        <v>8.7581084585339806</v>
       </c>
       <c r="G19" s="12">
         <v>9.8000000000000007</v>
@@ -5578,11 +6877,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="2"/>
-        <v>-0.17873745811609609</v>
+        <v>-0.41806152186127221</v>
       </c>
       <c r="F20" s="24">
         <f>IF(Kalibratiemetingen!C20&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C20+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.178737458116096</v>
+        <v>11.418061521861272</v>
       </c>
       <c r="G20" s="12">
         <v>11</v>
@@ -5639,11 +6938,11 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="2"/>
-        <v>-0.56782195293874693</v>
+        <v>-0.71706364387281241</v>
       </c>
       <c r="F21" s="24">
         <f>IF(Kalibratiemetingen!C21&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C21+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.367821952938748</v>
+        <v>14.517063643872813</v>
       </c>
       <c r="G21" s="12">
         <v>13.8</v>
@@ -5700,11 +6999,11 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="2"/>
-        <v>-0.52733596752094236</v>
+        <v>-0.73421546000986382</v>
       </c>
       <c r="F22" s="24">
         <f>IF(Kalibratiemetingen!C22&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C22+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.327335967520943</v>
+        <v>12.534215460009865</v>
       </c>
       <c r="G22" s="12">
         <v>11.8</v>
@@ -5761,11 +7060,11 @@
       </c>
       <c r="E23" s="26">
         <f t="shared" si="2"/>
-        <v>0.2799097075579482</v>
+        <v>2.1980774727127894E-2</v>
       </c>
       <c r="F23" s="24">
         <f>IF(Kalibratiemetingen!C23&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C23+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>10.520090292442053</v>
+        <v>10.778019225272873</v>
       </c>
       <c r="G23" s="12">
         <v>10.8</v>
@@ -5822,11 +7121,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="2"/>
-        <v>-0.25196489982308456</v>
+        <v>-0.42142747297049965</v>
       </c>
       <c r="F24" s="24">
         <f>IF(Kalibratiemetingen!C24&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C24+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.651964899823085</v>
+        <v>13.8214274729705</v>
       </c>
       <c r="G24" s="12">
         <v>13.4</v>
@@ -5883,11 +7182,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="2"/>
-        <v>0.82853785892118204</v>
+        <v>0.55511177455800009</v>
       </c>
       <c r="F25" s="24">
         <f>IF(Kalibratiemetingen!C25&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C25+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>9.9714621410788187</v>
+        <v>10.244888225442001</v>
       </c>
       <c r="G25" s="12">
         <v>10.8</v>
@@ -5944,11 +7243,11 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="2"/>
-        <v>-7.5084978618262355E-2</v>
+        <v>-0.32298634281049488</v>
       </c>
       <c r="F26" s="24">
         <f>IF(Kalibratiemetingen!C26&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C26+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>10.875084978618263</v>
+        <v>11.122986342810496</v>
       </c>
       <c r="G26" s="12">
         <v>10.8</v>
@@ -6005,11 +7304,11 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="2"/>
-        <v>0.31071503156497471</v>
+        <v>5.191593781923487E-2</v>
       </c>
       <c r="F27" s="24">
         <f>IF(Kalibratiemetingen!C27&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C27+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>10.489284968435026</v>
+        <v>10.748084062180766</v>
       </c>
       <c r="G27" s="12">
         <v>10.8</v>
@@ -6066,11 +7365,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="2"/>
-        <v>8.5705813046649482E-2</v>
+        <v>-7.352201029195804E-2</v>
       </c>
       <c r="F28" s="24">
         <f>IF(Kalibratiemetingen!C28&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C28+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.01429418695335</v>
+        <v>14.173522010291958</v>
       </c>
       <c r="G28" s="12">
         <v>14.1</v>
@@ -6130,11 +7429,11 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="2"/>
-        <v>6.2704302085023755E-2</v>
+        <v>-0.10717263340282912</v>
       </c>
       <c r="F29" s="24">
         <f>IF(Kalibratiemetingen!C29&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C29+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.637295697914976</v>
+        <v>13.807172633402828</v>
       </c>
       <c r="G29" s="12">
         <v>13.7</v>
@@ -6191,11 +7490,11 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="2"/>
-        <v>-7.2281997427957378E-2</v>
+        <v>-0.2552942191076788</v>
       </c>
       <c r="F30" s="24">
         <f>IF(Kalibratiemetingen!C30&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C30+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.172281997427957</v>
+        <v>13.355294219107678</v>
       </c>
       <c r="G30" s="12">
         <v>13.1</v>
@@ -6306,11 +7605,11 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="2"/>
-        <v>-0.50186982826903836</v>
+        <v>-0.68687098918286082</v>
       </c>
       <c r="F32" s="24">
         <f>IF(Kalibratiemetingen!C32&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C32+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.101869828269038</v>
+        <v>13.28687098918286</v>
       </c>
       <c r="G32" s="12">
         <v>12.6</v>
@@ -6367,11 +7666,11 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="2"/>
-        <v>-5.4987666079869157E-2</v>
+        <v>-0.27520962593087717</v>
       </c>
       <c r="F33" s="24">
         <f>IF(Kalibratiemetingen!C33&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C33+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.85498766607987</v>
+        <v>12.075209625930878</v>
       </c>
       <c r="G33" s="12">
         <v>11.8</v>
@@ -6428,11 +7727,11 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="2"/>
-        <v>-0.31138998853011479</v>
+        <v>-0.48764810406070502</v>
       </c>
       <c r="F34" s="24">
         <f>IF(Kalibratiemetingen!C34&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C34+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.411389988530114</v>
+        <v>13.587648104060705</v>
       </c>
       <c r="G34" s="12">
         <v>13.1</v>
@@ -6489,11 +7788,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="2"/>
-        <v>-0.77787060920794637</v>
+        <v>-0.9409520023126241</v>
       </c>
       <c r="F35" s="24">
         <f>IF(Kalibratiemetingen!C35&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C35+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.877870609207946</v>
+        <v>14.040952002312624</v>
       </c>
       <c r="G35" s="12">
         <v>13.1</v>
@@ -6550,11 +7849,11 @@
       </c>
       <c r="E36" s="26">
         <f t="shared" si="2"/>
-        <v>-0.27565540794253529</v>
+        <v>-0.43032524553633245</v>
       </c>
       <c r="F36" s="24">
         <f>IF(Kalibratiemetingen!C36&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C36+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.175655407942536</v>
+        <v>14.330325245536333</v>
       </c>
       <c r="G36" s="12">
         <v>13.9</v>
@@ -6611,11 +7910,11 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="2"/>
-        <v>-0.32974131189444478</v>
+        <v>-0.51395518436143206</v>
       </c>
       <c r="F37" s="24">
         <f>IF(Kalibratiemetingen!C37&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C37+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.129741311894445</v>
+        <v>13.313955184361433</v>
       </c>
       <c r="G37" s="12">
         <v>12.8</v>
@@ -6672,11 +7971,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="2"/>
-        <v>-0.29656028547230484</v>
+        <v>-0.52125735860003708</v>
       </c>
       <c r="F38" s="24">
         <f>IF(Kalibratiemetingen!C38&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C38+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.696560285472305</v>
+        <v>11.921257358600037</v>
       </c>
       <c r="G38" s="12">
         <v>11.4</v>
@@ -6733,11 +8032,11 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="2"/>
-        <v>0.15708604834664719</v>
+        <v>-9.8074782900550161E-3</v>
       </c>
       <c r="F39" s="24">
         <f>IF(Kalibratiemetingen!C39&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C39+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.742913951653353</v>
+        <v>13.909807478290055</v>
       </c>
       <c r="G39" s="12">
         <v>13.9</v>
@@ -6794,11 +8093,11 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="2"/>
-        <v>-0.35620515924581397</v>
+        <v>-0.57356801894780496</v>
       </c>
       <c r="F40" s="24">
         <f>IF(Kalibratiemetingen!C40&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C40+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.956205159245814</v>
+        <v>12.173568018947805</v>
       </c>
       <c r="G40" s="12">
         <v>11.6</v>
@@ -6859,7 +8158,7 @@
       </c>
       <c r="F41" s="24">
         <f>IF(Kalibratiemetingen!C41&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C41+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.321907856890657</v>
+        <v>13.500693582697917</v>
       </c>
       <c r="I41" s="2">
         <f>IF(IF(Kalibratiemetingen!C41&gt;0,1,0)+IF(Kalibratiemetingen!G41&gt;0,1,0)=2,1,0)</f>
@@ -6913,11 +8212,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="2"/>
-        <v>-0.21703788422687964</v>
+        <v>-0.407260010630214</v>
       </c>
       <c r="F42" s="24">
         <f>IF(Kalibratiemetingen!C42&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C42+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.917037884226879</v>
+        <v>13.107260010630213</v>
       </c>
       <c r="G42" s="12">
         <v>12.7</v>
@@ -6978,7 +8277,7 @@
       </c>
       <c r="F43" s="24">
         <f>IF(Kalibratiemetingen!C43&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C43+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.32630861746309</v>
+        <v>13.504970034568217</v>
       </c>
       <c r="I43" s="2">
         <f>IF(IF(Kalibratiemetingen!C43&gt;0,1,0)+IF(Kalibratiemetingen!G43&gt;0,1,0)=2,1,0)</f>
@@ -7029,11 +8328,11 @@
       </c>
       <c r="E44" s="26">
         <f t="shared" si="2"/>
-        <v>-0.40065233510309461</v>
+        <v>-0.58851259616593588</v>
       </c>
       <c r="F44" s="24">
         <f>IF(Kalibratiemetingen!C44&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C44+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.000652335103094</v>
+        <v>13.188512596165936</v>
       </c>
       <c r="G44" s="12">
         <v>12.6</v>
@@ -7090,11 +8389,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="2"/>
-        <v>0.31036438730717997</v>
+        <v>0.13066706435095732</v>
       </c>
       <c r="F45" s="24">
         <f>IF(Kalibratiemetingen!C45&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C45+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.28963561269282</v>
+        <v>13.469332935649042</v>
       </c>
       <c r="G45" s="12">
         <v>13.6</v>
@@ -7151,11 +8450,11 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="2"/>
-        <v>-0.21020213732255932</v>
+        <v>-0.40626677272606138</v>
       </c>
       <c r="F46" s="24">
         <f>IF(Kalibratiemetingen!C46&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C46+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.710202137322559</v>
+        <v>12.906266772726061</v>
       </c>
       <c r="G46" s="12">
         <v>12.5</v>
@@ -7212,11 +8511,11 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="2"/>
-        <v>-2.1276497013644757E-4</v>
+        <v>-0.21633253765081406</v>
       </c>
       <c r="F47" s="24">
         <f>IF(Kalibratiemetingen!C47&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C47+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.000212764970136</v>
+        <v>12.216332537650814</v>
       </c>
       <c r="G47" s="12">
         <v>12</v>
@@ -7273,11 +8572,11 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="2"/>
-        <v>-0.10096104604473766</v>
+        <v>-0.32553381047033803</v>
       </c>
       <c r="F48" s="24">
         <f>IF(Kalibratiemetingen!C48&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C48+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.700961046044737</v>
+        <v>11.925533810470338</v>
       </c>
       <c r="G48" s="12">
         <v>11.6</v>
@@ -7334,11 +8633,11 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="2"/>
-        <v>0.24073014118124902</v>
+        <v>8.8422168927944966E-2</v>
       </c>
       <c r="F49" s="24">
         <f>IF(Kalibratiemetingen!C49&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C49+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.259269858818751</v>
+        <v>14.411577831072055</v>
       </c>
       <c r="G49" s="12">
         <v>14.5</v>
@@ -7395,11 +8694,11 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="2"/>
-        <v>-0.18279986578849794</v>
+        <v>-0.36833969774488828</v>
       </c>
       <c r="F50" s="24">
         <f>IF(Kalibratiemetingen!C50&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C50+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.082799865788498</v>
+        <v>13.268339697744889</v>
       </c>
       <c r="G50" s="12">
         <v>12.9</v>
@@ -7456,11 +8755,11 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="2"/>
-        <v>-0.57300063654416711</v>
+        <v>-0.74751843024492182</v>
       </c>
       <c r="F51" s="24">
         <f>IF(Kalibratiemetingen!C51&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C51+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.473000636544167</v>
+        <v>13.647518430244922</v>
       </c>
       <c r="G51" s="12">
         <v>12.9</v>
@@ -7517,11 +8816,11 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="2"/>
-        <v>-0.75296260792255154</v>
+        <v>-0.93369583672986423</v>
       </c>
       <c r="F52" s="24">
         <f>IF(Kalibratiemetingen!C52&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C52+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.252962607922552</v>
+        <v>13.433695836729864</v>
       </c>
       <c r="G52" s="12">
         <v>12.5</v>
@@ -7581,11 +8880,11 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="2"/>
-        <v>0.27322217044556396</v>
+        <v>0.10587284523438178</v>
       </c>
       <c r="F53" s="24">
         <f>IF(Kalibratiemetingen!C53&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C53+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.726777829554436</v>
+        <v>13.894127154765618</v>
       </c>
       <c r="G53" s="12">
         <v>14</v>
@@ -7642,11 +8941,11 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="2"/>
-        <v>7.7872358042863965E-2</v>
+        <v>-8.6783611955475237E-2</v>
       </c>
       <c r="F54" s="24">
         <f>IF(Kalibratiemetingen!C54&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C54+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.822127641957136</v>
+        <v>13.986783611955476</v>
       </c>
       <c r="G54" s="12">
         <v>13.9</v>
@@ -7703,11 +9002,11 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="2"/>
-        <v>-0.42849417677011203</v>
+        <v>-0.59861972966222865</v>
       </c>
       <c r="F55" s="24">
         <f>IF(Kalibratiemetingen!C55&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C55+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.628494176770111</v>
+        <v>13.798619729662228</v>
       </c>
       <c r="G55" s="12">
         <v>13.2</v>
@@ -7764,11 +9063,11 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="2"/>
-        <v>-0.63801433703118704</v>
+        <v>-0.79939684454007143</v>
       </c>
       <c r="F56" s="24">
         <f>IF(Kalibratiemetingen!C56&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C56+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.938014337031188</v>
+        <v>14.099396844540072</v>
       </c>
       <c r="G56" s="12">
         <v>13.3</v>
@@ -7825,11 +9124,11 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="2"/>
-        <v>-0.85836107659444849</v>
+        <v>-1.0502406523595322</v>
       </c>
       <c r="F57" s="24">
         <f>IF(Kalibratiemetingen!C57&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C57+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.858361076594448</v>
+        <v>13.050240652359532</v>
       </c>
       <c r="G57" s="12">
         <v>12</v>
@@ -7886,11 +9185,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="2"/>
-        <v>-0.77737175515821377</v>
+        <v>-0.93481782043294004</v>
       </c>
       <c r="F58" s="24">
         <f>IF(Kalibratiemetingen!C58&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C58+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.077371755158214</v>
+        <v>14.234817820432941</v>
       </c>
       <c r="G58" s="12">
         <v>13.3</v>
@@ -7947,11 +9246,11 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="2"/>
-        <v>-0.49303866516578765</v>
+        <v>-0.66134102375997728</v>
       </c>
       <c r="F59" s="24">
         <f>IF(Kalibratiemetingen!C59&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C59+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.693038665165787</v>
+        <v>13.861341023759977</v>
       </c>
       <c r="G59" s="12">
         <v>13.2</v>
@@ -8008,11 +9307,11 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="2"/>
-        <v>-0.64219531253714024</v>
+        <v>-0.81758326715281271</v>
       </c>
       <c r="F60" s="24">
         <f>IF(Kalibratiemetingen!C60&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C60+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.442195312537141</v>
+        <v>13.617583267152813</v>
       </c>
       <c r="G60" s="12">
         <v>12.8</v>
@@ -8069,11 +9368,11 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="2"/>
-        <v>0.16120773993582382</v>
+        <v>-2.5575179041878116E-2</v>
       </c>
       <c r="F61" s="24">
         <f>IF(Kalibratiemetingen!C61&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C61+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.038792260064175</v>
+        <v>13.225575179041877</v>
       </c>
       <c r="G61" s="12">
         <v>13.2</v>
@@ -8130,11 +9429,11 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="2"/>
-        <v>-0.36591546261498209</v>
+        <v>-0.5434581014009261</v>
       </c>
       <c r="F62" s="24">
         <f>IF(Kalibratiemetingen!C62&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C62+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.365915462614982</v>
+        <v>13.543458101400926</v>
       </c>
       <c r="G62" s="12">
         <v>13</v>
@@ -8191,11 +9490,11 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="2"/>
-        <v>-0.61703788422687822</v>
+        <v>-0.80726001063021258</v>
       </c>
       <c r="F63" s="24">
         <f>IF(Kalibratiemetingen!C63&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C63+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.917037884226879</v>
+        <v>13.107260010630213</v>
       </c>
       <c r="G63" s="12">
         <v>12.3</v>
@@ -8252,11 +9551,11 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="2"/>
-        <v>-0.6226264960068697</v>
+        <v>-0.79291779383515859</v>
       </c>
       <c r="F64" s="24">
         <f>IF(Kalibratiemetingen!C64&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C64+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.62262649600687</v>
+        <v>13.792917793835159</v>
       </c>
       <c r="G64" s="12">
         <v>13</v>
@@ -8313,11 +9612,11 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="2"/>
-        <v>-0.67568504990092215</v>
+        <v>-0.8473023072186141</v>
       </c>
       <c r="F65" s="24">
         <f>IF(Kalibratiemetingen!C65&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C65+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.575685049900923</v>
+        <v>13.747302307218614</v>
       </c>
       <c r="G65" s="12">
         <v>12.9</v>
@@ -8374,11 +9673,11 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="2"/>
-        <v>-0.51878387340094534</v>
+        <v>-0.7287296472091036</v>
       </c>
       <c r="F66" s="24">
         <f>IF(Kalibratiemetingen!C66&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C66+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.218783873400945</v>
+        <v>12.428729647209103</v>
       </c>
       <c r="G66" s="12">
         <v>11.7</v>
@@ -8435,11 +9734,11 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="2"/>
-        <v>-0.51136034657172758</v>
+        <v>-0.67067104237842301</v>
       </c>
       <c r="F67" s="24">
         <f>IF(Kalibratiemetingen!C67&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C67+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.011360346571728</v>
+        <v>14.170671042378423</v>
       </c>
       <c r="G67" s="12">
         <v>13.5</v>
@@ -8499,11 +9798,11 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="2"/>
-        <v>-0.22531090936362475</v>
+        <v>-0.39270167080885088</v>
       </c>
       <c r="F68" s="24">
         <f>IF(Kalibratiemetingen!C68&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C68+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.725310909363625</v>
+        <v>13.892701670808851</v>
       </c>
       <c r="G68" s="12">
         <v>13.5</v>
@@ -8562,12 +9861,12 @@
         <v>31</v>
       </c>
       <c r="E69" s="26">
-        <f t="shared" ref="E69:E103" si="5">IF(I69,G69-F69,TRIM(""))</f>
-        <v>0.31822748426935554</v>
+        <f t="shared" ref="E69:E117" si="5">IF(I69,G69-F69,TRIM(""))</f>
+        <v>0.16090572769675937</v>
       </c>
       <c r="F69" s="24">
         <f>IF(Kalibratiemetingen!C69&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C69+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.081772515730645</v>
+        <v>14.239094272303241</v>
       </c>
       <c r="G69" s="12">
         <v>14.4</v>
@@ -8601,7 +9900,7 @@
         <v>19</v>
       </c>
       <c r="R69">
-        <f t="shared" ref="R69:R116" si="6">G69*C69</f>
+        <f t="shared" ref="R69:R117" si="6">G69*C69</f>
         <v>79560</v>
       </c>
       <c r="S69">
@@ -8624,11 +9923,11 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="5"/>
-        <v>-0.8879489074355309</v>
+        <v>-1.0818174224347139</v>
       </c>
       <c r="F70" s="24">
         <f>IF(Kalibratiemetingen!C70&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C70+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.787948907435531</v>
+        <v>12.981817422434714</v>
       </c>
       <c r="G70" s="12">
         <v>11.9</v>
@@ -8685,11 +9984,11 @@
       </c>
       <c r="E71" s="26">
         <f t="shared" si="5"/>
-        <v>-0.16578460342366519</v>
+        <v>-0.40829925719020999</v>
       </c>
       <c r="F71" s="24">
         <f>IF(Kalibratiemetingen!C71&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C71+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.065784603423666</v>
+        <v>11.30829925719021</v>
       </c>
       <c r="G71" s="12">
         <v>10.9</v>
@@ -8746,11 +10045,11 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="5"/>
-        <v>-0.54706528520091879</v>
+        <v>-0.71101683922051606</v>
       </c>
       <c r="F72" s="24">
         <f>IF(Kalibratiemetingen!C72&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C72+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.84706528520092</v>
+        <v>14.011016839220517</v>
       </c>
       <c r="G72" s="12">
         <v>13.3</v>
@@ -8807,11 +10106,11 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="5"/>
-        <v>-0.21294583459608951</v>
+        <v>-0.44000477306431662</v>
       </c>
       <c r="F73" s="24">
         <f>IF(Kalibratiemetingen!C73&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C73+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.61294583459609</v>
+        <v>11.840004773064317</v>
       </c>
       <c r="G73" s="12">
         <v>11.4</v>
@@ -8868,11 +10167,11 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="5"/>
-        <v>-0.27886831730741335</v>
+        <v>-0.45322036607198868</v>
       </c>
       <c r="F74" s="24">
         <f>IF(Kalibratiemetingen!C74&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C74+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.478868317307413</v>
+        <v>13.653220366071988</v>
       </c>
       <c r="G74" s="12">
         <v>13.2</v>
@@ -8929,11 +10228,11 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="5"/>
-        <v>-2.7745895695511891E-2</v>
+        <v>-0.1894184568427022</v>
       </c>
       <c r="F75" s="24">
         <f>IF(Kalibratiemetingen!C75&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C75+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.927745895695512</v>
+        <v>14.089418456842703</v>
       </c>
       <c r="G75" s="12">
         <v>13.9</v>
@@ -8990,11 +10289,11 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="5"/>
-        <v>-0.31092077643877047</v>
+        <v>-0.49849098386330581</v>
       </c>
       <c r="F76" s="24">
         <f>IF(Kalibratiemetingen!C76&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C76+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.01092077643877</v>
+        <v>13.198490983863305</v>
       </c>
       <c r="G76" s="12">
         <v>12.7</v>
@@ -9055,7 +10354,7 @@
       </c>
       <c r="F77" s="24">
         <f>IF(Kalibratiemetingen!C77&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C77+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.051994541781472</v>
+        <v>13.23840453465278</v>
       </c>
       <c r="I77" s="2">
         <f>IF(IF(Kalibratiemetingen!C77&gt;0,1,0)+IF(Kalibratiemetingen!G77&gt;0,1,0)=2,1,0)</f>
@@ -9109,11 +10408,11 @@
       </c>
       <c r="E78" s="26">
         <f t="shared" si="5"/>
-        <v>-0.46594510457336824</v>
+        <v>-0.66043516308320704</v>
       </c>
       <c r="F78" s="24">
         <f>IF(Kalibratiemetingen!C78&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C78+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.765945104573369</v>
+        <v>12.960435163083208</v>
       </c>
       <c r="G78" s="12">
         <v>12.3</v>
@@ -9170,11 +10469,11 @@
       </c>
       <c r="E79" s="26">
         <f t="shared" si="5"/>
-        <v>-0.19303866516578694</v>
+        <v>-0.36134102375997657</v>
       </c>
       <c r="F79" s="24">
         <f>IF(Kalibratiemetingen!C79&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C79+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.693038665165787</v>
+        <v>13.861341023759977</v>
       </c>
       <c r="G79" s="12">
         <v>13.5</v>
@@ -9235,7 +10534,7 @@
       </c>
       <c r="F80" s="24">
         <f>IF(Kalibratiemetingen!C80&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C80+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.082799865788498</v>
+        <v>13.268339697744889</v>
       </c>
       <c r="I80" s="2">
         <f>IF(IF(Kalibratiemetingen!C80&gt;0,1,0)+IF(Kalibratiemetingen!G80&gt;0,1,0)=2,1,0)</f>
@@ -9289,11 +10588,11 @@
       </c>
       <c r="E81" s="26">
         <f t="shared" si="5"/>
-        <v>0.55618955748010812</v>
+        <v>0.29610594047901273</v>
       </c>
       <c r="F81" s="24">
         <f>IF(Kalibratiemetingen!C81&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C81+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>10.443810442519892</v>
+        <v>10.703894059520987</v>
       </c>
       <c r="G81" s="12">
         <v>11</v>
@@ -9350,11 +10649,11 @@
       </c>
       <c r="E82" s="26">
         <f t="shared" si="5"/>
-        <v>-0.51853444637607815</v>
+        <v>-0.72566255626926157</v>
       </c>
       <c r="F82" s="24">
         <f>IF(Kalibratiemetingen!C82&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C82+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.318534446376079</v>
+        <v>12.525662556269262</v>
       </c>
       <c r="G82" s="12">
         <v>11.8</v>
@@ -9411,11 +10710,11 @@
       </c>
       <c r="E83" s="26">
         <f t="shared" si="5"/>
-        <v>-0.40283789441011741</v>
+        <v>-0.58216229125994445</v>
       </c>
       <c r="F83" s="24">
         <f>IF(Kalibratiemetingen!C83&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C83+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.302837894410118</v>
+        <v>13.482162291259945</v>
       </c>
       <c r="G83" s="12">
         <v>12.9</v>
@@ -9472,11 +10771,11 @@
       </c>
       <c r="E84" s="26">
         <f t="shared" si="5"/>
-        <v>0.21317965985524978</v>
+        <v>-3.4390214464632862E-2</v>
       </c>
       <c r="F84" s="24">
         <f>IF(Kalibratiemetingen!C84&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C84+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>10.88682034014475</v>
+        <v>11.134390214464633</v>
       </c>
       <c r="G84" s="12">
         <v>11.1</v>
@@ -9533,11 +10832,11 @@
       </c>
       <c r="E85" s="26">
         <f t="shared" si="5"/>
-        <v>0.63147169930280356</v>
+        <v>0.3579627424715337</v>
       </c>
       <c r="F85" s="24">
         <f>IF(Kalibratiemetingen!C85&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C85+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>9.9685283006971961</v>
+        <v>10.242037257528466</v>
       </c>
       <c r="G85" s="12">
         <v>10.6</v>
@@ -9594,11 +10893,11 @@
       </c>
       <c r="E86" s="26">
         <f t="shared" si="5"/>
-        <v>-8.6012775153374577E-2</v>
+        <v>-0.29123481828054487</v>
       </c>
       <c r="F86" s="24">
         <f>IF(Kalibratiemetingen!C86&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C86+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.386012775153375</v>
+        <v>12.591234818280546</v>
       </c>
       <c r="G86" s="12">
         <v>12.3</v>
@@ -9655,11 +10954,11 @@
       </c>
       <c r="E87" s="26">
         <f t="shared" si="5"/>
-        <v>7.3940809561776177E-2</v>
+        <v>-0.10190294362837449</v>
       </c>
       <c r="F87" s="24">
         <f>IF(Kalibratiemetingen!C87&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C87+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.426059190438224</v>
+        <v>13.601902943628374</v>
       </c>
       <c r="G87" s="12">
         <v>13.5</v>
@@ -9716,11 +11015,11 @@
       </c>
       <c r="E88" s="26">
         <f t="shared" si="5"/>
-        <v>1.9914189526643256E-2</v>
+        <v>-0.15157875908891505</v>
       </c>
       <c r="F88" s="24">
         <f>IF(Kalibratiemetingen!C88&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C88+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.580085810473356</v>
+        <v>13.751578759088915</v>
       </c>
       <c r="G88" s="12">
         <v>13.6</v>
@@ -9780,11 +11079,11 @@
       </c>
       <c r="E89" s="26">
         <f t="shared" si="5"/>
-        <v>0.10792940097529069</v>
+        <v>-6.6049721682892581E-2</v>
       </c>
       <c r="F89" s="24">
         <f>IF(Kalibratiemetingen!C89&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C89+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.492070599024709</v>
+        <v>13.666049721682892</v>
       </c>
       <c r="G89" s="12">
         <v>13.6</v>
@@ -9844,11 +11143,11 @@
       </c>
       <c r="E90" s="26">
         <f t="shared" si="5"/>
-        <v>-0.30848579010688226</v>
+        <v>-0.50177419782945165</v>
       </c>
       <c r="F90" s="24">
         <f>IF(Kalibratiemetingen!C90&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C90+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.808485790106882</v>
+        <v>13.001774197829452</v>
       </c>
       <c r="G90" s="12">
         <v>12.5</v>
@@ -9905,11 +11204,11 @@
       </c>
       <c r="E91" s="26">
         <f t="shared" si="5"/>
-        <v>-0.54294359361174038</v>
+        <v>-0.72678453997233738</v>
       </c>
       <c r="F91" s="24">
         <f>IF(Kalibratiemetingen!C91&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C91+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.14294359361174</v>
+        <v>13.326784539972337</v>
       </c>
       <c r="G91" s="12">
         <v>12.6</v>
@@ -9966,11 +11265,11 @@
       </c>
       <c r="E92" s="26">
         <f t="shared" si="5"/>
-        <v>-0.33738462379013967</v>
+        <v>-0.55810381844967338</v>
       </c>
       <c r="F92" s="24">
         <f>IF(Kalibratiemetingen!C92&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C92+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.83738462379014</v>
+        <v>12.058103818449673</v>
       </c>
       <c r="G92" s="12">
         <v>11.5</v>
@@ -10027,11 +11326,11 @@
       </c>
       <c r="E93" s="26">
         <f t="shared" si="5"/>
-        <v>-0.40314660535175939</v>
+        <v>-0.61918350556434909</v>
       </c>
       <c r="F93" s="24">
         <f>IF(Kalibratiemetingen!C93&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C93+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.003146605351759</v>
+        <v>12.219183505564349</v>
       </c>
       <c r="G93" s="12">
         <v>11.6</v>
@@ -10088,11 +11387,11 @@
       </c>
       <c r="E94" s="26">
         <f t="shared" si="5"/>
-        <v>0.16732484772393619</v>
+        <v>-1.6806152274966735E-2</v>
       </c>
       <c r="F94" s="24">
         <f>IF(Kalibratiemetingen!C94&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C94+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.132675152276065</v>
+        <v>13.316806152274967</v>
       </c>
       <c r="G94" s="12">
         <v>13.3</v>
@@ -10149,11 +11448,11 @@
       </c>
       <c r="E95" s="26">
         <f t="shared" si="5"/>
-        <v>-0.53195651315985337</v>
+        <v>-0.72458194113772478</v>
       </c>
       <c r="F95" s="24">
         <f>IF(Kalibratiemetingen!C95&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C95+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.831956513159854</v>
+        <v>13.024581941137725</v>
       </c>
       <c r="G95" s="12">
         <v>12.3</v>
@@ -10210,11 +11509,11 @@
       </c>
       <c r="E96" s="26">
         <f t="shared" si="5"/>
-        <v>-0.46035649279338031</v>
+        <v>-0.67477737987826281</v>
       </c>
       <c r="F96" s="24">
         <f>IF(Kalibratiemetingen!C96&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C96+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.06035649279338</v>
+        <v>12.274777379878262</v>
       </c>
       <c r="G96" s="12">
         <v>11.6</v>
@@ -10271,11 +11570,11 @@
       </c>
       <c r="E97" s="26">
         <f t="shared" si="5"/>
-        <v>0.11298951674715951</v>
+        <v>-0.10350318203991193</v>
       </c>
       <c r="F97" s="24">
         <f>IF(Kalibratiemetingen!C97&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C97+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.98701048325284</v>
+        <v>12.203503182039912</v>
       </c>
       <c r="G97" s="12">
         <v>12.1</v>
@@ -10332,11 +11631,11 @@
       </c>
       <c r="E98" s="26">
         <f t="shared" si="5"/>
-        <v>1.5123598035061097</v>
+        <v>1.3552037918696893</v>
       </c>
       <c r="F98" s="24">
         <f>IF(Kalibratiemetingen!C98&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C98+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.08764019649389</v>
+        <v>14.24479620813031</v>
       </c>
       <c r="G98" s="12">
         <v>15.6</v>
@@ -10393,11 +11692,11 @@
       </c>
       <c r="E99" s="26">
         <f>IF(I99,G99-F99,TRIM(""))</f>
-        <v>1.3759362257607091</v>
+        <v>1.2226337838903536</v>
       </c>
       <c r="F99" s="24">
         <f>IF(Kalibratiemetingen!C99&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C99+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.224063774239291</v>
+        <v>14.377366216109646</v>
       </c>
       <c r="G99" s="12">
         <v>15.6</v>
@@ -10457,11 +11756,11 @@
       </c>
       <c r="E100" s="26">
         <f>IF(I100,G100-F100,TRIM(""))</f>
-        <v>1.4976906015980038</v>
+        <v>1.3409489523020195</v>
       </c>
       <c r="F100" s="24">
         <f>IF(Kalibratiemetingen!C100&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C100+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.102309398401996</v>
+        <v>14.25905104769798</v>
       </c>
       <c r="G100" s="12">
         <v>15.6</v>
@@ -10518,11 +11817,11 @@
       </c>
       <c r="E101" s="26">
         <f t="shared" si="5"/>
-        <v>1.5167605640785435</v>
+        <v>1.3594802437399895</v>
       </c>
       <c r="F101" s="24">
         <f>IF(Kalibratiemetingen!C101&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C101+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.083239435921456</v>
+        <v>14.24051975626001</v>
       </c>
       <c r="G101" s="12">
         <v>15.6</v>
@@ -10568,298 +11867,709 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E102" s="26" t="str">
+      <c r="A102">
+        <v>9452</v>
+      </c>
+      <c r="B102" s="13">
+        <v>21144</v>
+      </c>
+      <c r="C102" s="13">
+        <v>4579</v>
+      </c>
+      <c r="D102" s="13">
+        <v>29</v>
+      </c>
+      <c r="E102" s="26">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F102" s="24" t="str">
+        <v>-0.69058644920162493</v>
+      </c>
+      <c r="F102" s="24">
         <f>IF(Kalibratiemetingen!C102&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C102+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>12.890586449201624</v>
+      </c>
+      <c r="G102" s="12">
+        <v>12.2</v>
+      </c>
+      <c r="H102" s="12">
+        <v>29.6</v>
       </c>
       <c r="I102" s="2">
         <f>IF(IF(Kalibratiemetingen!C102&gt;0,1,0)+IF(Kalibratiemetingen!G102&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M102" t="s">
+        <v>15</v>
       </c>
       <c r="R102">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>55863.799999999996</v>
       </c>
       <c r="S102">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20967241</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E103" s="26" t="str">
+      <c r="A103">
+        <v>9452</v>
+      </c>
+      <c r="B103" s="13">
+        <v>21261</v>
+      </c>
+      <c r="C103" s="13">
+        <v>3844</v>
+      </c>
+      <c r="D103" s="13">
+        <v>30</v>
+      </c>
+      <c r="E103" s="26">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F103" s="24" t="str">
+        <v>0.35714425902214941</v>
+      </c>
+      <c r="F103" s="24">
         <f>IF(Kalibratiemetingen!C103&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C103+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>11.84285574097785</v>
+      </c>
+      <c r="G103" s="12">
+        <v>12.2</v>
+      </c>
+      <c r="H103" s="12">
+        <v>29.6</v>
       </c>
       <c r="I103" s="2">
         <f>IF(IF(Kalibratiemetingen!C103&gt;0,1,0)+IF(Kalibratiemetingen!G103&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M103" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>126</v>
       </c>
       <c r="R103">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>46896.799999999996</v>
       </c>
       <c r="S103">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14776336</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F104" s="24" t="str">
+      <c r="A104">
+        <v>9453</v>
+      </c>
+      <c r="B104" s="13">
+        <v>21293</v>
+      </c>
+      <c r="C104" s="13">
+        <v>3203</v>
+      </c>
+      <c r="D104" s="13">
+        <v>30</v>
+      </c>
+      <c r="E104" s="26">
+        <f t="shared" si="5"/>
+        <v>0.17087947530981928</v>
+      </c>
+      <c r="F104" s="24">
         <f>IF(Kalibratiemetingen!C104&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C104+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>10.92912052469018</v>
+      </c>
+      <c r="G104" s="12">
+        <v>11.1</v>
+      </c>
+      <c r="H104" s="12">
+        <v>30.1</v>
       </c>
       <c r="I104" s="2">
         <f>IF(IF(Kalibratiemetingen!C104&gt;0,1,0)+IF(Kalibratiemetingen!G104&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M104" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>127</v>
       </c>
       <c r="R104">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>35553.299999999996</v>
       </c>
       <c r="S104">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10259209</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F105" s="24" t="str">
+      <c r="A105">
+        <v>9453</v>
+      </c>
+      <c r="B105" s="13">
+        <v>21363</v>
+      </c>
+      <c r="C105" s="13">
+        <v>2225</v>
+      </c>
+      <c r="D105" s="13">
+        <v>30</v>
+      </c>
+      <c r="E105" s="26">
+        <f t="shared" si="5"/>
+        <v>1.5650027850279837</v>
+      </c>
+      <c r="F105" s="24">
         <f>IF(Kalibratiemetingen!C105&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C105+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>9.5349972149720159</v>
+      </c>
+      <c r="G105" s="12">
+        <v>11.1</v>
+      </c>
+      <c r="H105" s="12">
+        <v>30.1</v>
       </c>
       <c r="I105" s="2">
         <f>IF(IF(Kalibratiemetingen!C105&gt;0,1,0)+IF(Kalibratiemetingen!G105&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M105" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>126</v>
       </c>
       <c r="R105">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>24697.5</v>
       </c>
       <c r="S105">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4950625</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F106" s="24" t="str">
+      <c r="A106">
+        <v>9453</v>
+      </c>
+      <c r="B106" s="13">
+        <v>21350</v>
+      </c>
+      <c r="C106" s="13">
+        <v>2853</v>
+      </c>
+      <c r="D106" s="13">
+        <v>30</v>
+      </c>
+      <c r="E106" s="26">
+        <f t="shared" si="5"/>
+        <v>0.66979886017828427</v>
+      </c>
+      <c r="F106" s="24">
         <f>IF(Kalibratiemetingen!C106&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C106+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>10.430201139821715</v>
+      </c>
+      <c r="G106" s="12">
+        <v>11.1</v>
+      </c>
+      <c r="H106" s="12">
+        <v>30.1</v>
       </c>
       <c r="I106" s="2">
         <f>IF(IF(Kalibratiemetingen!C106&gt;0,1,0)+IF(Kalibratiemetingen!G106&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M106" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>126</v>
       </c>
       <c r="R106">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>31668.3</v>
       </c>
       <c r="S106">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8139609</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F107" s="24" t="str">
+      <c r="A107">
+        <v>9453</v>
+      </c>
+      <c r="B107" s="13">
+        <v>21346</v>
+      </c>
+      <c r="C107" s="13">
+        <v>2915</v>
+      </c>
+      <c r="D107" s="13">
+        <v>30</v>
+      </c>
+      <c r="E107" s="26">
+        <f t="shared" si="5"/>
+        <v>0.58141885485872713</v>
+      </c>
+      <c r="F107" s="24">
         <f>IF(Kalibratiemetingen!C107&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C107+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>10.518581145141273</v>
+      </c>
+      <c r="G107" s="12">
+        <v>11.1</v>
+      </c>
+      <c r="H107" s="12">
+        <v>30.1</v>
       </c>
       <c r="I107" s="2">
         <f>IF(IF(Kalibratiemetingen!C107&gt;0,1,0)+IF(Kalibratiemetingen!G107&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M107" t="s">
+        <v>125</v>
       </c>
       <c r="R107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>32356.5</v>
       </c>
       <c r="S107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8497225</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F108" s="24" t="str">
+      <c r="A108">
+        <v>9453</v>
+      </c>
+      <c r="B108" s="13">
+        <v>21358</v>
+      </c>
+      <c r="C108" s="13">
+        <v>3072</v>
+      </c>
+      <c r="D108" s="13">
+        <v>30</v>
+      </c>
+      <c r="E108" s="26">
+        <f t="shared" si="5"/>
+        <v>0.35761787364630315</v>
+      </c>
+      <c r="F108" s="24">
         <f>IF(Kalibratiemetingen!C108&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C108+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>10.742382126353696</v>
+      </c>
+      <c r="G108" s="12">
+        <v>11.1</v>
+      </c>
+      <c r="H108" s="12">
+        <v>30.1</v>
       </c>
       <c r="I108" s="2">
         <f>IF(IF(Kalibratiemetingen!C108&gt;0,1,0)+IF(Kalibratiemetingen!G108&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M108" t="s">
+        <v>125</v>
       </c>
       <c r="R108">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>34099.199999999997</v>
       </c>
       <c r="S108">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9437184</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F109" s="24" t="str">
+      <c r="A109">
+        <v>9453</v>
+      </c>
+      <c r="B109" s="13">
+        <v>21344</v>
+      </c>
+      <c r="C109" s="13">
+        <v>3376</v>
+      </c>
+      <c r="D109" s="13">
+        <v>30</v>
+      </c>
+      <c r="E109" s="26">
+        <f t="shared" si="5"/>
+        <v>-7.5729249210876759E-2</v>
+      </c>
+      <c r="F109" s="24">
         <f>IF(Kalibratiemetingen!C109&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C109+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>11.175729249210876</v>
+      </c>
+      <c r="G109" s="12">
+        <v>11.1</v>
+      </c>
+      <c r="H109" s="12">
+        <v>30.1</v>
       </c>
       <c r="I109" s="2">
         <f>IF(IF(Kalibratiemetingen!C109&gt;0,1,0)+IF(Kalibratiemetingen!G109&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M109" t="s">
+        <v>15</v>
       </c>
       <c r="R109">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>37473.599999999999</v>
       </c>
       <c r="S109">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>11397376</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F110" s="24" t="str">
+      <c r="A110">
+        <v>9468</v>
+      </c>
+      <c r="B110" s="13">
+        <v>21390</v>
+      </c>
+      <c r="C110" s="13">
+        <v>4890</v>
+      </c>
+      <c r="D110" s="13">
+        <v>30</v>
+      </c>
+      <c r="E110" s="26">
+        <f t="shared" si="5"/>
+        <v>-3.3911959756171228E-2</v>
+      </c>
+      <c r="F110" s="24">
         <f>IF(Kalibratiemetingen!C110&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C110+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>13.333911959756172</v>
+      </c>
+      <c r="G110" s="12">
+        <v>13.3</v>
+      </c>
+      <c r="H110" s="12">
+        <v>30.6</v>
       </c>
       <c r="I110" s="2">
         <f>IF(IF(Kalibratiemetingen!C110&gt;0,1,0)+IF(Kalibratiemetingen!G110&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M110" t="s">
+        <v>15</v>
       </c>
       <c r="R110">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>65037</v>
       </c>
       <c r="S110">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>23912100</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F111" s="24" t="str">
+      <c r="A111">
+        <v>9465</v>
+      </c>
+      <c r="B111" s="13">
+        <v>21378</v>
+      </c>
+      <c r="C111" s="13">
+        <v>5706</v>
+      </c>
+      <c r="D111" s="13">
+        <v>30</v>
+      </c>
+      <c r="E111" s="26">
+        <f t="shared" si="5"/>
+        <v>1.4028931315219264</v>
+      </c>
+      <c r="F111" s="24">
         <f>IF(Kalibratiemetingen!C111&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C111+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>14.497106868478074</v>
+      </c>
+      <c r="G111" s="12">
+        <v>15.9</v>
+      </c>
+      <c r="H111" s="12">
+        <v>30.3</v>
       </c>
       <c r="I111" s="2">
         <f>IF(IF(Kalibratiemetingen!C111&gt;0,1,0)+IF(Kalibratiemetingen!G111&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M111" t="s">
+        <v>15</v>
       </c>
       <c r="R111">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90725.400000000009</v>
       </c>
       <c r="S111">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>32558436</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F112" s="24" t="str">
+      <c r="A112">
+        <v>9465</v>
+      </c>
+      <c r="B112" s="13">
+        <v>21414</v>
+      </c>
+      <c r="C112" s="13">
+        <v>5666</v>
+      </c>
+      <c r="D112" s="13">
+        <v>31</v>
+      </c>
+      <c r="E112" s="26">
+        <f t="shared" si="5"/>
+        <v>1.359912489792606</v>
+      </c>
+      <c r="F112" s="24">
         <f>IF(Kalibratiemetingen!C112&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C112+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>14.440087510207395</v>
+      </c>
+      <c r="G112" s="12">
+        <v>15.8</v>
+      </c>
+      <c r="H112" s="12">
+        <v>30.6</v>
       </c>
       <c r="I112" s="2">
         <f>IF(IF(Kalibratiemetingen!C112&gt;0,1,0)+IF(Kalibratiemetingen!G112&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M112" t="s">
+        <v>15</v>
       </c>
       <c r="R112">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>89522.8</v>
       </c>
       <c r="S112">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F113" s="24" t="str">
+        <v>32103556</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>9465</v>
+      </c>
+      <c r="B113" s="13">
+        <v>21449</v>
+      </c>
+      <c r="C113" s="13">
+        <v>4763</v>
+      </c>
+      <c r="D113" s="13">
+        <v>31</v>
+      </c>
+      <c r="E113" s="26">
+        <f t="shared" si="5"/>
+        <v>2.6471245027532433</v>
+      </c>
+      <c r="F113" s="24">
         <f>IF(Kalibratiemetingen!C113&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C113+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>13.152875497246757</v>
+      </c>
+      <c r="G113" s="12">
+        <v>15.8</v>
+      </c>
+      <c r="H113" s="12">
+        <v>30.6</v>
       </c>
       <c r="I113" s="2">
         <f>IF(IF(Kalibratiemetingen!C113&gt;0,1,0)+IF(Kalibratiemetingen!G113&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M113" t="s">
+        <v>125</v>
       </c>
       <c r="R113">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>75255.400000000009</v>
       </c>
       <c r="S113">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F114" s="24" t="str">
+        <v>22686169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>9465</v>
+      </c>
+      <c r="B114" s="13">
+        <v>21456</v>
+      </c>
+      <c r="C114" s="13">
+        <v>4626</v>
+      </c>
+      <c r="D114" s="13">
+        <v>31</v>
+      </c>
+      <c r="E114" s="26">
+        <f t="shared" si="5"/>
+        <v>2.8424158048303259</v>
+      </c>
+      <c r="F114" s="24">
         <f>IF(Kalibratiemetingen!C114&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C114+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>12.957584195169675</v>
+      </c>
+      <c r="G114" s="12">
+        <v>15.8</v>
+      </c>
+      <c r="H114" s="12">
+        <v>30.6</v>
       </c>
       <c r="I114" s="2">
         <f>IF(IF(Kalibratiemetingen!C114&gt;0,1,0)+IF(Kalibratiemetingen!G114&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M114" t="s">
+        <v>125</v>
       </c>
       <c r="R114">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>73090.8</v>
       </c>
       <c r="S114">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F115" s="24" t="str">
+        <v>21399876</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>9465</v>
+      </c>
+      <c r="B115" s="13">
+        <v>21455</v>
+      </c>
+      <c r="C115" s="13">
+        <v>4891</v>
+      </c>
+      <c r="D115" s="13">
+        <v>31</v>
+      </c>
+      <c r="E115" s="26">
+        <f t="shared" si="5"/>
+        <v>2.4646625562870614</v>
+      </c>
+      <c r="F115" s="24">
         <f>IF(Kalibratiemetingen!C115&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C115+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>13.335337443712939</v>
+      </c>
+      <c r="G115" s="12">
+        <v>15.8</v>
+      </c>
+      <c r="H115" s="12">
+        <v>30.6</v>
       </c>
       <c r="I115" s="2">
         <f>IF(IF(Kalibratiemetingen!C115&gt;0,1,0)+IF(Kalibratiemetingen!G115&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M115" t="s">
+        <v>125</v>
       </c>
       <c r="R115">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>77277.8</v>
       </c>
       <c r="S115">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F116" s="24" t="str">
+        <v>23921881</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>9465</v>
+      </c>
+      <c r="B116" s="13">
+        <v>21473</v>
+      </c>
+      <c r="C116" s="13">
+        <v>4849</v>
+      </c>
+      <c r="D116" s="13">
+        <v>31</v>
+      </c>
+      <c r="E116" s="26">
+        <f t="shared" si="5"/>
+        <v>2.5245328824712772</v>
+      </c>
+      <c r="F116" s="24">
         <f>IF(Kalibratiemetingen!C116&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C116+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>13.275467117528724</v>
+      </c>
+      <c r="G116" s="12">
+        <v>15.8</v>
+      </c>
+      <c r="H116" s="12">
+        <v>30.6</v>
       </c>
       <c r="I116" s="2">
         <f>IF(IF(Kalibratiemetingen!C116&gt;0,1,0)+IF(Kalibratiemetingen!G116&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M116" t="s">
+        <v>125</v>
       </c>
       <c r="R116">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>76614.2</v>
       </c>
       <c r="S116">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F117" s="24" t="str">
+        <v>23512801</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>9465</v>
+      </c>
+      <c r="B117" s="13">
+        <v>21410</v>
+      </c>
+      <c r="C117" s="13">
+        <v>5505</v>
+      </c>
+      <c r="D117" s="13">
+        <v>31</v>
+      </c>
+      <c r="E117" s="26">
+        <f t="shared" si="5"/>
+        <v>1.5894154068320994</v>
+      </c>
+      <c r="F117" s="24">
         <f>IF(Kalibratiemetingen!C117&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C117+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>14.210584593167901</v>
+      </c>
+      <c r="G117" s="12">
+        <v>15.8</v>
+      </c>
+      <c r="H117" s="12">
+        <v>30.6</v>
       </c>
       <c r="I117" s="2">
         <f>IF(IF(Kalibratiemetingen!C117&gt;0,1,0)+IF(Kalibratiemetingen!G117&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M117" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>128</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="6"/>
+        <v>86979</v>
       </c>
       <c r="S117">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="6:19" x14ac:dyDescent="0.25">
+        <v>30305025</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F118" s="24" t="str">
         <f>IF(Kalibratiemetingen!C118&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C118+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -10873,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F119" s="24" t="str">
         <f>IF(Kalibratiemetingen!C119&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C119+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -10887,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F120" s="24" t="str">
         <f>IF(Kalibratiemetingen!C120&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C120+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -10901,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F121" s="24" t="str">
         <f>IF(Kalibratiemetingen!C121&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C121+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -10915,7 +12625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F122" s="24" t="str">
         <f>IF(Kalibratiemetingen!C122&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C122+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -10929,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F123" s="24" t="str">
         <f>IF(Kalibratiemetingen!C123&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C123+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -10943,7 +12653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F124" s="24" t="str">
         <f>IF(Kalibratiemetingen!C124&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C124+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -10957,7 +12667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F125" s="24" t="str">
         <f>IF(Kalibratiemetingen!C125&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C125+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -10971,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F126" s="24" t="str">
         <f>IF(Kalibratiemetingen!C126&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C126+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -10985,7 +12695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F127" s="24" t="str">
         <f>IF(Kalibratiemetingen!C127&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C127+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -10999,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F128" s="24" t="str">
         <f>IF(Kalibratiemetingen!C128&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C128+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -15242,7 +16952,7 @@
       </c>
       <c r="R1">
         <f>COUNTIF(V3:V50000,"=1")</f>
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="17:29" x14ac:dyDescent="0.25">
@@ -15251,7 +16961,7 @@
       </c>
       <c r="R2" s="18">
         <f>-SUM(W3:W50000)</f>
-        <v>-5757495.1000000006</v>
+        <v>-6690606.5</v>
       </c>
       <c r="T2" t="s">
         <v>95</v>
@@ -15279,7 +16989,7 @@
       </c>
       <c r="AC2">
         <f>MAX(AA3:AA50000)</f>
-        <v>2.6195042613520769</v>
+        <v>2.4932182440782462</v>
       </c>
     </row>
     <row r="3" spans="17:29" x14ac:dyDescent="0.25">
@@ -15288,7 +16998,7 @@
       </c>
       <c r="R3">
         <f>AVERAGEIF(V3:V50000,"=1",T3:T50000)</f>
-        <v>12.901075268817197</v>
+        <v>12.979816513761454</v>
       </c>
       <c r="T3">
         <f>Kalibratiemetingen!G19</f>
@@ -15312,18 +17022,18 @@
       </c>
       <c r="Z3">
         <f>IF(V3,$R$13*U3+$R$14)</f>
-        <v>8.4414643820631667</v>
+        <v>8.7581084585339806</v>
       </c>
       <c r="AA3">
         <f>ABS(T3-Z3)</f>
-        <v>1.358535617936834</v>
+        <v>1.0418915414660201</v>
       </c>
       <c r="AB3" s="17" t="s">
         <v>108</v>
       </c>
       <c r="AC3">
         <f>MIN(AA3:AA50000)</f>
-        <v>2.1276497013644757E-4</v>
+        <v>9.8074782900550161E-3</v>
       </c>
     </row>
     <row r="4" spans="17:29" x14ac:dyDescent="0.25">
@@ -15332,7 +17042,7 @@
       </c>
       <c r="R4">
         <f>AVERAGEIF(V3:V50000,"=1",U3:U50000)</f>
-        <v>4720.1182795698924</v>
+        <v>4641.5963302752298</v>
       </c>
       <c r="T4">
         <f>Kalibratiemetingen!G85</f>
@@ -15356,18 +17066,18 @@
       </c>
       <c r="Z4">
         <f t="shared" ref="Z4:Z67" si="3">IF(V4,$R$13*U4+$R$14)</f>
-        <v>9.9685283006971961</v>
+        <v>10.242037257528466</v>
       </c>
       <c r="AA4">
         <f t="shared" ref="AA4:AA67" si="4">ABS(T4-Z4)</f>
-        <v>0.63147169930280356</v>
+        <v>0.3579627424715337</v>
       </c>
       <c r="AB4" s="17" t="s">
         <v>109</v>
       </c>
       <c r="AC4">
         <f>AVERAGEIF(V3:V50000,"=1",AA3:AA50000)</f>
-        <v>0.44521649339023267</v>
+        <v>0.51561512786493124</v>
       </c>
     </row>
     <row r="5" spans="17:29" x14ac:dyDescent="0.25">
@@ -15376,7 +17086,7 @@
       </c>
       <c r="R5">
         <f>SUMIF(V3:V50000,"=1",U3:U50000)/R1</f>
-        <v>4720.1182795698924</v>
+        <v>4641.5963302752298</v>
       </c>
       <c r="T5">
         <f>Kalibratiemetingen!G26</f>
@@ -15400,18 +17110,18 @@
       </c>
       <c r="Z5">
         <f t="shared" si="3"/>
-        <v>10.875084978618263</v>
+        <v>11.122986342810496</v>
       </c>
       <c r="AA5">
         <f t="shared" si="4"/>
-        <v>7.5084978618262355E-2</v>
+        <v>0.32298634281049488</v>
       </c>
       <c r="AB5" s="17" t="s">
         <v>112</v>
       </c>
       <c r="AC5">
         <f>_xlfn.STDEV.P(AA3:AA50000)</f>
-        <v>0.40779455627168265</v>
+        <v>0.39359352980538653</v>
       </c>
     </row>
     <row r="6" spans="17:29" x14ac:dyDescent="0.25">
@@ -15420,7 +17130,7 @@
       </c>
       <c r="R6">
         <f>SUMIF(V3:V50000,"=1",U3:U50000)</f>
-        <v>438971</v>
+        <v>505934</v>
       </c>
       <c r="T6">
         <f>Kalibratiemetingen!G23</f>
@@ -15444,18 +17154,18 @@
       </c>
       <c r="Z6">
         <f t="shared" si="3"/>
-        <v>10.520090292442053</v>
+        <v>10.778019225272873</v>
       </c>
       <c r="AA6">
         <f t="shared" si="4"/>
-        <v>0.2799097075579482</v>
+        <v>2.1980774727127894E-2</v>
       </c>
       <c r="AB6" s="17" t="s">
         <v>113</v>
       </c>
       <c r="AC6">
         <f>_xlfn.STDEV.S(AA3:AA50000)</f>
-        <v>0.41021472325347313</v>
+        <v>0.39592941695844286</v>
       </c>
     </row>
     <row r="7" spans="17:29" x14ac:dyDescent="0.25">
@@ -15464,7 +17174,7 @@
       </c>
       <c r="R7">
         <f>SUMIF(V3:V50000,"=1",T3:T50000)</f>
-        <v>1199.7999999999993</v>
+        <v>1414.7999999999986</v>
       </c>
       <c r="T7">
         <f>Kalibratiemetingen!G27</f>
@@ -15488,11 +17198,11 @@
       </c>
       <c r="Z7">
         <f t="shared" si="3"/>
-        <v>10.489284968435026</v>
+        <v>10.748084062180766</v>
       </c>
       <c r="AA7">
         <f t="shared" si="4"/>
-        <v>0.31071503156497471</v>
+        <v>5.191593781923487E-2</v>
       </c>
     </row>
     <row r="8" spans="17:29" x14ac:dyDescent="0.25">
@@ -15501,7 +17211,7 @@
       </c>
       <c r="R8">
         <f>SUMIF(V3:V50000,"=1",X3:X500000)</f>
-        <v>2136277467</v>
+        <v>2435102116</v>
       </c>
       <c r="T8">
         <f>Kalibratiemetingen!G25</f>
@@ -15525,11 +17235,11 @@
       </c>
       <c r="Z8">
         <f t="shared" si="3"/>
-        <v>9.9714621410788187</v>
+        <v>10.244888225442001</v>
       </c>
       <c r="AA8">
         <f t="shared" si="4"/>
-        <v>0.82853785892118204</v>
+        <v>0.55511177455800009</v>
       </c>
     </row>
     <row r="9" spans="17:29" x14ac:dyDescent="0.25">
@@ -15555,11 +17265,11 @@
       </c>
       <c r="Z9">
         <f t="shared" si="3"/>
-        <v>11.065784603423666</v>
+        <v>11.30829925719021</v>
       </c>
       <c r="AA9">
         <f t="shared" si="4"/>
-        <v>0.16578460342366519</v>
+        <v>0.40829925719020999</v>
       </c>
     </row>
     <row r="10" spans="17:29" x14ac:dyDescent="0.25">
@@ -15568,7 +17278,7 @@
       </c>
       <c r="R10">
         <f>R2+R3*R6</f>
-        <v>-94297.188172047026</v>
+        <v>-123676.01192661282</v>
       </c>
       <c r="T10">
         <f>Kalibratiemetingen!G20</f>
@@ -15592,11 +17302,11 @@
       </c>
       <c r="Z10">
         <f t="shared" si="3"/>
-        <v>11.178737458116096</v>
+        <v>11.418061521861272</v>
       </c>
       <c r="AA10">
         <f t="shared" si="4"/>
-        <v>0.17873745811609609</v>
+        <v>0.41806152186127221</v>
       </c>
     </row>
     <row r="11" spans="17:29" x14ac:dyDescent="0.25">
@@ -15605,7 +17315,7 @@
       </c>
       <c r="R11">
         <f>-R8+(R6*R6)/R1</f>
-        <v>-64282425.69892478</v>
+        <v>-86760718.238532066</v>
       </c>
       <c r="T11">
         <f>Kalibratiemetingen!G81</f>
@@ -15629,11 +17339,11 @@
       </c>
       <c r="Z11">
         <f t="shared" si="3"/>
-        <v>10.443810442519892</v>
+        <v>10.703894059520987</v>
       </c>
       <c r="AA11">
         <f t="shared" si="4"/>
-        <v>0.55618955748010812</v>
+        <v>0.29610594047901273</v>
       </c>
     </row>
     <row r="12" spans="17:29" x14ac:dyDescent="0.25">
@@ -15659,11 +17369,11 @@
       </c>
       <c r="Z12">
         <f t="shared" si="3"/>
-        <v>10.88682034014475</v>
+        <v>11.134390214464633</v>
       </c>
       <c r="AA12">
         <f t="shared" si="4"/>
-        <v>0.21317965985524978</v>
+        <v>3.4390214464632862E-2</v>
       </c>
     </row>
     <row r="13" spans="17:29" x14ac:dyDescent="0.25">
@@ -15672,7 +17382,7 @@
       </c>
       <c r="R13">
         <f>R10/R11</f>
-        <v>1.4669201908107878E-3</v>
+        <v>1.4254839567670382E-3</v>
       </c>
       <c r="T13">
         <f>Kalibratiemetingen!G17</f>
@@ -15696,11 +17406,11 @@
       </c>
       <c r="Z13">
         <f t="shared" si="3"/>
-        <v>11.423713129981497</v>
+        <v>11.65611734264137</v>
       </c>
       <c r="AA13">
         <f t="shared" si="4"/>
-        <v>0.22371312998149762</v>
+        <v>0.45611734264137027</v>
       </c>
     </row>
     <row r="14" spans="17:29" x14ac:dyDescent="0.25">
@@ -15709,7 +17419,7 @@
       </c>
       <c r="R14">
         <f>R3-R13*R4</f>
-        <v>5.977038461501043</v>
+        <v>6.3632954111653559</v>
       </c>
       <c r="T14">
         <f>Kalibratiemetingen!G16</f>
@@ -15733,11 +17443,11 @@
       </c>
       <c r="Z14">
         <f t="shared" si="3"/>
-        <v>11.27848803109123</v>
+        <v>11.514994430921432</v>
       </c>
       <c r="AA14">
         <f t="shared" si="4"/>
-        <v>7.8488031091231036E-2</v>
+        <v>0.31499443092143231</v>
       </c>
     </row>
     <row r="15" spans="17:29" x14ac:dyDescent="0.25">
@@ -15763,11 +17473,11 @@
       </c>
       <c r="Z15">
         <f t="shared" si="3"/>
-        <v>11.696560285472305</v>
+        <v>11.921257358600037</v>
       </c>
       <c r="AA15">
         <f t="shared" si="4"/>
-        <v>0.29656028547230484</v>
+        <v>0.52125735860003708</v>
       </c>
     </row>
     <row r="16" spans="17:29" x14ac:dyDescent="0.25">
@@ -15793,11 +17503,11 @@
       </c>
       <c r="Z16">
         <f t="shared" si="3"/>
-        <v>11.61294583459609</v>
+        <v>11.840004773064317</v>
       </c>
       <c r="AA16">
         <f t="shared" si="4"/>
-        <v>0.21294583459608951</v>
+        <v>0.44000477306431662</v>
       </c>
     </row>
     <row r="17" spans="20:27" x14ac:dyDescent="0.25">
@@ -15823,11 +17533,11 @@
       </c>
       <c r="Z17">
         <f t="shared" si="3"/>
-        <v>11.83738462379014</v>
+        <v>12.058103818449673</v>
       </c>
       <c r="AA17">
         <f t="shared" si="4"/>
-        <v>0.33738462379013967</v>
+        <v>0.55810381844967338</v>
       </c>
     </row>
     <row r="18" spans="20:27" x14ac:dyDescent="0.25">
@@ -15853,11 +17563,11 @@
       </c>
       <c r="Z18">
         <f t="shared" si="3"/>
-        <v>12.003146605351759</v>
+        <v>12.219183505564349</v>
       </c>
       <c r="AA18">
         <f t="shared" si="4"/>
-        <v>0.40314660535175939</v>
+        <v>0.61918350556434909</v>
       </c>
     </row>
     <row r="19" spans="20:27" x14ac:dyDescent="0.25">
@@ -15883,11 +17593,11 @@
       </c>
       <c r="Z19">
         <f t="shared" si="3"/>
-        <v>11.956205159245814</v>
+        <v>12.173568018947805</v>
       </c>
       <c r="AA19">
         <f t="shared" si="4"/>
-        <v>0.35620515924581397</v>
+        <v>0.57356801894780496</v>
       </c>
     </row>
     <row r="20" spans="20:27" x14ac:dyDescent="0.25">
@@ -15913,11 +17623,11 @@
       </c>
       <c r="Z20">
         <f t="shared" si="3"/>
-        <v>11.700961046044737</v>
+        <v>11.925533810470338</v>
       </c>
       <c r="AA20">
         <f t="shared" si="4"/>
-        <v>0.10096104604473766</v>
+        <v>0.32553381047033803</v>
       </c>
     </row>
     <row r="21" spans="20:27" x14ac:dyDescent="0.25">
@@ -15943,11 +17653,11 @@
       </c>
       <c r="Z21">
         <f t="shared" si="3"/>
-        <v>12.218783873400945</v>
+        <v>12.428729647209103</v>
       </c>
       <c r="AA21">
         <f t="shared" si="4"/>
-        <v>0.51878387340094534</v>
+        <v>0.7287296472091036</v>
       </c>
     </row>
     <row r="22" spans="20:27" x14ac:dyDescent="0.25">
@@ -15973,11 +17683,11 @@
       </c>
       <c r="Z22">
         <f t="shared" si="3"/>
-        <v>12.327335967520943</v>
+        <v>12.534215460009865</v>
       </c>
       <c r="AA22">
         <f t="shared" si="4"/>
-        <v>0.52733596752094236</v>
+        <v>0.73421546000986382</v>
       </c>
     </row>
     <row r="23" spans="20:27" x14ac:dyDescent="0.25">
@@ -16003,11 +17713,11 @@
       </c>
       <c r="Z23">
         <f t="shared" si="3"/>
-        <v>12.318534446376079</v>
+        <v>12.525662556269262</v>
       </c>
       <c r="AA23">
         <f t="shared" si="4"/>
-        <v>0.51853444637607815</v>
+        <v>0.72566255626926157</v>
       </c>
     </row>
     <row r="24" spans="20:27" x14ac:dyDescent="0.25">
@@ -16033,11 +17743,11 @@
       </c>
       <c r="Z24">
         <f t="shared" si="3"/>
-        <v>11.85498766607987</v>
+        <v>12.075209625930878</v>
       </c>
       <c r="AA24">
         <f t="shared" si="4"/>
-        <v>5.4987666079869157E-2</v>
+        <v>0.27520962593087717</v>
       </c>
     </row>
     <row r="25" spans="20:27" x14ac:dyDescent="0.25">
@@ -16063,11 +17773,11 @@
       </c>
       <c r="Z25">
         <f t="shared" si="3"/>
-        <v>12.787948907435531</v>
+        <v>12.981817422434714</v>
       </c>
       <c r="AA25">
         <f t="shared" si="4"/>
-        <v>0.8879489074355309</v>
+        <v>1.0818174224347139</v>
       </c>
     </row>
     <row r="26" spans="20:27" x14ac:dyDescent="0.25">
@@ -16093,11 +17803,11 @@
       </c>
       <c r="Z26">
         <f t="shared" si="3"/>
-        <v>12.858361076594448</v>
+        <v>13.050240652359532</v>
       </c>
       <c r="AA26">
         <f t="shared" si="4"/>
-        <v>0.85836107659444849</v>
+        <v>1.0502406523595322</v>
       </c>
     </row>
     <row r="27" spans="20:27" x14ac:dyDescent="0.25">
@@ -16123,11 +17833,11 @@
       </c>
       <c r="Z27">
         <f t="shared" si="3"/>
-        <v>12.000212764970136</v>
+        <v>12.216332537650814</v>
       </c>
       <c r="AA27">
         <f t="shared" si="4"/>
-        <v>2.1276497013644757E-4</v>
+        <v>0.21633253765081406</v>
       </c>
     </row>
     <row r="28" spans="20:27" x14ac:dyDescent="0.25">
@@ -16153,11 +17863,11 @@
       </c>
       <c r="Z28">
         <f t="shared" si="3"/>
-        <v>11.749369412341494</v>
+        <v>11.972574781043651</v>
       </c>
       <c r="AA28">
         <f t="shared" si="4"/>
-        <v>0.25063058765850599</v>
+        <v>2.7425218956349084E-2</v>
       </c>
     </row>
     <row r="29" spans="20:27" x14ac:dyDescent="0.25">
@@ -16183,11 +17893,11 @@
       </c>
       <c r="Z29">
         <f t="shared" si="3"/>
-        <v>11.445716932843659</v>
+        <v>11.677499601992874</v>
       </c>
       <c r="AA29">
         <f t="shared" si="4"/>
-        <v>0.55428306715634079</v>
+        <v>0.32250039800712571</v>
       </c>
     </row>
     <row r="30" spans="20:27" x14ac:dyDescent="0.25">
@@ -16213,11 +17923,11 @@
       </c>
       <c r="Z30">
         <f t="shared" si="3"/>
-        <v>13.068130663880391</v>
+        <v>13.254084858177219</v>
       </c>
       <c r="AA30">
         <f t="shared" si="4"/>
-        <v>0.96813066388039104</v>
+        <v>1.1540848581772192</v>
       </c>
     </row>
     <row r="31" spans="20:27" x14ac:dyDescent="0.25">
@@ -16243,11 +17953,11 @@
       </c>
       <c r="Z31">
         <f t="shared" si="3"/>
-        <v>12.917037884226879</v>
+        <v>13.107260010630213</v>
       </c>
       <c r="AA31">
         <f t="shared" si="4"/>
-        <v>0.61703788422687822</v>
+        <v>0.80726001063021258</v>
       </c>
     </row>
     <row r="32" spans="20:27" x14ac:dyDescent="0.25">
@@ -16273,11 +17983,11 @@
       </c>
       <c r="Z32">
         <f t="shared" si="3"/>
-        <v>12.765945104573369</v>
+        <v>12.960435163083208</v>
       </c>
       <c r="AA32">
         <f t="shared" si="4"/>
-        <v>0.46594510457336824</v>
+        <v>0.66043516308320704</v>
       </c>
     </row>
     <row r="33" spans="20:27" x14ac:dyDescent="0.25">
@@ -16303,11 +18013,11 @@
       </c>
       <c r="Z33">
         <f t="shared" si="3"/>
-        <v>12.386012775153375</v>
+        <v>12.591234818280546</v>
       </c>
       <c r="AA33">
         <f t="shared" si="4"/>
-        <v>8.6012775153374577E-2</v>
+        <v>0.29123481828054487</v>
       </c>
     </row>
     <row r="34" spans="20:27" x14ac:dyDescent="0.25">
@@ -16333,11 +18043,11 @@
       </c>
       <c r="Z34">
         <f t="shared" si="3"/>
-        <v>13.252962607922552</v>
+        <v>13.433695836729864</v>
       </c>
       <c r="AA34">
         <f t="shared" si="4"/>
-        <v>0.75296260792255154</v>
+        <v>0.93369583672986423</v>
       </c>
     </row>
     <row r="35" spans="20:27" x14ac:dyDescent="0.25">
@@ -16363,11 +18073,11 @@
       </c>
       <c r="Z35">
         <f t="shared" si="3"/>
-        <v>12.808485790106882</v>
+        <v>13.001774197829452</v>
       </c>
       <c r="AA35">
         <f t="shared" si="4"/>
-        <v>0.30848579010688226</v>
+        <v>0.50177419782945165</v>
       </c>
     </row>
     <row r="36" spans="20:27" x14ac:dyDescent="0.25">
@@ -16393,11 +18103,11 @@
       </c>
       <c r="Z36">
         <f t="shared" si="3"/>
-        <v>12.710202137322559</v>
+        <v>12.906266772726061</v>
       </c>
       <c r="AA36">
         <f t="shared" si="4"/>
-        <v>0.21020213732255932</v>
+        <v>0.40626677272606138</v>
       </c>
     </row>
     <row r="37" spans="20:27" x14ac:dyDescent="0.25">
@@ -16423,11 +18133,11 @@
       </c>
       <c r="Z37">
         <f t="shared" si="3"/>
-        <v>13.14294359361174</v>
+        <v>13.326784539972337</v>
       </c>
       <c r="AA37">
         <f t="shared" si="4"/>
-        <v>0.54294359361174038</v>
+        <v>0.72678453997233738</v>
       </c>
     </row>
     <row r="38" spans="20:27" x14ac:dyDescent="0.25">
@@ -16453,11 +18163,11 @@
       </c>
       <c r="Z38">
         <f t="shared" si="3"/>
-        <v>13.101869828269038</v>
+        <v>13.28687098918286</v>
       </c>
       <c r="AA38">
         <f t="shared" si="4"/>
-        <v>0.50186982826903836</v>
+        <v>0.68687098918286082</v>
       </c>
     </row>
     <row r="39" spans="20:27" x14ac:dyDescent="0.25">
@@ -16483,11 +18193,11 @@
       </c>
       <c r="Z39">
         <f t="shared" si="3"/>
-        <v>13.000652335103094</v>
+        <v>13.188512596165936</v>
       </c>
       <c r="AA39">
         <f t="shared" si="4"/>
-        <v>0.40065233510309461</v>
+        <v>0.58851259616593588</v>
       </c>
     </row>
     <row r="40" spans="20:27" x14ac:dyDescent="0.25">
@@ -16513,11 +18223,11 @@
       </c>
       <c r="Z40">
         <f t="shared" si="3"/>
-        <v>13.01092077643877</v>
+        <v>13.198490983863305</v>
       </c>
       <c r="AA40">
         <f t="shared" si="4"/>
-        <v>0.31092077643877047</v>
+        <v>0.49849098386330581</v>
       </c>
     </row>
     <row r="41" spans="20:27" x14ac:dyDescent="0.25">
@@ -16543,11 +18253,11 @@
       </c>
       <c r="Z41">
         <f t="shared" si="3"/>
-        <v>12.917037884226879</v>
+        <v>13.107260010630213</v>
       </c>
       <c r="AA41">
         <f t="shared" si="4"/>
-        <v>0.21703788422687964</v>
+        <v>0.407260010630214</v>
       </c>
     </row>
     <row r="42" spans="20:27" x14ac:dyDescent="0.25">
@@ -16573,11 +18283,11 @@
       </c>
       <c r="Z42">
         <f t="shared" si="3"/>
-        <v>13.442195312537141</v>
+        <v>13.617583267152813</v>
       </c>
       <c r="AA42">
         <f t="shared" si="4"/>
-        <v>0.64219531253714024</v>
+        <v>0.81758326715281271</v>
       </c>
     </row>
     <row r="43" spans="20:27" x14ac:dyDescent="0.25">
@@ -16603,11 +18313,11 @@
       </c>
       <c r="Z43">
         <f t="shared" si="3"/>
-        <v>13.129741311894445</v>
+        <v>13.313955184361433</v>
       </c>
       <c r="AA43">
         <f t="shared" si="4"/>
-        <v>0.32974131189444478</v>
+        <v>0.51395518436143206</v>
       </c>
     </row>
     <row r="44" spans="20:27" x14ac:dyDescent="0.25">
@@ -16633,11 +18343,11 @@
       </c>
       <c r="Z44">
         <f t="shared" si="3"/>
-        <v>13.575685049900923</v>
+        <v>13.747302307218614</v>
       </c>
       <c r="AA44">
         <f t="shared" si="4"/>
-        <v>0.67568504990092215</v>
+        <v>0.8473023072186141</v>
       </c>
     </row>
     <row r="45" spans="20:27" x14ac:dyDescent="0.25">
@@ -16663,11 +18373,11 @@
       </c>
       <c r="Z45">
         <f t="shared" si="3"/>
-        <v>13.473000636544167</v>
+        <v>13.647518430244922</v>
       </c>
       <c r="AA45">
         <f t="shared" si="4"/>
-        <v>0.57300063654416711</v>
+        <v>0.74751843024492182</v>
       </c>
     </row>
     <row r="46" spans="20:27" x14ac:dyDescent="0.25">
@@ -16693,11 +18403,11 @@
       </c>
       <c r="Z46">
         <f t="shared" si="3"/>
-        <v>13.302837894410118</v>
+        <v>13.482162291259945</v>
       </c>
       <c r="AA46">
         <f t="shared" si="4"/>
-        <v>0.40283789441011741</v>
+        <v>0.58216229125994445</v>
       </c>
     </row>
     <row r="47" spans="20:27" x14ac:dyDescent="0.25">
@@ -16723,11 +18433,11 @@
       </c>
       <c r="Z47">
         <f t="shared" si="3"/>
-        <v>13.082799865788498</v>
+        <v>13.268339697744889</v>
       </c>
       <c r="AA47">
         <f t="shared" si="4"/>
-        <v>0.18279986578849794</v>
+        <v>0.36833969774488828</v>
       </c>
     </row>
     <row r="48" spans="20:27" x14ac:dyDescent="0.25">
@@ -16753,11 +18463,11 @@
       </c>
       <c r="Z48">
         <f t="shared" si="3"/>
-        <v>13.62262649600687</v>
+        <v>13.792917793835159</v>
       </c>
       <c r="AA48">
         <f t="shared" si="4"/>
-        <v>0.6226264960068697</v>
+        <v>0.79291779383515859</v>
       </c>
     </row>
     <row r="49" spans="20:27" x14ac:dyDescent="0.25">
@@ -16783,11 +18493,11 @@
       </c>
       <c r="Z49">
         <f t="shared" si="3"/>
-        <v>13.365915462614982</v>
+        <v>13.543458101400926</v>
       </c>
       <c r="AA49">
         <f t="shared" si="4"/>
-        <v>0.36591546261498209</v>
+        <v>0.5434581014009261</v>
       </c>
     </row>
     <row r="50" spans="20:27" x14ac:dyDescent="0.25">
@@ -16813,11 +18523,11 @@
       </c>
       <c r="Z50">
         <f t="shared" si="3"/>
-        <v>13.877870609207946</v>
+        <v>14.040952002312624</v>
       </c>
       <c r="AA50">
         <f t="shared" si="4"/>
-        <v>0.77787060920794637</v>
+        <v>0.9409520023126241</v>
       </c>
     </row>
     <row r="51" spans="20:27" x14ac:dyDescent="0.25">
@@ -16843,11 +18553,11 @@
       </c>
       <c r="Z51">
         <f t="shared" si="3"/>
-        <v>13.411389988530114</v>
+        <v>13.587648104060705</v>
       </c>
       <c r="AA51">
         <f t="shared" si="4"/>
-        <v>0.31138998853011479</v>
+        <v>0.48764810406070502</v>
       </c>
     </row>
     <row r="52" spans="20:27" x14ac:dyDescent="0.25">
@@ -16873,11 +18583,11 @@
       </c>
       <c r="Z52">
         <f t="shared" si="3"/>
-        <v>13.172281997427957</v>
+        <v>13.355294219107678</v>
       </c>
       <c r="AA52">
         <f t="shared" si="4"/>
-        <v>7.2281997427957378E-2</v>
+        <v>0.2552942191076788</v>
       </c>
     </row>
     <row r="53" spans="20:27" x14ac:dyDescent="0.25">
@@ -16903,11 +18613,11 @@
       </c>
       <c r="Z53">
         <f t="shared" si="3"/>
-        <v>13.693038665165787</v>
+        <v>13.861341023759977</v>
       </c>
       <c r="AA53">
         <f t="shared" si="4"/>
-        <v>0.49303866516578765</v>
+        <v>0.66134102375997728</v>
       </c>
     </row>
     <row r="54" spans="20:27" x14ac:dyDescent="0.25">
@@ -16933,11 +18643,11 @@
       </c>
       <c r="Z54">
         <f t="shared" si="3"/>
-        <v>13.628494176770111</v>
+        <v>13.798619729662228</v>
       </c>
       <c r="AA54">
         <f t="shared" si="4"/>
-        <v>0.42849417677011203</v>
+        <v>0.59861972966222865</v>
       </c>
     </row>
     <row r="55" spans="20:27" x14ac:dyDescent="0.25">
@@ -16963,11 +18673,11 @@
       </c>
       <c r="Z55">
         <f t="shared" si="3"/>
-        <v>13.478868317307413</v>
+        <v>13.653220366071988</v>
       </c>
       <c r="AA55">
         <f t="shared" si="4"/>
-        <v>0.27886831730741335</v>
+        <v>0.45322036607198868</v>
       </c>
     </row>
     <row r="56" spans="20:27" x14ac:dyDescent="0.25">
@@ -16993,11 +18703,11 @@
       </c>
       <c r="Z56">
         <f t="shared" si="3"/>
-        <v>13.038792260064175</v>
+        <v>13.225575179041877</v>
       </c>
       <c r="AA56">
         <f t="shared" si="4"/>
-        <v>0.16120773993582382</v>
+        <v>2.5575179041878116E-2</v>
       </c>
     </row>
     <row r="57" spans="20:27" x14ac:dyDescent="0.25">
@@ -17023,11 +18733,11 @@
       </c>
       <c r="Z57">
         <f t="shared" si="3"/>
-        <v>14.077371755158214</v>
+        <v>14.234817820432941</v>
       </c>
       <c r="AA57">
         <f t="shared" si="4"/>
-        <v>0.77737175515821377</v>
+        <v>0.93481782043294004</v>
       </c>
     </row>
     <row r="58" spans="20:27" x14ac:dyDescent="0.25">
@@ -17053,11 +18763,11 @@
       </c>
       <c r="Z58">
         <f t="shared" si="3"/>
-        <v>13.938014337031188</v>
+        <v>14.099396844540072</v>
       </c>
       <c r="AA58">
         <f t="shared" si="4"/>
-        <v>0.63801433703118704</v>
+        <v>0.79939684454007143</v>
       </c>
     </row>
     <row r="59" spans="20:27" x14ac:dyDescent="0.25">
@@ -17083,11 +18793,11 @@
       </c>
       <c r="Z59">
         <f t="shared" si="3"/>
-        <v>13.84706528520092</v>
+        <v>14.011016839220517</v>
       </c>
       <c r="AA59">
         <f t="shared" si="4"/>
-        <v>0.54706528520091879</v>
+        <v>0.71101683922051606</v>
       </c>
     </row>
     <row r="60" spans="20:27" x14ac:dyDescent="0.25">
@@ -17113,11 +18823,11 @@
       </c>
       <c r="Z60">
         <f t="shared" si="3"/>
-        <v>13.651964899823085</v>
+        <v>13.8214274729705</v>
       </c>
       <c r="AA60">
         <f t="shared" si="4"/>
-        <v>0.25196489982308456</v>
+        <v>0.42142747297049965</v>
       </c>
     </row>
     <row r="61" spans="20:27" x14ac:dyDescent="0.25">
@@ -17143,11 +18853,11 @@
       </c>
       <c r="Z61">
         <f t="shared" si="3"/>
-        <v>14.011360346571728</v>
+        <v>14.170671042378423</v>
       </c>
       <c r="AA61">
         <f t="shared" si="4"/>
-        <v>0.51136034657172758</v>
+        <v>0.67067104237842301</v>
       </c>
     </row>
     <row r="62" spans="20:27" x14ac:dyDescent="0.25">
@@ -17173,11 +18883,11 @@
       </c>
       <c r="Z62">
         <f t="shared" si="3"/>
-        <v>13.725310909363625</v>
+        <v>13.892701670808851</v>
       </c>
       <c r="AA62">
         <f t="shared" si="4"/>
-        <v>0.22531090936362475</v>
+        <v>0.39270167080885088</v>
       </c>
     </row>
     <row r="63" spans="20:27" x14ac:dyDescent="0.25">
@@ -17203,11 +18913,11 @@
       </c>
       <c r="Z63">
         <f t="shared" si="3"/>
-        <v>13.693038665165787</v>
+        <v>13.861341023759977</v>
       </c>
       <c r="AA63">
         <f t="shared" si="4"/>
-        <v>0.19303866516578694</v>
+        <v>0.36134102375997657</v>
       </c>
     </row>
     <row r="64" spans="20:27" x14ac:dyDescent="0.25">
@@ -17233,11 +18943,11 @@
       </c>
       <c r="Z64">
         <f t="shared" si="3"/>
-        <v>13.426059190438224</v>
+        <v>13.601902943628374</v>
       </c>
       <c r="AA64">
         <f t="shared" si="4"/>
-        <v>7.3940809561776177E-2</v>
+        <v>0.10190294362837449</v>
       </c>
     </row>
     <row r="65" spans="20:27" x14ac:dyDescent="0.25">
@@ -17263,11 +18973,11 @@
       </c>
       <c r="Z65">
         <f t="shared" si="3"/>
-        <v>13.580085810473356</v>
+        <v>13.751578759088915</v>
       </c>
       <c r="AA65">
         <f t="shared" si="4"/>
-        <v>1.9914189526643256E-2</v>
+        <v>0.15157875908891505</v>
       </c>
     </row>
     <row r="66" spans="20:27" x14ac:dyDescent="0.25">
@@ -17293,11 +19003,11 @@
       </c>
       <c r="Z66">
         <f t="shared" si="3"/>
-        <v>13.492070599024709</v>
+        <v>13.666049721682892</v>
       </c>
       <c r="AA66">
         <f t="shared" si="4"/>
-        <v>0.10792940097529069</v>
+        <v>6.6049721682892581E-2</v>
       </c>
     </row>
     <row r="67" spans="20:27" x14ac:dyDescent="0.25">
@@ -17323,11 +19033,11 @@
       </c>
       <c r="Z67">
         <f t="shared" si="3"/>
-        <v>13.28963561269282</v>
+        <v>13.469332935649042</v>
       </c>
       <c r="AA67">
         <f t="shared" si="4"/>
-        <v>0.31036438730717997</v>
+        <v>0.13066706435095732</v>
       </c>
     </row>
     <row r="68" spans="20:27" x14ac:dyDescent="0.25">
@@ -17353,11 +19063,11 @@
       </c>
       <c r="Z68">
         <f t="shared" ref="Z68:Z131" si="8">IF(V68,$R$13*U68+$R$14)</f>
-        <v>13.867602167872271</v>
+        <v>14.030973614615254</v>
       </c>
       <c r="AA68">
         <f t="shared" ref="AA68:AA87" si="9">ABS(T68-Z68)</f>
-        <v>0.16760216787227122</v>
+        <v>0.33097361461525487</v>
       </c>
     </row>
     <row r="69" spans="20:27" x14ac:dyDescent="0.25">
@@ -17383,11 +19093,11 @@
       </c>
       <c r="Z69">
         <f t="shared" si="8"/>
-        <v>13.637295697914976</v>
+        <v>13.807172633402828</v>
       </c>
       <c r="AA69">
         <f t="shared" si="9"/>
-        <v>6.2704302085023755E-2</v>
+        <v>0.10717263340282912</v>
       </c>
     </row>
     <row r="70" spans="20:27" x14ac:dyDescent="0.25">
@@ -17413,11 +19123,11 @@
       </c>
       <c r="Z70">
         <f t="shared" si="8"/>
-        <v>12.691132174842018</v>
+        <v>12.88773548128809</v>
       </c>
       <c r="AA70">
         <f t="shared" si="9"/>
-        <v>1.0088678251579815</v>
+        <v>0.81226451871190974</v>
       </c>
     </row>
     <row r="71" spans="20:27" x14ac:dyDescent="0.25">
@@ -17443,11 +19153,11 @@
       </c>
       <c r="Z71">
         <f t="shared" si="8"/>
-        <v>14.367821952938748</v>
+        <v>14.517063643872813</v>
       </c>
       <c r="AA71">
         <f t="shared" si="9"/>
-        <v>0.56782195293874693</v>
+        <v>0.71706364387281241</v>
       </c>
     </row>
     <row r="72" spans="20:27" x14ac:dyDescent="0.25">
@@ -17473,11 +19183,11 @@
       </c>
       <c r="Z72">
         <f t="shared" si="8"/>
-        <v>14.175655407942536</v>
+        <v>14.330325245536333</v>
       </c>
       <c r="AA72">
         <f t="shared" si="9"/>
-        <v>0.27565540794253529</v>
+        <v>0.43032524553633245</v>
       </c>
     </row>
     <row r="73" spans="20:27" x14ac:dyDescent="0.25">
@@ -17503,11 +19213,11 @@
       </c>
       <c r="Z73">
         <f t="shared" si="8"/>
-        <v>13.927745895695512</v>
+        <v>14.089418456842703</v>
       </c>
       <c r="AA73">
         <f t="shared" si="9"/>
-        <v>2.7745895695511891E-2</v>
+        <v>0.1894184568427022</v>
       </c>
     </row>
     <row r="74" spans="20:27" x14ac:dyDescent="0.25">
@@ -17533,11 +19243,11 @@
       </c>
       <c r="Z74">
         <f t="shared" si="8"/>
-        <v>13.822127641957136</v>
+        <v>13.986783611955476</v>
       </c>
       <c r="AA74">
         <f t="shared" si="9"/>
-        <v>7.7872358042863965E-2</v>
+        <v>8.6783611955475237E-2</v>
       </c>
     </row>
     <row r="75" spans="20:27" x14ac:dyDescent="0.25">
@@ -17563,11 +19273,11 @@
       </c>
       <c r="Z75">
         <f t="shared" si="8"/>
-        <v>13.742913951653353</v>
+        <v>13.909807478290055</v>
       </c>
       <c r="AA75">
         <f t="shared" si="9"/>
-        <v>0.15708604834664719</v>
+        <v>9.8074782900550161E-3</v>
       </c>
     </row>
     <row r="76" spans="20:27" x14ac:dyDescent="0.25">
@@ -17593,11 +19303,11 @@
       </c>
       <c r="Z76">
         <f t="shared" si="8"/>
-        <v>13.430459951010656</v>
+        <v>13.606179395498676</v>
       </c>
       <c r="AA76">
         <f t="shared" si="9"/>
-        <v>0.46954004898934443</v>
+        <v>0.29382060450132386</v>
       </c>
     </row>
     <row r="77" spans="20:27" x14ac:dyDescent="0.25">
@@ -17623,11 +19333,11 @@
       </c>
       <c r="Z77">
         <f t="shared" si="8"/>
-        <v>13.726777829554436</v>
+        <v>13.894127154765618</v>
       </c>
       <c r="AA77">
         <f t="shared" si="9"/>
-        <v>0.27322217044556396</v>
+        <v>0.10587284523438178</v>
       </c>
     </row>
     <row r="78" spans="20:27" x14ac:dyDescent="0.25">
@@ -17653,11 +19363,11 @@
       </c>
       <c r="Z78">
         <f t="shared" si="8"/>
-        <v>14.01429418695335</v>
+        <v>14.173522010291958</v>
       </c>
       <c r="AA78">
         <f t="shared" si="9"/>
-        <v>8.5705813046649482E-2</v>
+        <v>7.352201029195804E-2</v>
       </c>
     </row>
     <row r="79" spans="20:27" x14ac:dyDescent="0.25">
@@ -17683,11 +19393,11 @@
       </c>
       <c r="Z79">
         <f t="shared" si="8"/>
-        <v>14.081772515730645</v>
+        <v>14.239094272303241</v>
       </c>
       <c r="AA79">
         <f t="shared" si="9"/>
-        <v>0.31822748426935554</v>
+        <v>0.16090572769675937</v>
       </c>
     </row>
     <row r="80" spans="20:27" x14ac:dyDescent="0.25">
@@ -17713,11 +19423,11 @@
       </c>
       <c r="Z80">
         <f t="shared" si="8"/>
-        <v>14.259269858818751</v>
+        <v>14.411577831072055</v>
       </c>
       <c r="AA80">
         <f t="shared" si="9"/>
-        <v>0.24073014118124902</v>
+        <v>8.8422168927944966E-2</v>
       </c>
     </row>
     <row r="81" spans="20:27" x14ac:dyDescent="0.25">
@@ -17743,11 +19453,11 @@
       </c>
       <c r="Z81">
         <f t="shared" si="8"/>
-        <v>12.484296427937696</v>
+        <v>12.686742243383938</v>
       </c>
       <c r="AA81">
         <f t="shared" si="9"/>
-        <v>2.0157035720623036</v>
+        <v>1.8132577566160624</v>
       </c>
     </row>
     <row r="82" spans="20:27" x14ac:dyDescent="0.25">
@@ -17773,11 +19483,11 @@
       </c>
       <c r="Z82">
         <f t="shared" si="8"/>
-        <v>14.243133736719834</v>
+        <v>14.395897507547616</v>
       </c>
       <c r="AA82">
         <f t="shared" si="9"/>
-        <v>0.3568662632801658</v>
+        <v>0.20410249245238354</v>
       </c>
     </row>
     <row r="83" spans="20:27" x14ac:dyDescent="0.25">
@@ -17803,11 +19513,11 @@
       </c>
       <c r="Z83">
         <f t="shared" si="8"/>
-        <v>14.216729173285238</v>
+        <v>14.370238796325808</v>
       </c>
       <c r="AA83">
         <f t="shared" si="9"/>
-        <v>0.38327082671476198</v>
+        <v>0.22976120367419206</v>
       </c>
     </row>
     <row r="84" spans="20:27" x14ac:dyDescent="0.25">
@@ -17833,11 +19543,11 @@
       </c>
       <c r="Z84">
         <f t="shared" si="8"/>
-        <v>14.112577839737671</v>
+        <v>14.26902943539535</v>
       </c>
       <c r="AA84">
         <f t="shared" si="9"/>
-        <v>0.68742216026232938</v>
+        <v>0.53097056460465097</v>
       </c>
     </row>
     <row r="85" spans="20:27" x14ac:dyDescent="0.25">
@@ -17863,11 +19573,11 @@
       </c>
       <c r="Z85">
         <f t="shared" si="8"/>
-        <v>14.643602948811179</v>
+        <v>14.785054627745016</v>
       </c>
       <c r="AA85">
         <f t="shared" si="9"/>
-        <v>0.45639705118882112</v>
+        <v>0.31494537225498398</v>
       </c>
     </row>
     <row r="86" spans="20:27" x14ac:dyDescent="0.25">
@@ -17893,11 +19603,11 @@
       </c>
       <c r="Z86">
         <f t="shared" si="8"/>
-        <v>14.643602948811179</v>
+        <v>14.785054627745016</v>
       </c>
       <c r="AA86">
         <f t="shared" si="9"/>
-        <v>1.4563970511888229</v>
+        <v>1.3149453722549858</v>
       </c>
     </row>
     <row r="87" spans="20:27" x14ac:dyDescent="0.25">
@@ -17923,11 +19633,11 @@
       </c>
       <c r="Z87">
         <f t="shared" si="8"/>
-        <v>15.180495738647924</v>
+        <v>15.306781755921754</v>
       </c>
       <c r="AA87">
         <f t="shared" si="9"/>
-        <v>2.6195042613520769</v>
+        <v>2.4932182440782462</v>
       </c>
     </row>
     <row r="88" spans="20:27" x14ac:dyDescent="0.25">
@@ -18057,7 +19767,7 @@
       </c>
       <c r="Z92">
         <f t="shared" si="8"/>
-        <v>13.132675152276065</v>
+        <v>13.316806152274967</v>
       </c>
     </row>
     <row r="93" spans="20:27" x14ac:dyDescent="0.25">
@@ -18083,7 +19793,7 @@
       </c>
       <c r="Z93">
         <f t="shared" si="8"/>
-        <v>12.831956513159854</v>
+        <v>13.024581941137725</v>
       </c>
     </row>
     <row r="94" spans="20:27" x14ac:dyDescent="0.25">
@@ -18109,7 +19819,7 @@
       </c>
       <c r="Z94">
         <f t="shared" si="8"/>
-        <v>12.06035649279338</v>
+        <v>12.274777379878262</v>
       </c>
     </row>
     <row r="95" spans="20:27" x14ac:dyDescent="0.25">
@@ -18135,7 +19845,7 @@
       </c>
       <c r="Z95">
         <f t="shared" si="8"/>
-        <v>11.98701048325284</v>
+        <v>12.203503182039912</v>
       </c>
     </row>
     <row r="96" spans="20:27" x14ac:dyDescent="0.25">
@@ -18161,7 +19871,7 @@
       </c>
       <c r="Z96">
         <f t="shared" si="8"/>
-        <v>14.08764019649389</v>
+        <v>14.24479620813031</v>
       </c>
     </row>
     <row r="97" spans="20:26" x14ac:dyDescent="0.25">
@@ -18187,7 +19897,7 @@
       </c>
       <c r="Z97">
         <f t="shared" si="8"/>
-        <v>14.224063774239291</v>
+        <v>14.377366216109646</v>
       </c>
     </row>
     <row r="98" spans="20:26" x14ac:dyDescent="0.25">
@@ -18213,7 +19923,7 @@
       </c>
       <c r="Z98">
         <f t="shared" si="8"/>
-        <v>14.102309398401996</v>
+        <v>14.25905104769798</v>
       </c>
     </row>
     <row r="99" spans="20:26" x14ac:dyDescent="0.25">
@@ -18239,423 +19949,423 @@
       </c>
       <c r="Z99">
         <f t="shared" si="8"/>
-        <v>14.083239435921456</v>
+        <v>14.24051975626001</v>
       </c>
     </row>
     <row r="100" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T100">
         <f>Kalibratiemetingen!G102</f>
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="U100">
         <f>Kalibratiemetingen!C102</f>
-        <v>0</v>
+        <v>4579</v>
       </c>
       <c r="V100">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W100">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>55863.799999999996</v>
       </c>
       <c r="X100">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z100" t="b">
+        <v>20967241</v>
+      </c>
+      <c r="Z100">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>12.890586449201624</v>
       </c>
     </row>
     <row r="101" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T101">
         <f>Kalibratiemetingen!G103</f>
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="U101">
         <f>Kalibratiemetingen!C103</f>
-        <v>0</v>
+        <v>3844</v>
       </c>
       <c r="V101">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W101">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>46896.799999999996</v>
       </c>
       <c r="X101">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z101" t="b">
+        <v>14776336</v>
+      </c>
+      <c r="Z101">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>11.84285574097785</v>
       </c>
     </row>
     <row r="102" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T102">
         <f>Kalibratiemetingen!G104</f>
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="U102">
         <f>Kalibratiemetingen!C104</f>
-        <v>0</v>
+        <v>3203</v>
       </c>
       <c r="V102">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W102">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>35553.299999999996</v>
       </c>
       <c r="X102">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z102" t="b">
+        <v>10259209</v>
+      </c>
+      <c r="Z102">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10.92912052469018</v>
       </c>
     </row>
     <row r="103" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T103">
         <f>Kalibratiemetingen!G105</f>
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="U103">
         <f>Kalibratiemetingen!C105</f>
-        <v>0</v>
+        <v>2225</v>
       </c>
       <c r="V103">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W103">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>24697.5</v>
       </c>
       <c r="X103">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z103" t="b">
+        <v>4950625</v>
+      </c>
+      <c r="Z103">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9.5349972149720159</v>
       </c>
     </row>
     <row r="104" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T104">
         <f>Kalibratiemetingen!G106</f>
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="U104">
         <f>Kalibratiemetingen!C106</f>
-        <v>0</v>
+        <v>2853</v>
       </c>
       <c r="V104">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W104">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>31668.3</v>
       </c>
       <c r="X104">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z104" t="b">
+        <v>8139609</v>
+      </c>
+      <c r="Z104">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10.430201139821715</v>
       </c>
     </row>
     <row r="105" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T105">
         <f>Kalibratiemetingen!G107</f>
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="U105">
         <f>Kalibratiemetingen!C107</f>
-        <v>0</v>
+        <v>2915</v>
       </c>
       <c r="V105">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W105">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>32356.5</v>
       </c>
       <c r="X105">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z105" t="b">
+        <v>8497225</v>
+      </c>
+      <c r="Z105">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10.518581145141273</v>
       </c>
     </row>
     <row r="106" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T106">
         <f>Kalibratiemetingen!G108</f>
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="U106">
         <f>Kalibratiemetingen!C108</f>
-        <v>0</v>
+        <v>3072</v>
       </c>
       <c r="V106">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W106">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>34099.199999999997</v>
       </c>
       <c r="X106">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z106" t="b">
+        <v>9437184</v>
+      </c>
+      <c r="Z106">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10.742382126353696</v>
       </c>
     </row>
     <row r="107" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T107">
         <f>Kalibratiemetingen!G109</f>
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="U107">
         <f>Kalibratiemetingen!C109</f>
-        <v>0</v>
+        <v>3376</v>
       </c>
       <c r="V107">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W107">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>37473.599999999999</v>
       </c>
       <c r="X107">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z107" t="b">
+        <v>11397376</v>
+      </c>
+      <c r="Z107">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>11.175729249210876</v>
       </c>
     </row>
     <row r="108" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T108">
         <f>Kalibratiemetingen!G110</f>
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="U108">
         <f>Kalibratiemetingen!C110</f>
-        <v>0</v>
+        <v>4890</v>
       </c>
       <c r="V108">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W108">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>65037</v>
       </c>
       <c r="X108">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z108" t="b">
+        <v>23912100</v>
+      </c>
+      <c r="Z108">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>13.333911959756172</v>
       </c>
     </row>
     <row r="109" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T109">
         <f>Kalibratiemetingen!G111</f>
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="U109">
         <f>Kalibratiemetingen!C111</f>
-        <v>0</v>
+        <v>5706</v>
       </c>
       <c r="V109">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W109">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90725.400000000009</v>
       </c>
       <c r="X109">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z109" t="b">
+        <v>32558436</v>
+      </c>
+      <c r="Z109">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14.497106868478074</v>
       </c>
     </row>
     <row r="110" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T110">
         <f>Kalibratiemetingen!G112</f>
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="U110">
         <f>Kalibratiemetingen!C112</f>
-        <v>0</v>
+        <v>5666</v>
       </c>
       <c r="V110">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W110">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>89522.8</v>
       </c>
       <c r="X110">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z110" t="b">
+        <v>32103556</v>
+      </c>
+      <c r="Z110">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14.440087510207395</v>
       </c>
     </row>
     <row r="111" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T111">
         <f>Kalibratiemetingen!G113</f>
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="U111">
         <f>Kalibratiemetingen!C113</f>
-        <v>0</v>
+        <v>4763</v>
       </c>
       <c r="V111">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W111">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>75255.400000000009</v>
       </c>
       <c r="X111">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z111" t="b">
+        <v>22686169</v>
+      </c>
+      <c r="Z111">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>13.152875497246757</v>
       </c>
     </row>
     <row r="112" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T112">
         <f>Kalibratiemetingen!G114</f>
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="U112">
         <f>Kalibratiemetingen!C114</f>
-        <v>0</v>
+        <v>4626</v>
       </c>
       <c r="V112">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W112">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>73090.8</v>
       </c>
       <c r="X112">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z112" t="b">
+        <v>21399876</v>
+      </c>
+      <c r="Z112">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>12.957584195169675</v>
       </c>
     </row>
     <row r="113" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T113">
         <f>Kalibratiemetingen!G115</f>
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="U113">
         <f>Kalibratiemetingen!C115</f>
-        <v>0</v>
+        <v>4891</v>
       </c>
       <c r="V113">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W113">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>77277.8</v>
       </c>
       <c r="X113">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z113" t="b">
+        <v>23921881</v>
+      </c>
+      <c r="Z113">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>13.335337443712939</v>
       </c>
     </row>
     <row r="114" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T114">
         <f>Kalibratiemetingen!G116</f>
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="U114">
         <f>Kalibratiemetingen!C116</f>
-        <v>0</v>
+        <v>4849</v>
       </c>
       <c r="V114">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W114">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>76614.2</v>
       </c>
       <c r="X114">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z114" t="b">
+        <v>23512801</v>
+      </c>
+      <c r="Z114">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>13.275467117528724</v>
       </c>
     </row>
     <row r="115" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T115">
         <f>Kalibratiemetingen!G117</f>
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="U115">
         <f>Kalibratiemetingen!C117</f>
-        <v>0</v>
+        <v>5505</v>
       </c>
       <c r="V115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W115">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>86979</v>
       </c>
       <c r="X115">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z115" t="b">
+        <v>30305025</v>
+      </c>
+      <c r="Z115">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14.210584593167901</v>
       </c>
     </row>
     <row r="116" spans="20:26" x14ac:dyDescent="0.25">
@@ -21761,20 +23471,20 @@
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -22537,10 +24247,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22552,21 +24262,21 @@
     <col min="9" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G4" s="8" t="s">
         <v>79</v>
       </c>
@@ -22574,7 +24284,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>81</v>
       </c>
@@ -22602,7 +24312,7 @@
         <v>0.23657282927804779</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>82</v>
       </c>
@@ -22630,7 +24340,7 @@
         <v>3.5894463815758337</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>83</v>
       </c>
@@ -22658,7 +24368,7 @@
         <v>0.84938196535966348</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>84</v>
       </c>
@@ -22686,7 +24396,7 @@
         <v>0.17386677814410501</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>85</v>
       </c>
@@ -22712,6 +24422,42 @@
       <c r="H9">
         <f>((G9/G$9)-1)*100</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13">
+        <v>21167</v>
+      </c>
+      <c r="Q13">
+        <v>59</v>
+      </c>
+      <c r="R13">
+        <v>296</v>
+      </c>
+      <c r="S13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>124</v>
+      </c>
+      <c r="P14">
+        <v>21219</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="S14" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -22728,7 +24474,7 @@
   <dimension ref="A1:Y573"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22748,27 +24494,27 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1">
         <f t="shared" ref="A1:D1" si="0">COUNT(A$4:A$65000)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G1">
         <f>COUNT(G$4:G$65000)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1">
         <f>COUNT(H$4:H$65000)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J1">
         <f t="shared" ref="J1:Q1" si="1">COUNT(J$4:J$65000)</f>
@@ -22804,18 +24550,18 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="N2" s="29" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="N2" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -22869,10 +24615,10 @@
       <c r="Q3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="47" t="s">
+      <c r="R3" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="S3" s="48" t="s">
+      <c r="S3" s="44" t="s">
         <v>101</v>
       </c>
       <c r="X3" s="17" t="s">
@@ -22880,62 +24626,62 @@
       </c>
       <c r="Y3">
         <f>COUNTIF(I4:I50000,"=1")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="28">
         <v>9355</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="38">
         <v>25668</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="38">
         <v>12160</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="38">
         <v>30</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="39">
         <f>IF(I4,G4-F4,TRIM(""))</f>
-        <v>-11.714787981760223</v>
-      </c>
-      <c r="F4" s="44">
+        <v>-11.597180325452543</v>
+      </c>
+      <c r="F4" s="40">
         <f>IF(Agostometer!C4&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C4+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>23.814787981760222</v>
-      </c>
-      <c r="G4" s="45">
+        <v>23.697180325452543</v>
+      </c>
+      <c r="G4" s="41">
         <v>12.1</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="41">
         <v>30.4</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="41">
         <f>IF(IF(Agostometer!C4&gt;0,1,0)+IF(Agostometer!G4&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="28">
         <v>729</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="42">
         <v>42566</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="32"/>
+      <c r="Q4" s="28"/>
       <c r="R4">
         <f>G4*C4</f>
         <v>147136</v>
@@ -22949,62 +24695,62 @@
       </c>
       <c r="Y4" s="18">
         <f>-SUM(R4:R50000)</f>
-        <v>-271249.59999999998</v>
+        <v>-600788</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="28">
         <v>9359</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="38">
         <v>25744</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="38">
         <v>7956</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="38">
         <v>30</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="39">
         <f t="shared" ref="E5:E68" si="2">IF(I5,G5-F5,TRIM(""))</f>
-        <v>-2.0478554995916713</v>
-      </c>
-      <c r="F5" s="44">
+        <v>-2.1044457712039115</v>
+      </c>
+      <c r="F5" s="40">
         <f>IF(Agostometer!C5&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C5+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>17.647855499591671</v>
-      </c>
-      <c r="G5" s="45">
+        <v>17.704445771203911</v>
+      </c>
+      <c r="G5" s="41">
         <v>15.6</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="41">
         <v>31.4</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="41">
         <f>IF(IF(Agostometer!C5&gt;0,1,0)+IF(Agostometer!G5&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="28">
         <v>729</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="42">
         <v>42566</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="32"/>
+      <c r="Q5" s="28"/>
       <c r="R5">
         <f>G5*C5</f>
         <v>124113.59999999999</v>
@@ -23018,208 +24764,256 @@
       </c>
       <c r="Y5">
         <f>AVERAGEIF(I4:I50000,"=1",G4:G50000)</f>
-        <v>13.85</v>
+        <v>13.966666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43" t="str">
+      <c r="A6" s="28">
+        <v>9453</v>
+      </c>
+      <c r="B6" s="38">
+        <v>20492</v>
+      </c>
+      <c r="C6" s="38">
+        <v>3801</v>
+      </c>
+      <c r="D6" s="38">
+        <v>30</v>
+      </c>
+      <c r="E6" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F6" s="44" t="str">
+        <v>-0.68155993083686717</v>
+      </c>
+      <c r="F6" s="40">
         <f>IF(Agostometer!C6&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C6+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45">
+        <v>11.781559930836867</v>
+      </c>
+      <c r="G6" s="41">
+        <v>11.1</v>
+      </c>
+      <c r="H6" s="41">
+        <v>30.1</v>
+      </c>
+      <c r="I6" s="41">
         <f>IF(IF(Agostometer!C6&gt;0,1,0)+IF(Agostometer!G6&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
       <c r="R6">
         <f t="shared" ref="R6:R17" si="3">G6*C6</f>
-        <v>0</v>
+        <v>42191.1</v>
       </c>
       <c r="S6">
         <f t="shared" ref="S6:S17" si="4">C6*C6</f>
-        <v>0</v>
+        <v>14447601</v>
       </c>
       <c r="X6" s="17" t="s">
         <v>98</v>
       </c>
       <c r="Y6">
         <f>AVERAGEIF(I4:I50000,"=1",C4:C50000)</f>
-        <v>10058</v>
+        <v>7165.166666666667</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43" t="str">
+      <c r="A7" s="28">
+        <v>9468</v>
+      </c>
+      <c r="B7" s="38">
+        <v>20581</v>
+      </c>
+      <c r="C7" s="38">
+        <v>5873</v>
+      </c>
+      <c r="D7" s="38">
+        <v>30</v>
+      </c>
+      <c r="E7" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F7" s="44" t="str">
+        <v>-1.4351626892581706</v>
+      </c>
+      <c r="F7" s="40">
         <f>IF(Agostometer!C7&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C7+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45">
+        <v>14.735162689258171</v>
+      </c>
+      <c r="G7" s="41">
+        <v>13.3</v>
+      </c>
+      <c r="H7" s="41">
+        <v>30.6</v>
+      </c>
+      <c r="I7" s="41">
         <f>IF(IF(Agostometer!C7&gt;0,1,0)+IF(Agostometer!G7&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
       <c r="R7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>78110.900000000009</v>
       </c>
       <c r="S7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>34492129</v>
       </c>
       <c r="X7" t="s">
         <v>96</v>
       </c>
       <c r="Y7">
         <f>SUMIF(I4:I50000,"=1",C4:C50000)/Y3</f>
-        <v>10058</v>
+        <v>7165.166666666667</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43" t="str">
+      <c r="A8" s="28">
+        <v>9465</v>
+      </c>
+      <c r="B8" s="38">
+        <v>20653</v>
+      </c>
+      <c r="C8" s="38">
+        <v>6606</v>
+      </c>
+      <c r="D8" s="38">
+        <v>31</v>
+      </c>
+      <c r="E8" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F8" s="44" t="str">
+        <v>0.11995757043158939</v>
+      </c>
+      <c r="F8" s="40">
         <f>IF(Agostometer!C8&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C8+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45">
+        <v>15.780042429568411</v>
+      </c>
+      <c r="G8" s="41">
+        <v>15.9</v>
+      </c>
+      <c r="H8" s="41">
+        <v>30.3</v>
+      </c>
+      <c r="I8" s="41">
         <f>IF(IF(Agostometer!C8&gt;0,1,0)+IF(Agostometer!G8&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>105035.40000000001</v>
       </c>
       <c r="S8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>43639236</v>
       </c>
       <c r="X8" s="17" t="s">
         <v>99</v>
       </c>
       <c r="Y8">
         <f>SUMIF(I4:I50000,"=1",C4:C50000)</f>
-        <v>20116</v>
+        <v>42991</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43" t="str">
+      <c r="A9" s="28">
+        <v>9465</v>
+      </c>
+      <c r="B9" s="38">
+        <v>20598</v>
+      </c>
+      <c r="C9" s="38">
+        <v>6595</v>
+      </c>
+      <c r="D9" s="38">
+        <v>31</v>
+      </c>
+      <c r="E9" s="39">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F9" s="44" t="str">
+        <v>3.5637893956028677E-2</v>
+      </c>
+      <c r="F9" s="40">
         <f>IF(Agostometer!C9&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C9+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45">
+        <v>15.764362106043972</v>
+      </c>
+      <c r="G9" s="41">
+        <v>15.8</v>
+      </c>
+      <c r="H9" s="41">
+        <v>30.6</v>
+      </c>
+      <c r="I9" s="41">
         <f>IF(IF(Agostometer!C9&gt;0,1,0)+IF(Agostometer!G9&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
       <c r="R9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>104201</v>
       </c>
       <c r="S9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>43494025</v>
       </c>
       <c r="X9" s="17" t="s">
         <v>100</v>
       </c>
       <c r="Y9">
         <f>SUMIF(I4:I50000,"=1",G4:G50000)</f>
-        <v>27.7</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43" t="str">
+      <c r="A10" s="28"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F10" s="44" t="str">
+      <c r="F10" s="40" t="str">
         <f>IF(Agostometer!C10&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C10+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45">
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41">
         <f>IF(IF(Agostometer!C10&gt;0,1,0)+IF(Agostometer!G10&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
       <c r="R10">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -23233,36 +25027,36 @@
       </c>
       <c r="Y10">
         <f>SUMIF(I4:I50000,"=1",S4:S50000)</f>
-        <v>211163536</v>
+        <v>347236527</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43" t="str">
+      <c r="A11" s="28"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F11" s="44" t="str">
+      <c r="F11" s="40" t="str">
         <f>IF(Agostometer!C11&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C11+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45">
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41">
         <f>IF(IF(Agostometer!C11&gt;0,1,0)+IF(Agostometer!G11&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
       <c r="R11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -23273,32 +25067,32 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43" t="str">
+      <c r="A12" s="28"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F12" s="44" t="str">
+      <c r="F12" s="40" t="str">
         <f>IF(Agostometer!C12&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C12+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45">
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41">
         <f>IF(IF(Agostometer!C12&gt;0,1,0)+IF(Agostometer!G12&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
       <c r="R12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -23312,36 +25106,36 @@
       </c>
       <c r="Y12">
         <f>Y4+Y5*Y8</f>
-        <v>7357</v>
+        <v>-347.03333333332557</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43" t="str">
+      <c r="A13" s="28"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F13" s="44" t="str">
+      <c r="F13" s="40" t="str">
         <f>IF(Agostometer!C13&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C13+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45">
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41">
         <f>IF(IF(Agostometer!C13&gt;0,1,0)+IF(Agostometer!G13&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
       <c r="R13">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -23355,36 +25149,36 @@
       </c>
       <c r="Y13">
         <f>-Y10+(Y8*Y8)/Y3</f>
-        <v>-8836808</v>
+        <v>-39198846.833333313</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43" t="str">
+      <c r="A14" s="28"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F14" s="44" t="str">
+      <c r="F14" s="40" t="str">
         <f>IF(Agostometer!C14&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C14+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45">
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41">
         <f>IF(IF(Agostometer!C14&gt;0,1,0)+IF(Agostometer!G14&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
       <c r="R14">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -23395,32 +25189,32 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="43" t="str">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F15" s="44" t="str">
+      <c r="F15" s="40" t="str">
         <f>IF(Agostometer!C15&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C15+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="45">
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="41">
         <f>IF(IF(Agostometer!C15&gt;0,1,0)+IF(Agostometer!G15&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
       <c r="R15">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -23434,36 +25228,36 @@
       </c>
       <c r="Y15">
         <f>Y12/Y13</f>
-        <v>-8.3254043767840155E-4</v>
+        <v>8.8531515941999783E-6</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="43" t="str">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F16" s="44" t="str">
+      <c r="F16" s="40" t="str">
         <f>IF(Agostometer!C16&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C16+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="45">
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="41">
         <f>IF(IF(Agostometer!C16&gt;0,1,0)+IF(Agostometer!G16&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
       <c r="R16">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -23477,36 +25271,36 @@
       </c>
       <c r="Y16">
         <f>Y5-Y15*Y6</f>
-        <v>22.223691722169363</v>
+        <v>13.903232359968959</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="43" t="str">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F17" s="44" t="str">
+      <c r="F17" s="40" t="str">
         <f>IF(Agostometer!C17&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C17+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="45">
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="41">
         <f>IF(IF(Agostometer!C17&gt;0,1,0)+IF(Agostometer!G17&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
       <c r="R17">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -23517,536 +25311,536 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="43" t="str">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F18" s="44" t="str">
+      <c r="F18" s="40" t="str">
         <f>IF(Agostometer!C18&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C18+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="45">
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="41">
         <f>IF(IF(Agostometer!C18&gt;0,1,0)+IF(Agostometer!G18&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="29"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="43" t="str">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F19" s="44" t="str">
+      <c r="F19" s="40" t="str">
         <f>IF(Agostometer!C19&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C19+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="45">
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="41">
         <f>IF(IF(Agostometer!C19&gt;0,1,0)+IF(Agostometer!G19&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="43" t="str">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F20" s="44" t="str">
+      <c r="F20" s="40" t="str">
         <f>IF(Agostometer!C20&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C20+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="45">
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="41">
         <f>IF(IF(Agostometer!C20&gt;0,1,0)+IF(Agostometer!G20&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="43" t="str">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F21" s="44" t="str">
+      <c r="F21" s="40" t="str">
         <f>IF(Agostometer!C21&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C21+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="45">
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="41">
         <f>IF(IF(Agostometer!C21&gt;0,1,0)+IF(Agostometer!G21&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="43" t="str">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F22" s="44" t="str">
+      <c r="F22" s="40" t="str">
         <f>IF(Agostometer!C22&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C22+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="45">
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="41">
         <f>IF(IF(Agostometer!C22&gt;0,1,0)+IF(Agostometer!G22&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="43" t="str">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F23" s="44" t="str">
+      <c r="F23" s="40" t="str">
         <f>IF(Agostometer!C23&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C23+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="45">
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="41">
         <f>IF(IF(Agostometer!C23&gt;0,1,0)+IF(Agostometer!G23&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="43" t="str">
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F24" s="44" t="str">
+      <c r="F24" s="40" t="str">
         <f>IF(Agostometer!C24&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C24+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="45">
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="41">
         <f>IF(IF(Agostometer!C24&gt;0,1,0)+IF(Agostometer!G24&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="43" t="str">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F25" s="44" t="str">
+      <c r="F25" s="40" t="str">
         <f>IF(Agostometer!C25&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C25+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="45">
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="41">
         <f>IF(IF(Agostometer!C25&gt;0,1,0)+IF(Agostometer!G25&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="43" t="str">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F26" s="44" t="str">
+      <c r="F26" s="40" t="str">
         <f>IF(Agostometer!C26&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C26+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="45">
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="41">
         <f>IF(IF(Agostometer!C26&gt;0,1,0)+IF(Agostometer!G26&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="43" t="str">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F27" s="44" t="str">
+      <c r="F27" s="40" t="str">
         <f>IF(Agostometer!C27&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C27+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="45">
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="41">
         <f>IF(IF(Agostometer!C27&gt;0,1,0)+IF(Agostometer!G27&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="43" t="str">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F28" s="44" t="str">
+      <c r="F28" s="40" t="str">
         <f>IF(Agostometer!C28&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C28+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="45">
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="41">
         <f>IF(IF(Agostometer!C28&gt;0,1,0)+IF(Agostometer!G28&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="43" t="str">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F29" s="44" t="str">
+      <c r="F29" s="40" t="str">
         <f>IF(Agostometer!C29&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C29+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="45">
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="41">
         <f>IF(IF(Agostometer!C29&gt;0,1,0)+IF(Agostometer!G29&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="43" t="str">
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F30" s="44" t="str">
+      <c r="F30" s="40" t="str">
         <f>IF(Agostometer!C30&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C30+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="45">
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="41">
         <f>IF(IF(Agostometer!C30&gt;0,1,0)+IF(Agostometer!G30&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="43" t="str">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F31" s="44" t="str">
+      <c r="F31" s="40" t="str">
         <f>IF(Agostometer!C31&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C31+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="45">
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="41">
         <f>IF(IF(Agostometer!C31&gt;0,1,0)+IF(Agostometer!G31&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="43" t="str">
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F32" s="44" t="str">
+      <c r="F32" s="40" t="str">
         <f>IF(Agostometer!C32&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C32+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="45">
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="41">
         <f>IF(IF(Agostometer!C32&gt;0,1,0)+IF(Agostometer!G32&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="43" t="str">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F33" s="44" t="str">
+      <c r="F33" s="40" t="str">
         <f>IF(Agostometer!C33&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C33+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="45">
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="41">
         <f>IF(IF(Agostometer!C33&gt;0,1,0)+IF(Agostometer!G33&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="43" t="str">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F34" s="44" t="str">
+      <c r="F34" s="40" t="str">
         <f>IF(Agostometer!C34&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C34+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="45">
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="41">
         <f>IF(IF(Agostometer!C34&gt;0,1,0)+IF(Agostometer!G34&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="43" t="str">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F35" s="44" t="str">
+      <c r="F35" s="40" t="str">
         <f>IF(Agostometer!C35&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C35+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="45">
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="41">
         <f>IF(IF(Agostometer!C35&gt;0,1,0)+IF(Agostometer!G35&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="43" t="str">
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F36" s="44" t="str">
+      <c r="F36" s="40" t="str">
         <f>IF(Agostometer!C36&gt;0,Grafiek_kalibratiemetingen!$R$13*Agostometer!C36+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="45">
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="41">
         <f>IF(IF(Agostometer!C36&gt;0,1,0)+IF(Agostometer!G36&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
@@ -29714,6 +31508,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/2016Robbertmetingen.xlsx
+++ b/2016Robbertmetingen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Kalibratiemetingen" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="LegePeriodicos" sheetId="3" r:id="rId3"/>
     <sheet name="Impedantiemeter" sheetId="4" r:id="rId4"/>
     <sheet name="PeriodeTest" sheetId="5" r:id="rId5"/>
-    <sheet name="VierMeters" sheetId="11" r:id="rId6"/>
+    <sheet name="DrieMeters" sheetId="11" r:id="rId6"/>
     <sheet name="Gehakas" sheetId="12" r:id="rId7"/>
     <sheet name="Augostometer" sheetId="9" r:id="rId8"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="138">
   <si>
     <t>Sample nummer</t>
   </si>
@@ -747,6 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -762,13 +763,24 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
   <dxfs count="43">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -906,18 +918,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3867,417 +3867,6 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:strRef>
-              <c:f>VierMeters!$D$3:$D$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Sample cycli</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5458</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5413</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5193</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5675</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5818</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5364</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2696</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2887</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2853</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>VierMeters!$H$3:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD74-449F-8D7C-BE4B75D50BC0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="420114696"/>
-        <c:axId val="420115024"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="420114696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="420115024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="420115024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="420114696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="nl-BE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
             <c:numRef>
               <c:f>Augostometer!$C$4:$C$14</c:f>
               <c:numCache>
@@ -4583,46 +4172,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5716,522 +5265,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6302,43 +5335,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6757,18 +5753,18 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="N2" s="64" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="N2" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:21" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -24767,20 +23763,20 @@
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -25562,15 +24558,15 @@
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G4" s="8" t="s">
@@ -25769,8 +24765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y567"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25790,7 +24786,7 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>COUNT(A$4:A$64994)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <f>COUNT(B$4:B$64994)</f>
@@ -25798,23 +24794,23 @@
       </c>
       <c r="C1">
         <f>COUNT(C$4:C$64994)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D1">
         <f>COUNT(D$4:D$64994)</f>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E1">
         <f>COUNT(E$4:E$64994)</f>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H1">
         <f>COUNT(H$4:H$64994)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I1">
         <f>COUNT(I$4:I$64994)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K1">
         <f t="shared" ref="K1:Q1" si="0">COUNT(K$4:K$65000)</f>
@@ -25822,7 +24818,7 @@
       </c>
       <c r="L1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="M1">
         <f>COUNT(M$4:M$65000)</f>
@@ -25834,7 +24830,7 @@
       </c>
       <c r="O1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="P1">
         <f t="shared" si="0"/>
@@ -25846,18 +24842,18 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="N2" s="64" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="N2" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -25922,7 +24918,7 @@
       </c>
       <c r="Y3">
         <f>COUNTIF(J4:J49994,"=1")</f>
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -25953,7 +24949,7 @@
         <v>29.2</v>
       </c>
       <c r="J4" s="41">
-        <f>IF(IF(VierMeters!D4&gt;0,1,0)+IF(VierMeters!H4&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D4&gt;0,1,0)+IF(DrieMeters!H4&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
       <c r="K4" s="28" t="s">
@@ -25988,7 +24984,7 @@
       </c>
       <c r="Y4" s="18">
         <f>-SUM(R4:R50000)</f>
-        <v>-923888.40000000014</v>
+        <v>-1812204.7</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26006,7 +25002,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="39">
-        <f t="shared" ref="F5:F20" si="1">IF(J5,H5-G5,TRIM(""))</f>
+        <f t="shared" ref="F5:F33" si="1">IF(J5,H5-G5,TRIM(""))</f>
         <v>0.5</v>
       </c>
       <c r="G5" s="40">
@@ -26019,7 +25015,7 @@
         <v>29.2</v>
       </c>
       <c r="J5" s="41">
-        <f>IF(IF(VierMeters!D5&gt;0,1,0)+IF(VierMeters!H5&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D5&gt;0,1,0)+IF(DrieMeters!H5&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
       <c r="K5" s="28" t="s">
@@ -26054,7 +25050,7 @@
       </c>
       <c r="Y5">
         <f>AVERAGEIF(J4:J49994,"=1",H4:H49994)</f>
-        <v>12.824999999999999</v>
+        <v>12.690000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -26082,15 +25078,27 @@
         <v>29.2</v>
       </c>
       <c r="J6" s="41">
-        <f>IF(IF(VierMeters!D6&gt;0,1,0)+IF(VierMeters!H6&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D6&gt;0,1,0)+IF(DrieMeters!H6&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="28"/>
+      <c r="K6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="28">
+        <v>729</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="42">
+        <v>42566</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="Q6" s="28"/>
       <c r="R6">
         <f t="shared" si="2"/>
@@ -26105,7 +25113,7 @@
       </c>
       <c r="Y6">
         <f>AVERAGEIF(J4:J49994,"=1",D4:D49994)</f>
-        <v>4638.25</v>
+        <v>4701.2333333333336</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -26136,15 +25144,27 @@
         <v>29.2</v>
       </c>
       <c r="J7" s="41">
-        <f>IF(IF(VierMeters!D7&gt;0,1,0)+IF(VierMeters!H7&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D7&gt;0,1,0)+IF(DrieMeters!H7&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="28"/>
+      <c r="K7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="28">
+        <v>729</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="42">
+        <v>42566</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="Q7" s="28"/>
       <c r="R7">
         <f t="shared" si="2"/>
@@ -26159,7 +25179,7 @@
       </c>
       <c r="Y7">
         <f>SUMIF(J4:J49994,"=1",D4:D49994)/Y3</f>
-        <v>4638.25</v>
+        <v>4701.2333333333336</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -26190,15 +25210,27 @@
         <v>29.2</v>
       </c>
       <c r="J8" s="41">
-        <f>IF(IF(VierMeters!D8&gt;0,1,0)+IF(VierMeters!H8&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D8&gt;0,1,0)+IF(DrieMeters!H8&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="28"/>
+      <c r="K8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="28">
+        <v>729</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="42">
+        <v>42566</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="Q8" s="28"/>
       <c r="R8">
         <f t="shared" si="2"/>
@@ -26213,7 +25245,7 @@
       </c>
       <c r="Y8">
         <f>SUMIF(J4:J49994,"=1",D4:D49994)</f>
-        <v>74212</v>
+        <v>141037</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -26241,15 +25273,27 @@
         <v>29.2</v>
       </c>
       <c r="J9" s="41">
-        <f>IF(IF(VierMeters!D9&gt;0,1,0)+IF(VierMeters!H9&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D9&gt;0,1,0)+IF(DrieMeters!H9&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="28"/>
+      <c r="K9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="28">
+        <v>729</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="42">
+        <v>42566</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="Q9" s="28"/>
       <c r="R9">
         <f t="shared" si="2"/>
@@ -26264,7 +25308,7 @@
       </c>
       <c r="Y9">
         <f>SUMIF(J4:J49994,"=1",H4:H49994)</f>
-        <v>205.2</v>
+        <v>380.7000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -26295,15 +25339,27 @@
         <v>27.5</v>
       </c>
       <c r="J10" s="41">
-        <f>IF(IF(VierMeters!D10&gt;0,1,0)+IF(VierMeters!H10&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D10&gt;0,1,0)+IF(DrieMeters!H10&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="28"/>
+      <c r="K10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="28">
+        <v>729</v>
+      </c>
+      <c r="M10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q10" s="28"/>
       <c r="R10">
         <f t="shared" si="2"/>
@@ -26318,7 +25374,7 @@
       </c>
       <c r="Y10">
         <f>SUMIF(J4:J49994,"=1",S4:S50000)</f>
-        <v>344375273</v>
+        <v>681663369</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -26349,15 +25405,27 @@
         <v>27.5</v>
       </c>
       <c r="J11" s="41">
-        <f>IF(IF(VierMeters!D11&gt;0,1,0)+IF(VierMeters!H11&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D11&gt;0,1,0)+IF(DrieMeters!H11&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="28"/>
+      <c r="K11" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="28">
+        <v>729</v>
+      </c>
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q11" s="28"/>
       <c r="R11">
         <f t="shared" si="2"/>
@@ -26393,15 +25461,27 @@
         <v>27.5</v>
       </c>
       <c r="J12" s="41">
-        <f>IF(IF(VierMeters!D12&gt;0,1,0)+IF(VierMeters!H12&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D12&gt;0,1,0)+IF(DrieMeters!H12&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="28"/>
+      <c r="K12" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="28">
+        <v>729</v>
+      </c>
+      <c r="M12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q12" s="28"/>
       <c r="R12">
         <f t="shared" si="2"/>
@@ -26416,7 +25496,7 @@
       </c>
       <c r="Y12">
         <f>Y4+Y5*Y8</f>
-        <v>27880.499999999767</v>
+        <v>-22445.16999999946</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -26447,15 +25527,27 @@
         <v>27.5</v>
       </c>
       <c r="J13" s="41">
-        <f>IF(IF(VierMeters!D13&gt;0,1,0)+IF(VierMeters!H13&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D13&gt;0,1,0)+IF(DrieMeters!H13&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="28"/>
+      <c r="K13" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="28">
+        <v>729</v>
+      </c>
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q13" s="28"/>
       <c r="R13">
         <f t="shared" si="2"/>
@@ -26470,7 +25562,7 @@
       </c>
       <c r="Y13">
         <f>-Y10+(Y8*Y8)/Y3</f>
-        <v>-161464</v>
+        <v>-18615523.366666675</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -26501,15 +25593,27 @@
         <v>27.5</v>
       </c>
       <c r="J14" s="41">
-        <f>IF(IF(VierMeters!D14&gt;0,1,0)+IF(VierMeters!H14&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D14&gt;0,1,0)+IF(DrieMeters!H14&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="28"/>
+      <c r="K14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="28">
+        <v>729</v>
+      </c>
+      <c r="M14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q14" s="28"/>
       <c r="R14">
         <f t="shared" si="2"/>
@@ -26545,15 +25649,27 @@
         <v>27.5</v>
       </c>
       <c r="J15" s="41">
-        <f>IF(IF(VierMeters!D15&gt;0,1,0)+IF(VierMeters!H15&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D15&gt;0,1,0)+IF(DrieMeters!H15&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="29"/>
+      <c r="K15" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="28">
+        <v>729</v>
+      </c>
+      <c r="M15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q15" s="29"/>
       <c r="R15">
         <f t="shared" si="2"/>
@@ -26568,7 +25684,7 @@
       </c>
       <c r="Y15">
         <f>Y12/Y13</f>
-        <v>-0.17267316553535009</v>
+        <v>1.205723285770747E-3</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -26599,15 +25715,27 @@
         <v>27.4</v>
       </c>
       <c r="J16" s="41">
-        <f>IF(IF(VierMeters!D16&gt;0,1,0)+IF(VierMeters!H16&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D16&gt;0,1,0)+IF(DrieMeters!H16&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="29"/>
+      <c r="K16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="28">
+        <v>729</v>
+      </c>
+      <c r="M16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q16" s="29"/>
       <c r="R16">
         <f t="shared" si="2"/>
@@ -26622,7 +25750,7 @@
       </c>
       <c r="Y16">
         <f>Y5-Y15*Y6</f>
-        <v>813.72631004433754</v>
+        <v>7.0216134981583744</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -26653,15 +25781,27 @@
         <v>27.4</v>
       </c>
       <c r="J17" s="41">
-        <f>IF(IF(VierMeters!D17&gt;0,1,0)+IF(VierMeters!H17&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D17&gt;0,1,0)+IF(DrieMeters!H17&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="29"/>
+      <c r="K17" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="28">
+        <v>729</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q17" s="29"/>
       <c r="R17">
         <f t="shared" si="2"/>
@@ -26697,15 +25837,27 @@
         <v>27.4</v>
       </c>
       <c r="J18" s="41">
-        <f>IF(IF(VierMeters!D18&gt;0,1,0)+IF(VierMeters!H18&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D18&gt;0,1,0)+IF(DrieMeters!H18&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="33"/>
+      <c r="K18" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="28">
+        <v>729</v>
+      </c>
+      <c r="M18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q18" s="29"/>
       <c r="R18">
         <f t="shared" si="2"/>
@@ -26724,13 +25876,15 @@
         <v>49</v>
       </c>
       <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="D19" s="30">
+        <v>4359</v>
+      </c>
       <c r="E19" s="30">
         <v>28</v>
       </c>
-      <c r="F19" s="39" t="str">
+      <c r="F19" s="39">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.29999999999999893</v>
       </c>
       <c r="G19" s="40">
         <v>11.4</v>
@@ -26742,23 +25896,35 @@
         <v>27.7</v>
       </c>
       <c r="J19" s="41">
-        <f>IF(IF(VierMeters!D19&gt;0,1,0)+IF(VierMeters!H19&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="29"/>
+        <f>IF(IF(DrieMeters!D19&gt;0,1,0)+IF(DrieMeters!H19&gt;0,1,0)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="28">
+        <v>729</v>
+      </c>
+      <c r="M19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q19" s="29"/>
       <c r="R19">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="R19:R33" si="4">H19*D19</f>
+        <v>51000.299999999996</v>
       </c>
       <c r="S19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="S19:S33" si="5">D19*D19</f>
+        <v>19000881</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -26769,13 +25935,19 @@
         <v>41</v>
       </c>
       <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="39" t="str">
+      <c r="D20" s="30">
+        <v>4312</v>
+      </c>
+      <c r="E20" s="30">
+        <v>29</v>
+      </c>
+      <c r="F20" s="39">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G20" s="40"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="G20" s="40">
+        <v>11.1</v>
+      </c>
       <c r="H20" s="31">
         <v>11.7</v>
       </c>
@@ -26783,23 +25955,35 @@
         <v>27.7</v>
       </c>
       <c r="J20" s="41">
-        <f>IF(IF(VierMeters!D20&gt;0,1,0)+IF(VierMeters!H20&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="29"/>
+        <f>IF(IF(DrieMeters!D20&gt;0,1,0)+IF(DrieMeters!H20&gt;0,1,0)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="28">
+        <v>729</v>
+      </c>
+      <c r="M20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q20" s="29"/>
       <c r="R20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>50450.399999999994</v>
       </c>
       <c r="S20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>18593344</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -26827,306 +26011,746 @@
         <v>27.7</v>
       </c>
       <c r="J21" s="41">
-        <f>IF(IF(VierMeters!D21&gt;0,1,0)+IF(VierMeters!H21&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D21&gt;0,1,0)+IF(DrieMeters!H21&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="29"/>
+      <c r="K21" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="28">
+        <v>729</v>
+      </c>
+      <c r="M21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q21" s="29"/>
+      <c r="R21">
+        <f t="shared" si="4"/>
+        <v>47373.299999999996</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="5"/>
+        <v>16394401</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="29">
+        <v>9309</v>
+      </c>
       <c r="B22" s="28" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
+      <c r="D22" s="30">
+        <v>4627</v>
+      </c>
+      <c r="E22" s="30">
+        <v>28</v>
+      </c>
+      <c r="F22" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="40">
+        <v>12</v>
+      </c>
+      <c r="H22" s="31">
+        <v>12</v>
+      </c>
+      <c r="I22" s="31">
+        <v>28</v>
+      </c>
       <c r="J22" s="41">
-        <f>IF(IF(VierMeters!D22&gt;0,1,0)+IF(VierMeters!H22&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="29"/>
+        <f>IF(IF(DrieMeters!D22&gt;0,1,0)+IF(DrieMeters!H22&gt;0,1,0)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="28">
+        <v>729</v>
+      </c>
+      <c r="M22" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q22" s="29"/>
+      <c r="R22">
+        <f t="shared" si="4"/>
+        <v>55524</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="5"/>
+        <v>21409129</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="29">
+        <v>9309</v>
+      </c>
       <c r="B23" s="28" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="D23" s="30">
+        <v>4506</v>
+      </c>
+      <c r="E23" s="30">
+        <v>29</v>
+      </c>
+      <c r="F23" s="39">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="40">
+        <v>11.5</v>
+      </c>
+      <c r="H23" s="31">
+        <v>12</v>
+      </c>
+      <c r="I23" s="31">
+        <v>28</v>
+      </c>
       <c r="J23" s="41">
-        <f>IF(IF(VierMeters!D23&gt;0,1,0)+IF(VierMeters!H23&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="29"/>
+        <f>IF(IF(DrieMeters!D23&gt;0,1,0)+IF(DrieMeters!H23&gt;0,1,0)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="28">
+        <v>729</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q23" s="29"/>
+      <c r="R23">
+        <f t="shared" si="4"/>
+        <v>54072</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="5"/>
+        <v>20304036</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="29">
+        <v>9309</v>
+      </c>
       <c r="B24" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="C24" s="30">
+        <v>21317</v>
+      </c>
+      <c r="D24" s="30">
+        <v>4299</v>
+      </c>
+      <c r="E24" s="30">
+        <v>29</v>
+      </c>
       <c r="F24" s="39"/>
       <c r="G24" s="40"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
+      <c r="H24" s="31">
+        <v>12</v>
+      </c>
+      <c r="I24" s="31">
+        <v>28</v>
+      </c>
       <c r="J24" s="41">
-        <f>IF(IF(VierMeters!D24&gt;0,1,0)+IF(VierMeters!H24&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="29"/>
+        <f>IF(IF(DrieMeters!D24&gt;0,1,0)+IF(DrieMeters!H24&gt;0,1,0)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="28">
+        <v>729</v>
+      </c>
+      <c r="M24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q24" s="29"/>
+      <c r="R24">
+        <f t="shared" si="4"/>
+        <v>51588</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="5"/>
+        <v>18481401</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="29">
+        <v>9303</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="29"/>
+      <c r="D25" s="30">
+        <v>4732</v>
+      </c>
+      <c r="E25" s="30">
+        <v>29</v>
+      </c>
+      <c r="F25" s="39">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="G25" s="40">
+        <v>12.2</v>
+      </c>
+      <c r="H25" s="31">
+        <v>12.1</v>
+      </c>
+      <c r="I25" s="31">
+        <v>27.7</v>
+      </c>
+      <c r="J25" s="41">
+        <f>IF(IF(DrieMeters!D25&gt;0,1,0)+IF(DrieMeters!H25&gt;0,1,0)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="28">
+        <v>729</v>
+      </c>
+      <c r="M25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P25" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q25" s="29"/>
+      <c r="R25">
+        <f t="shared" si="4"/>
+        <v>57257.2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="5"/>
+        <v>22391824</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="29">
+        <v>9303</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="D26" s="30">
+        <v>4765</v>
+      </c>
+      <c r="E26" s="37">
+        <v>30</v>
+      </c>
+      <c r="F26" s="39">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="G26" s="40">
+        <v>12</v>
+      </c>
+      <c r="H26" s="31">
+        <v>12.1</v>
+      </c>
+      <c r="I26" s="31">
+        <v>27.7</v>
+      </c>
       <c r="J26" s="41">
-        <f>IF(IF(VierMeters!D26&gt;0,1,0)+IF(VierMeters!H26&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="29"/>
+        <f>IF(IF(DrieMeters!D26&gt;0,1,0)+IF(DrieMeters!H26&gt;0,1,0)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="28">
+        <v>729</v>
+      </c>
+      <c r="M26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q26" s="29"/>
+      <c r="R26">
+        <f t="shared" si="4"/>
+        <v>57656.5</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
+        <v>22705225</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="A27" s="29">
+        <v>9303</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="30">
+        <v>21362</v>
+      </c>
+      <c r="D27" s="30">
+        <v>4490</v>
+      </c>
+      <c r="E27" s="30">
+        <v>30</v>
+      </c>
       <c r="F27" s="39"/>
       <c r="G27" s="40"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
+      <c r="H27" s="31">
+        <v>12.1</v>
+      </c>
+      <c r="I27" s="31">
+        <v>27.7</v>
+      </c>
       <c r="J27" s="41">
-        <f>IF(IF(VierMeters!D27&gt;0,1,0)+IF(VierMeters!H27&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="29"/>
+        <f>IF(IF(DrieMeters!D27&gt;0,1,0)+IF(DrieMeters!H27&gt;0,1,0)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="28">
+        <v>729</v>
+      </c>
+      <c r="M27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q27" s="29"/>
+      <c r="R27">
+        <f t="shared" si="4"/>
+        <v>54329</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="5"/>
+        <v>20160100</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="29">
+        <v>9304</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
+      <c r="D28" s="30">
+        <v>5384</v>
+      </c>
+      <c r="E28" s="30">
+        <v>29</v>
+      </c>
+      <c r="F28" s="39">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="G28" s="40">
+        <v>13.5</v>
+      </c>
+      <c r="H28" s="31">
+        <v>13.6</v>
+      </c>
+      <c r="I28" s="31">
+        <v>27.7</v>
+      </c>
       <c r="J28" s="41">
-        <f>IF(IF(VierMeters!D28&gt;0,1,0)+IF(VierMeters!H28&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="29"/>
+        <f>IF(IF(DrieMeters!D28&gt;0,1,0)+IF(DrieMeters!H28&gt;0,1,0)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="28">
+        <v>729</v>
+      </c>
+      <c r="M28" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P28" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q28" s="29"/>
+      <c r="R28">
+        <f t="shared" si="4"/>
+        <v>73222.399999999994</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="5"/>
+        <v>28987456</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="29">
+        <v>9304</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
+      <c r="D29" s="30">
+        <v>5343</v>
+      </c>
+      <c r="E29" s="30">
+        <v>30</v>
+      </c>
+      <c r="F29" s="39">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="G29" s="40">
+        <v>13.2</v>
+      </c>
+      <c r="H29" s="31">
+        <v>13.6</v>
+      </c>
+      <c r="I29" s="31">
+        <v>27.7</v>
+      </c>
       <c r="J29" s="41">
-        <f>IF(IF(VierMeters!D29&gt;0,1,0)+IF(VierMeters!H29&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="29"/>
+        <f>IF(IF(DrieMeters!D29&gt;0,1,0)+IF(DrieMeters!H29&gt;0,1,0)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="28">
+        <v>729</v>
+      </c>
+      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P29" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q29" s="29"/>
+      <c r="R29">
+        <f t="shared" si="4"/>
+        <v>72664.800000000003</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="5"/>
+        <v>28547649</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
+      <c r="A30" s="29">
+        <v>9304</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="30">
+        <v>21355</v>
+      </c>
+      <c r="D30" s="30">
+        <v>5124</v>
+      </c>
+      <c r="E30" s="30">
+        <v>30</v>
+      </c>
       <c r="F30" s="39"/>
       <c r="G30" s="40"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
+      <c r="H30" s="31">
+        <v>13.6</v>
+      </c>
+      <c r="I30" s="31">
+        <v>27.7</v>
+      </c>
       <c r="J30" s="41">
-        <f>IF(IF(VierMeters!D30&gt;0,1,0)+IF(VierMeters!H30&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="29"/>
+        <f>IF(IF(DrieMeters!D30&gt;0,1,0)+IF(DrieMeters!H30&gt;0,1,0)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="28">
+        <v>729</v>
+      </c>
+      <c r="M30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q30" s="29"/>
+      <c r="R30">
+        <f t="shared" si="4"/>
+        <v>69686.399999999994</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="5"/>
+        <v>26255376</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <v>9301</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="D31" s="13">
+        <v>5299</v>
+      </c>
+      <c r="E31" s="13">
+        <v>29</v>
+      </c>
+      <c r="F31" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="G31" s="24">
+        <v>13.4</v>
+      </c>
+      <c r="H31" s="12">
+        <v>13</v>
+      </c>
+      <c r="I31" s="12">
+        <v>27.6</v>
+      </c>
       <c r="J31" s="2">
-        <f>IF(IF(VierMeters!D31&gt;0,1,0)+IF(VierMeters!H31&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="29"/>
+        <f>IF(IF(DrieMeters!D31&gt;0,1,0)+IF(DrieMeters!H31&gt;0,1,0)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="28">
+        <v>729</v>
+      </c>
+      <c r="M31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q31" s="29"/>
+      <c r="R31">
+        <f t="shared" si="4"/>
+        <v>68887</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="5"/>
+        <v>28079401</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
+        <v>9301</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="26" t="str">
-        <f t="shared" ref="F32:F62" si="4">IF(J32,H32-G32,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="G32" s="24" t="str">
-        <f>IF(VierMeters!D32&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D32+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="D32" s="13">
+        <v>4937</v>
+      </c>
+      <c r="E32" s="13">
+        <v>30</v>
+      </c>
+      <c r="F32" s="39">
+        <f t="shared" si="1"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="G32" s="24">
+        <v>12.4</v>
+      </c>
+      <c r="H32" s="12">
+        <v>13</v>
+      </c>
+      <c r="I32" s="12">
+        <v>27.6</v>
+      </c>
       <c r="J32" s="2">
-        <f>IF(IF(VierMeters!D32&gt;0,1,0)+IF(VierMeters!H32&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="29"/>
+        <f>IF(IF(DrieMeters!D32&gt;0,1,0)+IF(DrieMeters!H32&gt;0,1,0)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="28">
+        <v>729</v>
+      </c>
+      <c r="M32" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q32" s="29"/>
-    </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="26" t="str">
+      <c r="R32">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G33" s="24" t="str">
-        <f>IF(VierMeters!D33&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D33+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+        <v>64181</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="5"/>
+        <v>24373969</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="29">
+        <v>9301</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="13">
+        <v>21116</v>
+      </c>
+      <c r="D33" s="13">
+        <v>4648</v>
+      </c>
+      <c r="E33" s="13">
+        <v>30</v>
+      </c>
+      <c r="F33" s="39"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="12">
+        <v>13</v>
+      </c>
+      <c r="I33" s="12">
+        <v>27.6</v>
+      </c>
       <c r="J33" s="2">
-        <f>IF(IF(VierMeters!D33&gt;0,1,0)+IF(VierMeters!H33&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="29"/>
+        <f>IF(IF(DrieMeters!D33&gt;0,1,0)+IF(DrieMeters!H33&gt;0,1,0)=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K33" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="28">
+        <v>729</v>
+      </c>
+      <c r="M33" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="42">
+        <v>42570</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="Q33" s="29"/>
-    </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <f t="shared" si="4"/>
+        <v>60424</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="5"/>
+        <v>21603904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G34" s="24" t="str">
-        <f>IF(VierMeters!D34&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D34+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" ref="F32:F62" si="6">IF(J34,H34-G34,TRIM(""))</f>
+        <v/>
+      </c>
+      <c r="G34" s="24"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="2">
-        <f>IF(IF(VierMeters!D34&gt;0,1,0)+IF(VierMeters!H34&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D34&gt;0,1,0)+IF(DrieMeters!H34&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="K34" s="29"/>
@@ -27137,19 +26761,16 @@
       <c r="P34" s="29"/>
       <c r="Q34" s="29"/>
     </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G35" s="24" t="str">
-        <f>IF(VierMeters!D35&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D35+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G35" s="24"/>
       <c r="J35" s="2">
-        <f>IF(IF(VierMeters!D35&gt;0,1,0)+IF(VierMeters!H35&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D35&gt;0,1,0)+IF(DrieMeters!H35&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="K35" s="29"/>
@@ -27160,22 +26781,19 @@
       <c r="P35" s="29"/>
       <c r="Q35" s="29"/>
     </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G36" s="24" t="str">
-        <f>IF(VierMeters!D36&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D36+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G36" s="24"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="2">
-        <f>IF(IF(VierMeters!D36&gt;0,1,0)+IF(VierMeters!H36&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D36&gt;0,1,0)+IF(DrieMeters!H36&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="K36" s="29"/>
@@ -27186,239 +26804,203 @@
       <c r="P36" s="29"/>
       <c r="Q36" s="29"/>
     </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G37" s="24" t="str">
-        <f>IF(VierMeters!D37&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D37+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G37" s="24"/>
       <c r="J37" s="2">
-        <f>IF(IF(VierMeters!D37&gt;0,1,0)+IF(VierMeters!H37&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D37&gt;0,1,0)+IF(DrieMeters!H37&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O37" s="7"/>
     </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G38" s="24" t="str">
-        <f>IF(VierMeters!D38&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D38+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G38" s="24"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="2">
-        <f>IF(IF(VierMeters!D38&gt;0,1,0)+IF(VierMeters!H38&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D38&gt;0,1,0)+IF(DrieMeters!H38&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G39" s="24" t="str">
-        <f>IF(VierMeters!D39&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D39+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G39" s="24"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="2">
-        <f>IF(IF(VierMeters!D39&gt;0,1,0)+IF(VierMeters!H39&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D39&gt;0,1,0)+IF(DrieMeters!H39&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O39" s="7"/>
     </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G40" s="24" t="str">
-        <f>IF(VierMeters!D40&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D40+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G40" s="24"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="2">
-        <f>IF(IF(VierMeters!D40&gt;0,1,0)+IF(VierMeters!H40&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D40&gt;0,1,0)+IF(DrieMeters!H40&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O40" s="7"/>
     </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G41" s="24" t="str">
-        <f>IF(VierMeters!D41&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D41+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G41" s="24"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="2">
-        <f>IF(IF(VierMeters!D41&gt;0,1,0)+IF(VierMeters!H41&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D41&gt;0,1,0)+IF(DrieMeters!H41&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O41" s="7"/>
     </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G42" s="24" t="str">
-        <f>IF(VierMeters!D42&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D42+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G42" s="24"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="2">
-        <f>IF(IF(VierMeters!D42&gt;0,1,0)+IF(VierMeters!H42&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D42&gt;0,1,0)+IF(DrieMeters!H42&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O42" s="7"/>
     </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G43" s="24" t="str">
-        <f>IF(VierMeters!D43&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D43+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G43" s="24"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="2">
-        <f>IF(IF(VierMeters!D43&gt;0,1,0)+IF(VierMeters!H43&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D43&gt;0,1,0)+IF(DrieMeters!H43&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O43" s="7"/>
     </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G44" s="24" t="str">
-        <f>IF(VierMeters!D44&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D44+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G44" s="24"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="2">
-        <f>IF(IF(VierMeters!D44&gt;0,1,0)+IF(VierMeters!H44&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D44&gt;0,1,0)+IF(DrieMeters!H44&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O44" s="7"/>
     </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G45" s="24" t="str">
-        <f>IF(VierMeters!D45&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D45+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G45" s="24"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="2">
-        <f>IF(IF(VierMeters!D45&gt;0,1,0)+IF(VierMeters!H45&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D45&gt;0,1,0)+IF(DrieMeters!H45&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O45" s="7"/>
     </row>
-    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G46" s="24" t="str">
-        <f>IF(VierMeters!D46&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D46+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G46" s="24"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="2">
-        <f>IF(IF(VierMeters!D46&gt;0,1,0)+IF(VierMeters!H46&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D46&gt;0,1,0)+IF(DrieMeters!H46&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O46" s="7"/>
     </row>
-    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G47" s="24" t="str">
-        <f>IF(VierMeters!D47&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D47+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G47" s="24"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
       <c r="J47" s="2">
-        <f>IF(IF(VierMeters!D47&gt;0,1,0)+IF(VierMeters!H47&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D47&gt;0,1,0)+IF(DrieMeters!H47&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O47" s="7"/>
     </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G48" s="24" t="str">
-        <f>IF(VierMeters!D48&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D48+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G48" s="24"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="2">
-        <f>IF(IF(VierMeters!D48&gt;0,1,0)+IF(VierMeters!H48&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D48&gt;0,1,0)+IF(DrieMeters!H48&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O48" s="7"/>
@@ -27428,17 +27010,14 @@
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G49" s="24" t="str">
-        <f>IF(VierMeters!D49&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D49+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G49" s="24"/>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="2">
-        <f>IF(IF(VierMeters!D49&gt;0,1,0)+IF(VierMeters!H49&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D49&gt;0,1,0)+IF(DrieMeters!H49&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O49" s="7"/>
@@ -27448,17 +27027,14 @@
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G50" s="24" t="str">
-        <f>IF(VierMeters!D50&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D50+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G50" s="24"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="2">
-        <f>IF(IF(VierMeters!D50&gt;0,1,0)+IF(VierMeters!H50&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D50&gt;0,1,0)+IF(DrieMeters!H50&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O50" s="7"/>
@@ -27468,17 +27044,14 @@
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G51" s="24" t="str">
-        <f>IF(VierMeters!D51&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D51+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G51" s="24"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="2">
-        <f>IF(IF(VierMeters!D51&gt;0,1,0)+IF(VierMeters!H51&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D51&gt;0,1,0)+IF(DrieMeters!H51&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O51" s="7"/>
@@ -27488,17 +27061,14 @@
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G52" s="24" t="str">
-        <f>IF(VierMeters!D52&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D52+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G52" s="24"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="2">
-        <f>IF(IF(VierMeters!D52&gt;0,1,0)+IF(VierMeters!H52&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D52&gt;0,1,0)+IF(DrieMeters!H52&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O52" s="7"/>
@@ -27508,17 +27078,14 @@
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G53" s="24" t="str">
-        <f>IF(VierMeters!D53&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D53+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G53" s="24"/>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="2">
-        <f>IF(IF(VierMeters!D53&gt;0,1,0)+IF(VierMeters!H53&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D53&gt;0,1,0)+IF(DrieMeters!H53&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O53" s="7"/>
@@ -27528,17 +27095,14 @@
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G54" s="24" t="str">
-        <f>IF(VierMeters!D54&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D54+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G54" s="24"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="2">
-        <f>IF(IF(VierMeters!D54&gt;0,1,0)+IF(VierMeters!H54&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D54&gt;0,1,0)+IF(DrieMeters!H54&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O54" s="7"/>
@@ -27548,17 +27112,14 @@
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G55" s="24" t="str">
-        <f>IF(VierMeters!D55&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D55+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G55" s="24"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="2">
-        <f>IF(IF(VierMeters!D55&gt;0,1,0)+IF(VierMeters!H55&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D55&gt;0,1,0)+IF(DrieMeters!H55&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O55" s="7"/>
@@ -27568,17 +27129,14 @@
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G56" s="24" t="str">
-        <f>IF(VierMeters!D56&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D56+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G56" s="24"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="2">
-        <f>IF(IF(VierMeters!D56&gt;0,1,0)+IF(VierMeters!H56&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D56&gt;0,1,0)+IF(DrieMeters!H56&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O56" s="7"/>
@@ -27588,17 +27146,14 @@
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G57" s="24" t="str">
-        <f>IF(VierMeters!D57&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D57+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G57" s="24"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
       <c r="J57" s="2">
-        <f>IF(IF(VierMeters!D57&gt;0,1,0)+IF(VierMeters!H57&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D57&gt;0,1,0)+IF(DrieMeters!H57&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O57" s="7"/>
@@ -27608,17 +27163,14 @@
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G58" s="24" t="str">
-        <f>IF(VierMeters!D58&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D58+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G58" s="24"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
       <c r="J58" s="2">
-        <f>IF(IF(VierMeters!D58&gt;0,1,0)+IF(VierMeters!H58&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D58&gt;0,1,0)+IF(DrieMeters!H58&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O58" s="7"/>
@@ -27628,17 +27180,14 @@
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G59" s="24" t="str">
-        <f>IF(VierMeters!D59&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D59+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G59" s="24"/>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
       <c r="J59" s="2">
-        <f>IF(IF(VierMeters!D59&gt;0,1,0)+IF(VierMeters!H59&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D59&gt;0,1,0)+IF(DrieMeters!H59&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O59" s="7"/>
@@ -27648,17 +27197,14 @@
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G60" s="24" t="str">
-        <f>IF(VierMeters!D60&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D60+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G60" s="24"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="2">
-        <f>IF(IF(VierMeters!D60&gt;0,1,0)+IF(VierMeters!H60&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D60&gt;0,1,0)+IF(DrieMeters!H60&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O60" s="7"/>
@@ -27668,17 +27214,14 @@
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G61" s="24" t="str">
-        <f>IF(VierMeters!D61&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D61+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G61" s="24"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="2">
-        <f>IF(IF(VierMeters!D61&gt;0,1,0)+IF(VierMeters!H61&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D61&gt;0,1,0)+IF(DrieMeters!H61&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O61" s="7"/>
@@ -27688,17 +27231,17 @@
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G62" s="24" t="str">
-        <f>IF(VierMeters!D62&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D62+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D62&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D62+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="2">
-        <f>IF(IF(VierMeters!D62&gt;0,1,0)+IF(VierMeters!H62&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D62&gt;0,1,0)+IF(DrieMeters!H62&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O62" s="7"/>
@@ -27708,17 +27251,17 @@
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="26" t="str">
-        <f t="shared" ref="F63:F97" si="5">IF(J63,H63-G63,TRIM(""))</f>
+        <f t="shared" ref="F63:F97" si="7">IF(J63,H63-G63,TRIM(""))</f>
         <v/>
       </c>
       <c r="G63" s="24" t="str">
-        <f>IF(VierMeters!D63&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D63+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D63&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D63+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="2">
-        <f>IF(IF(VierMeters!D63&gt;0,1,0)+IF(VierMeters!H63&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D63&gt;0,1,0)+IF(DrieMeters!H63&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O63" s="14"/>
@@ -27728,17 +27271,17 @@
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G64" s="24" t="str">
-        <f>IF(VierMeters!D64&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D64+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D64&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D64+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="2">
-        <f>IF(IF(VierMeters!D64&gt;0,1,0)+IF(VierMeters!H64&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D64&gt;0,1,0)+IF(DrieMeters!H64&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O64" s="14"/>
@@ -27748,17 +27291,17 @@
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G65" s="24" t="str">
-        <f>IF(VierMeters!D65&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D65+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D65&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D65+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="2">
-        <f>IF(IF(VierMeters!D65&gt;0,1,0)+IF(VierMeters!H65&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D65&gt;0,1,0)+IF(DrieMeters!H65&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O65" s="14"/>
@@ -27768,17 +27311,17 @@
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G66" s="24" t="str">
-        <f>IF(VierMeters!D66&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D66+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D66&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D66+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
       <c r="J66" s="2">
-        <f>IF(IF(VierMeters!D66&gt;0,1,0)+IF(VierMeters!H66&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D66&gt;0,1,0)+IF(DrieMeters!H66&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O66" s="14"/>
@@ -27788,17 +27331,17 @@
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G67" s="24" t="str">
-        <f>IF(VierMeters!D67&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D67+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D67&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D67+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="2">
-        <f>IF(IF(VierMeters!D67&gt;0,1,0)+IF(VierMeters!H67&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D67&gt;0,1,0)+IF(DrieMeters!H67&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O67" s="14"/>
@@ -27808,17 +27351,17 @@
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G68" s="24" t="str">
-        <f>IF(VierMeters!D68&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D68+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D68&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D68+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="2">
-        <f>IF(IF(VierMeters!D68&gt;0,1,0)+IF(VierMeters!H68&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D68&gt;0,1,0)+IF(DrieMeters!H68&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O68" s="14"/>
@@ -27828,17 +27371,17 @@
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G69" s="24" t="str">
-        <f>IF(VierMeters!D69&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D69+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D69&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D69+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="2">
-        <f>IF(IF(VierMeters!D69&gt;0,1,0)+IF(VierMeters!H69&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D69&gt;0,1,0)+IF(DrieMeters!H69&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O69" s="14"/>
@@ -27848,17 +27391,17 @@
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G70" s="24" t="str">
-        <f>IF(VierMeters!D70&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D70+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D70&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D70+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="2">
-        <f>IF(IF(VierMeters!D70&gt;0,1,0)+IF(VierMeters!H70&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D70&gt;0,1,0)+IF(DrieMeters!H70&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O70" s="14"/>
@@ -27867,15 +27410,15 @@
       <c r="C71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G71" s="24" t="str">
-        <f>IF(VierMeters!D71&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D71+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D71&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D71+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J71" s="2">
-        <f>IF(IF(VierMeters!D71&gt;0,1,0)+IF(VierMeters!H71&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D71&gt;0,1,0)+IF(DrieMeters!H71&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O71" s="14"/>
@@ -27885,17 +27428,17 @@
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G72" s="24" t="str">
-        <f>IF(VierMeters!D72&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D72+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D72&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D72+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="2">
-        <f>IF(IF(VierMeters!D72&gt;0,1,0)+IF(VierMeters!H72&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D72&gt;0,1,0)+IF(DrieMeters!H72&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O72" s="14"/>
@@ -27905,17 +27448,17 @@
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G73" s="24" t="str">
-        <f>IF(VierMeters!D73&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D73+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D73&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D73+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
       <c r="J73" s="2">
-        <f>IF(IF(VierMeters!D73&gt;0,1,0)+IF(VierMeters!H73&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D73&gt;0,1,0)+IF(DrieMeters!H73&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O73" s="14"/>
@@ -27924,15 +27467,15 @@
       <c r="C74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G74" s="24" t="str">
-        <f>IF(VierMeters!D74&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D74+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D74&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D74+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J74" s="2">
-        <f>IF(IF(VierMeters!D74&gt;0,1,0)+IF(VierMeters!H74&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D74&gt;0,1,0)+IF(DrieMeters!H74&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O74" s="14"/>
@@ -27942,17 +27485,17 @@
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G75" s="24" t="str">
-        <f>IF(VierMeters!D75&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D75+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D75&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D75+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="2">
-        <f>IF(IF(VierMeters!D75&gt;0,1,0)+IF(VierMeters!H75&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D75&gt;0,1,0)+IF(DrieMeters!H75&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O75" s="14"/>
@@ -27962,17 +27505,17 @@
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G76" s="24" t="str">
-        <f>IF(VierMeters!D76&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D76+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D76&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D76+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="2">
-        <f>IF(IF(VierMeters!D76&gt;0,1,0)+IF(VierMeters!H76&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D76&gt;0,1,0)+IF(DrieMeters!H76&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -27981,17 +27524,17 @@
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G77" s="24" t="str">
-        <f>IF(VierMeters!D77&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D77+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D77&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D77+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="2">
-        <f>IF(IF(VierMeters!D77&gt;0,1,0)+IF(VierMeters!H77&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D77&gt;0,1,0)+IF(DrieMeters!H77&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -28000,17 +27543,17 @@
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G78" s="24" t="str">
-        <f>IF(VierMeters!D78&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D78+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D78&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D78+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="2">
-        <f>IF(IF(VierMeters!D78&gt;0,1,0)+IF(VierMeters!H78&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D78&gt;0,1,0)+IF(DrieMeters!H78&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -28019,17 +27562,17 @@
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G79" s="24" t="str">
-        <f>IF(VierMeters!D79&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D79+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D79&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D79+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="J79" s="2">
-        <f>IF(IF(VierMeters!D79&gt;0,1,0)+IF(VierMeters!H79&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D79&gt;0,1,0)+IF(DrieMeters!H79&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -28038,17 +27581,17 @@
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G80" s="24" t="str">
-        <f>IF(VierMeters!D80&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D80+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D80&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D80+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
       <c r="J80" s="2">
-        <f>IF(IF(VierMeters!D80&gt;0,1,0)+IF(VierMeters!H80&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D80&gt;0,1,0)+IF(DrieMeters!H80&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -28057,17 +27600,17 @@
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G81" s="24" t="str">
-        <f>IF(VierMeters!D81&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D81+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D81&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D81+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="2">
-        <f>IF(IF(VierMeters!D81&gt;0,1,0)+IF(VierMeters!H81&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D81&gt;0,1,0)+IF(DrieMeters!H81&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -28076,17 +27619,17 @@
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G82" s="24" t="str">
-        <f>IF(VierMeters!D82&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D82+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D82&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D82+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
       <c r="J82" s="2">
-        <f>IF(IF(VierMeters!D82&gt;0,1,0)+IF(VierMeters!H82&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D82&gt;0,1,0)+IF(DrieMeters!H82&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -28095,17 +27638,17 @@
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G83" s="24" t="str">
-        <f>IF(VierMeters!D83&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D83+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D83&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D83+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
       <c r="J83" s="2">
-        <f>IF(IF(VierMeters!D83&gt;0,1,0)+IF(VierMeters!H83&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D83&gt;0,1,0)+IF(DrieMeters!H83&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -28114,17 +27657,17 @@
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G84" s="24" t="str">
-        <f>IF(VierMeters!D84&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D84+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D84&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D84+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="2">
-        <f>IF(IF(VierMeters!D84&gt;0,1,0)+IF(VierMeters!H84&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D84&gt;0,1,0)+IF(DrieMeters!H84&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -28133,17 +27676,17 @@
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G85" s="24" t="str">
-        <f>IF(VierMeters!D85&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D85+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D85&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D85+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="2">
-        <f>IF(IF(VierMeters!D85&gt;0,1,0)+IF(VierMeters!H85&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D85&gt;0,1,0)+IF(DrieMeters!H85&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -28152,17 +27695,17 @@
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G86" s="24" t="str">
-        <f>IF(VierMeters!D86&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D86+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D86&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D86+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="2">
-        <f>IF(IF(VierMeters!D86&gt;0,1,0)+IF(VierMeters!H86&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D86&gt;0,1,0)+IF(DrieMeters!H86&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -28171,17 +27714,17 @@
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G87" s="24" t="str">
-        <f>IF(VierMeters!D87&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D87+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D87&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D87+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="2">
-        <f>IF(IF(VierMeters!D87&gt;0,1,0)+IF(VierMeters!H87&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D87&gt;0,1,0)+IF(DrieMeters!H87&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -28190,17 +27733,17 @@
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G88" s="24" t="str">
-        <f>IF(VierMeters!D88&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D88+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D88&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D88+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="2">
-        <f>IF(IF(VierMeters!D88&gt;0,1,0)+IF(VierMeters!H88&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D88&gt;0,1,0)+IF(DrieMeters!H88&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -28209,17 +27752,17 @@
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G89" s="24" t="str">
-        <f>IF(VierMeters!D89&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D89+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D89&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D89+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
       <c r="J89" s="2">
-        <f>IF(IF(VierMeters!D89&gt;0,1,0)+IF(VierMeters!H89&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D89&gt;0,1,0)+IF(DrieMeters!H89&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -28228,45 +27771,45 @@
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G90" s="24" t="str">
-        <f>IF(VierMeters!D90&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D90+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D90&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D90+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="2">
-        <f>IF(IF(VierMeters!D90&gt;0,1,0)+IF(VierMeters!H90&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D90&gt;0,1,0)+IF(DrieMeters!H90&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F91" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G91" s="24" t="str">
-        <f>IF(VierMeters!D91&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D91+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D91&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D91+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J91" s="2">
-        <f>IF(IF(VierMeters!D91&gt;0,1,0)+IF(VierMeters!H91&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D91&gt;0,1,0)+IF(DrieMeters!H91&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F92" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G92" s="24" t="str">
-        <f>IF(VierMeters!D92&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D92+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D92&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D92+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J92" s="2">
-        <f>IF(IF(VierMeters!D92&gt;0,1,0)+IF(VierMeters!H92&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D92&gt;0,1,0)+IF(DrieMeters!H92&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -28276,11 +27819,11 @@
         <v/>
       </c>
       <c r="G93" s="24" t="str">
-        <f>IF(VierMeters!D93&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D93+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D93&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D93+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J93" s="2">
-        <f>IF(IF(VierMeters!D93&gt;0,1,0)+IF(VierMeters!H93&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D93&gt;0,1,0)+IF(DrieMeters!H93&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -28290,4417 +27833,4417 @@
         <v/>
       </c>
       <c r="G94" s="24" t="str">
-        <f>IF(VierMeters!D94&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D94+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D94&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D94+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J94" s="2">
-        <f>IF(IF(VierMeters!D94&gt;0,1,0)+IF(VierMeters!H94&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D94&gt;0,1,0)+IF(DrieMeters!H94&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F95" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G95" s="24" t="str">
-        <f>IF(VierMeters!D95&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D95+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D95&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D95+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J95" s="2">
-        <f>IF(IF(VierMeters!D95&gt;0,1,0)+IF(VierMeters!H95&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D95&gt;0,1,0)+IF(DrieMeters!H95&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F96" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G96" s="24" t="str">
-        <f>IF(VierMeters!D96&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D96+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D96&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D96+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J96" s="2">
-        <f>IF(IF(VierMeters!D96&gt;0,1,0)+IF(VierMeters!H96&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D96&gt;0,1,0)+IF(DrieMeters!H96&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F97" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G97" s="24" t="str">
-        <f>IF(VierMeters!D97&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D97+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D97&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D97+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J97" s="2">
-        <f>IF(IF(VierMeters!D97&gt;0,1,0)+IF(VierMeters!H97&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D97&gt;0,1,0)+IF(DrieMeters!H97&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G98" s="24" t="str">
-        <f>IF(VierMeters!D98&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D98+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D98&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D98+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J98" s="2">
-        <f>IF(IF(VierMeters!D98&gt;0,1,0)+IF(VierMeters!H98&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D98&gt;0,1,0)+IF(DrieMeters!H98&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G99" s="24" t="str">
-        <f>IF(VierMeters!D99&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D99+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D99&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D99+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J99" s="2">
-        <f>IF(IF(VierMeters!D99&gt;0,1,0)+IF(VierMeters!H99&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D99&gt;0,1,0)+IF(DrieMeters!H99&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G100" s="24" t="str">
-        <f>IF(VierMeters!D100&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D100+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D100&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D100+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J100" s="2">
-        <f>IF(IF(VierMeters!D100&gt;0,1,0)+IF(VierMeters!H100&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D100&gt;0,1,0)+IF(DrieMeters!H100&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G101" s="24" t="str">
-        <f>IF(VierMeters!D101&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D101+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D101&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D101+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J101" s="2">
-        <f>IF(IF(VierMeters!D101&gt;0,1,0)+IF(VierMeters!H101&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D101&gt;0,1,0)+IF(DrieMeters!H101&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G102" s="24" t="str">
-        <f>IF(VierMeters!D102&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D102+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D102&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D102+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J102" s="2">
-        <f>IF(IF(VierMeters!D102&gt;0,1,0)+IF(VierMeters!H102&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D102&gt;0,1,0)+IF(DrieMeters!H102&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G103" s="24" t="str">
-        <f>IF(VierMeters!D103&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D103+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D103&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D103+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J103" s="2">
-        <f>IF(IF(VierMeters!D103&gt;0,1,0)+IF(VierMeters!H103&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D103&gt;0,1,0)+IF(DrieMeters!H103&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G104" s="24" t="str">
-        <f>IF(VierMeters!D104&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D104+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D104&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D104+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J104" s="2">
-        <f>IF(IF(VierMeters!D104&gt;0,1,0)+IF(VierMeters!H104&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D104&gt;0,1,0)+IF(DrieMeters!H104&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G105" s="24" t="str">
-        <f>IF(VierMeters!D105&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D105+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D105&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D105+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J105" s="2">
-        <f>IF(IF(VierMeters!D105&gt;0,1,0)+IF(VierMeters!H105&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D105&gt;0,1,0)+IF(DrieMeters!H105&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G106" s="24" t="str">
-        <f>IF(VierMeters!D106&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D106+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D106&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D106+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J106" s="2">
-        <f>IF(IF(VierMeters!D106&gt;0,1,0)+IF(VierMeters!H106&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D106&gt;0,1,0)+IF(DrieMeters!H106&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G107" s="24" t="str">
-        <f>IF(VierMeters!D107&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D107+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D107&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D107+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J107" s="2">
-        <f>IF(IF(VierMeters!D107&gt;0,1,0)+IF(VierMeters!H107&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D107&gt;0,1,0)+IF(DrieMeters!H107&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G108" s="24" t="str">
-        <f>IF(VierMeters!D108&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D108+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D108&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D108+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J108" s="2">
-        <f>IF(IF(VierMeters!D108&gt;0,1,0)+IF(VierMeters!H108&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D108&gt;0,1,0)+IF(DrieMeters!H108&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G109" s="24" t="str">
-        <f>IF(VierMeters!D109&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D109+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D109&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D109+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J109" s="2">
-        <f>IF(IF(VierMeters!D109&gt;0,1,0)+IF(VierMeters!H109&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D109&gt;0,1,0)+IF(DrieMeters!H109&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G110" s="24" t="str">
-        <f>IF(VierMeters!D110&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D110+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D110&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D110+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J110" s="2">
-        <f>IF(IF(VierMeters!D110&gt;0,1,0)+IF(VierMeters!H110&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D110&gt;0,1,0)+IF(DrieMeters!H110&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G111" s="24" t="str">
-        <f>IF(VierMeters!D111&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D111+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D111&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D111+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J111" s="2">
-        <f>IF(IF(VierMeters!D111&gt;0,1,0)+IF(VierMeters!H111&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D111&gt;0,1,0)+IF(DrieMeters!H111&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G112" s="24" t="str">
-        <f>IF(VierMeters!D112&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D112+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D112&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D112+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J112" s="2">
-        <f>IF(IF(VierMeters!D112&gt;0,1,0)+IF(VierMeters!H112&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D112&gt;0,1,0)+IF(DrieMeters!H112&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G113" s="24" t="str">
-        <f>IF(VierMeters!D113&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D113+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D113&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D113+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J113" s="2">
-        <f>IF(IF(VierMeters!D113&gt;0,1,0)+IF(VierMeters!H113&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D113&gt;0,1,0)+IF(DrieMeters!H113&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G114" s="24" t="str">
-        <f>IF(VierMeters!D114&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D114+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D114&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D114+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J114" s="2">
-        <f>IF(IF(VierMeters!D114&gt;0,1,0)+IF(VierMeters!H114&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D114&gt;0,1,0)+IF(DrieMeters!H114&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G115" s="24" t="str">
-        <f>IF(VierMeters!D115&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D115+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D115&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D115+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J115" s="2">
-        <f>IF(IF(VierMeters!D115&gt;0,1,0)+IF(VierMeters!H115&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D115&gt;0,1,0)+IF(DrieMeters!H115&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G116" s="24" t="str">
-        <f>IF(VierMeters!D116&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D116+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D116&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D116+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J116" s="2">
-        <f>IF(IF(VierMeters!D116&gt;0,1,0)+IF(VierMeters!H116&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D116&gt;0,1,0)+IF(DrieMeters!H116&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G117" s="24" t="str">
-        <f>IF(VierMeters!D117&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D117+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D117&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D117+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J117" s="2">
-        <f>IF(IF(VierMeters!D117&gt;0,1,0)+IF(VierMeters!H117&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D117&gt;0,1,0)+IF(DrieMeters!H117&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G118" s="24" t="str">
-        <f>IF(VierMeters!D118&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D118+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D118&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D118+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J118" s="2">
-        <f>IF(IF(VierMeters!D118&gt;0,1,0)+IF(VierMeters!H118&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D118&gt;0,1,0)+IF(DrieMeters!H118&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G119" s="24" t="str">
-        <f>IF(VierMeters!D119&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D119+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D119&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D119+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J119" s="2">
-        <f>IF(IF(VierMeters!D119&gt;0,1,0)+IF(VierMeters!H119&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D119&gt;0,1,0)+IF(DrieMeters!H119&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G120" s="24" t="str">
-        <f>IF(VierMeters!D120&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D120+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D120&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D120+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J120" s="2">
-        <f>IF(IF(VierMeters!D120&gt;0,1,0)+IF(VierMeters!H120&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D120&gt;0,1,0)+IF(DrieMeters!H120&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G121" s="24" t="str">
-        <f>IF(VierMeters!D121&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D121+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D121&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D121+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J121" s="2">
-        <f>IF(IF(VierMeters!D121&gt;0,1,0)+IF(VierMeters!H121&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D121&gt;0,1,0)+IF(DrieMeters!H121&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G122" s="24" t="str">
-        <f>IF(VierMeters!D122&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D122+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D122&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D122+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J122" s="2">
-        <f>IF(IF(VierMeters!D122&gt;0,1,0)+IF(VierMeters!H122&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D122&gt;0,1,0)+IF(DrieMeters!H122&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G123" s="24" t="str">
-        <f>IF(VierMeters!D123&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D123+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D123&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D123+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J123" s="2">
-        <f>IF(IF(VierMeters!D123&gt;0,1,0)+IF(VierMeters!H123&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D123&gt;0,1,0)+IF(DrieMeters!H123&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G124" s="24" t="str">
-        <f>IF(VierMeters!D124&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D124+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D124&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D124+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J124" s="2">
-        <f>IF(IF(VierMeters!D124&gt;0,1,0)+IF(VierMeters!H124&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D124&gt;0,1,0)+IF(DrieMeters!H124&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G125" s="24" t="str">
-        <f>IF(VierMeters!D125&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D125+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D125&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D125+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J125" s="2">
-        <f>IF(IF(VierMeters!D125&gt;0,1,0)+IF(VierMeters!H125&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D125&gt;0,1,0)+IF(DrieMeters!H125&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G126" s="24" t="str">
-        <f>IF(VierMeters!D126&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D126+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D126&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D126+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J126" s="2">
-        <f>IF(IF(VierMeters!D126&gt;0,1,0)+IF(VierMeters!H126&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D126&gt;0,1,0)+IF(DrieMeters!H126&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G127" s="24" t="str">
-        <f>IF(VierMeters!D127&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D127+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D127&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D127+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J127" s="2">
-        <f>IF(IF(VierMeters!D127&gt;0,1,0)+IF(VierMeters!H127&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D127&gt;0,1,0)+IF(DrieMeters!H127&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G128" s="24" t="str">
-        <f>IF(VierMeters!D128&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D128+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D128&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D128+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J128" s="2">
-        <f>IF(IF(VierMeters!D128&gt;0,1,0)+IF(VierMeters!H128&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D128&gt;0,1,0)+IF(DrieMeters!H128&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G129" s="24" t="str">
-        <f>IF(VierMeters!D129&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D129+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D129&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D129+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J129" s="2">
-        <f>IF(IF(VierMeters!D129&gt;0,1,0)+IF(VierMeters!H129&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D129&gt;0,1,0)+IF(DrieMeters!H129&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G130" s="24" t="str">
-        <f>IF(VierMeters!D130&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D130+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D130&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D130+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J130" s="2">
-        <f>IF(IF(VierMeters!D130&gt;0,1,0)+IF(VierMeters!H130&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D130&gt;0,1,0)+IF(DrieMeters!H130&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G131" s="24" t="str">
-        <f>IF(VierMeters!D131&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D131+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D131&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D131+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J131" s="2">
-        <f>IF(IF(VierMeters!D131&gt;0,1,0)+IF(VierMeters!H131&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D131&gt;0,1,0)+IF(DrieMeters!H131&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G132" s="24" t="str">
-        <f>IF(VierMeters!D132&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D132+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D132&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D132+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J132" s="2">
-        <f>IF(IF(VierMeters!D132&gt;0,1,0)+IF(VierMeters!H132&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D132&gt;0,1,0)+IF(DrieMeters!H132&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G133" s="24" t="str">
-        <f>IF(VierMeters!D133&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D133+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D133&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D133+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J133" s="2">
-        <f>IF(IF(VierMeters!D133&gt;0,1,0)+IF(VierMeters!H133&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D133&gt;0,1,0)+IF(DrieMeters!H133&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G134" s="24" t="str">
-        <f>IF(VierMeters!D134&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D134+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D134&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D134+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J134" s="2">
-        <f>IF(IF(VierMeters!D134&gt;0,1,0)+IF(VierMeters!H134&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D134&gt;0,1,0)+IF(DrieMeters!H134&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G135" s="24" t="str">
-        <f>IF(VierMeters!D135&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D135+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D135&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D135+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J135" s="2">
-        <f>IF(IF(VierMeters!D135&gt;0,1,0)+IF(VierMeters!H135&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D135&gt;0,1,0)+IF(DrieMeters!H135&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G136" s="24" t="str">
-        <f>IF(VierMeters!D136&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D136+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D136&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D136+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J136" s="2">
-        <f>IF(IF(VierMeters!D136&gt;0,1,0)+IF(VierMeters!H136&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D136&gt;0,1,0)+IF(DrieMeters!H136&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G137" s="24" t="str">
-        <f>IF(VierMeters!D137&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D137+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D137&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D137+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J137" s="2">
-        <f>IF(IF(VierMeters!D137&gt;0,1,0)+IF(VierMeters!H137&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D137&gt;0,1,0)+IF(DrieMeters!H137&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G138" s="24" t="str">
-        <f>IF(VierMeters!D138&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D138+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D138&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D138+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J138" s="2">
-        <f>IF(IF(VierMeters!D138&gt;0,1,0)+IF(VierMeters!H138&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D138&gt;0,1,0)+IF(DrieMeters!H138&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G139" s="24" t="str">
-        <f>IF(VierMeters!D139&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D139+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D139&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D139+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J139" s="2">
-        <f>IF(IF(VierMeters!D139&gt;0,1,0)+IF(VierMeters!H139&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D139&gt;0,1,0)+IF(DrieMeters!H139&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G140" s="24" t="str">
-        <f>IF(VierMeters!D140&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D140+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D140&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D140+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J140" s="2">
-        <f>IF(IF(VierMeters!D140&gt;0,1,0)+IF(VierMeters!H140&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D140&gt;0,1,0)+IF(DrieMeters!H140&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G141" s="24" t="str">
-        <f>IF(VierMeters!D141&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D141+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D141&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D141+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J141" s="2">
-        <f>IF(IF(VierMeters!D141&gt;0,1,0)+IF(VierMeters!H141&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D141&gt;0,1,0)+IF(DrieMeters!H141&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G142" s="24" t="str">
-        <f>IF(VierMeters!D142&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D142+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D142&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D142+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J142" s="2">
-        <f>IF(IF(VierMeters!D142&gt;0,1,0)+IF(VierMeters!H142&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D142&gt;0,1,0)+IF(DrieMeters!H142&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G143" s="24" t="str">
-        <f>IF(VierMeters!D143&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D143+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D143&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D143+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J143" s="2">
-        <f>IF(IF(VierMeters!D143&gt;0,1,0)+IF(VierMeters!H143&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D143&gt;0,1,0)+IF(DrieMeters!H143&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G144" s="24" t="str">
-        <f>IF(VierMeters!D144&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D144+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D144&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D144+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J144" s="2">
-        <f>IF(IF(VierMeters!D144&gt;0,1,0)+IF(VierMeters!H144&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D144&gt;0,1,0)+IF(DrieMeters!H144&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G145" s="24" t="str">
-        <f>IF(VierMeters!D145&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D145+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D145&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D145+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J145" s="2">
-        <f>IF(IF(VierMeters!D145&gt;0,1,0)+IF(VierMeters!H145&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D145&gt;0,1,0)+IF(DrieMeters!H145&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G146" s="24" t="str">
-        <f>IF(VierMeters!D146&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D146+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D146&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D146+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J146" s="2">
-        <f>IF(IF(VierMeters!D146&gt;0,1,0)+IF(VierMeters!H146&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D146&gt;0,1,0)+IF(DrieMeters!H146&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G147" s="24" t="str">
-        <f>IF(VierMeters!D147&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D147+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D147&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D147+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J147" s="2">
-        <f>IF(IF(VierMeters!D147&gt;0,1,0)+IF(VierMeters!H147&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D147&gt;0,1,0)+IF(DrieMeters!H147&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G148" s="24" t="str">
-        <f>IF(VierMeters!D148&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D148+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D148&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D148+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J148" s="2">
-        <f>IF(IF(VierMeters!D148&gt;0,1,0)+IF(VierMeters!H148&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D148&gt;0,1,0)+IF(DrieMeters!H148&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G149" s="24" t="str">
-        <f>IF(VierMeters!D149&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D149+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D149&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D149+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J149" s="2">
-        <f>IF(IF(VierMeters!D149&gt;0,1,0)+IF(VierMeters!H149&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D149&gt;0,1,0)+IF(DrieMeters!H149&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G150" s="24" t="str">
-        <f>IF(VierMeters!D150&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D150+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D150&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D150+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J150" s="2">
-        <f>IF(IF(VierMeters!D150&gt;0,1,0)+IF(VierMeters!H150&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D150&gt;0,1,0)+IF(DrieMeters!H150&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G151" s="24" t="str">
-        <f>IF(VierMeters!D151&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D151+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D151&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D151+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J151" s="2">
-        <f>IF(IF(VierMeters!D151&gt;0,1,0)+IF(VierMeters!H151&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D151&gt;0,1,0)+IF(DrieMeters!H151&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G152" s="24" t="str">
-        <f>IF(VierMeters!D152&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D152+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D152&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D152+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J152" s="2">
-        <f>IF(IF(VierMeters!D152&gt;0,1,0)+IF(VierMeters!H152&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D152&gt;0,1,0)+IF(DrieMeters!H152&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G153" s="24" t="str">
-        <f>IF(VierMeters!D153&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D153+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D153&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D153+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J153" s="2">
-        <f>IF(IF(VierMeters!D153&gt;0,1,0)+IF(VierMeters!H153&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D153&gt;0,1,0)+IF(DrieMeters!H153&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G154" s="24" t="str">
-        <f>IF(VierMeters!D154&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D154+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D154&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D154+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J154" s="2">
-        <f>IF(IF(VierMeters!D154&gt;0,1,0)+IF(VierMeters!H154&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D154&gt;0,1,0)+IF(DrieMeters!H154&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G155" s="24" t="str">
-        <f>IF(VierMeters!D155&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D155+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D155&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D155+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J155" s="2">
-        <f>IF(IF(VierMeters!D155&gt;0,1,0)+IF(VierMeters!H155&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D155&gt;0,1,0)+IF(DrieMeters!H155&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G156" s="24" t="str">
-        <f>IF(VierMeters!D156&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D156+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D156&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D156+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J156" s="2">
-        <f>IF(IF(VierMeters!D156&gt;0,1,0)+IF(VierMeters!H156&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D156&gt;0,1,0)+IF(DrieMeters!H156&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G157" s="24" t="str">
-        <f>IF(VierMeters!D157&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D157+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D157&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D157+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J157" s="2">
-        <f>IF(IF(VierMeters!D157&gt;0,1,0)+IF(VierMeters!H157&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D157&gt;0,1,0)+IF(DrieMeters!H157&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G158" s="24" t="str">
-        <f>IF(VierMeters!D158&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D158+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D158&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D158+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J158" s="2">
-        <f>IF(IF(VierMeters!D158&gt;0,1,0)+IF(VierMeters!H158&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D158&gt;0,1,0)+IF(DrieMeters!H158&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G159" s="24" t="str">
-        <f>IF(VierMeters!D159&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D159+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D159&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D159+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J159" s="2">
-        <f>IF(IF(VierMeters!D159&gt;0,1,0)+IF(VierMeters!H159&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D159&gt;0,1,0)+IF(DrieMeters!H159&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G160" s="24" t="str">
-        <f>IF(VierMeters!D160&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D160+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D160&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D160+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J160" s="2">
-        <f>IF(IF(VierMeters!D160&gt;0,1,0)+IF(VierMeters!H160&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D160&gt;0,1,0)+IF(DrieMeters!H160&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G161" s="24" t="str">
-        <f>IF(VierMeters!D161&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D161+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D161&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D161+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J161" s="2">
-        <f>IF(IF(VierMeters!D161&gt;0,1,0)+IF(VierMeters!H161&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D161&gt;0,1,0)+IF(DrieMeters!H161&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G162" s="24" t="str">
-        <f>IF(VierMeters!D162&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D162+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D162&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D162+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J162" s="2">
-        <f>IF(IF(VierMeters!D162&gt;0,1,0)+IF(VierMeters!H162&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D162&gt;0,1,0)+IF(DrieMeters!H162&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G163" s="24" t="str">
-        <f>IF(VierMeters!D163&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D163+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D163&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D163+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J163" s="2">
-        <f>IF(IF(VierMeters!D163&gt;0,1,0)+IF(VierMeters!H163&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D163&gt;0,1,0)+IF(DrieMeters!H163&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G164" s="24" t="str">
-        <f>IF(VierMeters!D164&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D164+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D164&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D164+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J164" s="2">
-        <f>IF(IF(VierMeters!D164&gt;0,1,0)+IF(VierMeters!H164&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D164&gt;0,1,0)+IF(DrieMeters!H164&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G165" s="24" t="str">
-        <f>IF(VierMeters!D165&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D165+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D165&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D165+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J165" s="2">
-        <f>IF(IF(VierMeters!D165&gt;0,1,0)+IF(VierMeters!H165&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D165&gt;0,1,0)+IF(DrieMeters!H165&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G166" s="24" t="str">
-        <f>IF(VierMeters!D166&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D166+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D166&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D166+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J166" s="2">
-        <f>IF(IF(VierMeters!D166&gt;0,1,0)+IF(VierMeters!H166&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D166&gt;0,1,0)+IF(DrieMeters!H166&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G167" s="24" t="str">
-        <f>IF(VierMeters!D167&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D167+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D167&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D167+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J167" s="2">
-        <f>IF(IF(VierMeters!D167&gt;0,1,0)+IF(VierMeters!H167&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D167&gt;0,1,0)+IF(DrieMeters!H167&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G168" s="24" t="str">
-        <f>IF(VierMeters!D168&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D168+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D168&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D168+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J168" s="2">
-        <f>IF(IF(VierMeters!D168&gt;0,1,0)+IF(VierMeters!H168&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D168&gt;0,1,0)+IF(DrieMeters!H168&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G169" s="24" t="str">
-        <f>IF(VierMeters!D169&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D169+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D169&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D169+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J169" s="2">
-        <f>IF(IF(VierMeters!D169&gt;0,1,0)+IF(VierMeters!H169&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D169&gt;0,1,0)+IF(DrieMeters!H169&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G170" s="24" t="str">
-        <f>IF(VierMeters!D170&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D170+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D170&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D170+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J170" s="2">
-        <f>IF(IF(VierMeters!D170&gt;0,1,0)+IF(VierMeters!H170&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D170&gt;0,1,0)+IF(DrieMeters!H170&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G171" s="24" t="str">
-        <f>IF(VierMeters!D171&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D171+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D171&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D171+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J171" s="2">
-        <f>IF(IF(VierMeters!D171&gt;0,1,0)+IF(VierMeters!H171&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D171&gt;0,1,0)+IF(DrieMeters!H171&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G172" s="24" t="str">
-        <f>IF(VierMeters!D172&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D172+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D172&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D172+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J172" s="2">
-        <f>IF(IF(VierMeters!D172&gt;0,1,0)+IF(VierMeters!H172&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D172&gt;0,1,0)+IF(DrieMeters!H172&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G173" s="24" t="str">
-        <f>IF(VierMeters!D173&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D173+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D173&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D173+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J173" s="2">
-        <f>IF(IF(VierMeters!D173&gt;0,1,0)+IF(VierMeters!H173&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D173&gt;0,1,0)+IF(DrieMeters!H173&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G174" s="24" t="str">
-        <f>IF(VierMeters!D174&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D174+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D174&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D174+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J174" s="2">
-        <f>IF(IF(VierMeters!D174&gt;0,1,0)+IF(VierMeters!H174&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D174&gt;0,1,0)+IF(DrieMeters!H174&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G175" s="24" t="str">
-        <f>IF(VierMeters!D175&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D175+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D175&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D175+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J175" s="2">
-        <f>IF(IF(VierMeters!D175&gt;0,1,0)+IF(VierMeters!H175&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D175&gt;0,1,0)+IF(DrieMeters!H175&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G176" s="24" t="str">
-        <f>IF(VierMeters!D176&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D176+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D176&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D176+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J176" s="2">
-        <f>IF(IF(VierMeters!D176&gt;0,1,0)+IF(VierMeters!H176&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D176&gt;0,1,0)+IF(DrieMeters!H176&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G177" s="24" t="str">
-        <f>IF(VierMeters!D177&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D177+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D177&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D177+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J177" s="2">
-        <f>IF(IF(VierMeters!D177&gt;0,1,0)+IF(VierMeters!H177&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D177&gt;0,1,0)+IF(DrieMeters!H177&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G178" s="24" t="str">
-        <f>IF(VierMeters!D178&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D178+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D178&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D178+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J178" s="2">
-        <f>IF(IF(VierMeters!D178&gt;0,1,0)+IF(VierMeters!H178&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D178&gt;0,1,0)+IF(DrieMeters!H178&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G179" s="24" t="str">
-        <f>IF(VierMeters!D179&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D179+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D179&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D179+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J179" s="2">
-        <f>IF(IF(VierMeters!D179&gt;0,1,0)+IF(VierMeters!H179&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D179&gt;0,1,0)+IF(DrieMeters!H179&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G180" s="24" t="str">
-        <f>IF(VierMeters!D180&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D180+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D180&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D180+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J180" s="2">
-        <f>IF(IF(VierMeters!D180&gt;0,1,0)+IF(VierMeters!H180&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D180&gt;0,1,0)+IF(DrieMeters!H180&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G181" s="24" t="str">
-        <f>IF(VierMeters!D181&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D181+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D181&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D181+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J181" s="2">
-        <f>IF(IF(VierMeters!D181&gt;0,1,0)+IF(VierMeters!H181&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D181&gt;0,1,0)+IF(DrieMeters!H181&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G182" s="24" t="str">
-        <f>IF(VierMeters!D182&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D182+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D182&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D182+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J182" s="2">
-        <f>IF(IF(VierMeters!D182&gt;0,1,0)+IF(VierMeters!H182&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D182&gt;0,1,0)+IF(DrieMeters!H182&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G183" s="24" t="str">
-        <f>IF(VierMeters!D183&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D183+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D183&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D183+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J183" s="2">
-        <f>IF(IF(VierMeters!D183&gt;0,1,0)+IF(VierMeters!H183&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D183&gt;0,1,0)+IF(DrieMeters!H183&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G184" s="24" t="str">
-        <f>IF(VierMeters!D184&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D184+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D184&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D184+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J184" s="2">
-        <f>IF(IF(VierMeters!D184&gt;0,1,0)+IF(VierMeters!H184&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D184&gt;0,1,0)+IF(DrieMeters!H184&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G185" s="24" t="str">
-        <f>IF(VierMeters!D185&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D185+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D185&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D185+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J185" s="2">
-        <f>IF(IF(VierMeters!D185&gt;0,1,0)+IF(VierMeters!H185&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D185&gt;0,1,0)+IF(DrieMeters!H185&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G186" s="24" t="str">
-        <f>IF(VierMeters!D186&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D186+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D186&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D186+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J186" s="2">
-        <f>IF(IF(VierMeters!D186&gt;0,1,0)+IF(VierMeters!H186&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D186&gt;0,1,0)+IF(DrieMeters!H186&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G187" s="24" t="str">
-        <f>IF(VierMeters!D187&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D187+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D187&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D187+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J187" s="2">
-        <f>IF(IF(VierMeters!D187&gt;0,1,0)+IF(VierMeters!H187&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D187&gt;0,1,0)+IF(DrieMeters!H187&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G188" s="24" t="str">
-        <f>IF(VierMeters!D188&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D188+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D188&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D188+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J188" s="2">
-        <f>IF(IF(VierMeters!D188&gt;0,1,0)+IF(VierMeters!H188&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D188&gt;0,1,0)+IF(DrieMeters!H188&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G189" s="24" t="str">
-        <f>IF(VierMeters!D189&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D189+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D189&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D189+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J189" s="2">
-        <f>IF(IF(VierMeters!D189&gt;0,1,0)+IF(VierMeters!H189&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D189&gt;0,1,0)+IF(DrieMeters!H189&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G190" s="24" t="str">
-        <f>IF(VierMeters!D190&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D190+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D190&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D190+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J190" s="2">
-        <f>IF(IF(VierMeters!D190&gt;0,1,0)+IF(VierMeters!H190&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D190&gt;0,1,0)+IF(DrieMeters!H190&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G191" s="24" t="str">
-        <f>IF(VierMeters!D191&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D191+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D191&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D191+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J191" s="2">
-        <f>IF(IF(VierMeters!D191&gt;0,1,0)+IF(VierMeters!H191&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D191&gt;0,1,0)+IF(DrieMeters!H191&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G192" s="24" t="str">
-        <f>IF(VierMeters!D192&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D192+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D192&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D192+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J192" s="2">
-        <f>IF(IF(VierMeters!D192&gt;0,1,0)+IF(VierMeters!H192&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D192&gt;0,1,0)+IF(DrieMeters!H192&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G193" s="24" t="str">
-        <f>IF(VierMeters!D193&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D193+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D193&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D193+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J193" s="2">
-        <f>IF(IF(VierMeters!D193&gt;0,1,0)+IF(VierMeters!H193&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D193&gt;0,1,0)+IF(DrieMeters!H193&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G194" s="24" t="str">
-        <f>IF(VierMeters!D194&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D194+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D194&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D194+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J194" s="2">
-        <f>IF(IF(VierMeters!D194&gt;0,1,0)+IF(VierMeters!H194&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D194&gt;0,1,0)+IF(DrieMeters!H194&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G195" s="24" t="str">
-        <f>IF(VierMeters!D195&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D195+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D195&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D195+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J195" s="2">
-        <f>IF(IF(VierMeters!D195&gt;0,1,0)+IF(VierMeters!H195&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D195&gt;0,1,0)+IF(DrieMeters!H195&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G196" s="24" t="str">
-        <f>IF(VierMeters!D196&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D196+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D196&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D196+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J196" s="2">
-        <f>IF(IF(VierMeters!D196&gt;0,1,0)+IF(VierMeters!H196&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D196&gt;0,1,0)+IF(DrieMeters!H196&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G197" s="24" t="str">
-        <f>IF(VierMeters!D197&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D197+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D197&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D197+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J197" s="2">
-        <f>IF(IF(VierMeters!D197&gt;0,1,0)+IF(VierMeters!H197&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D197&gt;0,1,0)+IF(DrieMeters!H197&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G198" s="24" t="str">
-        <f>IF(VierMeters!D198&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D198+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D198&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D198+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J198" s="2">
-        <f>IF(IF(VierMeters!D198&gt;0,1,0)+IF(VierMeters!H198&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D198&gt;0,1,0)+IF(DrieMeters!H198&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G199" s="24" t="str">
-        <f>IF(VierMeters!D199&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D199+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D199&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D199+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J199" s="2">
-        <f>IF(IF(VierMeters!D199&gt;0,1,0)+IF(VierMeters!H199&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D199&gt;0,1,0)+IF(DrieMeters!H199&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G200" s="24" t="str">
-        <f>IF(VierMeters!D200&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D200+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D200&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D200+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J200" s="2">
-        <f>IF(IF(VierMeters!D200&gt;0,1,0)+IF(VierMeters!H200&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D200&gt;0,1,0)+IF(DrieMeters!H200&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G201" s="24" t="str">
-        <f>IF(VierMeters!D201&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D201+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D201&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D201+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J201" s="2">
-        <f>IF(IF(VierMeters!D201&gt;0,1,0)+IF(VierMeters!H201&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D201&gt;0,1,0)+IF(DrieMeters!H201&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G202" s="24" t="str">
-        <f>IF(VierMeters!D202&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D202+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D202&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D202+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J202" s="2">
-        <f>IF(IF(VierMeters!D202&gt;0,1,0)+IF(VierMeters!H202&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D202&gt;0,1,0)+IF(DrieMeters!H202&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G203" s="24" t="str">
-        <f>IF(VierMeters!D203&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D203+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D203&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D203+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J203" s="2">
-        <f>IF(IF(VierMeters!D203&gt;0,1,0)+IF(VierMeters!H203&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D203&gt;0,1,0)+IF(DrieMeters!H203&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G204" s="24" t="str">
-        <f>IF(VierMeters!D204&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D204+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D204&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D204+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J204" s="2">
-        <f>IF(IF(VierMeters!D204&gt;0,1,0)+IF(VierMeters!H204&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D204&gt;0,1,0)+IF(DrieMeters!H204&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G205" s="24" t="str">
-        <f>IF(VierMeters!D205&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D205+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D205&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D205+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J205" s="2">
-        <f>IF(IF(VierMeters!D205&gt;0,1,0)+IF(VierMeters!H205&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D205&gt;0,1,0)+IF(DrieMeters!H205&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G206" s="24" t="str">
-        <f>IF(VierMeters!D206&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D206+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D206&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D206+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J206" s="2">
-        <f>IF(IF(VierMeters!D206&gt;0,1,0)+IF(VierMeters!H206&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D206&gt;0,1,0)+IF(DrieMeters!H206&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G207" s="24" t="str">
-        <f>IF(VierMeters!D207&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D207+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D207&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D207+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J207" s="2">
-        <f>IF(IF(VierMeters!D207&gt;0,1,0)+IF(VierMeters!H207&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D207&gt;0,1,0)+IF(DrieMeters!H207&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G208" s="24" t="str">
-        <f>IF(VierMeters!D208&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D208+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D208&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D208+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J208" s="2">
-        <f>IF(IF(VierMeters!D208&gt;0,1,0)+IF(VierMeters!H208&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D208&gt;0,1,0)+IF(DrieMeters!H208&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G209" s="24" t="str">
-        <f>IF(VierMeters!D209&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D209+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D209&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D209+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J209" s="2">
-        <f>IF(IF(VierMeters!D209&gt;0,1,0)+IF(VierMeters!H209&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D209&gt;0,1,0)+IF(DrieMeters!H209&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G210" s="24" t="str">
-        <f>IF(VierMeters!D210&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D210+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D210&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D210+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J210" s="2">
-        <f>IF(IF(VierMeters!D210&gt;0,1,0)+IF(VierMeters!H210&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D210&gt;0,1,0)+IF(DrieMeters!H210&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G211" s="24" t="str">
-        <f>IF(VierMeters!D211&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D211+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D211&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D211+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J211" s="2">
-        <f>IF(IF(VierMeters!D211&gt;0,1,0)+IF(VierMeters!H211&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D211&gt;0,1,0)+IF(DrieMeters!H211&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G212" s="24" t="str">
-        <f>IF(VierMeters!D212&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D212+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D212&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D212+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J212" s="2">
-        <f>IF(IF(VierMeters!D212&gt;0,1,0)+IF(VierMeters!H212&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D212&gt;0,1,0)+IF(DrieMeters!H212&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G213" s="24" t="str">
-        <f>IF(VierMeters!D213&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D213+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D213&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D213+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J213" s="2">
-        <f>IF(IF(VierMeters!D213&gt;0,1,0)+IF(VierMeters!H213&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D213&gt;0,1,0)+IF(DrieMeters!H213&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G214" s="24" t="str">
-        <f>IF(VierMeters!D214&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D214+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D214&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D214+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J214" s="2">
-        <f>IF(IF(VierMeters!D214&gt;0,1,0)+IF(VierMeters!H214&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D214&gt;0,1,0)+IF(DrieMeters!H214&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G215" s="24" t="str">
-        <f>IF(VierMeters!D215&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D215+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D215&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D215+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J215" s="2">
-        <f>IF(IF(VierMeters!D215&gt;0,1,0)+IF(VierMeters!H215&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D215&gt;0,1,0)+IF(DrieMeters!H215&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G216" s="24" t="str">
-        <f>IF(VierMeters!D216&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D216+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D216&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D216+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J216" s="2">
-        <f>IF(IF(VierMeters!D216&gt;0,1,0)+IF(VierMeters!H216&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D216&gt;0,1,0)+IF(DrieMeters!H216&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G217" s="24" t="str">
-        <f>IF(VierMeters!D217&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D217+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D217&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D217+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J217" s="2">
-        <f>IF(IF(VierMeters!D217&gt;0,1,0)+IF(VierMeters!H217&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D217&gt;0,1,0)+IF(DrieMeters!H217&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G218" s="24" t="str">
-        <f>IF(VierMeters!D218&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D218+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D218&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D218+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J218" s="2">
-        <f>IF(IF(VierMeters!D218&gt;0,1,0)+IF(VierMeters!H218&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D218&gt;0,1,0)+IF(DrieMeters!H218&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G219" s="24" t="str">
-        <f>IF(VierMeters!D219&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D219+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D219&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D219+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J219" s="2">
-        <f>IF(IF(VierMeters!D219&gt;0,1,0)+IF(VierMeters!H219&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D219&gt;0,1,0)+IF(DrieMeters!H219&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G220" s="24" t="str">
-        <f>IF(VierMeters!D220&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D220+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D220&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D220+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J220" s="2">
-        <f>IF(IF(VierMeters!D220&gt;0,1,0)+IF(VierMeters!H220&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D220&gt;0,1,0)+IF(DrieMeters!H220&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G221" s="24" t="str">
-        <f>IF(VierMeters!D221&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D221+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D221&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D221+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J221" s="2">
-        <f>IF(IF(VierMeters!D221&gt;0,1,0)+IF(VierMeters!H221&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D221&gt;0,1,0)+IF(DrieMeters!H221&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G222" s="24" t="str">
-        <f>IF(VierMeters!D222&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D222+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D222&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D222+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J222" s="2">
-        <f>IF(IF(VierMeters!D222&gt;0,1,0)+IF(VierMeters!H222&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D222&gt;0,1,0)+IF(DrieMeters!H222&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G223" s="24" t="str">
-        <f>IF(VierMeters!D223&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D223+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D223&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D223+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J223" s="2">
-        <f>IF(IF(VierMeters!D223&gt;0,1,0)+IF(VierMeters!H223&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D223&gt;0,1,0)+IF(DrieMeters!H223&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G224" s="24" t="str">
-        <f>IF(VierMeters!D224&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D224+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D224&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D224+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J224" s="2">
-        <f>IF(IF(VierMeters!D224&gt;0,1,0)+IF(VierMeters!H224&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D224&gt;0,1,0)+IF(DrieMeters!H224&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G225" s="24" t="str">
-        <f>IF(VierMeters!D225&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D225+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D225&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D225+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J225" s="2">
-        <f>IF(IF(VierMeters!D225&gt;0,1,0)+IF(VierMeters!H225&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D225&gt;0,1,0)+IF(DrieMeters!H225&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G226" s="24" t="str">
-        <f>IF(VierMeters!D226&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D226+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D226&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D226+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J226" s="2">
-        <f>IF(IF(VierMeters!D226&gt;0,1,0)+IF(VierMeters!H226&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D226&gt;0,1,0)+IF(DrieMeters!H226&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G227" s="24" t="str">
-        <f>IF(VierMeters!D227&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D227+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D227&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D227+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J227" s="2">
-        <f>IF(IF(VierMeters!D227&gt;0,1,0)+IF(VierMeters!H227&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D227&gt;0,1,0)+IF(DrieMeters!H227&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G228" s="24" t="str">
-        <f>IF(VierMeters!D228&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D228+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D228&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D228+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J228" s="2">
-        <f>IF(IF(VierMeters!D228&gt;0,1,0)+IF(VierMeters!H228&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D228&gt;0,1,0)+IF(DrieMeters!H228&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G229" s="24" t="str">
-        <f>IF(VierMeters!D229&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D229+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D229&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D229+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J229" s="2">
-        <f>IF(IF(VierMeters!D229&gt;0,1,0)+IF(VierMeters!H229&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D229&gt;0,1,0)+IF(DrieMeters!H229&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G230" s="24" t="str">
-        <f>IF(VierMeters!D230&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D230+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D230&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D230+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J230" s="2">
-        <f>IF(IF(VierMeters!D230&gt;0,1,0)+IF(VierMeters!H230&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D230&gt;0,1,0)+IF(DrieMeters!H230&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G231" s="24" t="str">
-        <f>IF(VierMeters!D231&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D231+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D231&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D231+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J231" s="2">
-        <f>IF(IF(VierMeters!D231&gt;0,1,0)+IF(VierMeters!H231&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D231&gt;0,1,0)+IF(DrieMeters!H231&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G232" s="24" t="str">
-        <f>IF(VierMeters!D232&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D232+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D232&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D232+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J232" s="2">
-        <f>IF(IF(VierMeters!D232&gt;0,1,0)+IF(VierMeters!H232&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D232&gt;0,1,0)+IF(DrieMeters!H232&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G233" s="24" t="str">
-        <f>IF(VierMeters!D233&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D233+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D233&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D233+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J233" s="2">
-        <f>IF(IF(VierMeters!D233&gt;0,1,0)+IF(VierMeters!H233&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D233&gt;0,1,0)+IF(DrieMeters!H233&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G234" s="24" t="str">
-        <f>IF(VierMeters!D234&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D234+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D234&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D234+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J234" s="2">
-        <f>IF(IF(VierMeters!D234&gt;0,1,0)+IF(VierMeters!H234&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D234&gt;0,1,0)+IF(DrieMeters!H234&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G235" s="24" t="str">
-        <f>IF(VierMeters!D235&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D235+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D235&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D235+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J235" s="2">
-        <f>IF(IF(VierMeters!D235&gt;0,1,0)+IF(VierMeters!H235&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D235&gt;0,1,0)+IF(DrieMeters!H235&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G236" s="24" t="str">
-        <f>IF(VierMeters!D236&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D236+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D236&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D236+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J236" s="2">
-        <f>IF(IF(VierMeters!D236&gt;0,1,0)+IF(VierMeters!H236&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D236&gt;0,1,0)+IF(DrieMeters!H236&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G237" s="24" t="str">
-        <f>IF(VierMeters!D237&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D237+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D237&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D237+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J237" s="2">
-        <f>IF(IF(VierMeters!D237&gt;0,1,0)+IF(VierMeters!H237&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D237&gt;0,1,0)+IF(DrieMeters!H237&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G238" s="24" t="str">
-        <f>IF(VierMeters!D238&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D238+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D238&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D238+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J238" s="2">
-        <f>IF(IF(VierMeters!D238&gt;0,1,0)+IF(VierMeters!H238&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D238&gt;0,1,0)+IF(DrieMeters!H238&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G239" s="24" t="str">
-        <f>IF(VierMeters!D239&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D239+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D239&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D239+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J239" s="2">
-        <f>IF(IF(VierMeters!D239&gt;0,1,0)+IF(VierMeters!H239&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D239&gt;0,1,0)+IF(DrieMeters!H239&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G240" s="24" t="str">
-        <f>IF(VierMeters!D240&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D240+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D240&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D240+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J240" s="2">
-        <f>IF(IF(VierMeters!D240&gt;0,1,0)+IF(VierMeters!H240&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D240&gt;0,1,0)+IF(DrieMeters!H240&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G241" s="24" t="str">
-        <f>IF(VierMeters!D241&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D241+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D241&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D241+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J241" s="2">
-        <f>IF(IF(VierMeters!D241&gt;0,1,0)+IF(VierMeters!H241&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D241&gt;0,1,0)+IF(DrieMeters!H241&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G242" s="24" t="str">
-        <f>IF(VierMeters!D242&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D242+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D242&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D242+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J242" s="2">
-        <f>IF(IF(VierMeters!D242&gt;0,1,0)+IF(VierMeters!H242&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D242&gt;0,1,0)+IF(DrieMeters!H242&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G243" s="24" t="str">
-        <f>IF(VierMeters!D243&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D243+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D243&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D243+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J243" s="2">
-        <f>IF(IF(VierMeters!D243&gt;0,1,0)+IF(VierMeters!H243&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D243&gt;0,1,0)+IF(DrieMeters!H243&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G244" s="24" t="str">
-        <f>IF(VierMeters!D244&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D244+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D244&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D244+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J244" s="2">
-        <f>IF(IF(VierMeters!D244&gt;0,1,0)+IF(VierMeters!H244&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D244&gt;0,1,0)+IF(DrieMeters!H244&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G245" s="24" t="str">
-        <f>IF(VierMeters!D245&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D245+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D245&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D245+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J245" s="2">
-        <f>IF(IF(VierMeters!D245&gt;0,1,0)+IF(VierMeters!H245&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D245&gt;0,1,0)+IF(DrieMeters!H245&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G246" s="24" t="str">
-        <f>IF(VierMeters!D246&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D246+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D246&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D246+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J246" s="2">
-        <f>IF(IF(VierMeters!D246&gt;0,1,0)+IF(VierMeters!H246&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D246&gt;0,1,0)+IF(DrieMeters!H246&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G247" s="24" t="str">
-        <f>IF(VierMeters!D247&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D247+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D247&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D247+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J247" s="2">
-        <f>IF(IF(VierMeters!D247&gt;0,1,0)+IF(VierMeters!H247&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D247&gt;0,1,0)+IF(DrieMeters!H247&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G248" s="24" t="str">
-        <f>IF(VierMeters!D248&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D248+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D248&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D248+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J248" s="2">
-        <f>IF(IF(VierMeters!D248&gt;0,1,0)+IF(VierMeters!H248&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D248&gt;0,1,0)+IF(DrieMeters!H248&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G249" s="24" t="str">
-        <f>IF(VierMeters!D249&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D249+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D249&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D249+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J249" s="2">
-        <f>IF(IF(VierMeters!D249&gt;0,1,0)+IF(VierMeters!H249&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D249&gt;0,1,0)+IF(DrieMeters!H249&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G250" s="24" t="str">
-        <f>IF(VierMeters!D250&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D250+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D250&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D250+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J250" s="2">
-        <f>IF(IF(VierMeters!D250&gt;0,1,0)+IF(VierMeters!H250&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D250&gt;0,1,0)+IF(DrieMeters!H250&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G251" s="24" t="str">
-        <f>IF(VierMeters!D251&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D251+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D251&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D251+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J251" s="2">
-        <f>IF(IF(VierMeters!D251&gt;0,1,0)+IF(VierMeters!H251&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D251&gt;0,1,0)+IF(DrieMeters!H251&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G252" s="24" t="str">
-        <f>IF(VierMeters!D252&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D252+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D252&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D252+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J252" s="2">
-        <f>IF(IF(VierMeters!D252&gt;0,1,0)+IF(VierMeters!H252&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D252&gt;0,1,0)+IF(DrieMeters!H252&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G253" s="24" t="str">
-        <f>IF(VierMeters!D253&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D253+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D253&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D253+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J253" s="2">
-        <f>IF(IF(VierMeters!D253&gt;0,1,0)+IF(VierMeters!H253&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D253&gt;0,1,0)+IF(DrieMeters!H253&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G254" s="24" t="str">
-        <f>IF(VierMeters!D254&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D254+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D254&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D254+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J254" s="2">
-        <f>IF(IF(VierMeters!D254&gt;0,1,0)+IF(VierMeters!H254&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D254&gt;0,1,0)+IF(DrieMeters!H254&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G255" s="24" t="str">
-        <f>IF(VierMeters!D255&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D255+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D255&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D255+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J255" s="2">
-        <f>IF(IF(VierMeters!D255&gt;0,1,0)+IF(VierMeters!H255&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D255&gt;0,1,0)+IF(DrieMeters!H255&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G256" s="24" t="str">
-        <f>IF(VierMeters!D256&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D256+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D256&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D256+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J256" s="2">
-        <f>IF(IF(VierMeters!D256&gt;0,1,0)+IF(VierMeters!H256&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D256&gt;0,1,0)+IF(DrieMeters!H256&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G257" s="24" t="str">
-        <f>IF(VierMeters!D257&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D257+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D257&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D257+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J257" s="2">
-        <f>IF(IF(VierMeters!D257&gt;0,1,0)+IF(VierMeters!H257&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D257&gt;0,1,0)+IF(DrieMeters!H257&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G258" s="24" t="str">
-        <f>IF(VierMeters!D258&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D258+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D258&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D258+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J258" s="2">
-        <f>IF(IF(VierMeters!D258&gt;0,1,0)+IF(VierMeters!H258&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D258&gt;0,1,0)+IF(DrieMeters!H258&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G259" s="24" t="str">
-        <f>IF(VierMeters!D259&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D259+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D259&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D259+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J259" s="2">
-        <f>IF(IF(VierMeters!D259&gt;0,1,0)+IF(VierMeters!H259&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D259&gt;0,1,0)+IF(DrieMeters!H259&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G260" s="24" t="str">
-        <f>IF(VierMeters!D260&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D260+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D260&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D260+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J260" s="2">
-        <f>IF(IF(VierMeters!D260&gt;0,1,0)+IF(VierMeters!H260&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D260&gt;0,1,0)+IF(DrieMeters!H260&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G261" s="24" t="str">
-        <f>IF(VierMeters!D261&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D261+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D261&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D261+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J261" s="2">
-        <f>IF(IF(VierMeters!D261&gt;0,1,0)+IF(VierMeters!H261&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D261&gt;0,1,0)+IF(DrieMeters!H261&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G262" s="24" t="str">
-        <f>IF(VierMeters!D262&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D262+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D262&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D262+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J262" s="2">
-        <f>IF(IF(VierMeters!D262&gt;0,1,0)+IF(VierMeters!H262&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D262&gt;0,1,0)+IF(DrieMeters!H262&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G263" s="24" t="str">
-        <f>IF(VierMeters!D263&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D263+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D263&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D263+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J263" s="2">
-        <f>IF(IF(VierMeters!D263&gt;0,1,0)+IF(VierMeters!H263&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D263&gt;0,1,0)+IF(DrieMeters!H263&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G264" s="24" t="str">
-        <f>IF(VierMeters!D264&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D264+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D264&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D264+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J264" s="2">
-        <f>IF(IF(VierMeters!D264&gt;0,1,0)+IF(VierMeters!H264&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D264&gt;0,1,0)+IF(DrieMeters!H264&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G265" s="24" t="str">
-        <f>IF(VierMeters!D265&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D265+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D265&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D265+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J265" s="2">
-        <f>IF(IF(VierMeters!D265&gt;0,1,0)+IF(VierMeters!H265&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D265&gt;0,1,0)+IF(DrieMeters!H265&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G266" s="24" t="str">
-        <f>IF(VierMeters!D266&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D266+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D266&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D266+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J266" s="2">
-        <f>IF(IF(VierMeters!D266&gt;0,1,0)+IF(VierMeters!H266&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D266&gt;0,1,0)+IF(DrieMeters!H266&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G267" s="24" t="str">
-        <f>IF(VierMeters!D267&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D267+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D267&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D267+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J267" s="2">
-        <f>IF(IF(VierMeters!D267&gt;0,1,0)+IF(VierMeters!H267&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D267&gt;0,1,0)+IF(DrieMeters!H267&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G268" s="24" t="str">
-        <f>IF(VierMeters!D268&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D268+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D268&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D268+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J268" s="2">
-        <f>IF(IF(VierMeters!D268&gt;0,1,0)+IF(VierMeters!H268&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D268&gt;0,1,0)+IF(DrieMeters!H268&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G269" s="24" t="str">
-        <f>IF(VierMeters!D269&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D269+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D269&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D269+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J269" s="2">
-        <f>IF(IF(VierMeters!D269&gt;0,1,0)+IF(VierMeters!H269&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D269&gt;0,1,0)+IF(DrieMeters!H269&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G270" s="24" t="str">
-        <f>IF(VierMeters!D270&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D270+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D270&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D270+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J270" s="2">
-        <f>IF(IF(VierMeters!D270&gt;0,1,0)+IF(VierMeters!H270&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D270&gt;0,1,0)+IF(DrieMeters!H270&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G271" s="24" t="str">
-        <f>IF(VierMeters!D271&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D271+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D271&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D271+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J271" s="2">
-        <f>IF(IF(VierMeters!D271&gt;0,1,0)+IF(VierMeters!H271&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D271&gt;0,1,0)+IF(DrieMeters!H271&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G272" s="24" t="str">
-        <f>IF(VierMeters!D272&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D272+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D272&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D272+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J272" s="2">
-        <f>IF(IF(VierMeters!D272&gt;0,1,0)+IF(VierMeters!H272&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D272&gt;0,1,0)+IF(DrieMeters!H272&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G273" s="24" t="str">
-        <f>IF(VierMeters!D273&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D273+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D273&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D273+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J273" s="2">
-        <f>IF(IF(VierMeters!D273&gt;0,1,0)+IF(VierMeters!H273&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D273&gt;0,1,0)+IF(DrieMeters!H273&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G274" s="24" t="str">
-        <f>IF(VierMeters!D274&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D274+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D274&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D274+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J274" s="2">
-        <f>IF(IF(VierMeters!D274&gt;0,1,0)+IF(VierMeters!H274&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D274&gt;0,1,0)+IF(DrieMeters!H274&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G275" s="24" t="str">
-        <f>IF(VierMeters!D275&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D275+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D275&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D275+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J275" s="2">
-        <f>IF(IF(VierMeters!D275&gt;0,1,0)+IF(VierMeters!H275&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D275&gt;0,1,0)+IF(DrieMeters!H275&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G276" s="24" t="str">
-        <f>IF(VierMeters!D276&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D276+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D276&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D276+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J276" s="2">
-        <f>IF(IF(VierMeters!D276&gt;0,1,0)+IF(VierMeters!H276&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D276&gt;0,1,0)+IF(DrieMeters!H276&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G277" s="24" t="str">
-        <f>IF(VierMeters!D277&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D277+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D277&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D277+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J277" s="2">
-        <f>IF(IF(VierMeters!D277&gt;0,1,0)+IF(VierMeters!H277&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D277&gt;0,1,0)+IF(DrieMeters!H277&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G278" s="24" t="str">
-        <f>IF(VierMeters!D278&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D278+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D278&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D278+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J278" s="2">
-        <f>IF(IF(VierMeters!D278&gt;0,1,0)+IF(VierMeters!H278&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D278&gt;0,1,0)+IF(DrieMeters!H278&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G279" s="24" t="str">
-        <f>IF(VierMeters!D279&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D279+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D279&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D279+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J279" s="2">
-        <f>IF(IF(VierMeters!D279&gt;0,1,0)+IF(VierMeters!H279&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D279&gt;0,1,0)+IF(DrieMeters!H279&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G280" s="24" t="str">
-        <f>IF(VierMeters!D280&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D280+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D280&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D280+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J280" s="2">
-        <f>IF(IF(VierMeters!D280&gt;0,1,0)+IF(VierMeters!H280&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D280&gt;0,1,0)+IF(DrieMeters!H280&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G281" s="24" t="str">
-        <f>IF(VierMeters!D281&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D281+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D281&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D281+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J281" s="2">
-        <f>IF(IF(VierMeters!D281&gt;0,1,0)+IF(VierMeters!H281&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D281&gt;0,1,0)+IF(DrieMeters!H281&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G282" s="24" t="str">
-        <f>IF(VierMeters!D282&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D282+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D282&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D282+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J282" s="2">
-        <f>IF(IF(VierMeters!D282&gt;0,1,0)+IF(VierMeters!H282&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D282&gt;0,1,0)+IF(DrieMeters!H282&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G283" s="24" t="str">
-        <f>IF(VierMeters!D283&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D283+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D283&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D283+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J283" s="2">
-        <f>IF(IF(VierMeters!D283&gt;0,1,0)+IF(VierMeters!H283&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D283&gt;0,1,0)+IF(DrieMeters!H283&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G284" s="24" t="str">
-        <f>IF(VierMeters!D284&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D284+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D284&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D284+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J284" s="2">
-        <f>IF(IF(VierMeters!D284&gt;0,1,0)+IF(VierMeters!H284&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D284&gt;0,1,0)+IF(DrieMeters!H284&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G285" s="24" t="str">
-        <f>IF(VierMeters!D285&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D285+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D285&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D285+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J285" s="2">
-        <f>IF(IF(VierMeters!D285&gt;0,1,0)+IF(VierMeters!H285&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D285&gt;0,1,0)+IF(DrieMeters!H285&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G286" s="24" t="str">
-        <f>IF(VierMeters!D286&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D286+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D286&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D286+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J286" s="2">
-        <f>IF(IF(VierMeters!D286&gt;0,1,0)+IF(VierMeters!H286&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D286&gt;0,1,0)+IF(DrieMeters!H286&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G287" s="24" t="str">
-        <f>IF(VierMeters!D287&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D287+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D287&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D287+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J287" s="2">
-        <f>IF(IF(VierMeters!D287&gt;0,1,0)+IF(VierMeters!H287&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D287&gt;0,1,0)+IF(DrieMeters!H287&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G288" s="24" t="str">
-        <f>IF(VierMeters!D288&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D288+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D288&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D288+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J288" s="2">
-        <f>IF(IF(VierMeters!D288&gt;0,1,0)+IF(VierMeters!H288&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D288&gt;0,1,0)+IF(DrieMeters!H288&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G289" s="24" t="str">
-        <f>IF(VierMeters!D289&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D289+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D289&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D289+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J289" s="2">
-        <f>IF(IF(VierMeters!D289&gt;0,1,0)+IF(VierMeters!H289&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D289&gt;0,1,0)+IF(DrieMeters!H289&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G290" s="24" t="str">
-        <f>IF(VierMeters!D290&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D290+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D290&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D290+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J290" s="2">
-        <f>IF(IF(VierMeters!D290&gt;0,1,0)+IF(VierMeters!H290&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D290&gt;0,1,0)+IF(DrieMeters!H290&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G291" s="24" t="str">
-        <f>IF(VierMeters!D291&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D291+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D291&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D291+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J291" s="2">
-        <f>IF(IF(VierMeters!D291&gt;0,1,0)+IF(VierMeters!H291&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D291&gt;0,1,0)+IF(DrieMeters!H291&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G292" s="24" t="str">
-        <f>IF(VierMeters!D292&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D292+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D292&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D292+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J292" s="2">
-        <f>IF(IF(VierMeters!D292&gt;0,1,0)+IF(VierMeters!H292&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D292&gt;0,1,0)+IF(DrieMeters!H292&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G293" s="24" t="str">
-        <f>IF(VierMeters!D293&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D293+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D293&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D293+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J293" s="2">
-        <f>IF(IF(VierMeters!D293&gt;0,1,0)+IF(VierMeters!H293&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D293&gt;0,1,0)+IF(DrieMeters!H293&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G294" s="24" t="str">
-        <f>IF(VierMeters!D294&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D294+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D294&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D294+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J294" s="2">
-        <f>IF(IF(VierMeters!D294&gt;0,1,0)+IF(VierMeters!H294&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D294&gt;0,1,0)+IF(DrieMeters!H294&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G295" s="24" t="str">
-        <f>IF(VierMeters!D295&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D295+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D295&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D295+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J295" s="2">
-        <f>IF(IF(VierMeters!D295&gt;0,1,0)+IF(VierMeters!H295&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D295&gt;0,1,0)+IF(DrieMeters!H295&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G296" s="24" t="str">
-        <f>IF(VierMeters!D296&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D296+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D296&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D296+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J296" s="2">
-        <f>IF(IF(VierMeters!D296&gt;0,1,0)+IF(VierMeters!H296&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D296&gt;0,1,0)+IF(DrieMeters!H296&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G297" s="24" t="str">
-        <f>IF(VierMeters!D297&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D297+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D297&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D297+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J297" s="2">
-        <f>IF(IF(VierMeters!D297&gt;0,1,0)+IF(VierMeters!H297&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D297&gt;0,1,0)+IF(DrieMeters!H297&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G298" s="24" t="str">
-        <f>IF(VierMeters!D298&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D298+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D298&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D298+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J298" s="2">
-        <f>IF(IF(VierMeters!D298&gt;0,1,0)+IF(VierMeters!H298&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D298&gt;0,1,0)+IF(DrieMeters!H298&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G299" s="24" t="str">
-        <f>IF(VierMeters!D299&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D299+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D299&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D299+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J299" s="2">
-        <f>IF(IF(VierMeters!D299&gt;0,1,0)+IF(VierMeters!H299&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D299&gt;0,1,0)+IF(DrieMeters!H299&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G300" s="24" t="str">
-        <f>IF(VierMeters!D300&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D300+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D300&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D300+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J300" s="2">
-        <f>IF(IF(VierMeters!D300&gt;0,1,0)+IF(VierMeters!H300&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D300&gt;0,1,0)+IF(DrieMeters!H300&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G301" s="24" t="str">
-        <f>IF(VierMeters!D301&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D301+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D301&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D301+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J301" s="2">
-        <f>IF(IF(VierMeters!D301&gt;0,1,0)+IF(VierMeters!H301&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D301&gt;0,1,0)+IF(DrieMeters!H301&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G302" s="24" t="str">
-        <f>IF(VierMeters!D302&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D302+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D302&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D302+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J302" s="2">
-        <f>IF(IF(VierMeters!D302&gt;0,1,0)+IF(VierMeters!H302&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D302&gt;0,1,0)+IF(DrieMeters!H302&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G303" s="24" t="str">
-        <f>IF(VierMeters!D303&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D303+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D303&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D303+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J303" s="2">
-        <f>IF(IF(VierMeters!D303&gt;0,1,0)+IF(VierMeters!H303&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D303&gt;0,1,0)+IF(DrieMeters!H303&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G304" s="24" t="str">
-        <f>IF(VierMeters!D304&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D304+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D304&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D304+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J304" s="2">
-        <f>IF(IF(VierMeters!D304&gt;0,1,0)+IF(VierMeters!H304&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D304&gt;0,1,0)+IF(DrieMeters!H304&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="305" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G305" s="24" t="str">
-        <f>IF(VierMeters!D305&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D305+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D305&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D305+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J305" s="2">
-        <f>IF(IF(VierMeters!D305&gt;0,1,0)+IF(VierMeters!H305&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D305&gt;0,1,0)+IF(DrieMeters!H305&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G306" s="24" t="str">
-        <f>IF(VierMeters!D306&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D306+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D306&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D306+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J306" s="2">
-        <f>IF(IF(VierMeters!D306&gt;0,1,0)+IF(VierMeters!H306&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D306&gt;0,1,0)+IF(DrieMeters!H306&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G307" s="24" t="str">
-        <f>IF(VierMeters!D307&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D307+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D307&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D307+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J307" s="2">
-        <f>IF(IF(VierMeters!D307&gt;0,1,0)+IF(VierMeters!H307&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D307&gt;0,1,0)+IF(DrieMeters!H307&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G308" s="24" t="str">
-        <f>IF(VierMeters!D308&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D308+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D308&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D308+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J308" s="2">
-        <f>IF(IF(VierMeters!D308&gt;0,1,0)+IF(VierMeters!H308&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D308&gt;0,1,0)+IF(DrieMeters!H308&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="309" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G309" s="24" t="str">
-        <f>IF(VierMeters!D309&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D309+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D309&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D309+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J309" s="2">
-        <f>IF(IF(VierMeters!D309&gt;0,1,0)+IF(VierMeters!H309&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D309&gt;0,1,0)+IF(DrieMeters!H309&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G310" s="24" t="str">
-        <f>IF(VierMeters!D310&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D310+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D310&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D310+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J310" s="2">
-        <f>IF(IF(VierMeters!D310&gt;0,1,0)+IF(VierMeters!H310&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D310&gt;0,1,0)+IF(DrieMeters!H310&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G311" s="24" t="str">
-        <f>IF(VierMeters!D311&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D311+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D311&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D311+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J311" s="2">
-        <f>IF(IF(VierMeters!D311&gt;0,1,0)+IF(VierMeters!H311&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D311&gt;0,1,0)+IF(DrieMeters!H311&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="312" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G312" s="24" t="str">
-        <f>IF(VierMeters!D312&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D312+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D312&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D312+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J312" s="2">
-        <f>IF(IF(VierMeters!D312&gt;0,1,0)+IF(VierMeters!H312&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D312&gt;0,1,0)+IF(DrieMeters!H312&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G313" s="24" t="str">
-        <f>IF(VierMeters!D313&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D313+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D313&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D313+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J313" s="2">
-        <f>IF(IF(VierMeters!D313&gt;0,1,0)+IF(VierMeters!H313&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D313&gt;0,1,0)+IF(DrieMeters!H313&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="314" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G314" s="24" t="str">
-        <f>IF(VierMeters!D314&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D314+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D314&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D314+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J314" s="2">
-        <f>IF(IF(VierMeters!D314&gt;0,1,0)+IF(VierMeters!H314&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D314&gt;0,1,0)+IF(DrieMeters!H314&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G315" s="24" t="str">
-        <f>IF(VierMeters!D315&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D315+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D315&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D315+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J315" s="2">
-        <f>IF(IF(VierMeters!D315&gt;0,1,0)+IF(VierMeters!H315&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D315&gt;0,1,0)+IF(DrieMeters!H315&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G316" s="24" t="str">
-        <f>IF(VierMeters!D316&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D316+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D316&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D316+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J316" s="2">
-        <f>IF(IF(VierMeters!D316&gt;0,1,0)+IF(VierMeters!H316&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D316&gt;0,1,0)+IF(DrieMeters!H316&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="317" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G317" s="24" t="str">
-        <f>IF(VierMeters!D317&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D317+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D317&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D317+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J317" s="2">
-        <f>IF(IF(VierMeters!D317&gt;0,1,0)+IF(VierMeters!H317&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D317&gt;0,1,0)+IF(DrieMeters!H317&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="318" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G318" s="24" t="str">
-        <f>IF(VierMeters!D318&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D318+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D318&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D318+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J318" s="2">
-        <f>IF(IF(VierMeters!D318&gt;0,1,0)+IF(VierMeters!H318&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D318&gt;0,1,0)+IF(DrieMeters!H318&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="319" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G319" s="24" t="str">
-        <f>IF(VierMeters!D319&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D319+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D319&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D319+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J319" s="2">
-        <f>IF(IF(VierMeters!D319&gt;0,1,0)+IF(VierMeters!H319&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D319&gt;0,1,0)+IF(DrieMeters!H319&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="320" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G320" s="24" t="str">
-        <f>IF(VierMeters!D320&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D320+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D320&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D320+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J320" s="2">
-        <f>IF(IF(VierMeters!D320&gt;0,1,0)+IF(VierMeters!H320&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D320&gt;0,1,0)+IF(DrieMeters!H320&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="321" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G321" s="24" t="str">
-        <f>IF(VierMeters!D321&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D321+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D321&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D321+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J321" s="2">
-        <f>IF(IF(VierMeters!D321&gt;0,1,0)+IF(VierMeters!H321&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D321&gt;0,1,0)+IF(DrieMeters!H321&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G322" s="24" t="str">
-        <f>IF(VierMeters!D322&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D322+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D322&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D322+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J322" s="2">
-        <f>IF(IF(VierMeters!D322&gt;0,1,0)+IF(VierMeters!H322&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D322&gt;0,1,0)+IF(DrieMeters!H322&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G323" s="24" t="str">
-        <f>IF(VierMeters!D323&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D323+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D323&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D323+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J323" s="2">
-        <f>IF(IF(VierMeters!D323&gt;0,1,0)+IF(VierMeters!H323&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D323&gt;0,1,0)+IF(DrieMeters!H323&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G324" s="24" t="str">
-        <f>IF(VierMeters!D324&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D324+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D324&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D324+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J324" s="2">
-        <f>IF(IF(VierMeters!D324&gt;0,1,0)+IF(VierMeters!H324&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D324&gt;0,1,0)+IF(DrieMeters!H324&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="325" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G325" s="24" t="str">
-        <f>IF(VierMeters!D325&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D325+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D325&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D325+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J325" s="2">
-        <f>IF(IF(VierMeters!D325&gt;0,1,0)+IF(VierMeters!H325&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D325&gt;0,1,0)+IF(DrieMeters!H325&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="326" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G326" s="24" t="str">
-        <f>IF(VierMeters!D326&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D326+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D326&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D326+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J326" s="2">
-        <f>IF(IF(VierMeters!D326&gt;0,1,0)+IF(VierMeters!H326&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D326&gt;0,1,0)+IF(DrieMeters!H326&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G327" s="24" t="str">
-        <f>IF(VierMeters!D327&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D327+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D327&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D327+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J327" s="2">
-        <f>IF(IF(VierMeters!D327&gt;0,1,0)+IF(VierMeters!H327&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D327&gt;0,1,0)+IF(DrieMeters!H327&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G328" s="24" t="str">
-        <f>IF(VierMeters!D328&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D328+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D328&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D328+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J328" s="2">
-        <f>IF(IF(VierMeters!D328&gt;0,1,0)+IF(VierMeters!H328&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D328&gt;0,1,0)+IF(DrieMeters!H328&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G329" s="24" t="str">
-        <f>IF(VierMeters!D329&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D329+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D329&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D329+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J329" s="2">
-        <f>IF(IF(VierMeters!D329&gt;0,1,0)+IF(VierMeters!H329&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D329&gt;0,1,0)+IF(DrieMeters!H329&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="330" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G330" s="24" t="str">
-        <f>IF(VierMeters!D330&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D330+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D330&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D330+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J330" s="2">
-        <f>IF(IF(VierMeters!D330&gt;0,1,0)+IF(VierMeters!H330&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D330&gt;0,1,0)+IF(DrieMeters!H330&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="331" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G331" s="24" t="str">
-        <f>IF(VierMeters!D331&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D331+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D331&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D331+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J331" s="2">
-        <f>IF(IF(VierMeters!D331&gt;0,1,0)+IF(VierMeters!H331&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D331&gt;0,1,0)+IF(DrieMeters!H331&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="332" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G332" s="24" t="str">
-        <f>IF(VierMeters!D332&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D332+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D332&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D332+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J332" s="2">
-        <f>IF(IF(VierMeters!D332&gt;0,1,0)+IF(VierMeters!H332&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D332&gt;0,1,0)+IF(DrieMeters!H332&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="333" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G333" s="24" t="str">
-        <f>IF(VierMeters!D333&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D333+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D333&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D333+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J333" s="2">
-        <f>IF(IF(VierMeters!D333&gt;0,1,0)+IF(VierMeters!H333&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D333&gt;0,1,0)+IF(DrieMeters!H333&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="334" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G334" s="24" t="str">
-        <f>IF(VierMeters!D334&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D334+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D334&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D334+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J334" s="2">
-        <f>IF(IF(VierMeters!D334&gt;0,1,0)+IF(VierMeters!H334&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D334&gt;0,1,0)+IF(DrieMeters!H334&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G335" s="24" t="str">
-        <f>IF(VierMeters!D335&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D335+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D335&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D335+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J335" s="2">
-        <f>IF(IF(VierMeters!D335&gt;0,1,0)+IF(VierMeters!H335&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D335&gt;0,1,0)+IF(DrieMeters!H335&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G336" s="24" t="str">
-        <f>IF(VierMeters!D336&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D336+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D336&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D336+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J336" s="2">
-        <f>IF(IF(VierMeters!D336&gt;0,1,0)+IF(VierMeters!H336&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D336&gt;0,1,0)+IF(DrieMeters!H336&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="337" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G337" s="24" t="str">
-        <f>IF(VierMeters!D337&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D337+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D337&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D337+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J337" s="2">
-        <f>IF(IF(VierMeters!D337&gt;0,1,0)+IF(VierMeters!H337&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D337&gt;0,1,0)+IF(DrieMeters!H337&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="338" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G338" s="24" t="str">
-        <f>IF(VierMeters!D338&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D338+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D338&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D338+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J338" s="2">
-        <f>IF(IF(VierMeters!D338&gt;0,1,0)+IF(VierMeters!H338&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D338&gt;0,1,0)+IF(DrieMeters!H338&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G339" s="24" t="str">
-        <f>IF(VierMeters!D339&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D339+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D339&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D339+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J339" s="2">
-        <f>IF(IF(VierMeters!D339&gt;0,1,0)+IF(VierMeters!H339&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D339&gt;0,1,0)+IF(DrieMeters!H339&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G340" s="24" t="str">
-        <f>IF(VierMeters!D340&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D340+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D340&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D340+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J340" s="2">
-        <f>IF(IF(VierMeters!D340&gt;0,1,0)+IF(VierMeters!H340&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D340&gt;0,1,0)+IF(DrieMeters!H340&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="341" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G341" s="24" t="str">
-        <f>IF(VierMeters!D341&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D341+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D341&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D341+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J341" s="2">
-        <f>IF(IF(VierMeters!D341&gt;0,1,0)+IF(VierMeters!H341&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D341&gt;0,1,0)+IF(DrieMeters!H341&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="342" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G342" s="24" t="str">
-        <f>IF(VierMeters!D342&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D342+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D342&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D342+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J342" s="2">
-        <f>IF(IF(VierMeters!D342&gt;0,1,0)+IF(VierMeters!H342&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D342&gt;0,1,0)+IF(DrieMeters!H342&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G343" s="24" t="str">
-        <f>IF(VierMeters!D343&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D343+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D343&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D343+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J343" s="2">
-        <f>IF(IF(VierMeters!D343&gt;0,1,0)+IF(VierMeters!H343&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D343&gt;0,1,0)+IF(DrieMeters!H343&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="344" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G344" s="24" t="str">
-        <f>IF(VierMeters!D344&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D344+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D344&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D344+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J344" s="2">
-        <f>IF(IF(VierMeters!D344&gt;0,1,0)+IF(VierMeters!H344&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D344&gt;0,1,0)+IF(DrieMeters!H344&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="345" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G345" s="24" t="str">
-        <f>IF(VierMeters!D345&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D345+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D345&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D345+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J345" s="2">
-        <f>IF(IF(VierMeters!D345&gt;0,1,0)+IF(VierMeters!H345&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D345&gt;0,1,0)+IF(DrieMeters!H345&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="346" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G346" s="24" t="str">
-        <f>IF(VierMeters!D346&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D346+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D346&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D346+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J346" s="2">
-        <f>IF(IF(VierMeters!D346&gt;0,1,0)+IF(VierMeters!H346&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D346&gt;0,1,0)+IF(DrieMeters!H346&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="347" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G347" s="24" t="str">
-        <f>IF(VierMeters!D347&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D347+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D347&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D347+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J347" s="2">
-        <f>IF(IF(VierMeters!D347&gt;0,1,0)+IF(VierMeters!H347&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D347&gt;0,1,0)+IF(DrieMeters!H347&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="348" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G348" s="24" t="str">
-        <f>IF(VierMeters!D348&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D348+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D348&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D348+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J348" s="2">
-        <f>IF(IF(VierMeters!D348&gt;0,1,0)+IF(VierMeters!H348&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D348&gt;0,1,0)+IF(DrieMeters!H348&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="349" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G349" s="24" t="str">
-        <f>IF(VierMeters!D349&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D349+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D349&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D349+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J349" s="2">
-        <f>IF(IF(VierMeters!D349&gt;0,1,0)+IF(VierMeters!H349&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D349&gt;0,1,0)+IF(DrieMeters!H349&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G350" s="24" t="str">
-        <f>IF(VierMeters!D350&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D350+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D350&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D350+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J350" s="2">
-        <f>IF(IF(VierMeters!D350&gt;0,1,0)+IF(VierMeters!H350&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D350&gt;0,1,0)+IF(DrieMeters!H350&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="351" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G351" s="24" t="str">
-        <f>IF(VierMeters!D351&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D351+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D351&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D351+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J351" s="2">
-        <f>IF(IF(VierMeters!D351&gt;0,1,0)+IF(VierMeters!H351&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D351&gt;0,1,0)+IF(DrieMeters!H351&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="352" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G352" s="24" t="str">
-        <f>IF(VierMeters!D352&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D352+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D352&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D352+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J352" s="2">
-        <f>IF(IF(VierMeters!D352&gt;0,1,0)+IF(VierMeters!H352&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D352&gt;0,1,0)+IF(DrieMeters!H352&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G353" s="24" t="str">
-        <f>IF(VierMeters!D353&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D353+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D353&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D353+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J353" s="2">
-        <f>IF(IF(VierMeters!D353&gt;0,1,0)+IF(VierMeters!H353&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D353&gt;0,1,0)+IF(DrieMeters!H353&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G354" s="24" t="str">
-        <f>IF(VierMeters!D354&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D354+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D354&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D354+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J354" s="2">
-        <f>IF(IF(VierMeters!D354&gt;0,1,0)+IF(VierMeters!H354&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D354&gt;0,1,0)+IF(DrieMeters!H354&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G355" s="24" t="str">
-        <f>IF(VierMeters!D355&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D355+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D355&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D355+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J355" s="2">
-        <f>IF(IF(VierMeters!D355&gt;0,1,0)+IF(VierMeters!H355&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D355&gt;0,1,0)+IF(DrieMeters!H355&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G356" s="24" t="str">
-        <f>IF(VierMeters!D356&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D356+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D356&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D356+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J356" s="2">
-        <f>IF(IF(VierMeters!D356&gt;0,1,0)+IF(VierMeters!H356&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D356&gt;0,1,0)+IF(DrieMeters!H356&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G357" s="24" t="str">
-        <f>IF(VierMeters!D357&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D357+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D357&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D357+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J357" s="2">
-        <f>IF(IF(VierMeters!D357&gt;0,1,0)+IF(VierMeters!H357&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D357&gt;0,1,0)+IF(DrieMeters!H357&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G358" s="24" t="str">
-        <f>IF(VierMeters!D358&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D358+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D358&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D358+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J358" s="2">
-        <f>IF(IF(VierMeters!D358&gt;0,1,0)+IF(VierMeters!H358&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D358&gt;0,1,0)+IF(DrieMeters!H358&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="359" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G359" s="24" t="str">
-        <f>IF(VierMeters!D359&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D359+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D359&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D359+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J359" s="2">
-        <f>IF(IF(VierMeters!D359&gt;0,1,0)+IF(VierMeters!H359&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D359&gt;0,1,0)+IF(DrieMeters!H359&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G360" s="24" t="str">
-        <f>IF(VierMeters!D360&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D360+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D360&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D360+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J360" s="2">
-        <f>IF(IF(VierMeters!D360&gt;0,1,0)+IF(VierMeters!H360&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D360&gt;0,1,0)+IF(DrieMeters!H360&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G361" s="24" t="str">
-        <f>IF(VierMeters!D361&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D361+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D361&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D361+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J361" s="2">
-        <f>IF(IF(VierMeters!D361&gt;0,1,0)+IF(VierMeters!H361&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D361&gt;0,1,0)+IF(DrieMeters!H361&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="362" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G362" s="24" t="str">
-        <f>IF(VierMeters!D362&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D362+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D362&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D362+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J362" s="2">
-        <f>IF(IF(VierMeters!D362&gt;0,1,0)+IF(VierMeters!H362&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D362&gt;0,1,0)+IF(DrieMeters!H362&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G363" s="24" t="str">
-        <f>IF(VierMeters!D363&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D363+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D363&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D363+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J363" s="2">
-        <f>IF(IF(VierMeters!D363&gt;0,1,0)+IF(VierMeters!H363&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D363&gt;0,1,0)+IF(DrieMeters!H363&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G364" s="24" t="str">
-        <f>IF(VierMeters!D364&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D364+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D364&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D364+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J364" s="2">
-        <f>IF(IF(VierMeters!D364&gt;0,1,0)+IF(VierMeters!H364&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D364&gt;0,1,0)+IF(DrieMeters!H364&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="365" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G365" s="24" t="str">
-        <f>IF(VierMeters!D365&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D365+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D365&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D365+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J365" s="2">
-        <f>IF(IF(VierMeters!D365&gt;0,1,0)+IF(VierMeters!H365&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D365&gt;0,1,0)+IF(DrieMeters!H365&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G366" s="24" t="str">
-        <f>IF(VierMeters!D366&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D366+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D366&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D366+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J366" s="2">
-        <f>IF(IF(VierMeters!D366&gt;0,1,0)+IF(VierMeters!H366&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D366&gt;0,1,0)+IF(DrieMeters!H366&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="367" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G367" s="24" t="str">
-        <f>IF(VierMeters!D367&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D367+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D367&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D367+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J367" s="2">
-        <f>IF(IF(VierMeters!D367&gt;0,1,0)+IF(VierMeters!H367&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D367&gt;0,1,0)+IF(DrieMeters!H367&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="368" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G368" s="24" t="str">
-        <f>IF(VierMeters!D368&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D368+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D368&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D368+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J368" s="2">
-        <f>IF(IF(VierMeters!D368&gt;0,1,0)+IF(VierMeters!H368&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D368&gt;0,1,0)+IF(DrieMeters!H368&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="369" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G369" s="24" t="str">
-        <f>IF(VierMeters!D369&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D369+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D369&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D369+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J369" s="2">
-        <f>IF(IF(VierMeters!D369&gt;0,1,0)+IF(VierMeters!H369&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D369&gt;0,1,0)+IF(DrieMeters!H369&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="370" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G370" s="24" t="str">
-        <f>IF(VierMeters!D370&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D370+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D370&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D370+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J370" s="2">
-        <f>IF(IF(VierMeters!D370&gt;0,1,0)+IF(VierMeters!H370&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D370&gt;0,1,0)+IF(DrieMeters!H370&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G371" s="24" t="str">
-        <f>IF(VierMeters!D371&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D371+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D371&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D371+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J371" s="2">
-        <f>IF(IF(VierMeters!D371&gt;0,1,0)+IF(VierMeters!H371&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D371&gt;0,1,0)+IF(DrieMeters!H371&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G372" s="24" t="str">
-        <f>IF(VierMeters!D372&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D372+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D372&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D372+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J372" s="2">
-        <f>IF(IF(VierMeters!D372&gt;0,1,0)+IF(VierMeters!H372&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D372&gt;0,1,0)+IF(DrieMeters!H372&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="373" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G373" s="24" t="str">
-        <f>IF(VierMeters!D373&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D373+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D373&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D373+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J373" s="2">
-        <f>IF(IF(VierMeters!D373&gt;0,1,0)+IF(VierMeters!H373&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D373&gt;0,1,0)+IF(DrieMeters!H373&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="374" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G374" s="24" t="str">
-        <f>IF(VierMeters!D374&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D374+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D374&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D374+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J374" s="2">
-        <f>IF(IF(VierMeters!D374&gt;0,1,0)+IF(VierMeters!H374&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D374&gt;0,1,0)+IF(DrieMeters!H374&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="375" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G375" s="24" t="str">
-        <f>IF(VierMeters!D375&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D375+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D375&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D375+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J375" s="2">
-        <f>IF(IF(VierMeters!D375&gt;0,1,0)+IF(VierMeters!H375&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D375&gt;0,1,0)+IF(DrieMeters!H375&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G376" s="24" t="str">
-        <f>IF(VierMeters!D376&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D376+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D376&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D376+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J376" s="2">
-        <f>IF(IF(VierMeters!D376&gt;0,1,0)+IF(VierMeters!H376&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D376&gt;0,1,0)+IF(DrieMeters!H376&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="377" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G377" s="24" t="str">
-        <f>IF(VierMeters!D377&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D377+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D377&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D377+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J377" s="2">
-        <f>IF(IF(VierMeters!D377&gt;0,1,0)+IF(VierMeters!H377&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D377&gt;0,1,0)+IF(DrieMeters!H377&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="378" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G378" s="24" t="str">
-        <f>IF(VierMeters!D378&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D378+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D378&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D378+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J378" s="2">
-        <f>IF(IF(VierMeters!D378&gt;0,1,0)+IF(VierMeters!H378&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D378&gt;0,1,0)+IF(DrieMeters!H378&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="379" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G379" s="24" t="str">
-        <f>IF(VierMeters!D379&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D379+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D379&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D379+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J379" s="2">
-        <f>IF(IF(VierMeters!D379&gt;0,1,0)+IF(VierMeters!H379&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D379&gt;0,1,0)+IF(DrieMeters!H379&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="380" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G380" s="24" t="str">
-        <f>IF(VierMeters!D380&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D380+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D380&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D380+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J380" s="2">
-        <f>IF(IF(VierMeters!D380&gt;0,1,0)+IF(VierMeters!H380&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D380&gt;0,1,0)+IF(DrieMeters!H380&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="381" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G381" s="24" t="str">
-        <f>IF(VierMeters!D381&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D381+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D381&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D381+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J381" s="2">
-        <f>IF(IF(VierMeters!D381&gt;0,1,0)+IF(VierMeters!H381&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D381&gt;0,1,0)+IF(DrieMeters!H381&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="382" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G382" s="24" t="str">
-        <f>IF(VierMeters!D382&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D382+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D382&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D382+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J382" s="2">
-        <f>IF(IF(VierMeters!D382&gt;0,1,0)+IF(VierMeters!H382&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D382&gt;0,1,0)+IF(DrieMeters!H382&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G383" s="24" t="str">
-        <f>IF(VierMeters!D383&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D383+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D383&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D383+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J383" s="2">
-        <f>IF(IF(VierMeters!D383&gt;0,1,0)+IF(VierMeters!H383&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D383&gt;0,1,0)+IF(DrieMeters!H383&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G384" s="24" t="str">
-        <f>IF(VierMeters!D384&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D384+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D384&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D384+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J384" s="2">
-        <f>IF(IF(VierMeters!D384&gt;0,1,0)+IF(VierMeters!H384&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D384&gt;0,1,0)+IF(DrieMeters!H384&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G385" s="24" t="str">
-        <f>IF(VierMeters!D385&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D385+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D385&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D385+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J385" s="2">
-        <f>IF(IF(VierMeters!D385&gt;0,1,0)+IF(VierMeters!H385&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D385&gt;0,1,0)+IF(DrieMeters!H385&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G386" s="24" t="str">
-        <f>IF(VierMeters!D386&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D386+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D386&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D386+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J386" s="2">
-        <f>IF(IF(VierMeters!D386&gt;0,1,0)+IF(VierMeters!H386&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D386&gt;0,1,0)+IF(DrieMeters!H386&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="387" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G387" s="24" t="str">
-        <f>IF(VierMeters!D387&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D387+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D387&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D387+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J387" s="2">
-        <f>IF(IF(VierMeters!D387&gt;0,1,0)+IF(VierMeters!H387&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D387&gt;0,1,0)+IF(DrieMeters!H387&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G388" s="24" t="str">
-        <f>IF(VierMeters!D388&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D388+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D388&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D388+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J388" s="2">
-        <f>IF(IF(VierMeters!D388&gt;0,1,0)+IF(VierMeters!H388&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D388&gt;0,1,0)+IF(DrieMeters!H388&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G389" s="24" t="str">
-        <f>IF(VierMeters!D389&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D389+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D389&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D389+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J389" s="2">
-        <f>IF(IF(VierMeters!D389&gt;0,1,0)+IF(VierMeters!H389&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D389&gt;0,1,0)+IF(DrieMeters!H389&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="390" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G390" s="24" t="str">
-        <f>IF(VierMeters!D390&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D390+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D390&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D390+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J390" s="2">
-        <f>IF(IF(VierMeters!D390&gt;0,1,0)+IF(VierMeters!H390&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D390&gt;0,1,0)+IF(DrieMeters!H390&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G391" s="24" t="str">
-        <f>IF(VierMeters!D391&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D391+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D391&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D391+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J391" s="2">
-        <f>IF(IF(VierMeters!D391&gt;0,1,0)+IF(VierMeters!H391&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D391&gt;0,1,0)+IF(DrieMeters!H391&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="392" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G392" s="24" t="str">
-        <f>IF(VierMeters!D392&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D392+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D392&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D392+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J392" s="2">
-        <f>IF(IF(VierMeters!D392&gt;0,1,0)+IF(VierMeters!H392&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D392&gt;0,1,0)+IF(DrieMeters!H392&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="393" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G393" s="24" t="str">
-        <f>IF(VierMeters!D393&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D393+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D393&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D393+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J393" s="2">
-        <f>IF(IF(VierMeters!D393&gt;0,1,0)+IF(VierMeters!H393&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D393&gt;0,1,0)+IF(DrieMeters!H393&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G394" s="24" t="str">
-        <f>IF(VierMeters!D394&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D394+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D394&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D394+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J394" s="2">
-        <f>IF(IF(VierMeters!D394&gt;0,1,0)+IF(VierMeters!H394&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D394&gt;0,1,0)+IF(DrieMeters!H394&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G395" s="24" t="str">
-        <f>IF(VierMeters!D395&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D395+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D395&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D395+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J395" s="2">
-        <f>IF(IF(VierMeters!D395&gt;0,1,0)+IF(VierMeters!H395&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D395&gt;0,1,0)+IF(DrieMeters!H395&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="396" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G396" s="24" t="str">
-        <f>IF(VierMeters!D396&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D396+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D396&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D396+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J396" s="2">
-        <f>IF(IF(VierMeters!D396&gt;0,1,0)+IF(VierMeters!H396&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D396&gt;0,1,0)+IF(DrieMeters!H396&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G397" s="24" t="str">
-        <f>IF(VierMeters!D397&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D397+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D397&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D397+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J397" s="2">
-        <f>IF(IF(VierMeters!D397&gt;0,1,0)+IF(VierMeters!H397&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D397&gt;0,1,0)+IF(DrieMeters!H397&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G398" s="24" t="str">
-        <f>IF(VierMeters!D398&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D398+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D398&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D398+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J398" s="2">
-        <f>IF(IF(VierMeters!D398&gt;0,1,0)+IF(VierMeters!H398&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D398&gt;0,1,0)+IF(DrieMeters!H398&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G399" s="24" t="str">
-        <f>IF(VierMeters!D399&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D399+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D399&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D399+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J399" s="2">
-        <f>IF(IF(VierMeters!D399&gt;0,1,0)+IF(VierMeters!H399&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D399&gt;0,1,0)+IF(DrieMeters!H399&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="400" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G400" s="24" t="str">
-        <f>IF(VierMeters!D400&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D400+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D400&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D400+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J400" s="2">
-        <f>IF(IF(VierMeters!D400&gt;0,1,0)+IF(VierMeters!H400&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D400&gt;0,1,0)+IF(DrieMeters!H400&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G401" s="24" t="str">
-        <f>IF(VierMeters!D401&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D401+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D401&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D401+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J401" s="2">
-        <f>IF(IF(VierMeters!D401&gt;0,1,0)+IF(VierMeters!H401&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D401&gt;0,1,0)+IF(DrieMeters!H401&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="402" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G402" s="24" t="str">
-        <f>IF(VierMeters!D402&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D402+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D402&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D402+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J402" s="2">
-        <f>IF(IF(VierMeters!D402&gt;0,1,0)+IF(VierMeters!H402&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D402&gt;0,1,0)+IF(DrieMeters!H402&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G403" s="24" t="str">
-        <f>IF(VierMeters!D403&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D403+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D403&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D403+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J403" s="2">
-        <f>IF(IF(VierMeters!D403&gt;0,1,0)+IF(VierMeters!H403&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D403&gt;0,1,0)+IF(DrieMeters!H403&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="404" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G404" s="24" t="str">
-        <f>IF(VierMeters!D404&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D404+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D404&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D404+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J404" s="2">
-        <f>IF(IF(VierMeters!D404&gt;0,1,0)+IF(VierMeters!H404&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D404&gt;0,1,0)+IF(DrieMeters!H404&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="405" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G405" s="24" t="str">
-        <f>IF(VierMeters!D405&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D405+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D405&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D405+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J405" s="2">
-        <f>IF(IF(VierMeters!D405&gt;0,1,0)+IF(VierMeters!H405&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D405&gt;0,1,0)+IF(DrieMeters!H405&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="406" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G406" s="24" t="str">
-        <f>IF(VierMeters!D406&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D406+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D406&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D406+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J406" s="2">
-        <f>IF(IF(VierMeters!D406&gt;0,1,0)+IF(VierMeters!H406&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D406&gt;0,1,0)+IF(DrieMeters!H406&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G407" s="24" t="str">
-        <f>IF(VierMeters!D407&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D407+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D407&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D407+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J407" s="2">
-        <f>IF(IF(VierMeters!D407&gt;0,1,0)+IF(VierMeters!H407&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D407&gt;0,1,0)+IF(DrieMeters!H407&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="408" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G408" s="24" t="str">
-        <f>IF(VierMeters!D408&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D408+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D408&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D408+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J408" s="2">
-        <f>IF(IF(VierMeters!D408&gt;0,1,0)+IF(VierMeters!H408&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D408&gt;0,1,0)+IF(DrieMeters!H408&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="409" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G409" s="24" t="str">
-        <f>IF(VierMeters!D409&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D409+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D409&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D409+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J409" s="2">
-        <f>IF(IF(VierMeters!D409&gt;0,1,0)+IF(VierMeters!H409&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D409&gt;0,1,0)+IF(DrieMeters!H409&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="410" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G410" s="24" t="str">
-        <f>IF(VierMeters!D410&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D410+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D410&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D410+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J410" s="2">
-        <f>IF(IF(VierMeters!D410&gt;0,1,0)+IF(VierMeters!H410&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D410&gt;0,1,0)+IF(DrieMeters!H410&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G411" s="24" t="str">
-        <f>IF(VierMeters!D411&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D411+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D411&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D411+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J411" s="2">
-        <f>IF(IF(VierMeters!D411&gt;0,1,0)+IF(VierMeters!H411&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D411&gt;0,1,0)+IF(DrieMeters!H411&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="412" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G412" s="24" t="str">
-        <f>IF(VierMeters!D412&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D412+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D412&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D412+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J412" s="2">
-        <f>IF(IF(VierMeters!D412&gt;0,1,0)+IF(VierMeters!H412&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D412&gt;0,1,0)+IF(DrieMeters!H412&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="413" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G413" s="24" t="str">
-        <f>IF(VierMeters!D413&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D413+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D413&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D413+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J413" s="2">
-        <f>IF(IF(VierMeters!D413&gt;0,1,0)+IF(VierMeters!H413&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D413&gt;0,1,0)+IF(DrieMeters!H413&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="414" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G414" s="24" t="str">
-        <f>IF(VierMeters!D414&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D414+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D414&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D414+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J414" s="2">
-        <f>IF(IF(VierMeters!D414&gt;0,1,0)+IF(VierMeters!H414&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D414&gt;0,1,0)+IF(DrieMeters!H414&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="415" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G415" s="24" t="str">
-        <f>IF(VierMeters!D415&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D415+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D415&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D415+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J415" s="2">
-        <f>IF(IF(VierMeters!D415&gt;0,1,0)+IF(VierMeters!H415&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D415&gt;0,1,0)+IF(DrieMeters!H415&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="416" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G416" s="24" t="str">
-        <f>IF(VierMeters!D416&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D416+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D416&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D416+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J416" s="2">
-        <f>IF(IF(VierMeters!D416&gt;0,1,0)+IF(VierMeters!H416&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D416&gt;0,1,0)+IF(DrieMeters!H416&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="417" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G417" s="24" t="str">
-        <f>IF(VierMeters!D417&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D417+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D417&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D417+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J417" s="2">
-        <f>IF(IF(VierMeters!D417&gt;0,1,0)+IF(VierMeters!H417&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D417&gt;0,1,0)+IF(DrieMeters!H417&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="418" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G418" s="24" t="str">
-        <f>IF(VierMeters!D418&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D418+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D418&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D418+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J418" s="2">
-        <f>IF(IF(VierMeters!D418&gt;0,1,0)+IF(VierMeters!H418&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D418&gt;0,1,0)+IF(DrieMeters!H418&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="419" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G419" s="24" t="str">
-        <f>IF(VierMeters!D419&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D419+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D419&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D419+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J419" s="2">
-        <f>IF(IF(VierMeters!D419&gt;0,1,0)+IF(VierMeters!H419&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D419&gt;0,1,0)+IF(DrieMeters!H419&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="420" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G420" s="24" t="str">
-        <f>IF(VierMeters!D420&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D420+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D420&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D420+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J420" s="2">
-        <f>IF(IF(VierMeters!D420&gt;0,1,0)+IF(VierMeters!H420&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D420&gt;0,1,0)+IF(DrieMeters!H420&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="421" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G421" s="24" t="str">
-        <f>IF(VierMeters!D421&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D421+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D421&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D421+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J421" s="2">
-        <f>IF(IF(VierMeters!D421&gt;0,1,0)+IF(VierMeters!H421&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D421&gt;0,1,0)+IF(DrieMeters!H421&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="422" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G422" s="24" t="str">
-        <f>IF(VierMeters!D422&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D422+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D422&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D422+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J422" s="2">
-        <f>IF(IF(VierMeters!D422&gt;0,1,0)+IF(VierMeters!H422&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D422&gt;0,1,0)+IF(DrieMeters!H422&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="423" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G423" s="24" t="str">
-        <f>IF(VierMeters!D423&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D423+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D423&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D423+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J423" s="2">
-        <f>IF(IF(VierMeters!D423&gt;0,1,0)+IF(VierMeters!H423&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D423&gt;0,1,0)+IF(DrieMeters!H423&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="424" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G424" s="24" t="str">
-        <f>IF(VierMeters!D424&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D424+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D424&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D424+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J424" s="2">
-        <f>IF(IF(VierMeters!D424&gt;0,1,0)+IF(VierMeters!H424&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D424&gt;0,1,0)+IF(DrieMeters!H424&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="425" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G425" s="24" t="str">
-        <f>IF(VierMeters!D425&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D425+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D425&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D425+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J425" s="2">
-        <f>IF(IF(VierMeters!D425&gt;0,1,0)+IF(VierMeters!H425&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D425&gt;0,1,0)+IF(DrieMeters!H425&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="426" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G426" s="24" t="str">
-        <f>IF(VierMeters!D426&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D426+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D426&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D426+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J426" s="2">
-        <f>IF(IF(VierMeters!D426&gt;0,1,0)+IF(VierMeters!H426&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D426&gt;0,1,0)+IF(DrieMeters!H426&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="427" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G427" s="24" t="str">
-        <f>IF(VierMeters!D427&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D427+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D427&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D427+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J427" s="2">
-        <f>IF(IF(VierMeters!D427&gt;0,1,0)+IF(VierMeters!H427&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D427&gt;0,1,0)+IF(DrieMeters!H427&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="428" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G428" s="24" t="str">
-        <f>IF(VierMeters!D428&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D428+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D428&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D428+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J428" s="2">
-        <f>IF(IF(VierMeters!D428&gt;0,1,0)+IF(VierMeters!H428&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D428&gt;0,1,0)+IF(DrieMeters!H428&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="429" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G429" s="24" t="str">
-        <f>IF(VierMeters!D429&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D429+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D429&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D429+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J429" s="2">
-        <f>IF(IF(VierMeters!D429&gt;0,1,0)+IF(VierMeters!H429&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D429&gt;0,1,0)+IF(DrieMeters!H429&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="430" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G430" s="24" t="str">
-        <f>IF(VierMeters!D430&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D430+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D430&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D430+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J430" s="2">
-        <f>IF(IF(VierMeters!D430&gt;0,1,0)+IF(VierMeters!H430&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D430&gt;0,1,0)+IF(DrieMeters!H430&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="431" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G431" s="24" t="str">
-        <f>IF(VierMeters!D431&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D431+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D431&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D431+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J431" s="2">
-        <f>IF(IF(VierMeters!D431&gt;0,1,0)+IF(VierMeters!H431&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D431&gt;0,1,0)+IF(DrieMeters!H431&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="432" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G432" s="24" t="str">
-        <f>IF(VierMeters!D432&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D432+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D432&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D432+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J432" s="2">
-        <f>IF(IF(VierMeters!D432&gt;0,1,0)+IF(VierMeters!H432&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D432&gt;0,1,0)+IF(DrieMeters!H432&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="433" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G433" s="24" t="str">
-        <f>IF(VierMeters!D433&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D433+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D433&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D433+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J433" s="2">
-        <f>IF(IF(VierMeters!D433&gt;0,1,0)+IF(VierMeters!H433&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D433&gt;0,1,0)+IF(DrieMeters!H433&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="434" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G434" s="24" t="str">
-        <f>IF(VierMeters!D434&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D434+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D434&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D434+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J434" s="2">
-        <f>IF(IF(VierMeters!D434&gt;0,1,0)+IF(VierMeters!H434&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D434&gt;0,1,0)+IF(DrieMeters!H434&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="435" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G435" s="24" t="str">
-        <f>IF(VierMeters!D435&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D435+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D435&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D435+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J435" s="2">
-        <f>IF(IF(VierMeters!D435&gt;0,1,0)+IF(VierMeters!H435&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D435&gt;0,1,0)+IF(DrieMeters!H435&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="436" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G436" s="24" t="str">
-        <f>IF(VierMeters!D436&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D436+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D436&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D436+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J436" s="2">
-        <f>IF(IF(VierMeters!D436&gt;0,1,0)+IF(VierMeters!H436&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D436&gt;0,1,0)+IF(DrieMeters!H436&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="437" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G437" s="24" t="str">
-        <f>IF(VierMeters!D437&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D437+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D437&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D437+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J437" s="2">
-        <f>IF(IF(VierMeters!D437&gt;0,1,0)+IF(VierMeters!H437&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D437&gt;0,1,0)+IF(DrieMeters!H437&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="438" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G438" s="24" t="str">
-        <f>IF(VierMeters!D438&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D438+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D438&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D438+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J438" s="2">
-        <f>IF(IF(VierMeters!D438&gt;0,1,0)+IF(VierMeters!H438&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D438&gt;0,1,0)+IF(DrieMeters!H438&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="439" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G439" s="24" t="str">
-        <f>IF(VierMeters!D439&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D439+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D439&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D439+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J439" s="2">
-        <f>IF(IF(VierMeters!D439&gt;0,1,0)+IF(VierMeters!H439&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D439&gt;0,1,0)+IF(DrieMeters!H439&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="440" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G440" s="24" t="str">
-        <f>IF(VierMeters!D440&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D440+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D440&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D440+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J440" s="2">
-        <f>IF(IF(VierMeters!D440&gt;0,1,0)+IF(VierMeters!H440&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D440&gt;0,1,0)+IF(DrieMeters!H440&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="441" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G441" s="24" t="str">
-        <f>IF(VierMeters!D441&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D441+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D441&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D441+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J441" s="2">
-        <f>IF(IF(VierMeters!D441&gt;0,1,0)+IF(VierMeters!H441&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D441&gt;0,1,0)+IF(DrieMeters!H441&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="442" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G442" s="24" t="str">
-        <f>IF(VierMeters!D442&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D442+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D442&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D442+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J442" s="2">
-        <f>IF(IF(VierMeters!D442&gt;0,1,0)+IF(VierMeters!H442&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D442&gt;0,1,0)+IF(DrieMeters!H442&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="443" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G443" s="24" t="str">
-        <f>IF(VierMeters!D443&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D443+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D443&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D443+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J443" s="2">
-        <f>IF(IF(VierMeters!D443&gt;0,1,0)+IF(VierMeters!H443&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D443&gt;0,1,0)+IF(DrieMeters!H443&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="444" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G444" s="24" t="str">
-        <f>IF(VierMeters!D444&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D444+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D444&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D444+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J444" s="2">
-        <f>IF(IF(VierMeters!D444&gt;0,1,0)+IF(VierMeters!H444&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D444&gt;0,1,0)+IF(DrieMeters!H444&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="445" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G445" s="24" t="str">
-        <f>IF(VierMeters!D445&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D445+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D445&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D445+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J445" s="2">
-        <f>IF(IF(VierMeters!D445&gt;0,1,0)+IF(VierMeters!H445&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D445&gt;0,1,0)+IF(DrieMeters!H445&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="446" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G446" s="24" t="str">
-        <f>IF(VierMeters!D446&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D446+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D446&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D446+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J446" s="2">
-        <f>IF(IF(VierMeters!D446&gt;0,1,0)+IF(VierMeters!H446&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D446&gt;0,1,0)+IF(DrieMeters!H446&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="447" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G447" s="24" t="str">
-        <f>IF(VierMeters!D447&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D447+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D447&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D447+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J447" s="2">
-        <f>IF(IF(VierMeters!D447&gt;0,1,0)+IF(VierMeters!H447&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D447&gt;0,1,0)+IF(DrieMeters!H447&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="448" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G448" s="24" t="str">
-        <f>IF(VierMeters!D448&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D448+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D448&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D448+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J448" s="2">
-        <f>IF(IF(VierMeters!D448&gt;0,1,0)+IF(VierMeters!H448&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D448&gt;0,1,0)+IF(DrieMeters!H448&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="449" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G449" s="24" t="str">
-        <f>IF(VierMeters!D449&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D449+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D449&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D449+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J449" s="2">
-        <f>IF(IF(VierMeters!D449&gt;0,1,0)+IF(VierMeters!H449&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D449&gt;0,1,0)+IF(DrieMeters!H449&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="450" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G450" s="24" t="str">
-        <f>IF(VierMeters!D450&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D450+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D450&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D450+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J450" s="2">
-        <f>IF(IF(VierMeters!D450&gt;0,1,0)+IF(VierMeters!H450&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D450&gt;0,1,0)+IF(DrieMeters!H450&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="451" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G451" s="24" t="str">
-        <f>IF(VierMeters!D451&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D451+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D451&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D451+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J451" s="2">
-        <f>IF(IF(VierMeters!D451&gt;0,1,0)+IF(VierMeters!H451&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D451&gt;0,1,0)+IF(DrieMeters!H451&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="452" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G452" s="24" t="str">
-        <f>IF(VierMeters!D452&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D452+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D452&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D452+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J452" s="2">
-        <f>IF(IF(VierMeters!D452&gt;0,1,0)+IF(VierMeters!H452&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D452&gt;0,1,0)+IF(DrieMeters!H452&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="453" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G453" s="24" t="str">
-        <f>IF(VierMeters!D453&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D453+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D453&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D453+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J453" s="2">
-        <f>IF(IF(VierMeters!D453&gt;0,1,0)+IF(VierMeters!H453&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D453&gt;0,1,0)+IF(DrieMeters!H453&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="454" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G454" s="24" t="str">
-        <f>IF(VierMeters!D454&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D454+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D454&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D454+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J454" s="2">
-        <f>IF(IF(VierMeters!D454&gt;0,1,0)+IF(VierMeters!H454&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D454&gt;0,1,0)+IF(DrieMeters!H454&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="455" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G455" s="24" t="str">
-        <f>IF(VierMeters!D455&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D455+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D455&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D455+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J455" s="2">
-        <f>IF(IF(VierMeters!D455&gt;0,1,0)+IF(VierMeters!H455&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D455&gt;0,1,0)+IF(DrieMeters!H455&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="456" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G456" s="24" t="str">
-        <f>IF(VierMeters!D456&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D456+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D456&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D456+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J456" s="2">
-        <f>IF(IF(VierMeters!D456&gt;0,1,0)+IF(VierMeters!H456&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D456&gt;0,1,0)+IF(DrieMeters!H456&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="457" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G457" s="24" t="str">
-        <f>IF(VierMeters!D457&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D457+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D457&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D457+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J457" s="2">
-        <f>IF(IF(VierMeters!D457&gt;0,1,0)+IF(VierMeters!H457&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D457&gt;0,1,0)+IF(DrieMeters!H457&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="458" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G458" s="24" t="str">
-        <f>IF(VierMeters!D458&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D458+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D458&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D458+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J458" s="2">
-        <f>IF(IF(VierMeters!D458&gt;0,1,0)+IF(VierMeters!H458&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D458&gt;0,1,0)+IF(DrieMeters!H458&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="459" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G459" s="24" t="str">
-        <f>IF(VierMeters!D459&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D459+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D459&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D459+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J459" s="2">
-        <f>IF(IF(VierMeters!D459&gt;0,1,0)+IF(VierMeters!H459&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D459&gt;0,1,0)+IF(DrieMeters!H459&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="460" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G460" s="24" t="str">
-        <f>IF(VierMeters!D460&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D460+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D460&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D460+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J460" s="2">
-        <f>IF(IF(VierMeters!D460&gt;0,1,0)+IF(VierMeters!H460&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D460&gt;0,1,0)+IF(DrieMeters!H460&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="461" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G461" s="24" t="str">
-        <f>IF(VierMeters!D461&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D461+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D461&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D461+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J461" s="2">
-        <f>IF(IF(VierMeters!D461&gt;0,1,0)+IF(VierMeters!H461&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D461&gt;0,1,0)+IF(DrieMeters!H461&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="462" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G462" s="24" t="str">
-        <f>IF(VierMeters!D462&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D462+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D462&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D462+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J462" s="2">
-        <f>IF(IF(VierMeters!D462&gt;0,1,0)+IF(VierMeters!H462&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D462&gt;0,1,0)+IF(DrieMeters!H462&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="463" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G463" s="24" t="str">
-        <f>IF(VierMeters!D463&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D463+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D463&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D463+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J463" s="2">
-        <f>IF(IF(VierMeters!D463&gt;0,1,0)+IF(VierMeters!H463&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D463&gt;0,1,0)+IF(DrieMeters!H463&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="464" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G464" s="24" t="str">
-        <f>IF(VierMeters!D464&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D464+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D464&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D464+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J464" s="2">
-        <f>IF(IF(VierMeters!D464&gt;0,1,0)+IF(VierMeters!H464&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D464&gt;0,1,0)+IF(DrieMeters!H464&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="465" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G465" s="24" t="str">
-        <f>IF(VierMeters!D465&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D465+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D465&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D465+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J465" s="2">
-        <f>IF(IF(VierMeters!D465&gt;0,1,0)+IF(VierMeters!H465&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D465&gt;0,1,0)+IF(DrieMeters!H465&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="466" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G466" s="24" t="str">
-        <f>IF(VierMeters!D466&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D466+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D466&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D466+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J466" s="2">
-        <f>IF(IF(VierMeters!D466&gt;0,1,0)+IF(VierMeters!H466&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D466&gt;0,1,0)+IF(DrieMeters!H466&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="467" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G467" s="24" t="str">
-        <f>IF(VierMeters!D467&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D467+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D467&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D467+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J467" s="2">
-        <f>IF(IF(VierMeters!D467&gt;0,1,0)+IF(VierMeters!H467&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D467&gt;0,1,0)+IF(DrieMeters!H467&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="468" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G468" s="24" t="str">
-        <f>IF(VierMeters!D468&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D468+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D468&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D468+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J468" s="2">
-        <f>IF(IF(VierMeters!D468&gt;0,1,0)+IF(VierMeters!H468&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D468&gt;0,1,0)+IF(DrieMeters!H468&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="469" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G469" s="24" t="str">
-        <f>IF(VierMeters!D469&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D469+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D469&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D469+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J469" s="2">
-        <f>IF(IF(VierMeters!D469&gt;0,1,0)+IF(VierMeters!H469&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D469&gt;0,1,0)+IF(DrieMeters!H469&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="470" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G470" s="24" t="str">
-        <f>IF(VierMeters!D470&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D470+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D470&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D470+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J470" s="2">
-        <f>IF(IF(VierMeters!D470&gt;0,1,0)+IF(VierMeters!H470&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D470&gt;0,1,0)+IF(DrieMeters!H470&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="471" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G471" s="24" t="str">
-        <f>IF(VierMeters!D471&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D471+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D471&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D471+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J471" s="2">
-        <f>IF(IF(VierMeters!D471&gt;0,1,0)+IF(VierMeters!H471&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D471&gt;0,1,0)+IF(DrieMeters!H471&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="472" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G472" s="24" t="str">
-        <f>IF(VierMeters!D472&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D472+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D472&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D472+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J472" s="2">
-        <f>IF(IF(VierMeters!D472&gt;0,1,0)+IF(VierMeters!H472&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D472&gt;0,1,0)+IF(DrieMeters!H472&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="473" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G473" s="24" t="str">
-        <f>IF(VierMeters!D473&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D473+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D473&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D473+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J473" s="2">
-        <f>IF(IF(VierMeters!D473&gt;0,1,0)+IF(VierMeters!H473&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D473&gt;0,1,0)+IF(DrieMeters!H473&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="474" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G474" s="24" t="str">
-        <f>IF(VierMeters!D474&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D474+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D474&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D474+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J474" s="2">
-        <f>IF(IF(VierMeters!D474&gt;0,1,0)+IF(VierMeters!H474&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D474&gt;0,1,0)+IF(DrieMeters!H474&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="475" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G475" s="24" t="str">
-        <f>IF(VierMeters!D475&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D475+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D475&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D475+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J475" s="2">
-        <f>IF(IF(VierMeters!D475&gt;0,1,0)+IF(VierMeters!H475&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D475&gt;0,1,0)+IF(DrieMeters!H475&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="476" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G476" s="24" t="str">
-        <f>IF(VierMeters!D476&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D476+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D476&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D476+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J476" s="2">
-        <f>IF(IF(VierMeters!D476&gt;0,1,0)+IF(VierMeters!H476&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D476&gt;0,1,0)+IF(DrieMeters!H476&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="477" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G477" s="24" t="str">
-        <f>IF(VierMeters!D477&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D477+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D477&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D477+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J477" s="2">
-        <f>IF(IF(VierMeters!D477&gt;0,1,0)+IF(VierMeters!H477&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D477&gt;0,1,0)+IF(DrieMeters!H477&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="478" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G478" s="24" t="str">
-        <f>IF(VierMeters!D478&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D478+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D478&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D478+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J478" s="2">
-        <f>IF(IF(VierMeters!D478&gt;0,1,0)+IF(VierMeters!H478&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D478&gt;0,1,0)+IF(DrieMeters!H478&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="479" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G479" s="24" t="str">
-        <f>IF(VierMeters!D479&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D479+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D479&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D479+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J479" s="2">
-        <f>IF(IF(VierMeters!D479&gt;0,1,0)+IF(VierMeters!H479&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D479&gt;0,1,0)+IF(DrieMeters!H479&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="480" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G480" s="24" t="str">
-        <f>IF(VierMeters!D480&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D480+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D480&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D480+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J480" s="2">
-        <f>IF(IF(VierMeters!D480&gt;0,1,0)+IF(VierMeters!H480&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D480&gt;0,1,0)+IF(DrieMeters!H480&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="481" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G481" s="24" t="str">
-        <f>IF(VierMeters!D481&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D481+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D481&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D481+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J481" s="2">
-        <f>IF(IF(VierMeters!D481&gt;0,1,0)+IF(VierMeters!H481&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D481&gt;0,1,0)+IF(DrieMeters!H481&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="482" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G482" s="24" t="str">
-        <f>IF(VierMeters!D482&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D482+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D482&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D482+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J482" s="2">
-        <f>IF(IF(VierMeters!D482&gt;0,1,0)+IF(VierMeters!H482&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D482&gt;0,1,0)+IF(DrieMeters!H482&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="483" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G483" s="24" t="str">
-        <f>IF(VierMeters!D483&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D483+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D483&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D483+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
       <c r="J483" s="2">
-        <f>IF(IF(VierMeters!D483&gt;0,1,0)+IF(VierMeters!H483&gt;0,1,0)=2,1,0)</f>
+        <f>IF(IF(DrieMeters!D483&gt;0,1,0)+IF(DrieMeters!H483&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="484" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G484" s="24" t="str">
-        <f>IF(VierMeters!D484&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D484+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D484&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D484+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="485" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G485" s="24" t="str">
-        <f>IF(VierMeters!D485&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D485+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D485&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D485+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="486" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G486" s="24" t="str">
-        <f>IF(VierMeters!D486&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D486+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D486&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D486+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="487" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G487" s="24" t="str">
-        <f>IF(VierMeters!D487&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D487+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D487&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D487+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="488" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G488" s="24" t="str">
-        <f>IF(VierMeters!D488&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D488+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D488&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D488+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="489" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G489" s="24" t="str">
-        <f>IF(VierMeters!D489&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D489+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D489&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D489+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="490" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G490" s="24" t="str">
-        <f>IF(VierMeters!D490&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D490+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D490&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D490+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="491" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G491" s="24" t="str">
-        <f>IF(VierMeters!D491&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D491+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D491&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D491+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="492" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G492" s="24" t="str">
-        <f>IF(VierMeters!D492&gt;0,Grafiek_kalibratiemetingen!$R$13*VierMeters!D492+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(DrieMeters!D492&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D492+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="493" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G493" s="24" t="str">
-        <f>IF(J493,Grafiek_kalibratiemetingen!$R$13*VierMeters!D493+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J493,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D493+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="494" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G494" s="24" t="str">
-        <f>IF(J494,Grafiek_kalibratiemetingen!$R$13*VierMeters!D494+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J494,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D494+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="495" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G495" s="24" t="str">
-        <f>IF(J495,Grafiek_kalibratiemetingen!$R$13*VierMeters!D495+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J495,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D495+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="496" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G496" s="24" t="str">
-        <f>IF(J496,Grafiek_kalibratiemetingen!$R$13*VierMeters!D496+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J496,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D496+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="497" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G497" s="24" t="str">
-        <f>IF(J497,Grafiek_kalibratiemetingen!$R$13*VierMeters!D497+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J497,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D497+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="498" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G498" s="24" t="str">
-        <f>IF(J498,Grafiek_kalibratiemetingen!$R$13*VierMeters!D498+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J498,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D498+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="499" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G499" s="24" t="str">
-        <f>IF(J499,Grafiek_kalibratiemetingen!$R$13*VierMeters!D499+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J499,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D499+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="500" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G500" s="24" t="str">
-        <f>IF(J500,Grafiek_kalibratiemetingen!$R$13*VierMeters!D500+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J500,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D500+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="501" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G501" s="24" t="str">
-        <f>IF(J501,Grafiek_kalibratiemetingen!$R$13*VierMeters!D501+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J501,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D501+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="502" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G502" s="24" t="str">
-        <f>IF(J502,Grafiek_kalibratiemetingen!$R$13*VierMeters!D502+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J502,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D502+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="503" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G503" s="24" t="str">
-        <f>IF(J503,Grafiek_kalibratiemetingen!$R$13*VierMeters!D503+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J503,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D503+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="504" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G504" s="24" t="str">
-        <f>IF(J504,Grafiek_kalibratiemetingen!$R$13*VierMeters!D504+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J504,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D504+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="505" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G505" s="24" t="str">
-        <f>IF(J505,Grafiek_kalibratiemetingen!$R$13*VierMeters!D505+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J505,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D505+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="506" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G506" s="24" t="str">
-        <f>IF(J506,Grafiek_kalibratiemetingen!$R$13*VierMeters!D506+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J506,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D506+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="507" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G507" s="24" t="str">
-        <f>IF(J507,Grafiek_kalibratiemetingen!$R$13*VierMeters!D507+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J507,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D507+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="508" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G508" s="24" t="str">
-        <f>IF(J508,Grafiek_kalibratiemetingen!$R$13*VierMeters!D508+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J508,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D508+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="509" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G509" s="24" t="str">
-        <f>IF(J509,Grafiek_kalibratiemetingen!$R$13*VierMeters!D509+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J509,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D509+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="510" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G510" s="24" t="str">
-        <f>IF(J510,Grafiek_kalibratiemetingen!$R$13*VierMeters!D510+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J510,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D510+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="511" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G511" s="24" t="str">
-        <f>IF(J511,Grafiek_kalibratiemetingen!$R$13*VierMeters!D511+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J511,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D511+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="512" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G512" s="24" t="str">
-        <f>IF(J512,Grafiek_kalibratiemetingen!$R$13*VierMeters!D512+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J512,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D512+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="513" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G513" s="24" t="str">
-        <f>IF(J513,Grafiek_kalibratiemetingen!$R$13*VierMeters!D513+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J513,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D513+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="514" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G514" s="24" t="str">
-        <f>IF(J514,Grafiek_kalibratiemetingen!$R$13*VierMeters!D514+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J514,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D514+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="515" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G515" s="24" t="str">
-        <f>IF(J515,Grafiek_kalibratiemetingen!$R$13*VierMeters!D515+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J515,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D515+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="516" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G516" s="24" t="str">
-        <f>IF(J516,Grafiek_kalibratiemetingen!$R$13*VierMeters!D516+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J516,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D516+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="517" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G517" s="24" t="str">
-        <f>IF(J517,Grafiek_kalibratiemetingen!$R$13*VierMeters!D517+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J517,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D517+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="518" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G518" s="24" t="str">
-        <f>IF(J518,Grafiek_kalibratiemetingen!$R$13*VierMeters!D518+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J518,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D518+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="519" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G519" s="24" t="str">
-        <f>IF(J519,Grafiek_kalibratiemetingen!$R$13*VierMeters!D519+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J519,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D519+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="520" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G520" s="24" t="str">
-        <f>IF(J520,Grafiek_kalibratiemetingen!$R$13*VierMeters!D520+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J520,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D520+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="521" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G521" s="24" t="str">
-        <f>IF(J521,Grafiek_kalibratiemetingen!$R$13*VierMeters!D521+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J521,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D521+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="522" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G522" s="24" t="str">
-        <f>IF(J522,Grafiek_kalibratiemetingen!$R$13*VierMeters!D522+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J522,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D522+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="523" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G523" s="24" t="str">
-        <f>IF(J523,Grafiek_kalibratiemetingen!$R$13*VierMeters!D523+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J523,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D523+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="524" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G524" s="24" t="str">
-        <f>IF(J524,Grafiek_kalibratiemetingen!$R$13*VierMeters!D524+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J524,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D524+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="525" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G525" s="24" t="str">
-        <f>IF(J525,Grafiek_kalibratiemetingen!$R$13*VierMeters!D525+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J525,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D525+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="526" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G526" s="24" t="str">
-        <f>IF(J526,Grafiek_kalibratiemetingen!$R$13*VierMeters!D526+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J526,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D526+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="527" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G527" s="24" t="str">
-        <f>IF(J527,Grafiek_kalibratiemetingen!$R$13*VierMeters!D527+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J527,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D527+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="528" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G528" s="24" t="str">
-        <f>IF(J528,Grafiek_kalibratiemetingen!$R$13*VierMeters!D528+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J528,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D528+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="529" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G529" s="24" t="str">
-        <f>IF(J529,Grafiek_kalibratiemetingen!$R$13*VierMeters!D529+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J529,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D529+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="530" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G530" s="24" t="str">
-        <f>IF(J530,Grafiek_kalibratiemetingen!$R$13*VierMeters!D530+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J530,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D530+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="531" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G531" s="24" t="str">
-        <f>IF(J531,Grafiek_kalibratiemetingen!$R$13*VierMeters!D531+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J531,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D531+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="532" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G532" s="24" t="str">
-        <f>IF(J532,Grafiek_kalibratiemetingen!$R$13*VierMeters!D532+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J532,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D532+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="533" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G533" s="24" t="str">
-        <f>IF(J533,Grafiek_kalibratiemetingen!$R$13*VierMeters!D533+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J533,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D533+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="534" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G534" s="24" t="str">
-        <f>IF(J534,Grafiek_kalibratiemetingen!$R$13*VierMeters!D534+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J534,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D534+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="535" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G535" s="24" t="str">
-        <f>IF(J535,Grafiek_kalibratiemetingen!$R$13*VierMeters!D535+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J535,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D535+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="536" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G536" s="24" t="str">
-        <f>IF(J536,Grafiek_kalibratiemetingen!$R$13*VierMeters!D536+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J536,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D536+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="537" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G537" s="24" t="str">
-        <f>IF(J537,Grafiek_kalibratiemetingen!$R$13*VierMeters!D537+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J537,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D537+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="538" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G538" s="24" t="str">
-        <f>IF(J538,Grafiek_kalibratiemetingen!$R$13*VierMeters!D538+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J538,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D538+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="539" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G539" s="24" t="str">
-        <f>IF(J539,Grafiek_kalibratiemetingen!$R$13*VierMeters!D539+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J539,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D539+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="540" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G540" s="24" t="str">
-        <f>IF(J540,Grafiek_kalibratiemetingen!$R$13*VierMeters!D540+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J540,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D540+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="541" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G541" s="24" t="str">
-        <f>IF(J541,Grafiek_kalibratiemetingen!$R$13*VierMeters!D541+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J541,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D541+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="542" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G542" s="24" t="str">
-        <f>IF(J542,Grafiek_kalibratiemetingen!$R$13*VierMeters!D542+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J542,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D542+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="543" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G543" s="24" t="str">
-        <f>IF(J543,Grafiek_kalibratiemetingen!$R$13*VierMeters!D543+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J543,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D543+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="544" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G544" s="24" t="str">
-        <f>IF(J544,Grafiek_kalibratiemetingen!$R$13*VierMeters!D544+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J544,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D544+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="545" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G545" s="24" t="str">
-        <f>IF(J545,Grafiek_kalibratiemetingen!$R$13*VierMeters!D545+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J545,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D545+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="546" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G546" s="24" t="str">
-        <f>IF(J546,Grafiek_kalibratiemetingen!$R$13*VierMeters!D546+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J546,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D546+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="547" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G547" s="24" t="str">
-        <f>IF(J547,Grafiek_kalibratiemetingen!$R$13*VierMeters!D547+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J547,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D547+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="548" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G548" s="24" t="str">
-        <f>IF(J548,Grafiek_kalibratiemetingen!$R$13*VierMeters!D548+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J548,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D548+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="549" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G549" s="24" t="str">
-        <f>IF(J549,Grafiek_kalibratiemetingen!$R$13*VierMeters!D549+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J549,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D549+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="550" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G550" s="24" t="str">
-        <f>IF(J550,Grafiek_kalibratiemetingen!$R$13*VierMeters!D550+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J550,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D550+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="551" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G551" s="24" t="str">
-        <f>IF(J551,Grafiek_kalibratiemetingen!$R$13*VierMeters!D551+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J551,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D551+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="552" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G552" s="24" t="str">
-        <f>IF(J552,Grafiek_kalibratiemetingen!$R$13*VierMeters!D552+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J552,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D552+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="553" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G553" s="24" t="str">
-        <f>IF(J553,Grafiek_kalibratiemetingen!$R$13*VierMeters!D553+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J553,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D553+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="554" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G554" s="24" t="str">
-        <f>IF(J554,Grafiek_kalibratiemetingen!$R$13*VierMeters!D554+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J554,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D554+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="555" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G555" s="24" t="str">
-        <f>IF(J555,Grafiek_kalibratiemetingen!$R$13*VierMeters!D555+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J555,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D555+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="556" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G556" s="24" t="str">
-        <f>IF(J556,Grafiek_kalibratiemetingen!$R$13*VierMeters!D556+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J556,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D556+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="557" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G557" s="24" t="str">
-        <f>IF(J557,Grafiek_kalibratiemetingen!$R$13*VierMeters!D557+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J557,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D557+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="558" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G558" s="24" t="str">
-        <f>IF(J558,Grafiek_kalibratiemetingen!$R$13*VierMeters!D558+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J558,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D558+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="559" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G559" s="24" t="str">
-        <f>IF(J559,Grafiek_kalibratiemetingen!$R$13*VierMeters!D559+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J559,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D559+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="560" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G560" s="24" t="str">
-        <f>IF(J560,Grafiek_kalibratiemetingen!$R$13*VierMeters!D560+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J560,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D560+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="561" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G561" s="24" t="str">
-        <f>IF(J561,Grafiek_kalibratiemetingen!$R$13*VierMeters!D561+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J561,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D561+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="562" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G562" s="24" t="str">
-        <f>IF(J562,Grafiek_kalibratiemetingen!$R$13*VierMeters!D562+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J562,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D562+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="563" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G563" s="24" t="str">
-        <f>IF(J563,Grafiek_kalibratiemetingen!$R$13*VierMeters!D563+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J563,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D563+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="564" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G564" s="24" t="str">
-        <f>IF(J564,Grafiek_kalibratiemetingen!$R$13*VierMeters!D564+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J564,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D564+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="565" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G565" s="24" t="str">
-        <f>IF(J565,Grafiek_kalibratiemetingen!$R$13*VierMeters!D565+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J565,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D565+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="566" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G566" s="24" t="str">
-        <f>IF(J566,Grafiek_kalibratiemetingen!$R$13*VierMeters!D566+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J566,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D566+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
     <row r="567" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G567" s="24" t="str">
-        <f>IF(J567,Grafiek_kalibratiemetingen!$R$13*VierMeters!D567+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
+        <f>IF(J567,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D567+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
       </c>
     </row>
@@ -32741,7 +32284,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -32772,10 +32314,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32789,14 +32331,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="67"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -32805,22 +32347,22 @@
       <c r="B2" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="63" t="s">
         <v>136</v>
       </c>
     </row>
@@ -32872,11 +32414,11 @@
         <v>27.9</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H6" si="0">E4-C4</f>
+        <f t="shared" ref="H4:H10" si="0">E4-C4</f>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I6" si="1">F4-D4</f>
+        <f t="shared" ref="I4:I10" si="1">F4-D4</f>
         <v>0.39999999999999858</v>
       </c>
     </row>
@@ -32934,6 +32476,106 @@
       <c r="I6">
         <f t="shared" si="1"/>
         <v>0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9309</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>11.9</v>
+      </c>
+      <c r="F7">
+        <v>28.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9301</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>27.6</v>
+      </c>
+      <c r="E8">
+        <v>12.9</v>
+      </c>
+      <c r="F8">
+        <v>28.4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9304</v>
+      </c>
+      <c r="C9">
+        <v>13.6</v>
+      </c>
+      <c r="D9">
+        <v>27.7</v>
+      </c>
+      <c r="E9">
+        <v>13.4</v>
+      </c>
+      <c r="F9">
+        <v>28.2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9303</v>
+      </c>
+      <c r="C10">
+        <v>12.1</v>
+      </c>
+      <c r="D10">
+        <v>27.7</v>
+      </c>
+      <c r="E10">
+        <v>12.1</v>
+      </c>
+      <c r="F10">
+        <v>28.3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000142</v>
       </c>
     </row>
   </sheetData>
@@ -33027,18 +32669,18 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="N2" s="64" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="N2" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -40170,102 +39812,102 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="containsBlanks" dxfId="19" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
       <formula>LEN(TRIM(G14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:D10">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="20">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:D10">
-    <cfRule type="containsBlanks" dxfId="17" priority="19">
+    <cfRule type="containsBlanks" dxfId="18" priority="19">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:D11">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="18">
       <formula>LEN(TRIM(B11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:D11">
-    <cfRule type="containsBlanks" dxfId="15" priority="17">
+    <cfRule type="containsBlanks" dxfId="16" priority="17">
       <formula>LEN(TRIM(B11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="16">
       <formula>LEN(TRIM(B12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="containsBlanks" dxfId="13" priority="15">
+    <cfRule type="containsBlanks" dxfId="14" priority="15">
       <formula>LEN(TRIM(B12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:D13">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="14">
       <formula>LEN(TRIM(B13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:D13">
-    <cfRule type="containsBlanks" dxfId="11" priority="13">
+    <cfRule type="containsBlanks" dxfId="12" priority="13">
       <formula>LEN(TRIM(B13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
       <formula>LEN(TRIM(B14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="containsBlanks" dxfId="9" priority="11">
+    <cfRule type="containsBlanks" dxfId="10" priority="11">
       <formula>LEN(TRIM(B14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H10">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="10">
       <formula>LEN(TRIM(G10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H10">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H11">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(G11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H11">
-    <cfRule type="containsBlanks" dxfId="5" priority="7">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H12">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(G12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H12">
-    <cfRule type="containsBlanks" dxfId="3" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(G12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(G13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(G13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(G14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2016Robbertmetingen.xlsx
+++ b/2016Robbertmetingen.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="143">
   <si>
     <t>Sample nummer</t>
   </si>
@@ -443,6 +443,21 @@
   </si>
   <si>
     <t>ErrorHum</t>
+  </si>
+  <si>
+    <t>San Agustin</t>
+  </si>
+  <si>
+    <t>nummerloos1</t>
+  </si>
+  <si>
+    <t>uit grote bak, redelijk warm</t>
+  </si>
+  <si>
+    <t>monster zoals sol y café</t>
+  </si>
+  <si>
+    <t>grote afwijkingen overal, kan ook te wijten zijn aan andere gehaka. Staat andere software op, heeft backlight, toont geen temperatuur etc.</t>
   </si>
 </sst>
 </file>
@@ -5668,7 +5683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U573"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
@@ -17222,13 +17237,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Q1:AC238"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.5703125" customWidth="1"/>
     <col min="19" max="19" width="27.140625" customWidth="1"/>
@@ -24765,17 +24781,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:S33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="6" width="8.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
@@ -24786,7 +24803,7 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>COUNT(A$4:A$64994)</f>
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B1">
         <f>COUNT(B$4:B$64994)</f>
@@ -24794,19 +24811,19 @@
       </c>
       <c r="C1">
         <f>COUNT(C$4:C$64994)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D1">
         <f>COUNT(D$4:D$64994)</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E1">
         <f>COUNT(E$4:E$64994)</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H1">
         <f>COUNT(H$4:H$64994)</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I1">
         <f>COUNT(I$4:I$64994)</f>
@@ -24818,7 +24835,7 @@
       </c>
       <c r="L1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M1">
         <f>COUNT(M$4:M$65000)</f>
@@ -24830,7 +24847,7 @@
       </c>
       <c r="O1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="P1">
         <f t="shared" si="0"/>
@@ -24918,7 +24935,7 @@
       </c>
       <c r="Y3">
         <f>COUNTIF(J4:J49994,"=1")</f>
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -24984,7 +25001,7 @@
       </c>
       <c r="Y4" s="18">
         <f>-SUM(R4:R50000)</f>
-        <v>-1812204.7</v>
+        <v>-3225891.9000000004</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -25002,7 +25019,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="39">
-        <f t="shared" ref="F5:F33" si="1">IF(J5,H5-G5,TRIM(""))</f>
+        <f t="shared" ref="F5:F53" si="1">IF(J5,H5-G5,TRIM(""))</f>
         <v>0.5</v>
       </c>
       <c r="G5" s="40">
@@ -25038,11 +25055,11 @@
       </c>
       <c r="Q5" s="28"/>
       <c r="R5">
-        <f t="shared" ref="R5:R20" si="2">H5*D5</f>
+        <f t="shared" ref="R5:R18" si="2">H5*D5</f>
         <v>74699.400000000009</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S20" si="3">D5*D5</f>
+        <f t="shared" ref="S5:S18" si="3">D5*D5</f>
         <v>29300569</v>
       </c>
       <c r="X5" s="17" t="s">
@@ -25050,7 +25067,7 @@
       </c>
       <c r="Y5">
         <f>AVERAGEIF(J4:J49994,"=1",H4:H49994)</f>
-        <v>12.690000000000003</v>
+        <v>12.144444444444446</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -25069,8 +25086,14 @@
       <c r="E6" s="38">
         <v>30</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+      <c r="F6" s="39">
+        <f t="shared" si="1"/>
+        <v>3.4166401343416197E-2</v>
+      </c>
+      <c r="G6" s="24">
+        <f>D6*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>13.765833598656585</v>
+      </c>
       <c r="H6" s="41">
         <v>13.8</v>
       </c>
@@ -25113,7 +25136,7 @@
       </c>
       <c r="Y6">
         <f>AVERAGEIF(J4:J49994,"=1",D4:D49994)</f>
-        <v>4701.2333333333336</v>
+        <v>4886.9444444444443</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -25179,7 +25202,7 @@
       </c>
       <c r="Y7">
         <f>SUMIF(J4:J49994,"=1",D4:D49994)/Y3</f>
-        <v>4701.2333333333336</v>
+        <v>4886.9444444444443</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -25245,7 +25268,7 @@
       </c>
       <c r="Y8">
         <f>SUMIF(J4:J49994,"=1",D4:D49994)</f>
-        <v>141037</v>
+        <v>263895</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -25264,8 +25287,14 @@
       <c r="E9" s="38">
         <v>30</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="F9" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.20959135526374695</v>
+      </c>
+      <c r="G9" s="24">
+        <f>D9*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>14.009591355263748</v>
+      </c>
       <c r="H9" s="41">
         <v>13.8</v>
       </c>
@@ -25308,7 +25337,7 @@
       </c>
       <c r="Y9">
         <f>SUMIF(J4:J49994,"=1",H4:H49994)</f>
-        <v>380.7000000000001</v>
+        <v>655.80000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -25374,7 +25403,7 @@
       </c>
       <c r="Y10">
         <f>SUMIF(J4:J49994,"=1",S4:S50000)</f>
-        <v>681663369</v>
+        <v>1315808449</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -25452,8 +25481,14 @@
       <c r="E12" s="38">
         <v>27</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
+      <c r="F12" s="39">
+        <f t="shared" si="1"/>
+        <v>0.46979886017828498</v>
+      </c>
+      <c r="G12" s="24">
+        <f>D12*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>10.430201139821715</v>
+      </c>
       <c r="H12" s="41">
         <v>10.9</v>
       </c>
@@ -25496,7 +25531,7 @@
       </c>
       <c r="Y12">
         <f>Y4+Y5*Y8</f>
-        <v>-22445.16999999946</v>
+        <v>-21033.733333333395</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -25562,7 +25597,7 @@
       </c>
       <c r="Y13">
         <f>-Y10+(Y8*Y8)/Y3</f>
-        <v>-18615523.366666675</v>
+        <v>-26168244.833333254</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -25640,8 +25675,14 @@
       <c r="E15" s="30">
         <v>29</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.45317899750044965</v>
+      </c>
+      <c r="G15" s="24">
+        <f>D15*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>12.35317899750045</v>
+      </c>
       <c r="H15" s="31">
         <v>11.9</v>
       </c>
@@ -25684,7 +25725,7 @@
       </c>
       <c r="Y15">
         <f>Y12/Y13</f>
-        <v>1.205723285770747E-3</v>
+        <v>8.0378846450337819E-4</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -25750,7 +25791,7 @@
       </c>
       <c r="Y16">
         <f>Y5-Y15*Y6</f>
-        <v>7.0216134981583744</v>
+        <v>8.2163748733311301</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -25828,8 +25869,14 @@
       <c r="E18" s="30">
         <v>29</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="39">
+        <f t="shared" si="1"/>
+        <v>0.47528931306335132</v>
+      </c>
+      <c r="G18" s="24">
+        <f>D18*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>13.624710686936648</v>
+      </c>
       <c r="H18" s="31">
         <v>14.1</v>
       </c>
@@ -25919,11 +25966,11 @@
       </c>
       <c r="Q19" s="29"/>
       <c r="R19">
-        <f t="shared" ref="R19:R33" si="4">H19*D19</f>
+        <f t="shared" ref="R19:R36" si="4">H19*D19</f>
         <v>51000.299999999996</v>
       </c>
       <c r="S19">
-        <f t="shared" ref="S19:S33" si="5">D19*D19</f>
+        <f t="shared" ref="S19:S34" si="5">D19*D19</f>
         <v>19000881</v>
       </c>
     </row>
@@ -26002,8 +26049,14 @@
       <c r="E21" s="30">
         <v>29</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
+      <c r="F21" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.43507995211509431</v>
+      </c>
+      <c r="G21" s="24">
+        <f>D21*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>12.135079952115094</v>
+      </c>
       <c r="H21" s="31">
         <v>11.7</v>
       </c>
@@ -26176,8 +26229,14 @@
       <c r="E24" s="30">
         <v>29</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
+      <c r="F24" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.4914509413068533</v>
+      </c>
+      <c r="G24" s="24">
+        <f>D24*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>12.491450941306853</v>
+      </c>
       <c r="H24" s="31">
         <v>12</v>
       </c>
@@ -26350,8 +26409,14 @@
       <c r="E27" s="30">
         <v>30</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
+      <c r="F27" s="39">
+        <f t="shared" si="1"/>
+        <v>-0.66371837704935821</v>
+      </c>
+      <c r="G27" s="24">
+        <f>D27*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>12.763718377049358</v>
+      </c>
       <c r="H27" s="31">
         <v>12.1</v>
       </c>
@@ -26524,8 +26589,14 @@
       <c r="E30" s="30">
         <v>30</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
+      <c r="F30" s="39">
+        <f t="shared" si="1"/>
+        <v>-6.7475205639659919E-2</v>
+      </c>
+      <c r="G30" s="24">
+        <f>D30*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>13.66747520563966</v>
+      </c>
       <c r="H30" s="31">
         <v>13.6</v>
       </c>
@@ -26682,7 +26753,7 @@
         <v>24373969</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>9301</v>
       </c>
@@ -26698,8 +26769,14 @@
       <c r="E33" s="13">
         <v>30</v>
       </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="24"/>
+      <c r="F33" s="39">
+        <f t="shared" si="1"/>
+        <v>1.1055157781450831E-2</v>
+      </c>
+      <c r="G33" s="24">
+        <f>D33*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>12.988944842218549</v>
+      </c>
       <c r="H33" s="12">
         <v>13</v>
       </c>
@@ -26730,440 +26807,1405 @@
       </c>
       <c r="Q33" s="29"/>
       <c r="R33">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="R33:R51" si="6">H33*D33</f>
         <v>60424</v>
       </c>
       <c r="S33">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="S33:S43" si="7">D33*D33</f>
         <v>21603904</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="29">
+        <v>266</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="26" t="str">
-        <f t="shared" ref="F32:F62" si="6">IF(J34,H34-G34,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="12"/>
+      <c r="D34" s="13">
+        <v>5565</v>
+      </c>
+      <c r="E34" s="13">
+        <v>29</v>
+      </c>
+      <c r="F34" s="39">
+        <f t="shared" si="1"/>
+        <v>-3.8000000000000007</v>
+      </c>
+      <c r="G34" s="24">
+        <v>13.9</v>
+      </c>
+      <c r="H34" s="12">
+        <v>10.1</v>
+      </c>
       <c r="I34" s="12"/>
       <c r="J34" s="2">
         <f>IF(IF(DrieMeters!D34&gt;0,1,0)+IF(DrieMeters!H34&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L34" s="29">
+        <v>780</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>56206.5</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="7"/>
+        <v>30969225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="29">
+        <v>266</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="C35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G35" s="24"/>
+      <c r="D35" s="13">
+        <v>5499</v>
+      </c>
+      <c r="E35" s="13">
+        <v>30</v>
+      </c>
+      <c r="F35" s="39">
+        <f t="shared" si="1"/>
+        <v>-3.4000000000000004</v>
+      </c>
+      <c r="G35" s="24">
+        <v>13.5</v>
+      </c>
+      <c r="H35" s="12">
+        <v>10.1</v>
+      </c>
+      <c r="I35" s="12"/>
       <c r="J35" s="2">
         <f>IF(IF(DrieMeters!D35&gt;0,1,0)+IF(DrieMeters!H35&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="26" t="str">
+        <v>1</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L35" s="29">
+        <v>780</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="12"/>
+        <v>55539.9</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="7"/>
+        <v>30239001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="29">
+        <v>266</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="13">
+        <v>20587</v>
+      </c>
+      <c r="D36" s="13">
+        <v>4770</v>
+      </c>
+      <c r="E36" s="13">
+        <v>30</v>
+      </c>
+      <c r="F36" s="39">
+        <f t="shared" si="1"/>
+        <v>-3.0628538849441274</v>
+      </c>
+      <c r="G36" s="24">
+        <f>D36*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>13.162853884944127</v>
+      </c>
+      <c r="H36" s="12">
+        <v>10.1</v>
+      </c>
       <c r="I36" s="12"/>
       <c r="J36" s="2">
         <f>IF(IF(DrieMeters!D36&gt;0,1,0)+IF(DrieMeters!H36&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L36" s="29">
+        <v>780</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="6"/>
+        <v>48177</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="7"/>
+        <v>22752900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="29">
+        <v>267</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="C37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G37" s="24"/>
+      <c r="D37" s="13">
+        <v>4529</v>
+      </c>
+      <c r="E37" s="13">
+        <v>30</v>
+      </c>
+      <c r="F37" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.6000000000000014</v>
+      </c>
+      <c r="G37" s="24">
+        <v>11.8</v>
+      </c>
+      <c r="H37" s="13">
+        <v>10.199999999999999</v>
+      </c>
       <c r="J37" s="2">
         <f>IF(IF(DrieMeters!D37&gt;0,1,0)+IF(DrieMeters!H37&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="7"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L37" s="29">
+        <v>780</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P37" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>46195.799999999996</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="7"/>
+        <v>20511841</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="29">
+        <v>267</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="12"/>
+      <c r="D38" s="13">
+        <v>4437</v>
+      </c>
+      <c r="E38" s="13">
+        <v>30</v>
+      </c>
+      <c r="F38" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.2000000000000011</v>
+      </c>
+      <c r="G38" s="24">
+        <v>11.4</v>
+      </c>
+      <c r="H38" s="12">
+        <v>10.199999999999999</v>
+      </c>
       <c r="I38" s="12"/>
       <c r="J38" s="2">
         <f>IF(IF(DrieMeters!D38&gt;0,1,0)+IF(DrieMeters!H38&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="7"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="26" t="str">
+        <v>1</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L38" s="29">
+        <v>780</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P38" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="12"/>
+        <v>45257.399999999994</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="7"/>
+        <v>19686969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="29">
+        <v>267</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="13">
+        <v>20538</v>
+      </c>
+      <c r="D39" s="13">
+        <v>3888</v>
+      </c>
+      <c r="E39" s="13">
+        <v>30</v>
+      </c>
+      <c r="F39" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.705577035075601</v>
+      </c>
+      <c r="G39" s="24">
+        <f>D39*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>11.9055770350756</v>
+      </c>
+      <c r="H39" s="12">
+        <v>10.199999999999999</v>
+      </c>
       <c r="I39" s="12"/>
       <c r="J39" s="2">
         <f>IF(IF(DrieMeters!D39&gt;0,1,0)+IF(DrieMeters!H39&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="7"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L39" s="29">
+        <v>780</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O39" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q39" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>39657.599999999999</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="7"/>
+        <v>15116544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="12"/>
+      <c r="D40" s="13">
+        <v>5499</v>
+      </c>
+      <c r="E40" s="13">
+        <v>32</v>
+      </c>
+      <c r="F40" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.8000000000000007</v>
+      </c>
+      <c r="G40" s="24">
+        <v>13.8</v>
+      </c>
+      <c r="H40" s="12">
+        <v>12</v>
+      </c>
       <c r="I40" s="12"/>
       <c r="J40" s="2">
         <f>IF(IF(DrieMeters!D40&gt;0,1,0)+IF(DrieMeters!H40&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="7"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L40" s="29">
+        <v>780</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>65988</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="7"/>
+        <v>30239001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="12"/>
+      <c r="D41" s="13">
+        <v>5674</v>
+      </c>
+      <c r="E41" s="13">
+        <v>31</v>
+      </c>
+      <c r="F41" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.9000000000000004</v>
+      </c>
+      <c r="G41" s="24">
+        <v>13.9</v>
+      </c>
+      <c r="H41" s="12">
+        <v>12</v>
+      </c>
       <c r="I41" s="12"/>
       <c r="J41" s="2">
         <f>IF(IF(DrieMeters!D41&gt;0,1,0)+IF(DrieMeters!H41&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="7"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="26" t="str">
+        <v>1</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L41" s="29">
+        <v>780</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q41" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="R41">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="12"/>
+        <v>68088</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="7"/>
+        <v>32194276</v>
+      </c>
+      <c r="U41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="13">
+        <v>20890</v>
+      </c>
+      <c r="D42" s="13">
+        <v>5164</v>
+      </c>
+      <c r="E42" s="13">
+        <v>31</v>
+      </c>
+      <c r="F42" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.7244945639103406</v>
+      </c>
+      <c r="G42" s="24">
+        <f>D42*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>13.724494563910341</v>
+      </c>
+      <c r="H42" s="12">
+        <v>12</v>
+      </c>
       <c r="I42" s="12"/>
       <c r="J42" s="2">
         <f>IF(IF(DrieMeters!D42&gt;0,1,0)+IF(DrieMeters!H42&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="7"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L42" s="29">
+        <v>780</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P42" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ref="R42:R57" si="8">H42*D42</f>
+        <v>61968</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ref="S42:S57" si="9">D42*D42</f>
+        <v>26666896</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>262</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="12"/>
+      <c r="D43" s="13">
+        <v>4782</v>
+      </c>
+      <c r="E43" s="13">
+        <v>32</v>
+      </c>
+      <c r="F43" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.3000000000000007</v>
+      </c>
+      <c r="G43" s="24">
+        <v>12.3</v>
+      </c>
+      <c r="H43" s="12">
+        <v>11</v>
+      </c>
       <c r="I43" s="12"/>
       <c r="J43" s="2">
         <f>IF(IF(DrieMeters!D43&gt;0,1,0)+IF(DrieMeters!H43&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="7"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L43" s="29">
+        <v>780</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q43" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="8"/>
+        <v>52602</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="9"/>
+        <v>22867524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>262</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="12"/>
+      <c r="D44" s="13">
+        <v>4852</v>
+      </c>
+      <c r="E44" s="13">
+        <v>31</v>
+      </c>
+      <c r="F44" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.1999999999999993</v>
+      </c>
+      <c r="G44" s="24">
+        <v>12.2</v>
+      </c>
+      <c r="H44" s="12">
+        <v>11</v>
+      </c>
       <c r="I44" s="12"/>
       <c r="J44" s="2">
         <f>IF(IF(DrieMeters!D44&gt;0,1,0)+IF(DrieMeters!H44&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="7"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L44" s="29">
+        <v>780</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q44" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="8"/>
+        <v>53372</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="9"/>
+        <v>23541904</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>262</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="13">
+        <v>21022</v>
+      </c>
+      <c r="D45" s="13">
+        <v>4134</v>
+      </c>
+      <c r="E45" s="13">
+        <v>31</v>
+      </c>
+      <c r="F45" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.2562460884402924</v>
+      </c>
+      <c r="G45" s="24">
+        <f>D45*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>12.256246088440292</v>
+      </c>
+      <c r="H45" s="12">
+        <v>11</v>
+      </c>
       <c r="I45" s="12"/>
       <c r="J45" s="2">
         <f>IF(IF(DrieMeters!D45&gt;0,1,0)+IF(DrieMeters!H45&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="7"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L45" s="29">
+        <v>780</v>
+      </c>
+      <c r="M45" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="8"/>
+        <v>45474</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="9"/>
+        <v>17089956</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>261</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G46" s="24"/>
-      <c r="H46" s="12"/>
+      <c r="D46" s="13">
+        <v>5398</v>
+      </c>
+      <c r="E46" s="13">
+        <v>32</v>
+      </c>
+      <c r="F46" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.2999999999999989</v>
+      </c>
+      <c r="G46" s="24">
+        <v>13.6</v>
+      </c>
+      <c r="H46" s="12">
+        <v>12.3</v>
+      </c>
       <c r="I46" s="12"/>
       <c r="J46" s="2">
         <f>IF(IF(DrieMeters!D46&gt;0,1,0)+IF(DrieMeters!H46&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="7"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L46" s="29">
+        <v>780</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P46" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q46" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="8"/>
+        <v>66395.400000000009</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="9"/>
+        <v>29138404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>261</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="12"/>
+      <c r="D47" s="13">
+        <v>5394</v>
+      </c>
+      <c r="E47" s="13">
+        <v>33</v>
+      </c>
+      <c r="F47" s="39">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G47" s="24">
+        <v>13.3</v>
+      </c>
+      <c r="H47" s="12">
+        <v>12.3</v>
+      </c>
       <c r="I47" s="12"/>
       <c r="J47" s="2">
         <f>IF(IF(DrieMeters!D47&gt;0,1,0)+IF(DrieMeters!H47&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="7"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G48" s="24"/>
-      <c r="H48" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="K47" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L47" s="29">
+        <v>780</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q47" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="8"/>
+        <v>66346.2</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="9"/>
+        <v>29095236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>261</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="13">
+        <v>20277</v>
+      </c>
+      <c r="D48" s="13">
+        <v>5135</v>
+      </c>
+      <c r="E48" s="13">
+        <v>32</v>
+      </c>
+      <c r="F48" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.383155529164096</v>
+      </c>
+      <c r="G48" s="24">
+        <f>D48*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>13.683155529164097</v>
+      </c>
+      <c r="H48" s="12">
+        <v>12.3</v>
+      </c>
       <c r="I48" s="12"/>
       <c r="J48" s="2">
         <f>IF(IF(DrieMeters!D48&gt;0,1,0)+IF(DrieMeters!H48&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="7"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L48" s="29">
+        <v>780</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="8"/>
+        <v>63160.500000000007</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="9"/>
+        <v>26368225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>266</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G49" s="24"/>
-      <c r="H49" s="12"/>
+      <c r="D49" s="13">
+        <v>5417</v>
+      </c>
+      <c r="E49" s="13">
+        <v>33</v>
+      </c>
+      <c r="F49" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="G49" s="24">
+        <v>13.6</v>
+      </c>
+      <c r="H49" s="12">
+        <v>12.1</v>
+      </c>
       <c r="I49" s="12"/>
       <c r="J49" s="2">
         <f>IF(IF(DrieMeters!D49&gt;0,1,0)+IF(DrieMeters!H49&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="7"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K49" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L49" s="29">
+        <v>780</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N49" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P49" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q49" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="8"/>
+        <v>65545.7</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="9"/>
+        <v>29343889</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>266</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G50" s="24"/>
-      <c r="H50" s="12"/>
+      <c r="D50" s="13">
+        <v>5460</v>
+      </c>
+      <c r="E50" s="13">
+        <v>33</v>
+      </c>
+      <c r="F50" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.3000000000000007</v>
+      </c>
+      <c r="G50" s="24">
+        <v>13.4</v>
+      </c>
+      <c r="H50" s="12">
+        <v>12.1</v>
+      </c>
       <c r="I50" s="12"/>
       <c r="J50" s="2">
         <f>IF(IF(DrieMeters!D50&gt;0,1,0)+IF(DrieMeters!H50&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O50" s="7"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="K50" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L50" s="29">
+        <v>780</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O50" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q50" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="8"/>
+        <v>66066</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="9"/>
+        <v>29811600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>266</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="13">
+        <v>20290</v>
+      </c>
+      <c r="D51" s="13">
+        <v>5152</v>
+      </c>
+      <c r="E51" s="13">
+        <v>32</v>
+      </c>
+      <c r="F51" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.6073887564291365</v>
+      </c>
+      <c r="G51" s="24">
+        <f>D51*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>13.707388756429136</v>
+      </c>
+      <c r="H51" s="12">
+        <v>12.1</v>
+      </c>
       <c r="I51" s="12"/>
       <c r="J51" s="2">
         <f>IF(IF(DrieMeters!D51&gt;0,1,0)+IF(DrieMeters!H51&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O51" s="7"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L51" s="29">
+        <v>780</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O51" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P51" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q51" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="8"/>
+        <v>62339.199999999997</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="9"/>
+        <v>26543104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>269</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G52" s="24"/>
-      <c r="H52" s="12"/>
+      <c r="D52" s="13">
+        <v>5469</v>
+      </c>
+      <c r="E52" s="13">
+        <v>33</v>
+      </c>
+      <c r="F52" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.6999999999999993</v>
+      </c>
+      <c r="G52" s="24">
+        <v>13.7</v>
+      </c>
+      <c r="H52" s="12">
+        <v>12</v>
+      </c>
       <c r="I52" s="12"/>
       <c r="J52" s="2">
         <f>IF(IF(DrieMeters!D52&gt;0,1,0)+IF(DrieMeters!H52&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="7"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L52" s="29">
+        <v>780</v>
+      </c>
+      <c r="M52" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N52" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q52" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="8"/>
+        <v>65628</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="9"/>
+        <v>29909961</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>269</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G53" s="24"/>
-      <c r="H53" s="12"/>
+      <c r="D53" s="13">
+        <v>5483</v>
+      </c>
+      <c r="E53" s="13">
+        <v>33</v>
+      </c>
+      <c r="F53" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="G53" s="24">
+        <v>13.5</v>
+      </c>
+      <c r="H53" s="12">
+        <v>12</v>
+      </c>
       <c r="I53" s="12"/>
       <c r="J53" s="2">
         <f>IF(IF(DrieMeters!D53&gt;0,1,0)+IF(DrieMeters!H53&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="7"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G54" s="24"/>
-      <c r="H54" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L53" s="29">
+        <v>780</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N53" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q53" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="8"/>
+        <v>65796</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="9"/>
+        <v>30063289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>269</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="13">
+        <v>20302</v>
+      </c>
+      <c r="D54" s="13">
+        <v>5362</v>
+      </c>
+      <c r="E54" s="13">
+        <v>32</v>
+      </c>
+      <c r="F54" s="26">
+        <f t="shared" ref="F34:F62" si="10">IF(J54,H54-G54,TRIM(""))</f>
+        <v>-2.0067403873502148</v>
+      </c>
+      <c r="G54" s="24">
+        <f>D54*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>14.006740387350215</v>
+      </c>
+      <c r="H54" s="12">
+        <v>12</v>
+      </c>
       <c r="I54" s="12"/>
       <c r="J54" s="2">
         <f>IF(IF(DrieMeters!D54&gt;0,1,0)+IF(DrieMeters!H54&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="7"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L54" s="29">
+        <v>780</v>
+      </c>
+      <c r="M54" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N54" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" s="32">
+        <v>42570</v>
+      </c>
+      <c r="P54" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q54" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="8"/>
+        <v>64344</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="9"/>
+        <v>28751044</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>270</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G55" s="24"/>
-      <c r="H55" s="12"/>
+      <c r="D55" s="13">
+        <v>5389</v>
+      </c>
+      <c r="E55" s="13">
+        <v>33</v>
+      </c>
+      <c r="F55" s="26">
+        <f t="shared" si="10"/>
+        <v>-1.5</v>
+      </c>
+      <c r="G55" s="24">
+        <v>13.5</v>
+      </c>
+      <c r="H55" s="12">
+        <v>12</v>
+      </c>
       <c r="I55" s="12"/>
       <c r="J55" s="2">
         <f>IF(IF(DrieMeters!D55&gt;0,1,0)+IF(DrieMeters!H55&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="7"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <f t="shared" si="8"/>
+        <v>64668</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="9"/>
+        <v>29041321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>270</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G56" s="24"/>
-      <c r="H56" s="12"/>
+      <c r="D56" s="13">
+        <v>5377</v>
+      </c>
+      <c r="E56" s="13">
+        <v>33</v>
+      </c>
+      <c r="F56" s="26">
+        <f t="shared" si="10"/>
+        <v>-1.3000000000000007</v>
+      </c>
+      <c r="G56" s="24">
+        <v>13.3</v>
+      </c>
+      <c r="H56" s="12">
+        <v>12</v>
+      </c>
       <c r="I56" s="12"/>
       <c r="J56" s="2">
         <f>IF(IF(DrieMeters!D56&gt;0,1,0)+IF(DrieMeters!H56&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="7"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G57" s="24"/>
-      <c r="H57" s="12"/>
+      <c r="R56">
+        <f t="shared" si="8"/>
+        <v>64524</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="9"/>
+        <v>28912129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>270</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="13">
+        <v>20271</v>
+      </c>
+      <c r="D57" s="13">
+        <v>5029</v>
+      </c>
+      <c r="E57" s="13">
+        <v>32</v>
+      </c>
+      <c r="F57" s="26">
+        <f t="shared" si="10"/>
+        <v>-1.532054229746791</v>
+      </c>
+      <c r="G57" s="24">
+        <f>D57*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>13.532054229746791</v>
+      </c>
+      <c r="H57" s="12">
+        <v>12</v>
+      </c>
       <c r="I57" s="12"/>
       <c r="J57" s="2">
         <f>IF(IF(DrieMeters!D57&gt;0,1,0)+IF(DrieMeters!H57&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="7"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <f t="shared" si="8"/>
+        <v>60348</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="9"/>
+        <v>25290841</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G58" s="24"/>
@@ -27175,12 +28217,15 @@
       </c>
       <c r="O58" s="7"/>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B59" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G59" s="24"/>
@@ -27192,15 +28237,21 @@
       </c>
       <c r="O59" s="7"/>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B60" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G60" s="24"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G60" s="24">
+        <f>D60*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>6.3632954111653559</v>
+      </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="2">
@@ -27209,12 +28260,15 @@
       </c>
       <c r="O60" s="7"/>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G61" s="24"/>
@@ -27226,12 +28280,15 @@
       </c>
       <c r="O61" s="7"/>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B62" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G62" s="24" t="str">
@@ -27246,17 +28303,20 @@
       </c>
       <c r="O62" s="7"/>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="26" t="str">
-        <f t="shared" ref="F63:F97" si="7">IF(J63,H63-G63,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="G63" s="24" t="str">
-        <f>IF(DrieMeters!D63&gt;0,Grafiek_kalibratiemetingen!$R$13*DrieMeters!D63+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <f t="shared" ref="F63:F97" si="11">IF(J63,H63-G63,TRIM(""))</f>
+        <v/>
+      </c>
+      <c r="G63" s="24">
+        <f>D63*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
+        <v>6.3632954111653559</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
@@ -27266,12 +28326,12 @@
       </c>
       <c r="O63" s="14"/>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G64" s="24" t="str">
@@ -27291,7 +28351,7 @@
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G65" s="24" t="str">
@@ -27311,7 +28371,7 @@
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G66" s="24" t="str">
@@ -27331,7 +28391,7 @@
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G67" s="24" t="str">
@@ -27351,7 +28411,7 @@
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G68" s="24" t="str">
@@ -27371,7 +28431,7 @@
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G69" s="24" t="str">
@@ -27391,7 +28451,7 @@
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G70" s="24" t="str">
@@ -27410,7 +28470,7 @@
       <c r="C71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G71" s="24" t="str">
@@ -27428,7 +28488,7 @@
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G72" s="24" t="str">
@@ -27448,7 +28508,7 @@
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G73" s="24" t="str">
@@ -27467,7 +28527,7 @@
       <c r="C74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G74" s="24" t="str">
@@ -27485,7 +28545,7 @@
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G75" s="24" t="str">
@@ -27505,7 +28565,7 @@
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G76" s="24" t="str">
@@ -27524,7 +28584,7 @@
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G77" s="24" t="str">
@@ -27543,7 +28603,7 @@
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G78" s="24" t="str">
@@ -27562,7 +28622,7 @@
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G79" s="24" t="str">
@@ -27581,7 +28641,7 @@
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G80" s="24" t="str">
@@ -27600,7 +28660,7 @@
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G81" s="24" t="str">
@@ -27619,7 +28679,7 @@
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G82" s="24" t="str">
@@ -27638,7 +28698,7 @@
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G83" s="24" t="str">
@@ -27657,7 +28717,7 @@
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G84" s="24" t="str">
@@ -27676,7 +28736,7 @@
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G85" s="24" t="str">
@@ -27695,7 +28755,7 @@
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G86" s="24" t="str">
@@ -27714,7 +28774,7 @@
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G87" s="24" t="str">
@@ -27733,7 +28793,7 @@
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G88" s="24" t="str">
@@ -27752,7 +28812,7 @@
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G89" s="24" t="str">
@@ -27771,7 +28831,7 @@
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G90" s="24" t="str">
@@ -27787,7 +28847,7 @@
     </row>
     <row r="91" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F91" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G91" s="24" t="str">
@@ -27801,7 +28861,7 @@
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F92" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G92" s="24" t="str">
@@ -27843,7 +28903,7 @@
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F95" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G95" s="24" t="str">
@@ -27857,7 +28917,7 @@
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F96" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G96" s="24" t="str">
@@ -27871,7 +28931,7 @@
     </row>
     <row r="97" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F97" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G97" s="24" t="str">

--- a/2016Robbertmetingen.xlsx
+++ b/2016Robbertmetingen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Kalibratiemetingen" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="145">
   <si>
     <t>Sample nummer</t>
   </si>
@@ -439,12 +439,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>ErrorTemp</t>
-  </si>
-  <si>
-    <t>ErrorHum</t>
-  </si>
-  <si>
     <t>San Agustin</t>
   </si>
   <si>
@@ -458,6 +452,18 @@
   </si>
   <si>
     <t>grote afwijkingen overal, kan ook te wijten zijn aan andere gehaka. Staat andere software op, heeft backlight, toont geen temperatuur etc.</t>
+  </si>
+  <si>
+    <t>Gehaka kapot 14071675001013</t>
+  </si>
+  <si>
+    <t>Gehaka patron 12050202001006</t>
+  </si>
+  <si>
+    <t>zelfde sample meerdere keren gemeten. Patron doet raar</t>
+  </si>
+  <si>
+    <t>de gehaka kapot staat op twee decimalen precisie, moet wel twee keer zelfde sample meten</t>
   </si>
 </sst>
 </file>
@@ -682,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -763,6 +769,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1221,7 +1230,7 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
+              <a:glow rad="25400">
                 <a:schemeClr val="accent2">
                   <a:satMod val="175000"/>
                   <a:alpha val="14000"/>
@@ -1243,10 +1252,10 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:glow rad="63500">
+                <a:glow rad="25400">
                   <a:schemeClr val="accent2">
                     <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
+                    <a:alpha val="14000"/>
                   </a:schemeClr>
                 </a:glow>
               </a:effectLst>
@@ -1256,9 +1265,9 @@
             <c:spPr>
               <a:ln w="25400" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
+                  <a:srgbClr val="00B0F0">
                     <a:alpha val="50000"/>
-                  </a:schemeClr>
+                  </a:srgbClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1269,8 +1278,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.0208603034872089E-2"/>
-                  <c:y val="8.3512288236697679E-2"/>
+                  <c:x val="5.1492832626690896E-2"/>
+                  <c:y val="0.13351948027773125"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1306,9 +1315,9 @@
             <c:spPr>
               <a:ln w="25400" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
+                  <a:srgbClr val="FFFF00">
                     <a:alpha val="50000"/>
-                  </a:schemeClr>
+                  </a:srgbClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1320,8 +1329,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.197708361889967E-2"/>
-                  <c:y val="-7.3375740991757074E-2"/>
+                  <c:x val="-0.11569301433474662"/>
+                  <c:y val="-2.1268472968925305E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2616,6 +2625,7 @@
         <c:axId val="376711448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2730,6 +2740,7 @@
         <c:axId val="376706856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3735,6 +3746,652 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4685827699099456E-2"/>
+          <c:y val="0.12988917306052858"/>
+          <c:w val="0.90688072118193708"/>
+          <c:h val="0.71640789146880934"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Geleend</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gehakas!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gehakas!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8087-4214-92F7-18434133F0A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Kapot</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gehakas!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gehakas!$G$3:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="8">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8087-4214-92F7-18434133F0A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Patron</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gehakas!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gehakas!$H$3:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="8">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8087-4214-92F7-18434133F0A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="482873768"/>
+        <c:axId val="482876392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="482873768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482876392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="482876392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482873768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4187,6 +4844,43 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5280,6 +5974,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5350,6 +6560,41 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5768,18 +7013,18 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="N2" s="65" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="N2" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="1:21" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -17238,7 +18483,7 @@
   <dimension ref="Q1:AC238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23779,20 +25024,20 @@
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -24574,15 +25819,15 @@
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G4" s="8" t="s">
@@ -24781,7 +26026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -24859,18 +26104,18 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="N2" s="65" t="s">
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="N2" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -25966,11 +27211,11 @@
       </c>
       <c r="Q19" s="29"/>
       <c r="R19">
-        <f t="shared" ref="R19:R36" si="4">H19*D19</f>
+        <f t="shared" ref="R19:R32" si="4">H19*D19</f>
         <v>51000.299999999996</v>
       </c>
       <c r="S19">
-        <f t="shared" ref="S19:S34" si="5">D19*D19</f>
+        <f t="shared" ref="S19:S32" si="5">D19*D19</f>
         <v>19000881</v>
       </c>
     </row>
@@ -26807,11 +28052,11 @@
       </c>
       <c r="Q33" s="29"/>
       <c r="R33">
-        <f t="shared" ref="R33:R51" si="6">H33*D33</f>
+        <f t="shared" ref="R33:R41" si="6">H33*D33</f>
         <v>60424</v>
       </c>
       <c r="S33">
-        <f t="shared" ref="S33:S43" si="7">D33*D33</f>
+        <f t="shared" ref="S33:S41" si="7">D33*D33</f>
         <v>21603904</v>
       </c>
     </row>
@@ -26845,7 +28090,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L34" s="29">
         <v>780</v>
@@ -26863,7 +28108,7 @@
         <v>17</v>
       </c>
       <c r="Q34" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R34">
         <f t="shared" si="6"/>
@@ -26904,7 +28149,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L35" s="29">
         <v>780</v>
@@ -26922,7 +28167,7 @@
         <v>17</v>
       </c>
       <c r="Q35" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R35">
         <f t="shared" si="6"/>
@@ -26966,7 +28211,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L36" s="29">
         <v>780</v>
@@ -26984,7 +28229,7 @@
         <v>17</v>
       </c>
       <c r="Q36" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R36">
         <f t="shared" si="6"/>
@@ -27024,7 +28269,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L37" s="29">
         <v>780</v>
@@ -27042,7 +28287,7 @@
         <v>17</v>
       </c>
       <c r="Q37" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R37">
         <f t="shared" si="6"/>
@@ -27083,7 +28328,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L38" s="29">
         <v>780</v>
@@ -27101,7 +28346,7 @@
         <v>17</v>
       </c>
       <c r="Q38" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R38">
         <f t="shared" si="6"/>
@@ -27145,7 +28390,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L39" s="29">
         <v>780</v>
@@ -27163,7 +28408,7 @@
         <v>17</v>
       </c>
       <c r="Q39" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R39">
         <f t="shared" si="6"/>
@@ -27176,7 +28421,7 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>49</v>
@@ -27204,7 +28449,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L40" s="29">
         <v>780</v>
@@ -27222,7 +28467,7 @@
         <v>17</v>
       </c>
       <c r="Q40" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R40">
         <f t="shared" si="6"/>
@@ -27235,7 +28480,7 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>41</v>
@@ -27263,7 +28508,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L41" s="29">
         <v>780</v>
@@ -27281,7 +28526,7 @@
         <v>17</v>
       </c>
       <c r="Q41" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R41">
         <f t="shared" si="6"/>
@@ -27292,12 +28537,12 @@
         <v>32194276</v>
       </c>
       <c r="U41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>22</v>
@@ -27328,7 +28573,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L42" s="29">
         <v>780</v>
@@ -27346,7 +28591,7 @@
         <v>17</v>
       </c>
       <c r="Q42" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R42">
         <f t="shared" ref="R42:R57" si="8">H42*D42</f>
@@ -27387,7 +28632,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L43" s="29">
         <v>780</v>
@@ -27405,7 +28650,7 @@
         <v>17</v>
       </c>
       <c r="Q43" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R43">
         <f t="shared" si="8"/>
@@ -27446,7 +28691,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L44" s="29">
         <v>780</v>
@@ -27464,7 +28709,7 @@
         <v>17</v>
       </c>
       <c r="Q44" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R44">
         <f t="shared" si="8"/>
@@ -27508,7 +28753,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L45" s="29">
         <v>780</v>
@@ -27526,7 +28771,7 @@
         <v>17</v>
       </c>
       <c r="Q45" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R45">
         <f t="shared" si="8"/>
@@ -27567,7 +28812,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L46" s="29">
         <v>780</v>
@@ -27585,7 +28830,7 @@
         <v>17</v>
       </c>
       <c r="Q46" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R46">
         <f t="shared" si="8"/>
@@ -27626,7 +28871,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L47" s="29">
         <v>780</v>
@@ -27644,7 +28889,7 @@
         <v>17</v>
       </c>
       <c r="Q47" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R47">
         <f t="shared" si="8"/>
@@ -27688,7 +28933,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L48" s="29">
         <v>780</v>
@@ -27706,7 +28951,7 @@
         <v>17</v>
       </c>
       <c r="Q48" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R48">
         <f t="shared" si="8"/>
@@ -27747,7 +28992,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L49" s="29">
         <v>780</v>
@@ -27765,7 +29010,7 @@
         <v>17</v>
       </c>
       <c r="Q49" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R49">
         <f t="shared" si="8"/>
@@ -27806,7 +29051,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L50" s="29">
         <v>780</v>
@@ -27824,7 +29069,7 @@
         <v>17</v>
       </c>
       <c r="Q50" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R50">
         <f t="shared" si="8"/>
@@ -27868,7 +29113,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L51" s="29">
         <v>780</v>
@@ -27886,7 +29131,7 @@
         <v>17</v>
       </c>
       <c r="Q51" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R51">
         <f t="shared" si="8"/>
@@ -27927,7 +29172,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L52" s="29">
         <v>780</v>
@@ -27945,7 +29190,7 @@
         <v>17</v>
       </c>
       <c r="Q52" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R52">
         <f t="shared" si="8"/>
@@ -27986,7 +29231,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L53" s="29">
         <v>780</v>
@@ -28004,7 +29249,7 @@
         <v>17</v>
       </c>
       <c r="Q53" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R53">
         <f t="shared" si="8"/>
@@ -28032,7 +29277,7 @@
         <v>32</v>
       </c>
       <c r="F54" s="26">
-        <f t="shared" ref="F34:F62" si="10">IF(J54,H54-G54,TRIM(""))</f>
+        <f t="shared" ref="F54:F62" si="10">IF(J54,H54-G54,TRIM(""))</f>
         <v>-2.0067403873502148</v>
       </c>
       <c r="G54" s="24">
@@ -28048,7 +29293,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L54" s="29">
         <v>780</v>
@@ -28066,7 +29311,7 @@
         <v>17</v>
       </c>
       <c r="Q54" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R54">
         <f t="shared" si="8"/>
@@ -33374,31 +34619,39 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -33419,11 +34672,11 @@
       <c r="F2" s="63" t="s">
         <v>133</v>
       </c>
+      <c r="G2" s="63" t="s">
+        <v>132</v>
+      </c>
       <c r="H2" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="63" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -33445,14 +34698,6 @@
       <c r="F3">
         <v>28</v>
       </c>
-      <c r="H3">
-        <f>E3-C3</f>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="I3">
-        <f>F3-D3</f>
-        <v>0.5</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -33473,14 +34718,6 @@
       <c r="F4">
         <v>27.9</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H10" si="0">E4-C4</f>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I10" si="1">F4-D4</f>
-        <v>0.39999999999999858</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -33501,14 +34738,6 @@
       <c r="F5">
         <v>27.9</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -33529,14 +34758,6 @@
       <c r="F6">
         <v>28</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0.30000000000000071</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -33554,14 +34775,6 @@
       <c r="F7">
         <v>28.5</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>-9.9999999999999645E-2</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -33579,14 +34792,6 @@
       <c r="F8">
         <v>28.4</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>-9.9999999999999645E-2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0.79999999999999716</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -33604,14 +34809,6 @@
       <c r="F9">
         <v>28.2</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>-0.19999999999999929</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -33629,13 +34826,146 @@
       <c r="F10">
         <v>28.3</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0.60000000000000142</v>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9533</v>
+      </c>
+      <c r="C11">
+        <v>13.9</v>
+      </c>
+      <c r="D11">
+        <v>29.4</v>
+      </c>
+      <c r="G11">
+        <v>13.3</v>
+      </c>
+      <c r="H11">
+        <v>12.9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9530</v>
+      </c>
+      <c r="C12">
+        <v>12.2</v>
+      </c>
+      <c r="D12">
+        <v>29.3</v>
+      </c>
+      <c r="G12">
+        <v>11.36</v>
+      </c>
+      <c r="H12">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9531</v>
+      </c>
+      <c r="C13">
+        <v>13.8</v>
+      </c>
+      <c r="G13">
+        <v>13.18</v>
+      </c>
+      <c r="H13">
+        <v>12.8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9531</v>
+      </c>
+      <c r="C14">
+        <v>13.8</v>
+      </c>
+      <c r="G14">
+        <v>13.25</v>
+      </c>
+      <c r="H14">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9531</v>
+      </c>
+      <c r="C15">
+        <v>13.8</v>
+      </c>
+      <c r="G15">
+        <v>13.24</v>
+      </c>
+      <c r="H15">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9531</v>
+      </c>
+      <c r="C16">
+        <v>13.8</v>
+      </c>
+      <c r="G16">
+        <v>13.26</v>
+      </c>
+      <c r="H16">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9531</v>
+      </c>
+      <c r="C17">
+        <v>13.8</v>
+      </c>
+      <c r="G17">
+        <v>13.24</v>
+      </c>
+      <c r="H17">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9531</v>
+      </c>
+      <c r="C18">
+        <v>13.8</v>
+      </c>
+      <c r="G18">
+        <v>13.25</v>
+      </c>
+      <c r="H18">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9536</v>
+      </c>
+      <c r="C19">
+        <v>14.3</v>
+      </c>
+      <c r="D19">
+        <v>30.6</v>
+      </c>
+      <c r="G19">
+        <v>13.89</v>
+      </c>
+      <c r="H19">
+        <v>13.3</v>
       </c>
     </row>
   </sheetData>
@@ -33645,6 +34975,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -33729,18 +35060,18 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="N2" s="65" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="N2" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">

--- a/2016Robbertmetingen.xlsx
+++ b/2016Robbertmetingen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Kalibratiemetingen" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="PeriodeTest" sheetId="5" r:id="rId5"/>
     <sheet name="DrieMeters" sheetId="11" r:id="rId6"/>
     <sheet name="Gehakas" sheetId="12" r:id="rId7"/>
-    <sheet name="Augostometer" sheetId="9" r:id="rId8"/>
+    <sheet name="Gehakas_nieuw" sheetId="14" r:id="rId8"/>
+    <sheet name="Augostometer" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Grafiek_kalibratiemetingen!$T$2:$U$236</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="148">
   <si>
     <t>Sample nummer</t>
   </si>
@@ -465,6 +466,15 @@
   <si>
     <t>de gehaka kapot staat op twee decimalen precisie, moet wel twee keer zelfde sample meten</t>
   </si>
+  <si>
+    <t>FoutPatrAug</t>
+  </si>
+  <si>
+    <t>Gehaka nieuw februari 14071675031011</t>
+  </si>
+  <si>
+    <t>ook getest met stopcontact/batterij, geen verschil. Gehakas werken prima als ze goed gekalibreerd zijn.</t>
+  </si>
 </sst>
 </file>
 
@@ -688,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -772,6 +782,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -787,6 +800,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7013,18 +7027,18 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="N2" s="66" t="s">
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="N2" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
     </row>
     <row r="3" spans="1:21" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -25024,20 +25038,20 @@
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -25819,15 +25833,15 @@
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G4" s="8" t="s">
@@ -26104,18 +26118,18 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="N2" s="66" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="N2" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -34619,10 +34633,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34635,17 +34649,19 @@
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="69" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C1" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="69"/>
+      <c r="F1" s="70"/>
       <c r="G1" s="64" t="s">
         <v>141</v>
       </c>
@@ -34653,7 +34669,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>134</v>
       </c>
@@ -34678,8 +34694,11 @@
       <c r="H2" s="63" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>256</v>
       </c>
@@ -34698,8 +34717,12 @@
       <c r="F3">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f>H11-C11</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>255</v>
       </c>
@@ -34718,8 +34741,12 @@
       <c r="F4">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f t="shared" ref="R4:R22" si="0">H12-C12</f>
+        <v>-1.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>257</v>
       </c>
@@ -34738,8 +34765,12 @@
       <c r="F5">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>253</v>
       </c>
@@ -34758,8 +34789,12 @@
       <c r="F6">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9309</v>
       </c>
@@ -34775,8 +34810,12 @@
       <c r="F7">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>-1.3000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9301</v>
       </c>
@@ -34792,8 +34831,12 @@
       <c r="F8">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9304</v>
       </c>
@@ -34809,8 +34852,12 @@
       <c r="F9">
         <v>28.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9303</v>
       </c>
@@ -34826,8 +34873,12 @@
       <c r="F10">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9533</v>
       </c>
@@ -34846,8 +34897,12 @@
       <c r="I11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9530</v>
       </c>
@@ -34863,8 +34918,12 @@
       <c r="H12">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9531</v>
       </c>
@@ -34880,8 +34939,12 @@
       <c r="I13" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9531</v>
       </c>
@@ -34894,8 +34957,12 @@
       <c r="H14">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9531</v>
       </c>
@@ -34908,8 +34975,12 @@
       <c r="H15">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9531</v>
       </c>
@@ -34922,8 +34993,12 @@
       <c r="H16">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9531</v>
       </c>
@@ -34936,8 +35011,12 @@
       <c r="H17">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9531</v>
       </c>
@@ -34950,8 +35029,12 @@
       <c r="H18">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9536</v>
       </c>
@@ -34966,6 +35049,46 @@
       </c>
       <c r="H19">
         <v>13.3</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>-11.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>11.9</v>
+      </c>
+      <c r="G29">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9306</v>
       </c>
     </row>
   </sheetData>
@@ -34980,6 +35103,225 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9306</v>
+      </c>
+      <c r="B5" s="55">
+        <v>42572</v>
+      </c>
+      <c r="C5">
+        <v>11.9</v>
+      </c>
+      <c r="D5">
+        <v>11.2</v>
+      </c>
+      <c r="E5">
+        <v>11.21</v>
+      </c>
+      <c r="G5">
+        <f>D5-C5</f>
+        <v>-0.70000000000000107</v>
+      </c>
+      <c r="H5">
+        <f>D5-E5</f>
+        <v>-1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9307</v>
+      </c>
+      <c r="B6" s="55">
+        <v>42572</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>12.5</v>
+      </c>
+      <c r="E6">
+        <v>12.44</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G11" si="0">D6-C6</f>
+        <v>-0.5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H11" si="1">D6-E6</f>
+        <v>6.0000000000000497E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9308</v>
+      </c>
+      <c r="B7" s="55">
+        <v>42572</v>
+      </c>
+      <c r="C7">
+        <v>11.8</v>
+      </c>
+      <c r="D7">
+        <v>11.2</v>
+      </c>
+      <c r="E7">
+        <v>11.12</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9298</v>
+      </c>
+      <c r="B8" s="55">
+        <v>42572</v>
+      </c>
+      <c r="C8">
+        <v>12.3</v>
+      </c>
+      <c r="D8">
+        <v>11.7</v>
+      </c>
+      <c r="E8">
+        <v>11.72</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-2.000000000000135E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9340</v>
+      </c>
+      <c r="B9" s="55">
+        <v>42572</v>
+      </c>
+      <c r="C9">
+        <v>13.3</v>
+      </c>
+      <c r="D9">
+        <v>12.4</v>
+      </c>
+      <c r="E9">
+        <v>12.3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-0.90000000000000036</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9341</v>
+      </c>
+      <c r="B10" s="55">
+        <v>42572</v>
+      </c>
+      <c r="C10">
+        <v>12.4</v>
+      </c>
+      <c r="D10">
+        <v>11.7</v>
+      </c>
+      <c r="E10">
+        <v>11.58</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-0.70000000000000107</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.11999999999999922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9339</v>
+      </c>
+      <c r="B11" s="55">
+        <v>42572</v>
+      </c>
+      <c r="C11">
+        <v>12.4</v>
+      </c>
+      <c r="D11">
+        <v>11.5</v>
+      </c>
+      <c r="E11">
+        <v>11.53</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-0.90000000000000036</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-2.9999999999999361E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y573"/>
   <sheetViews>
@@ -35060,18 +35402,18 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="N2" s="66" t="s">
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="N2" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
     </row>
     <row r="3" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">

--- a/2016Robbertmetingen.xlsx
+++ b/2016Robbertmetingen.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="174">
   <si>
     <t>Sample nummer</t>
   </si>
@@ -552,6 +552,9 @@
   <si>
     <t>middag</t>
   </si>
+  <si>
+    <t>gemidd</t>
+  </si>
 </sst>
 </file>
 
@@ -784,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -889,6 +892,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -904,14 +914,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7139,19 +7141,19 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
-        <f t="shared" ref="A1:D1" si="0">COUNT(A$4:A$65000)</f>
+        <f>COUNT(A$4:A$65000)</f>
         <v>111</v>
       </c>
       <c r="B1">
-        <f t="shared" si="0"/>
+        <f>COUNT(B$4:B$65000)</f>
         <v>113</v>
       </c>
       <c r="C1">
-        <f t="shared" si="0"/>
+        <f>COUNT(C$4:C$65000)</f>
         <v>113</v>
       </c>
       <c r="D1">
-        <f t="shared" si="0"/>
+        <f>COUNT(D$4:D$65000)</f>
         <v>113</v>
       </c>
       <c r="G1">
@@ -7163,51 +7165,51 @@
         <v>98</v>
       </c>
       <c r="J1">
-        <f t="shared" ref="J1:Q1" si="1">COUNT(J$4:J$65000)</f>
+        <f t="shared" ref="J1:Q1" si="0">COUNT(J$4:J$65000)</f>
         <v>0</v>
       </c>
       <c r="K1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="M1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="P1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="N2" s="83" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="N2" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:21" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -7349,7 +7351,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="26">
-        <f t="shared" ref="E5:E68" si="2">IF(I5,G5-F5,TRIM(""))</f>
+        <f t="shared" ref="E5:E68" si="1">IF(I5,G5-F5,TRIM(""))</f>
         <v>0.20410249245238354</v>
       </c>
       <c r="F5" s="24">
@@ -7387,11 +7389,11 @@
         <v>18</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R68" si="3">G5*C5</f>
+        <f t="shared" ref="R5:R68" si="2">G5*C5</f>
         <v>82271</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S68" si="4">C5*C5</f>
+        <f t="shared" ref="S5:S68" si="3">C5*C5</f>
         <v>31753225</v>
       </c>
       <c r="T5" s="49" t="s">
@@ -7416,7 +7418,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.81226451871190974</v>
       </c>
       <c r="F6" s="24">
@@ -7454,11 +7456,11 @@
         <v>18</v>
       </c>
       <c r="R6">
+        <f t="shared" si="2"/>
+        <v>62704.899999999994</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="3"/>
-        <v>62704.899999999994</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="4"/>
         <v>20948929</v>
       </c>
       <c r="T6" s="49" t="s">
@@ -7483,7 +7485,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.32250039800712571</v>
       </c>
       <c r="F7" s="24">
@@ -7521,11 +7523,11 @@
         <v>18</v>
       </c>
       <c r="R7">
+        <f t="shared" si="2"/>
+        <v>44736</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="3"/>
-        <v>44736</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="4"/>
         <v>13897984</v>
       </c>
       <c r="T7" s="49" t="s">
@@ -7550,7 +7552,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.22976120367419206</v>
       </c>
       <c r="F8" s="24">
@@ -7588,11 +7590,11 @@
         <v>18</v>
       </c>
       <c r="R8">
+        <f t="shared" si="2"/>
+        <v>82008.2</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="3"/>
-        <v>82008.2</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="4"/>
         <v>31550689</v>
       </c>
       <c r="T8" s="49" t="s">
@@ -7615,7 +7617,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3149453722549858</v>
       </c>
       <c r="F9" s="24">
@@ -7653,11 +7655,11 @@
         <v>18</v>
       </c>
       <c r="R9">
+        <f t="shared" si="2"/>
+        <v>95118.8</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="3"/>
-        <v>95118.8</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="4"/>
         <v>34904464</v>
       </c>
       <c r="T9" s="49" t="s">
@@ -7680,7 +7682,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.29382060450132386</v>
       </c>
       <c r="F10" s="24">
@@ -7718,11 +7720,11 @@
         <v>18</v>
       </c>
       <c r="R10">
+        <f t="shared" si="2"/>
+        <v>70625.900000000009</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="3"/>
-        <v>70625.900000000009</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="4"/>
         <v>25816561</v>
       </c>
       <c r="T10" s="49" t="s">
@@ -7747,7 +7749,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.7425218956349084E-2</v>
       </c>
       <c r="F11" s="24">
@@ -7785,11 +7787,11 @@
         <v>18</v>
       </c>
       <c r="R11">
+        <f t="shared" si="2"/>
+        <v>47220</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="3"/>
-        <v>47220</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="4"/>
         <v>15484225</v>
       </c>
       <c r="T11" s="49" t="s">
@@ -7814,7 +7816,7 @@
         <v>31</v>
       </c>
       <c r="E12" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.53097056460465097</v>
       </c>
       <c r="F12" s="24">
@@ -7852,11 +7854,11 @@
         <v>18</v>
       </c>
       <c r="R12">
+        <f t="shared" si="2"/>
+        <v>82080.800000000003</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="3"/>
-        <v>82080.800000000003</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="4"/>
         <v>30758116</v>
       </c>
       <c r="T12" s="52"/>
@@ -7876,7 +7878,7 @@
         <v>31</v>
       </c>
       <c r="E13" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.33097361461525487</v>
       </c>
       <c r="F13" s="24">
@@ -7914,11 +7916,11 @@
         <v>18</v>
       </c>
       <c r="R13">
+        <f t="shared" si="2"/>
+        <v>73692.3</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="3"/>
-        <v>73692.3</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="4"/>
         <v>28933641</v>
       </c>
       <c r="T13" s="49" t="s">
@@ -7943,7 +7945,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.1540848581772192</v>
       </c>
       <c r="F14" s="24">
@@ -7981,11 +7983,11 @@
         <v>18</v>
       </c>
       <c r="R14">
+        <f t="shared" si="2"/>
+        <v>58491.4</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="3"/>
-        <v>58491.4</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="4"/>
         <v>23367556</v>
       </c>
       <c r="T14" s="49" t="s">
@@ -8010,7 +8012,7 @@
         <v>31</v>
       </c>
       <c r="E15" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.31494537225498398</v>
       </c>
       <c r="F15" s="24">
@@ -8047,11 +8049,11 @@
         <v>20</v>
       </c>
       <c r="R15">
+        <f t="shared" si="2"/>
+        <v>89210.8</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="3"/>
-        <v>89210.8</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="4"/>
         <v>34904464</v>
       </c>
       <c r="T15" s="52"/>
@@ -8071,7 +8073,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.31499443092143231</v>
       </c>
       <c r="F16" s="24">
@@ -8110,11 +8112,11 @@
         <v>17</v>
       </c>
       <c r="R16">
+        <f t="shared" si="2"/>
+        <v>40476.799999999996</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="3"/>
-        <v>40476.799999999996</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="4"/>
         <v>13060996</v>
       </c>
       <c r="T16" s="49" t="s">
@@ -8139,7 +8141,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.45611734264137027</v>
       </c>
       <c r="F17" s="24">
@@ -8178,11 +8180,11 @@
         <v>17</v>
       </c>
       <c r="R17">
+        <f t="shared" si="2"/>
+        <v>41585.599999999999</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="3"/>
-        <v>41585.599999999999</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="4"/>
         <v>13786369</v>
       </c>
       <c r="T17" s="53" t="s">
@@ -8207,7 +8209,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8132577566160624</v>
       </c>
       <c r="F18" s="24">
@@ -8246,11 +8248,11 @@
         <v>17</v>
       </c>
       <c r="R18">
+        <f t="shared" si="2"/>
+        <v>64322</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="3"/>
-        <v>64322</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="4"/>
         <v>19678096</v>
       </c>
     </row>
@@ -8268,7 +8270,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0418915414660201</v>
       </c>
       <c r="F19" s="24">
@@ -8307,11 +8309,11 @@
         <v>17</v>
       </c>
       <c r="R19">
+        <f t="shared" si="2"/>
+        <v>16464</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="3"/>
-        <v>16464</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="4"/>
         <v>2822400</v>
       </c>
     </row>
@@ -8329,7 +8331,7 @@
         <v>26</v>
       </c>
       <c r="E20" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.41806152186127221</v>
       </c>
       <c r="F20" s="24">
@@ -8368,11 +8370,11 @@
         <v>17</v>
       </c>
       <c r="R20">
+        <f t="shared" si="2"/>
+        <v>39006</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="3"/>
-        <v>39006</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="4"/>
         <v>12574116</v>
       </c>
     </row>
@@ -8390,7 +8392,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.71706364387281241</v>
       </c>
       <c r="F21" s="24">
@@ -8429,11 +8431,11 @@
         <v>17</v>
       </c>
       <c r="R21">
+        <f t="shared" si="2"/>
+        <v>78936</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="3"/>
-        <v>78936</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="4"/>
         <v>32718400</v>
       </c>
     </row>
@@ -8451,7 +8453,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.73421546000986382</v>
       </c>
       <c r="F22" s="24">
@@ -8490,11 +8492,11 @@
         <v>17</v>
       </c>
       <c r="R22">
+        <f t="shared" si="2"/>
+        <v>51082.200000000004</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="3"/>
-        <v>51082.200000000004</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="4"/>
         <v>18740241</v>
       </c>
     </row>
@@ -8512,7 +8514,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1980774727127894E-2</v>
       </c>
       <c r="F23" s="24">
@@ -8551,11 +8553,11 @@
         <v>19</v>
       </c>
       <c r="R23">
+        <f t="shared" si="2"/>
+        <v>33447.600000000006</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="3"/>
-        <v>33447.600000000006</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="4"/>
         <v>9591409</v>
       </c>
     </row>
@@ -8573,7 +8575,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.42142747297049965</v>
       </c>
       <c r="F24" s="24">
@@ -8612,11 +8614,11 @@
         <v>19</v>
       </c>
       <c r="R24">
+        <f t="shared" si="2"/>
+        <v>70108.800000000003</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="3"/>
-        <v>70108.800000000003</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="4"/>
         <v>27373824</v>
       </c>
     </row>
@@ -8634,7 +8636,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.55511177455800009</v>
       </c>
       <c r="F25" s="24">
@@ -8673,11 +8675,11 @@
         <v>19</v>
       </c>
       <c r="R25">
+        <f t="shared" si="2"/>
+        <v>29408.400000000001</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="3"/>
-        <v>29408.400000000001</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="4"/>
         <v>7414729</v>
       </c>
     </row>
@@ -8695,7 +8697,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.32298634281049488</v>
       </c>
       <c r="F26" s="24">
@@ -8734,11 +8736,11 @@
         <v>19</v>
       </c>
       <c r="R26">
+        <f t="shared" si="2"/>
+        <v>36061.200000000004</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="3"/>
-        <v>36061.200000000004</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="4"/>
         <v>11148921</v>
       </c>
     </row>
@@ -8756,7 +8758,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.191593781923487E-2</v>
       </c>
       <c r="F27" s="24">
@@ -8795,11 +8797,11 @@
         <v>19</v>
       </c>
       <c r="R27">
+        <f t="shared" si="2"/>
+        <v>33220.800000000003</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="3"/>
-        <v>33220.800000000003</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="4"/>
         <v>9461776</v>
       </c>
     </row>
@@ -8817,7 +8819,7 @@
         <v>29</v>
       </c>
       <c r="E28" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-7.352201029195804E-2</v>
       </c>
       <c r="F28" s="24">
@@ -8859,11 +8861,11 @@
         <v>84</v>
       </c>
       <c r="R28">
+        <f t="shared" si="2"/>
+        <v>77253.899999999994</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="3"/>
-        <v>77253.899999999994</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="4"/>
         <v>30019441</v>
       </c>
     </row>
@@ -8881,7 +8883,7 @@
         <v>29</v>
       </c>
       <c r="E29" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.10717263340282912</v>
       </c>
       <c r="F29" s="24">
@@ -8920,11 +8922,11 @@
         <v>17</v>
       </c>
       <c r="R29">
+        <f t="shared" si="2"/>
+        <v>71541.399999999994</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="3"/>
-        <v>71541.399999999994</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="4"/>
         <v>27269284</v>
       </c>
     </row>
@@ -8942,7 +8944,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.2552942191076788</v>
       </c>
       <c r="F30" s="24">
@@ -8981,11 +8983,11 @@
         <v>17</v>
       </c>
       <c r="R30">
+        <f t="shared" si="2"/>
+        <v>64255.5</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="3"/>
-        <v>64255.5</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="4"/>
         <v>24059025</v>
       </c>
     </row>
@@ -8996,7 +8998,7 @@
         <v/>
       </c>
       <c r="E31" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F31" s="24" t="str">
@@ -9035,11 +9037,11 @@
         <v>17</v>
       </c>
       <c r="R31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9057,7 +9059,7 @@
         <v>30</v>
       </c>
       <c r="E32" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.68687098918286082</v>
       </c>
       <c r="F32" s="24">
@@ -9096,11 +9098,11 @@
         <v>17</v>
       </c>
       <c r="R32">
+        <f t="shared" si="2"/>
+        <v>61198.2</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="3"/>
-        <v>61198.2</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="4"/>
         <v>23590449</v>
       </c>
     </row>
@@ -9118,7 +9120,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.27520962593087717</v>
       </c>
       <c r="F33" s="24">
@@ -9157,11 +9159,11 @@
         <v>17</v>
       </c>
       <c r="R33">
+        <f t="shared" si="2"/>
+        <v>47282.600000000006</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="3"/>
-        <v>47282.600000000006</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="4"/>
         <v>16056049</v>
       </c>
     </row>
@@ -9179,7 +9181,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.48764810406070502</v>
       </c>
       <c r="F34" s="24">
@@ -9218,11 +9220,11 @@
         <v>17</v>
       </c>
       <c r="R34">
+        <f t="shared" si="2"/>
+        <v>66390.8</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="3"/>
-        <v>66390.8</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="4"/>
         <v>25684624</v>
       </c>
     </row>
@@ -9240,7 +9242,7 @@
         <v>30</v>
       </c>
       <c r="E35" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.9409520023126241</v>
       </c>
       <c r="F35" s="24">
@@ -9279,11 +9281,11 @@
         <v>17</v>
       </c>
       <c r="R35">
+        <f t="shared" si="2"/>
+        <v>70556.599999999991</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="3"/>
-        <v>70556.599999999991</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="4"/>
         <v>29008996</v>
       </c>
     </row>
@@ -9301,7 +9303,7 @@
         <v>30</v>
       </c>
       <c r="E36" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.43032524553633245</v>
       </c>
       <c r="F36" s="24">
@@ -9340,11 +9342,11 @@
         <v>17</v>
       </c>
       <c r="R36">
+        <f t="shared" si="2"/>
+        <v>77687.100000000006</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="3"/>
-        <v>77687.100000000006</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="4"/>
         <v>31236921</v>
       </c>
     </row>
@@ -9362,7 +9364,7 @@
         <v>30</v>
       </c>
       <c r="E37" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.51395518436143206</v>
       </c>
       <c r="F37" s="24">
@@ -9401,11 +9403,11 @@
         <v>17</v>
       </c>
       <c r="R37">
+        <f t="shared" si="2"/>
+        <v>62412.800000000003</v>
+      </c>
+      <c r="S37">
         <f t="shared" si="3"/>
-        <v>62412.800000000003</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="4"/>
         <v>23775376</v>
       </c>
     </row>
@@ -9423,7 +9425,7 @@
         <v>30</v>
       </c>
       <c r="E38" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.52125735860003708</v>
       </c>
       <c r="F38" s="24">
@@ -9462,11 +9464,11 @@
         <v>17</v>
       </c>
       <c r="R38">
+        <f t="shared" si="2"/>
+        <v>44448.6</v>
+      </c>
+      <c r="S38">
         <f t="shared" si="3"/>
-        <v>44448.6</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="4"/>
         <v>15202201</v>
       </c>
     </row>
@@ -9484,7 +9486,7 @@
         <v>30</v>
       </c>
       <c r="E39" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-9.8074782900550161E-3</v>
       </c>
       <c r="F39" s="24">
@@ -9523,11 +9525,11 @@
         <v>17</v>
       </c>
       <c r="R39">
+        <f t="shared" si="2"/>
+        <v>73586.600000000006</v>
+      </c>
+      <c r="S39">
         <f t="shared" si="3"/>
-        <v>73586.600000000006</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="4"/>
         <v>28026436</v>
       </c>
     </row>
@@ -9545,7 +9547,7 @@
         <v>30</v>
       </c>
       <c r="E40" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.57356801894780496</v>
       </c>
       <c r="F40" s="24">
@@ -9584,11 +9586,11 @@
         <v>17</v>
       </c>
       <c r="R40">
+        <f t="shared" si="2"/>
+        <v>47281.599999999999</v>
+      </c>
+      <c r="S40">
         <f t="shared" si="3"/>
-        <v>47281.599999999999</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="4"/>
         <v>16613776</v>
       </c>
     </row>
@@ -9606,7 +9608,7 @@
         <v>30</v>
       </c>
       <c r="E41" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F41" s="24">
@@ -9642,11 +9644,11 @@
         <v>24</v>
       </c>
       <c r="R41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="4"/>
         <v>25070049</v>
       </c>
     </row>
@@ -9664,7 +9666,7 @@
         <v>30</v>
       </c>
       <c r="E42" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.407260010630214</v>
       </c>
       <c r="F42" s="24">
@@ -9703,11 +9705,11 @@
         <v>17</v>
       </c>
       <c r="R42">
+        <f t="shared" si="2"/>
+        <v>60083.7</v>
+      </c>
+      <c r="S42">
         <f t="shared" si="3"/>
-        <v>60083.7</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="4"/>
         <v>22382361</v>
       </c>
     </row>
@@ -9725,7 +9727,7 @@
         <v>30</v>
       </c>
       <c r="E43" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F43" s="24">
@@ -9758,11 +9760,11 @@
         <v>17</v>
       </c>
       <c r="R43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="4"/>
         <v>25100100</v>
       </c>
     </row>
@@ -9780,7 +9782,7 @@
         <v>30</v>
       </c>
       <c r="E44" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.58851259616593588</v>
       </c>
       <c r="F44" s="24">
@@ -9819,11 +9821,11 @@
         <v>17</v>
       </c>
       <c r="R44">
+        <f t="shared" si="2"/>
+        <v>60328.799999999996</v>
+      </c>
+      <c r="S44">
         <f t="shared" si="3"/>
-        <v>60328.799999999996</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="4"/>
         <v>22924944</v>
       </c>
     </row>
@@ -9841,7 +9843,7 @@
         <v>30</v>
       </c>
       <c r="E45" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.13066706435095732</v>
       </c>
       <c r="F45" s="24">
@@ -9880,11 +9882,11 @@
         <v>17</v>
       </c>
       <c r="R45">
+        <f t="shared" si="2"/>
+        <v>67796</v>
+      </c>
+      <c r="S45">
         <f t="shared" si="3"/>
-        <v>67796</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="4"/>
         <v>24850225</v>
       </c>
     </row>
@@ -9902,7 +9904,7 @@
         <v>30</v>
       </c>
       <c r="E46" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.40626677272606138</v>
       </c>
       <c r="F46" s="24">
@@ -9941,11 +9943,11 @@
         <v>17</v>
       </c>
       <c r="R46">
+        <f t="shared" si="2"/>
+        <v>57375</v>
+      </c>
+      <c r="S46">
         <f t="shared" si="3"/>
-        <v>57375</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="4"/>
         <v>21068100</v>
       </c>
     </row>
@@ -9963,7 +9965,7 @@
         <v>30</v>
       </c>
       <c r="E47" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.21633253765081406</v>
       </c>
       <c r="F47" s="24">
@@ -10002,11 +10004,11 @@
         <v>17</v>
       </c>
       <c r="R47">
+        <f t="shared" si="2"/>
+        <v>49272</v>
+      </c>
+      <c r="S47">
         <f t="shared" si="3"/>
-        <v>49272</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="4"/>
         <v>16859236</v>
       </c>
     </row>
@@ -10024,7 +10026,7 @@
         <v>30</v>
       </c>
       <c r="E48" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.32553381047033803</v>
       </c>
       <c r="F48" s="24">
@@ -10063,11 +10065,11 @@
         <v>17</v>
       </c>
       <c r="R48">
+        <f t="shared" si="2"/>
+        <v>45263.199999999997</v>
+      </c>
+      <c r="S48">
         <f t="shared" si="3"/>
-        <v>45263.199999999997</v>
-      </c>
-      <c r="S48">
-        <f t="shared" si="4"/>
         <v>15225604</v>
       </c>
     </row>
@@ -10085,7 +10087,7 @@
         <v>30</v>
       </c>
       <c r="E49" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.8422168927944966E-2</v>
       </c>
       <c r="F49" s="24">
@@ -10124,11 +10126,11 @@
         <v>17</v>
       </c>
       <c r="R49">
+        <f t="shared" si="2"/>
+        <v>81867</v>
+      </c>
+      <c r="S49">
         <f t="shared" si="3"/>
-        <v>81867</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="4"/>
         <v>31877316</v>
       </c>
     </row>
@@ -10146,7 +10148,7 @@
         <v>30</v>
       </c>
       <c r="E50" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.36833969774488828</v>
       </c>
       <c r="F50" s="24">
@@ -10185,11 +10187,11 @@
         <v>17</v>
       </c>
       <c r="R50">
+        <f t="shared" si="2"/>
+        <v>62487.6</v>
+      </c>
+      <c r="S50">
         <f t="shared" si="3"/>
-        <v>62487.6</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="4"/>
         <v>23464336</v>
       </c>
     </row>
@@ -10207,7 +10209,7 @@
         <v>30</v>
       </c>
       <c r="E51" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.74751843024492182</v>
       </c>
       <c r="F51" s="24">
@@ -10246,11 +10248,11 @@
         <v>17</v>
       </c>
       <c r="R51">
+        <f t="shared" si="2"/>
+        <v>65919</v>
+      </c>
+      <c r="S51">
         <f t="shared" si="3"/>
-        <v>65919</v>
-      </c>
-      <c r="S51">
-        <f t="shared" si="4"/>
         <v>26112100</v>
       </c>
     </row>
@@ -10268,7 +10270,7 @@
         <v>30</v>
       </c>
       <c r="E52" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.93369583672986423</v>
       </c>
       <c r="F52" s="24">
@@ -10310,11 +10312,11 @@
         <v>24</v>
       </c>
       <c r="R52">
+        <f t="shared" si="2"/>
+        <v>62000</v>
+      </c>
+      <c r="S52">
         <f t="shared" si="3"/>
-        <v>62000</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="4"/>
         <v>24601600</v>
       </c>
     </row>
@@ -10332,7 +10334,7 @@
         <v>29</v>
       </c>
       <c r="E53" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.10587284523438178</v>
       </c>
       <c r="F53" s="24">
@@ -10371,11 +10373,11 @@
         <v>17</v>
       </c>
       <c r="R53">
+        <f t="shared" si="2"/>
+        <v>73962</v>
+      </c>
+      <c r="S53">
         <f t="shared" si="3"/>
-        <v>73962</v>
-      </c>
-      <c r="S53">
-        <f t="shared" si="4"/>
         <v>27910089</v>
       </c>
     </row>
@@ -10393,7 +10395,7 @@
         <v>30</v>
       </c>
       <c r="E54" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-8.6783611955475237E-2</v>
       </c>
       <c r="F54" s="24">
@@ -10432,11 +10434,11 @@
         <v>17</v>
       </c>
       <c r="R54">
+        <f t="shared" si="2"/>
+        <v>74337.2</v>
+      </c>
+      <c r="S54">
         <f t="shared" si="3"/>
-        <v>74337.2</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="4"/>
         <v>28601104</v>
       </c>
     </row>
@@ -10454,7 +10456,7 @@
         <v>30</v>
       </c>
       <c r="E55" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.59861972966222865</v>
       </c>
       <c r="F55" s="24">
@@ -10493,11 +10495,11 @@
         <v>17</v>
       </c>
       <c r="R55">
+        <f t="shared" si="2"/>
+        <v>68851.199999999997</v>
+      </c>
+      <c r="S55">
         <f t="shared" si="3"/>
-        <v>68851.199999999997</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="4"/>
         <v>27206656</v>
       </c>
     </row>
@@ -10515,7 +10517,7 @@
         <v>30</v>
       </c>
       <c r="E56" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.79939684454007143</v>
       </c>
       <c r="F56" s="24">
@@ -10554,11 +10556,11 @@
         <v>17</v>
       </c>
       <c r="R56">
+        <f t="shared" si="2"/>
+        <v>72179.100000000006</v>
+      </c>
+      <c r="S56">
         <f t="shared" si="3"/>
-        <v>72179.100000000006</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="4"/>
         <v>29452329</v>
       </c>
     </row>
@@ -10576,7 +10578,7 @@
         <v>30</v>
       </c>
       <c r="E57" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.0502406523595322</v>
       </c>
       <c r="F57" s="24">
@@ -10615,11 +10617,11 @@
         <v>19</v>
       </c>
       <c r="R57">
+        <f t="shared" si="2"/>
+        <v>56292</v>
+      </c>
+      <c r="S57">
         <f t="shared" si="3"/>
-        <v>56292</v>
-      </c>
-      <c r="S57">
-        <f t="shared" si="4"/>
         <v>22005481</v>
       </c>
     </row>
@@ -10637,7 +10639,7 @@
         <v>30</v>
       </c>
       <c r="E58" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.93481782043294004</v>
       </c>
       <c r="F58" s="24">
@@ -10676,11 +10678,11 @@
         <v>19</v>
       </c>
       <c r="R58">
+        <f t="shared" si="2"/>
+        <v>73442.600000000006</v>
+      </c>
+      <c r="S58">
         <f t="shared" si="3"/>
-        <v>73442.600000000006</v>
-      </c>
-      <c r="S58">
-        <f t="shared" si="4"/>
         <v>30492484</v>
       </c>
     </row>
@@ -10698,7 +10700,7 @@
         <v>30</v>
       </c>
       <c r="E59" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.66134102375997728</v>
       </c>
       <c r="F59" s="24">
@@ -10737,11 +10739,11 @@
         <v>19</v>
       </c>
       <c r="R59">
+        <f t="shared" si="2"/>
+        <v>69432</v>
+      </c>
+      <c r="S59">
         <f t="shared" si="3"/>
-        <v>69432</v>
-      </c>
-      <c r="S59">
-        <f t="shared" si="4"/>
         <v>27667600</v>
       </c>
     </row>
@@ -10759,7 +10761,7 @@
         <v>30</v>
       </c>
       <c r="E60" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.81758326715281271</v>
       </c>
       <c r="F60" s="24">
@@ -10798,11 +10800,11 @@
         <v>19</v>
       </c>
       <c r="R60">
+        <f t="shared" si="2"/>
+        <v>65139.200000000004</v>
+      </c>
+      <c r="S60">
         <f t="shared" si="3"/>
-        <v>65139.200000000004</v>
-      </c>
-      <c r="S60">
-        <f t="shared" si="4"/>
         <v>25897921</v>
       </c>
     </row>
@@ -10820,7 +10822,7 @@
         <v>30</v>
       </c>
       <c r="E61" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.5575179041878116E-2</v>
       </c>
       <c r="F61" s="24">
@@ -10859,11 +10861,11 @@
         <v>19</v>
       </c>
       <c r="R61">
+        <f t="shared" si="2"/>
+        <v>63544.799999999996</v>
+      </c>
+      <c r="S61">
         <f t="shared" si="3"/>
-        <v>63544.799999999996</v>
-      </c>
-      <c r="S61">
-        <f t="shared" si="4"/>
         <v>23174596</v>
       </c>
     </row>
@@ -10881,7 +10883,7 @@
         <v>30</v>
       </c>
       <c r="E62" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.5434581014009261</v>
       </c>
       <c r="F62" s="24">
@@ -10920,11 +10922,11 @@
         <v>19</v>
       </c>
       <c r="R62">
+        <f t="shared" si="2"/>
+        <v>65481</v>
+      </c>
+      <c r="S62">
         <f t="shared" si="3"/>
-        <v>65481</v>
-      </c>
-      <c r="S62">
-        <f t="shared" si="4"/>
         <v>25371369</v>
       </c>
     </row>
@@ -10942,7 +10944,7 @@
         <v>30</v>
       </c>
       <c r="E63" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.80726001063021258</v>
       </c>
       <c r="F63" s="24">
@@ -10981,11 +10983,11 @@
         <v>19</v>
       </c>
       <c r="R63">
+        <f t="shared" si="2"/>
+        <v>58191.3</v>
+      </c>
+      <c r="S63">
         <f t="shared" si="3"/>
-        <v>58191.3</v>
-      </c>
-      <c r="S63">
-        <f t="shared" si="4"/>
         <v>22382361</v>
       </c>
     </row>
@@ -11003,7 +11005,7 @@
         <v>30</v>
       </c>
       <c r="E64" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.79291779383515859</v>
       </c>
       <c r="F64" s="24">
@@ -11042,11 +11044,11 @@
         <v>19</v>
       </c>
       <c r="R64">
+        <f t="shared" si="2"/>
+        <v>67756</v>
+      </c>
+      <c r="S64">
         <f t="shared" si="3"/>
-        <v>67756</v>
-      </c>
-      <c r="S64">
-        <f t="shared" si="4"/>
         <v>27164944</v>
       </c>
     </row>
@@ -11064,7 +11066,7 @@
         <v>30</v>
       </c>
       <c r="E65" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.8473023072186141</v>
       </c>
       <c r="F65" s="24">
@@ -11103,11 +11105,11 @@
         <v>19</v>
       </c>
       <c r="R65">
+        <f t="shared" si="2"/>
+        <v>66822</v>
+      </c>
+      <c r="S65">
         <f t="shared" si="3"/>
-        <v>66822</v>
-      </c>
-      <c r="S65">
-        <f t="shared" si="4"/>
         <v>26832400</v>
       </c>
     </row>
@@ -11125,7 +11127,7 @@
         <v>30</v>
       </c>
       <c r="E66" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.7287296472091036</v>
       </c>
       <c r="F66" s="24">
@@ -11164,11 +11166,11 @@
         <v>19</v>
       </c>
       <c r="R66">
+        <f t="shared" si="2"/>
+        <v>49783.5</v>
+      </c>
+      <c r="S66">
         <f t="shared" si="3"/>
-        <v>49783.5</v>
-      </c>
-      <c r="S66">
-        <f t="shared" si="4"/>
         <v>18105025</v>
       </c>
     </row>
@@ -11186,7 +11188,7 @@
         <v>30</v>
       </c>
       <c r="E67" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.67067104237842301</v>
       </c>
       <c r="F67" s="24">
@@ -11228,11 +11230,11 @@
         <v>25</v>
       </c>
       <c r="R67">
+        <f t="shared" si="2"/>
+        <v>73939.5</v>
+      </c>
+      <c r="S67">
         <f t="shared" si="3"/>
-        <v>73939.5</v>
-      </c>
-      <c r="S67">
-        <f t="shared" si="4"/>
         <v>29997529</v>
       </c>
     </row>
@@ -11250,7 +11252,7 @@
         <v>31</v>
       </c>
       <c r="E68" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.39270167080885088</v>
       </c>
       <c r="F68" s="24">
@@ -11292,11 +11294,11 @@
         <v>26</v>
       </c>
       <c r="R68">
+        <f t="shared" si="2"/>
+        <v>71307</v>
+      </c>
+      <c r="S68">
         <f t="shared" si="3"/>
-        <v>71307</v>
-      </c>
-      <c r="S68">
-        <f t="shared" si="4"/>
         <v>27899524</v>
       </c>
     </row>
@@ -11314,7 +11316,7 @@
         <v>31</v>
       </c>
       <c r="E69" s="26">
-        <f t="shared" ref="E69:E117" si="5">IF(I69,G69-F69,TRIM(""))</f>
+        <f t="shared" ref="E69:E117" si="4">IF(I69,G69-F69,TRIM(""))</f>
         <v>0.16090572769675937</v>
       </c>
       <c r="F69" s="24">
@@ -11353,11 +11355,11 @@
         <v>19</v>
       </c>
       <c r="R69">
-        <f t="shared" ref="R69:R117" si="6">G69*C69</f>
+        <f t="shared" ref="R69:R117" si="5">G69*C69</f>
         <v>79560</v>
       </c>
       <c r="S69">
-        <f t="shared" ref="S69:S132" si="7">C69*C69</f>
+        <f t="shared" ref="S69:S132" si="6">C69*C69</f>
         <v>30525625</v>
       </c>
     </row>
@@ -11375,7 +11377,7 @@
         <v>31</v>
       </c>
       <c r="E70" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.0818174224347139</v>
       </c>
       <c r="F70" s="24">
@@ -11414,11 +11416,11 @@
         <v>19</v>
       </c>
       <c r="R70">
+        <f t="shared" si="5"/>
+        <v>55251.700000000004</v>
+      </c>
+      <c r="S70">
         <f t="shared" si="6"/>
-        <v>55251.700000000004</v>
-      </c>
-      <c r="S70">
-        <f t="shared" si="7"/>
         <v>21557449</v>
       </c>
     </row>
@@ -11436,7 +11438,7 @@
         <v>31</v>
       </c>
       <c r="E71" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.40829925719020999</v>
       </c>
       <c r="F71" s="24">
@@ -11475,11 +11477,11 @@
         <v>19</v>
       </c>
       <c r="R71">
+        <f t="shared" si="5"/>
+        <v>37812.1</v>
+      </c>
+      <c r="S71">
         <f t="shared" si="6"/>
-        <v>37812.1</v>
-      </c>
-      <c r="S71">
-        <f t="shared" si="7"/>
         <v>12033961</v>
       </c>
     </row>
@@ -11497,7 +11499,7 @@
         <v>31</v>
       </c>
       <c r="E72" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.71101683922051606</v>
       </c>
       <c r="F72" s="24">
@@ -11536,11 +11538,11 @@
         <v>19</v>
       </c>
       <c r="R72">
+        <f t="shared" si="5"/>
+        <v>71354.5</v>
+      </c>
+      <c r="S72">
         <f t="shared" si="6"/>
-        <v>71354.5</v>
-      </c>
-      <c r="S72">
-        <f t="shared" si="7"/>
         <v>28783225</v>
       </c>
     </row>
@@ -11558,7 +11560,7 @@
         <v>31</v>
       </c>
       <c r="E73" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.44000477306431662</v>
       </c>
       <c r="F73" s="24">
@@ -11597,11 +11599,11 @@
         <v>19</v>
       </c>
       <c r="R73">
+        <f t="shared" si="5"/>
+        <v>43798.8</v>
+      </c>
+      <c r="S73">
         <f t="shared" si="6"/>
-        <v>43798.8</v>
-      </c>
-      <c r="S73">
-        <f t="shared" si="7"/>
         <v>14760964</v>
       </c>
     </row>
@@ -11619,7 +11621,7 @@
         <v>31</v>
       </c>
       <c r="E74" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.45322036607198868</v>
       </c>
       <c r="F74" s="24">
@@ -11658,11 +11660,11 @@
         <v>19</v>
       </c>
       <c r="R74">
+        <f t="shared" si="5"/>
+        <v>67504.800000000003</v>
+      </c>
+      <c r="S74">
         <f t="shared" si="6"/>
-        <v>67504.800000000003</v>
-      </c>
-      <c r="S74">
-        <f t="shared" si="7"/>
         <v>26152996</v>
       </c>
     </row>
@@ -11680,7 +11682,7 @@
         <v>30</v>
       </c>
       <c r="E75" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.1894184568427022</v>
       </c>
       <c r="F75" s="24">
@@ -11719,11 +11721,11 @@
         <v>19</v>
       </c>
       <c r="R75">
+        <f t="shared" si="5"/>
+        <v>75338</v>
+      </c>
+      <c r="S75">
         <f t="shared" si="6"/>
-        <v>75338</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="7"/>
         <v>29376400</v>
       </c>
     </row>
@@ -11741,7 +11743,7 @@
         <v>30</v>
       </c>
       <c r="E76" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.49849098386330581</v>
       </c>
       <c r="F76" s="24">
@@ -11780,11 +11782,11 @@
         <v>28</v>
       </c>
       <c r="R76">
+        <f t="shared" si="5"/>
+        <v>60896.5</v>
+      </c>
+      <c r="S76">
         <f t="shared" si="6"/>
-        <v>60896.5</v>
-      </c>
-      <c r="S76">
-        <f t="shared" si="7"/>
         <v>22992025</v>
       </c>
     </row>
@@ -11802,7 +11804,7 @@
         <v>30</v>
       </c>
       <c r="E77" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F77" s="24">
@@ -11838,11 +11840,11 @@
         <v>29</v>
       </c>
       <c r="R77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S77">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="7"/>
         <v>23261329</v>
       </c>
     </row>
@@ -11860,7 +11862,7 @@
         <v>30</v>
       </c>
       <c r="E78" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.66043516308320704</v>
       </c>
       <c r="F78" s="24">
@@ -11899,11 +11901,11 @@
         <v>28</v>
       </c>
       <c r="R78">
+        <f t="shared" si="5"/>
+        <v>56924.4</v>
+      </c>
+      <c r="S78">
         <f t="shared" si="6"/>
-        <v>56924.4</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="7"/>
         <v>21418384</v>
       </c>
     </row>
@@ -11921,7 +11923,7 @@
         <v>30</v>
       </c>
       <c r="E79" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.36134102375997657</v>
       </c>
       <c r="F79" s="24">
@@ -11960,11 +11962,11 @@
         <v>28</v>
       </c>
       <c r="R79">
+        <f t="shared" si="5"/>
+        <v>71010</v>
+      </c>
+      <c r="S79">
         <f t="shared" si="6"/>
-        <v>71010</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="7"/>
         <v>27667600</v>
       </c>
     </row>
@@ -11982,7 +11984,7 @@
         <v>30</v>
       </c>
       <c r="E80" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F80" s="24">
@@ -12018,11 +12020,11 @@
         <v>29</v>
       </c>
       <c r="R80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S80">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <f t="shared" si="7"/>
         <v>23464336</v>
       </c>
     </row>
@@ -12040,7 +12042,7 @@
         <v>30</v>
       </c>
       <c r="E81" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.29610594047901273</v>
       </c>
       <c r="F81" s="24">
@@ -12079,11 +12081,11 @@
         <v>28</v>
       </c>
       <c r="R81">
+        <f t="shared" si="5"/>
+        <v>33495</v>
+      </c>
+      <c r="S81">
         <f t="shared" si="6"/>
-        <v>33495</v>
-      </c>
-      <c r="S81">
-        <f t="shared" si="7"/>
         <v>9272025</v>
       </c>
     </row>
@@ -12101,7 +12103,7 @@
         <v>30</v>
       </c>
       <c r="E82" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.72566255626926157</v>
       </c>
       <c r="F82" s="24">
@@ -12140,11 +12142,11 @@
         <v>28</v>
       </c>
       <c r="R82">
+        <f t="shared" si="5"/>
+        <v>51011.4</v>
+      </c>
+      <c r="S82">
         <f t="shared" si="6"/>
-        <v>51011.4</v>
-      </c>
-      <c r="S82">
-        <f t="shared" si="7"/>
         <v>18688329</v>
       </c>
     </row>
@@ -12162,7 +12164,7 @@
         <v>30</v>
       </c>
       <c r="E83" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.58216229125994445</v>
       </c>
       <c r="F83" s="24">
@@ -12201,11 +12203,11 @@
         <v>28</v>
       </c>
       <c r="R83">
+        <f t="shared" si="5"/>
+        <v>64422.6</v>
+      </c>
+      <c r="S83">
         <f t="shared" si="6"/>
-        <v>64422.6</v>
-      </c>
-      <c r="S83">
-        <f t="shared" si="7"/>
         <v>24940036</v>
       </c>
     </row>
@@ -12223,7 +12225,7 @@
         <v>30</v>
       </c>
       <c r="E84" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-3.4390214464632862E-2</v>
       </c>
       <c r="F84" s="24">
@@ -12262,11 +12264,11 @@
         <v>28</v>
       </c>
       <c r="R84">
+        <f t="shared" si="5"/>
+        <v>37151.699999999997</v>
+      </c>
+      <c r="S84">
         <f t="shared" si="6"/>
-        <v>37151.699999999997</v>
-      </c>
-      <c r="S84">
-        <f t="shared" si="7"/>
         <v>11202409</v>
       </c>
     </row>
@@ -12284,7 +12286,7 @@
         <v>30</v>
       </c>
       <c r="E85" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.3579627424715337</v>
       </c>
       <c r="F85" s="24">
@@ -12323,11 +12325,11 @@
         <v>28</v>
       </c>
       <c r="R85">
+        <f t="shared" si="5"/>
+        <v>28842.6</v>
+      </c>
+      <c r="S85">
         <f t="shared" si="6"/>
-        <v>28842.6</v>
-      </c>
-      <c r="S85">
-        <f t="shared" si="7"/>
         <v>7403841</v>
       </c>
     </row>
@@ -12345,7 +12347,7 @@
         <v>30</v>
       </c>
       <c r="E86" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.29123481828054487</v>
       </c>
       <c r="F86" s="24">
@@ -12384,11 +12386,11 @@
         <v>30</v>
       </c>
       <c r="R86">
+        <f t="shared" si="5"/>
+        <v>53738.700000000004</v>
+      </c>
+      <c r="S86">
         <f t="shared" si="6"/>
-        <v>53738.700000000004</v>
-      </c>
-      <c r="S86">
-        <f t="shared" si="7"/>
         <v>19088161</v>
       </c>
     </row>
@@ -12406,7 +12408,7 @@
         <v>30</v>
       </c>
       <c r="E87" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.10190294362837449</v>
       </c>
       <c r="F87" s="24">
@@ -12445,11 +12447,11 @@
         <v>30</v>
       </c>
       <c r="R87">
+        <f t="shared" si="5"/>
+        <v>68553</v>
+      </c>
+      <c r="S87">
         <f t="shared" si="6"/>
-        <v>68553</v>
-      </c>
-      <c r="S87">
-        <f t="shared" si="7"/>
         <v>25786084</v>
       </c>
     </row>
@@ -12467,7 +12469,7 @@
         <v>30</v>
       </c>
       <c r="E88" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.15157875908891505</v>
       </c>
       <c r="F88" s="24">
@@ -12509,11 +12511,11 @@
         <v>31</v>
       </c>
       <c r="R88">
+        <f t="shared" si="5"/>
+        <v>70488.800000000003</v>
+      </c>
+      <c r="S88">
         <f t="shared" si="6"/>
-        <v>70488.800000000003</v>
-      </c>
-      <c r="S88">
-        <f t="shared" si="7"/>
         <v>26863489</v>
       </c>
     </row>
@@ -12531,7 +12533,7 @@
         <v>30</v>
       </c>
       <c r="E89" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-6.6049721682892581E-2</v>
       </c>
       <c r="F89" s="24">
@@ -12573,11 +12575,11 @@
         <v>32</v>
       </c>
       <c r="R89">
+        <f t="shared" si="5"/>
+        <v>69672.800000000003</v>
+      </c>
+      <c r="S89">
         <f t="shared" si="6"/>
-        <v>69672.800000000003</v>
-      </c>
-      <c r="S89">
-        <f t="shared" si="7"/>
         <v>26245129</v>
       </c>
     </row>
@@ -12595,7 +12597,7 @@
         <v>30</v>
       </c>
       <c r="E90" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.50177419782945165</v>
       </c>
       <c r="F90" s="24">
@@ -12634,11 +12636,11 @@
         <v>30</v>
       </c>
       <c r="R90">
+        <f t="shared" si="5"/>
+        <v>58212.5</v>
+      </c>
+      <c r="S90">
         <f t="shared" si="6"/>
-        <v>58212.5</v>
-      </c>
-      <c r="S90">
-        <f t="shared" si="7"/>
         <v>21687649</v>
       </c>
     </row>
@@ -12656,7 +12658,7 @@
         <v>30</v>
       </c>
       <c r="E91" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.72678453997233738</v>
       </c>
       <c r="F91" s="24">
@@ -12695,11 +12697,11 @@
         <v>30</v>
       </c>
       <c r="R91">
+        <f t="shared" si="5"/>
+        <v>61551</v>
+      </c>
+      <c r="S91">
         <f t="shared" si="6"/>
-        <v>61551</v>
-      </c>
-      <c r="S91">
-        <f t="shared" si="7"/>
         <v>23863225</v>
       </c>
     </row>
@@ -12717,7 +12719,7 @@
         <v>30</v>
       </c>
       <c r="E92" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.55810381844967338</v>
       </c>
       <c r="F92" s="24">
@@ -12756,11 +12758,11 @@
         <v>19</v>
       </c>
       <c r="R92">
+        <f t="shared" si="5"/>
+        <v>45942.5</v>
+      </c>
+      <c r="S92">
         <f t="shared" si="6"/>
-        <v>45942.5</v>
-      </c>
-      <c r="S92">
-        <f t="shared" si="7"/>
         <v>15960025</v>
       </c>
     </row>
@@ -12778,7 +12780,7 @@
         <v>30</v>
       </c>
       <c r="E93" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.61918350556434909</v>
       </c>
       <c r="F93" s="24">
@@ -12817,11 +12819,11 @@
         <v>19</v>
       </c>
       <c r="R93">
+        <f t="shared" si="5"/>
+        <v>47652.799999999996</v>
+      </c>
+      <c r="S93">
         <f t="shared" si="6"/>
-        <v>47652.799999999996</v>
-      </c>
-      <c r="S93">
-        <f t="shared" si="7"/>
         <v>16875664</v>
       </c>
     </row>
@@ -12839,7 +12841,7 @@
         <v>30</v>
       </c>
       <c r="E94" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-1.6806152274966735E-2</v>
       </c>
       <c r="F94" s="24">
@@ -12878,11 +12880,11 @@
         <v>19</v>
       </c>
       <c r="R94">
+        <f t="shared" si="5"/>
+        <v>64877.4</v>
+      </c>
+      <c r="S94">
         <f t="shared" si="6"/>
-        <v>64877.4</v>
-      </c>
-      <c r="S94">
-        <f t="shared" si="7"/>
         <v>23794884</v>
       </c>
     </row>
@@ -12900,7 +12902,7 @@
         <v>30</v>
       </c>
       <c r="E95" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.72458194113772478</v>
       </c>
       <c r="F95" s="24">
@@ -12939,11 +12941,11 @@
         <v>19</v>
       </c>
       <c r="R95">
+        <f t="shared" si="5"/>
+        <v>57477.9</v>
+      </c>
+      <c r="S95">
         <f t="shared" si="6"/>
-        <v>57477.9</v>
-      </c>
-      <c r="S95">
-        <f t="shared" si="7"/>
         <v>21836929</v>
       </c>
     </row>
@@ -12961,7 +12963,7 @@
         <v>30</v>
       </c>
       <c r="E96" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.67477737987826281</v>
       </c>
       <c r="F96" s="24">
@@ -13000,11 +13002,11 @@
         <v>19</v>
       </c>
       <c r="R96">
+        <f t="shared" si="5"/>
+        <v>48105.2</v>
+      </c>
+      <c r="S96">
         <f t="shared" si="6"/>
-        <v>48105.2</v>
-      </c>
-      <c r="S96">
-        <f t="shared" si="7"/>
         <v>17197609</v>
       </c>
     </row>
@@ -13022,7 +13024,7 @@
         <v>30</v>
       </c>
       <c r="E97" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.10350318203991193</v>
       </c>
       <c r="F97" s="24">
@@ -13061,11 +13063,11 @@
         <v>19</v>
       </c>
       <c r="R97">
+        <f t="shared" si="5"/>
+        <v>49573.7</v>
+      </c>
+      <c r="S97">
         <f t="shared" si="6"/>
-        <v>49573.7</v>
-      </c>
-      <c r="S97">
-        <f t="shared" si="7"/>
         <v>16785409</v>
       </c>
     </row>
@@ -13083,7 +13085,7 @@
         <v>30</v>
       </c>
       <c r="E98" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.3552037918696893</v>
       </c>
       <c r="F98" s="24">
@@ -13122,11 +13124,11 @@
         <v>19</v>
       </c>
       <c r="R98">
+        <f t="shared" si="5"/>
+        <v>86252.4</v>
+      </c>
+      <c r="S98">
         <f t="shared" si="6"/>
-        <v>86252.4</v>
-      </c>
-      <c r="S98">
-        <f t="shared" si="7"/>
         <v>30569841</v>
       </c>
     </row>
@@ -13186,11 +13188,11 @@
         <v>113</v>
       </c>
       <c r="R99">
+        <f t="shared" si="5"/>
+        <v>87703.2</v>
+      </c>
+      <c r="S99">
         <f t="shared" si="6"/>
-        <v>87703.2</v>
-      </c>
-      <c r="S99">
-        <f t="shared" si="7"/>
         <v>31606884</v>
       </c>
     </row>
@@ -13247,11 +13249,11 @@
         <v>19</v>
       </c>
       <c r="R100">
+        <f t="shared" si="5"/>
+        <v>86408.4</v>
+      </c>
+      <c r="S100">
         <f t="shared" si="6"/>
-        <v>86408.4</v>
-      </c>
-      <c r="S100">
-        <f t="shared" si="7"/>
         <v>30680521</v>
       </c>
     </row>
@@ -13269,7 +13271,7 @@
         <v>30</v>
       </c>
       <c r="E101" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.3594802437399895</v>
       </c>
       <c r="F101" s="24">
@@ -13311,11 +13313,11 @@
         <v>114</v>
       </c>
       <c r="R101">
+        <f t="shared" si="5"/>
+        <v>86205.599999999991</v>
+      </c>
+      <c r="S101">
         <f t="shared" si="6"/>
-        <v>86205.599999999991</v>
-      </c>
-      <c r="S101">
-        <f t="shared" si="7"/>
         <v>30536676</v>
       </c>
     </row>
@@ -13333,7 +13335,7 @@
         <v>29</v>
       </c>
       <c r="E102" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-0.69058644920162493</v>
       </c>
       <c r="F102" s="24">
@@ -13372,11 +13374,11 @@
         <v>125</v>
       </c>
       <c r="R102">
+        <f t="shared" si="5"/>
+        <v>55863.799999999996</v>
+      </c>
+      <c r="S102">
         <f t="shared" si="6"/>
-        <v>55863.799999999996</v>
-      </c>
-      <c r="S102">
-        <f t="shared" si="7"/>
         <v>20967241</v>
       </c>
     </row>
@@ -13394,7 +13396,7 @@
         <v>30</v>
       </c>
       <c r="E103" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.35714425902214941</v>
       </c>
       <c r="F103" s="24">
@@ -13436,11 +13438,11 @@
         <v>122</v>
       </c>
       <c r="R103">
+        <f t="shared" si="5"/>
+        <v>46896.799999999996</v>
+      </c>
+      <c r="S103">
         <f t="shared" si="6"/>
-        <v>46896.799999999996</v>
-      </c>
-      <c r="S103">
-        <f t="shared" si="7"/>
         <v>14776336</v>
       </c>
     </row>
@@ -13458,7 +13460,7 @@
         <v>30</v>
       </c>
       <c r="E104" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.17087947530981928</v>
       </c>
       <c r="F104" s="24">
@@ -13500,11 +13502,11 @@
         <v>123</v>
       </c>
       <c r="R104">
+        <f t="shared" si="5"/>
+        <v>35553.299999999996</v>
+      </c>
+      <c r="S104">
         <f t="shared" si="6"/>
-        <v>35553.299999999996</v>
-      </c>
-      <c r="S104">
-        <f t="shared" si="7"/>
         <v>10259209</v>
       </c>
     </row>
@@ -13522,7 +13524,7 @@
         <v>30</v>
       </c>
       <c r="E105" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5650027850279837</v>
       </c>
       <c r="F105" s="24">
@@ -13561,11 +13563,11 @@
         <v>125</v>
       </c>
       <c r="R105">
+        <f t="shared" si="5"/>
+        <v>24697.5</v>
+      </c>
+      <c r="S105">
         <f t="shared" si="6"/>
-        <v>24697.5</v>
-      </c>
-      <c r="S105">
-        <f t="shared" si="7"/>
         <v>4950625</v>
       </c>
     </row>
@@ -13583,7 +13585,7 @@
         <v>30</v>
       </c>
       <c r="E106" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.66979886017828427</v>
       </c>
       <c r="F106" s="24">
@@ -13622,11 +13624,11 @@
         <v>125</v>
       </c>
       <c r="R106">
+        <f t="shared" si="5"/>
+        <v>31668.3</v>
+      </c>
+      <c r="S106">
         <f t="shared" si="6"/>
-        <v>31668.3</v>
-      </c>
-      <c r="S106">
-        <f t="shared" si="7"/>
         <v>8139609</v>
       </c>
     </row>
@@ -13644,7 +13646,7 @@
         <v>30</v>
       </c>
       <c r="E107" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.58141885485872713</v>
       </c>
       <c r="F107" s="24">
@@ -13683,11 +13685,11 @@
         <v>125</v>
       </c>
       <c r="R107">
+        <f t="shared" si="5"/>
+        <v>32356.5</v>
+      </c>
+      <c r="S107">
         <f t="shared" si="6"/>
-        <v>32356.5</v>
-      </c>
-      <c r="S107">
-        <f t="shared" si="7"/>
         <v>8497225</v>
       </c>
     </row>
@@ -13705,7 +13707,7 @@
         <v>30</v>
       </c>
       <c r="E108" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.35761787364630315</v>
       </c>
       <c r="F108" s="24">
@@ -13744,11 +13746,11 @@
         <v>125</v>
       </c>
       <c r="R108">
+        <f t="shared" si="5"/>
+        <v>34099.199999999997</v>
+      </c>
+      <c r="S108">
         <f t="shared" si="6"/>
-        <v>34099.199999999997</v>
-      </c>
-      <c r="S108">
-        <f t="shared" si="7"/>
         <v>9437184</v>
       </c>
     </row>
@@ -13766,7 +13768,7 @@
         <v>30</v>
       </c>
       <c r="E109" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-7.5729249210876759E-2</v>
       </c>
       <c r="F109" s="24">
@@ -13805,11 +13807,11 @@
         <v>125</v>
       </c>
       <c r="R109">
+        <f t="shared" si="5"/>
+        <v>37473.599999999999</v>
+      </c>
+      <c r="S109">
         <f t="shared" si="6"/>
-        <v>37473.599999999999</v>
-      </c>
-      <c r="S109">
-        <f t="shared" si="7"/>
         <v>11397376</v>
       </c>
     </row>
@@ -13827,7 +13829,7 @@
         <v>30</v>
       </c>
       <c r="E110" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-3.3911959756171228E-2</v>
       </c>
       <c r="F110" s="24">
@@ -13866,11 +13868,11 @@
         <v>125</v>
       </c>
       <c r="R110">
+        <f t="shared" si="5"/>
+        <v>65037</v>
+      </c>
+      <c r="S110">
         <f t="shared" si="6"/>
-        <v>65037</v>
-      </c>
-      <c r="S110">
-        <f t="shared" si="7"/>
         <v>23912100</v>
       </c>
     </row>
@@ -13888,7 +13890,7 @@
         <v>30</v>
       </c>
       <c r="E111" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.4028931315219264</v>
       </c>
       <c r="F111" s="24">
@@ -13927,11 +13929,11 @@
         <v>125</v>
       </c>
       <c r="R111">
+        <f t="shared" si="5"/>
+        <v>90725.400000000009</v>
+      </c>
+      <c r="S111">
         <f t="shared" si="6"/>
-        <v>90725.400000000009</v>
-      </c>
-      <c r="S111">
-        <f t="shared" si="7"/>
         <v>32558436</v>
       </c>
     </row>
@@ -13949,7 +13951,7 @@
         <v>31</v>
       </c>
       <c r="E112" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.359912489792606</v>
       </c>
       <c r="F112" s="24">
@@ -13988,11 +13990,11 @@
         <v>125</v>
       </c>
       <c r="R112">
+        <f t="shared" si="5"/>
+        <v>89522.8</v>
+      </c>
+      <c r="S112">
         <f t="shared" si="6"/>
-        <v>89522.8</v>
-      </c>
-      <c r="S112">
-        <f t="shared" si="7"/>
         <v>32103556</v>
       </c>
     </row>
@@ -14010,7 +14012,7 @@
         <v>31</v>
       </c>
       <c r="E113" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.6471245027532433</v>
       </c>
       <c r="F113" s="24">
@@ -14049,11 +14051,11 @@
         <v>125</v>
       </c>
       <c r="R113">
+        <f t="shared" si="5"/>
+        <v>75255.400000000009</v>
+      </c>
+      <c r="S113">
         <f t="shared" si="6"/>
-        <v>75255.400000000009</v>
-      </c>
-      <c r="S113">
-        <f t="shared" si="7"/>
         <v>22686169</v>
       </c>
     </row>
@@ -14071,7 +14073,7 @@
         <v>31</v>
       </c>
       <c r="E114" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.8424158048303259</v>
       </c>
       <c r="F114" s="24">
@@ -14110,11 +14112,11 @@
         <v>125</v>
       </c>
       <c r="R114">
+        <f t="shared" si="5"/>
+        <v>73090.8</v>
+      </c>
+      <c r="S114">
         <f t="shared" si="6"/>
-        <v>73090.8</v>
-      </c>
-      <c r="S114">
-        <f t="shared" si="7"/>
         <v>21399876</v>
       </c>
     </row>
@@ -14132,7 +14134,7 @@
         <v>31</v>
       </c>
       <c r="E115" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.4646625562870614</v>
       </c>
       <c r="F115" s="24">
@@ -14171,11 +14173,11 @@
         <v>125</v>
       </c>
       <c r="R115">
+        <f t="shared" si="5"/>
+        <v>77277.8</v>
+      </c>
+      <c r="S115">
         <f t="shared" si="6"/>
-        <v>77277.8</v>
-      </c>
-      <c r="S115">
-        <f t="shared" si="7"/>
         <v>23921881</v>
       </c>
     </row>
@@ -14193,7 +14195,7 @@
         <v>31</v>
       </c>
       <c r="E116" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.5245328824712772</v>
       </c>
       <c r="F116" s="24">
@@ -14232,11 +14234,11 @@
         <v>125</v>
       </c>
       <c r="R116">
+        <f t="shared" si="5"/>
+        <v>76614.2</v>
+      </c>
+      <c r="S116">
         <f t="shared" si="6"/>
-        <v>76614.2</v>
-      </c>
-      <c r="S116">
-        <f t="shared" si="7"/>
         <v>23512801</v>
       </c>
     </row>
@@ -14254,7 +14256,7 @@
         <v>31</v>
       </c>
       <c r="E117" s="58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5894154068320994</v>
       </c>
       <c r="F117" s="59">
@@ -14296,11 +14298,11 @@
         <v>124</v>
       </c>
       <c r="R117" s="56">
+        <f t="shared" si="5"/>
+        <v>86979</v>
+      </c>
+      <c r="S117" s="56">
         <f t="shared" si="6"/>
-        <v>86979</v>
-      </c>
-      <c r="S117" s="56">
-        <f t="shared" si="7"/>
         <v>30305025</v>
       </c>
     </row>
@@ -14314,7 +14316,7 @@
         <v>0</v>
       </c>
       <c r="S118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14328,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="S119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14342,7 +14344,7 @@
         <v>0</v>
       </c>
       <c r="S120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14356,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="S121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14370,7 +14372,7 @@
         <v>0</v>
       </c>
       <c r="S122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14384,7 +14386,7 @@
         <v>0</v>
       </c>
       <c r="S123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14398,7 +14400,7 @@
         <v>0</v>
       </c>
       <c r="S124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14412,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="S125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14426,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="S126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14440,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="S127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14454,7 +14456,7 @@
         <v>0</v>
       </c>
       <c r="S128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14468,7 +14470,7 @@
         <v>0</v>
       </c>
       <c r="S129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14482,7 +14484,7 @@
         <v>0</v>
       </c>
       <c r="S130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14496,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="S131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14510,7 +14512,7 @@
         <v>0</v>
       </c>
       <c r="S132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14524,7 +14526,7 @@
         <v>0</v>
       </c>
       <c r="S133">
-        <f t="shared" ref="S133:S134" si="8">C133*C133</f>
+        <f>C133*C133</f>
         <v>0</v>
       </c>
     </row>
@@ -14538,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="S134">
-        <f t="shared" si="8"/>
+        <f>C134*C134</f>
         <v>0</v>
       </c>
     </row>
@@ -18685,19 +18687,19 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1">
-        <f t="shared" ref="A1:D1" si="0">COUNT(A$4:A$65000)</f>
+        <f>COUNT(A$4:A$65000)</f>
         <v>11</v>
       </c>
       <c r="B1">
-        <f t="shared" si="0"/>
+        <f>COUNT(B$4:B$65000)</f>
         <v>11</v>
       </c>
       <c r="C1">
-        <f t="shared" si="0"/>
+        <f>COUNT(C$4:C$65000)</f>
         <v>11</v>
       </c>
       <c r="D1">
-        <f t="shared" si="0"/>
+        <f>COUNT(D$4:D$65000)</f>
         <v>11</v>
       </c>
       <c r="G1">
@@ -18709,15 +18711,15 @@
         <v>11</v>
       </c>
       <c r="J1">
-        <f t="shared" ref="J1:Q1" si="1">COUNT(J$4:J$65000)</f>
+        <f t="shared" ref="J1:Q1" si="0">COUNT(J$4:J$65000)</f>
         <v>0</v>
       </c>
       <c r="K1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="M1">
@@ -18725,35 +18727,35 @@
         <v>0</v>
       </c>
       <c r="N1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="P1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="N2" s="83" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="N2" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -18904,7 +18906,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="39">
-        <f t="shared" ref="E5:E68" si="2">IF(I5,G5-F5,TRIM(""))</f>
+        <f t="shared" ref="E5:E68" si="1">IF(I5,G5-F5,TRIM(""))</f>
         <v>-2.1044457712039115</v>
       </c>
       <c r="F5" s="40">
@@ -18973,7 +18975,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.68155993083686717</v>
       </c>
       <c r="F6" s="40">
@@ -19013,11 +19015,11 @@
       </c>
       <c r="Q6" s="28"/>
       <c r="R6">
-        <f t="shared" ref="R6:R17" si="3">G6*C6</f>
+        <f t="shared" ref="R6:R17" si="2">G6*C6</f>
         <v>42191.1</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6:S17" si="4">C6*C6</f>
+        <f t="shared" ref="S6:S17" si="3">C6*C6</f>
         <v>14447601</v>
       </c>
       <c r="X6" s="17" t="s">
@@ -19042,7 +19044,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.4351626892581706</v>
       </c>
       <c r="F7" s="40">
@@ -19082,11 +19084,11 @@
       </c>
       <c r="Q7" s="28"/>
       <c r="R7">
+        <f t="shared" si="2"/>
+        <v>78110.900000000009</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="3"/>
-        <v>78110.900000000009</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="4"/>
         <v>34492129</v>
       </c>
       <c r="X7" t="s">
@@ -19111,7 +19113,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.11995757043158939</v>
       </c>
       <c r="F8" s="40">
@@ -19151,11 +19153,11 @@
       </c>
       <c r="Q8" s="28"/>
       <c r="R8">
+        <f t="shared" si="2"/>
+        <v>105035.40000000001</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="3"/>
-        <v>105035.40000000001</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="4"/>
         <v>43639236</v>
       </c>
       <c r="X8" s="17" t="s">
@@ -19180,7 +19182,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.5637893956028677E-2</v>
       </c>
       <c r="F9" s="40">
@@ -19220,11 +19222,11 @@
       </c>
       <c r="Q9" s="28"/>
       <c r="R9">
+        <f t="shared" si="2"/>
+        <v>104201</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="3"/>
-        <v>104201</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="4"/>
         <v>43494025</v>
       </c>
       <c r="X9" s="17" t="s">
@@ -19249,7 +19251,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.054903341626602</v>
       </c>
       <c r="F10" s="40">
@@ -19289,11 +19291,11 @@
       </c>
       <c r="Q10" s="28"/>
       <c r="R10">
+        <f t="shared" si="2"/>
+        <v>82206.600000000006</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="3"/>
-        <v>82206.600000000006</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="4"/>
         <v>35485849</v>
       </c>
       <c r="X10" s="17" t="s">
@@ -19318,7 +19320,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.2801298067957951</v>
       </c>
       <c r="F11" s="40">
@@ -19358,11 +19360,11 @@
       </c>
       <c r="Q11" s="28"/>
       <c r="R11">
+        <f t="shared" si="2"/>
+        <v>84387</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="3"/>
-        <v>84387</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="4"/>
         <v>37393225</v>
       </c>
     </row>
@@ -19380,7 +19382,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.21158247115636009</v>
       </c>
       <c r="F12" s="40">
@@ -19420,11 +19422,11 @@
       </c>
       <c r="Q12" s="28"/>
       <c r="R12">
+        <f t="shared" si="2"/>
+        <v>36307.9</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="3"/>
-        <v>36307.9</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="4"/>
         <v>11095561</v>
       </c>
       <c r="X12" t="s">
@@ -19449,7 +19451,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.4168061522749671</v>
       </c>
       <c r="F13" s="40">
@@ -19489,11 +19491,11 @@
       </c>
       <c r="Q13" s="28"/>
       <c r="R13">
+        <f t="shared" si="2"/>
+        <v>58048.200000000004</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="3"/>
-        <v>58048.200000000004</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="4"/>
         <v>23794884</v>
       </c>
       <c r="X13" t="s">
@@ -19518,7 +19520,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.79909334428638168</v>
       </c>
       <c r="F14" s="40">
@@ -19558,11 +19560,11 @@
       </c>
       <c r="Q14" s="28"/>
       <c r="R14">
+        <f t="shared" si="2"/>
+        <v>84430.8</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="3"/>
-        <v>84430.8</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="4"/>
         <v>35856144</v>
       </c>
     </row>
@@ -19572,7 +19574,7 @@
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F15" s="40" t="str">
@@ -19594,11 +19596,11 @@
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X15" t="s">
@@ -19615,7 +19617,7 @@
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F16" s="40" t="str">
@@ -19637,11 +19639,11 @@
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="R16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X16" t="s">
@@ -19658,7 +19660,7 @@
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F17" s="40" t="str">
@@ -19680,11 +19682,11 @@
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -19694,7 +19696,7 @@
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F18" s="40" t="str">
@@ -19722,7 +19724,7 @@
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F19" s="40" t="str">
@@ -19750,7 +19752,7 @@
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F20" s="40" t="str">
@@ -19778,7 +19780,7 @@
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F21" s="40" t="str">
@@ -19806,7 +19808,7 @@
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F22" s="40" t="str">
@@ -19834,7 +19836,7 @@
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="E23" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F23" s="40" t="str">
@@ -19862,7 +19864,7 @@
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="E24" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F24" s="40" t="str">
@@ -19890,7 +19892,7 @@
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F25" s="40" t="str">
@@ -19918,7 +19920,7 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F26" s="40" t="str">
@@ -19946,7 +19948,7 @@
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F27" s="40" t="str">
@@ -19974,7 +19976,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F28" s="40" t="str">
@@ -20002,7 +20004,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F29" s="40" t="str">
@@ -20030,7 +20032,7 @@
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F30" s="40" t="str">
@@ -20058,7 +20060,7 @@
       <c r="C31" s="30"/>
       <c r="D31" s="37"/>
       <c r="E31" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F31" s="40" t="str">
@@ -20086,7 +20088,7 @@
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="E32" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F32" s="40" t="str">
@@ -20114,7 +20116,7 @@
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="E33" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F33" s="40" t="str">
@@ -20142,7 +20144,7 @@
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="E34" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F34" s="40" t="str">
@@ -20170,7 +20172,7 @@
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="E35" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F35" s="40" t="str">
@@ -20198,7 +20200,7 @@
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="E36" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F36" s="40" t="str">
@@ -20225,7 +20227,7 @@
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F37" s="24" t="str">
@@ -20245,7 +20247,7 @@
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F38" s="24" t="str">
@@ -20265,7 +20267,7 @@
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F39" s="24" t="str">
@@ -20285,7 +20287,7 @@
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F40" s="24" t="str">
@@ -20304,7 +20306,7 @@
       <c r="B41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F41" s="24" t="str">
@@ -20322,7 +20324,7 @@
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F42" s="24" t="str">
@@ -20341,7 +20343,7 @@
       <c r="B43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F43" s="24" t="str">
@@ -20359,7 +20361,7 @@
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F44" s="24" t="str">
@@ -20379,7 +20381,7 @@
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F45" s="24" t="str">
@@ -20399,7 +20401,7 @@
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F46" s="24" t="str">
@@ -20419,7 +20421,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F47" s="24" t="str">
@@ -20439,7 +20441,7 @@
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F48" s="24" t="str">
@@ -20459,7 +20461,7 @@
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F49" s="24" t="str">
@@ -20479,7 +20481,7 @@
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F50" s="24" t="str">
@@ -20499,7 +20501,7 @@
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F51" s="24" t="str">
@@ -20519,7 +20521,7 @@
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F52" s="24" t="str">
@@ -20539,7 +20541,7 @@
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F53" s="24" t="str">
@@ -20559,7 +20561,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F54" s="24" t="str">
@@ -20579,7 +20581,7 @@
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F55" s="24" t="str">
@@ -20599,7 +20601,7 @@
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F56" s="24" t="str">
@@ -20619,7 +20621,7 @@
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F57" s="24" t="str">
@@ -20639,7 +20641,7 @@
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F58" s="24" t="str">
@@ -20659,7 +20661,7 @@
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F59" s="24" t="str">
@@ -20679,7 +20681,7 @@
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F60" s="24" t="str">
@@ -20699,7 +20701,7 @@
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F61" s="24" t="str">
@@ -20719,7 +20721,7 @@
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F62" s="24" t="str">
@@ -20739,7 +20741,7 @@
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F63" s="24" t="str">
@@ -20759,7 +20761,7 @@
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F64" s="24" t="str">
@@ -20779,7 +20781,7 @@
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F65" s="24" t="str">
@@ -20799,7 +20801,7 @@
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F66" s="24" t="str">
@@ -20819,7 +20821,7 @@
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F67" s="24" t="str">
@@ -20839,7 +20841,7 @@
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F68" s="24" t="str">
@@ -20859,7 +20861,7 @@
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="26" t="str">
-        <f t="shared" ref="E69:E103" si="5">IF(I69,G69-F69,TRIM(""))</f>
+        <f t="shared" ref="E69:E103" si="4">IF(I69,G69-F69,TRIM(""))</f>
         <v/>
       </c>
       <c r="F69" s="24" t="str">
@@ -20879,7 +20881,7 @@
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F70" s="24" t="str">
@@ -20899,7 +20901,7 @@
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F71" s="24" t="str">
@@ -20919,7 +20921,7 @@
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F72" s="24" t="str">
@@ -20939,7 +20941,7 @@
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F73" s="24" t="str">
@@ -20959,7 +20961,7 @@
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F74" s="24" t="str">
@@ -20979,7 +20981,7 @@
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F75" s="24" t="str">
@@ -20999,7 +21001,7 @@
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F76" s="24" t="str">
@@ -21017,7 +21019,7 @@
       <c r="B77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F77" s="24" t="str">
@@ -21034,7 +21036,7 @@
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F78" s="24" t="str">
@@ -21053,7 +21055,7 @@
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F79" s="24" t="str">
@@ -21071,7 +21073,7 @@
       <c r="B80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F80" s="24" t="str">
@@ -21088,7 +21090,7 @@
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F81" s="24" t="str">
@@ -21107,7 +21109,7 @@
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F82" s="24" t="str">
@@ -21126,7 +21128,7 @@
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F83" s="24" t="str">
@@ -21145,7 +21147,7 @@
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F84" s="24" t="str">
@@ -21164,7 +21166,7 @@
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F85" s="24" t="str">
@@ -21183,7 +21185,7 @@
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F86" s="24" t="str">
@@ -21202,7 +21204,7 @@
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F87" s="24" t="str">
@@ -21221,7 +21223,7 @@
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F88" s="24" t="str">
@@ -21240,7 +21242,7 @@
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F89" s="24" t="str">
@@ -21259,7 +21261,7 @@
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F90" s="24" t="str">
@@ -21278,7 +21280,7 @@
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F91" s="24" t="str">
@@ -21297,7 +21299,7 @@
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F92" s="24" t="str">
@@ -21316,7 +21318,7 @@
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F93" s="24" t="str">
@@ -21335,7 +21337,7 @@
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F94" s="24" t="str">
@@ -21354,7 +21356,7 @@
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F95" s="24" t="str">
@@ -21373,7 +21375,7 @@
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F96" s="24" t="str">
@@ -21389,7 +21391,7 @@
     </row>
     <row r="97" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E97" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F97" s="24" t="str">
@@ -21403,7 +21405,7 @@
     </row>
     <row r="98" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E98" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F98" s="24" t="str">
@@ -21445,7 +21447,7 @@
     </row>
     <row r="101" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E101" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F101" s="24" t="str">
@@ -21459,7 +21461,7 @@
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E102" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F102" s="24" t="str">
@@ -21473,7 +21475,7 @@
     </row>
     <row r="103" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E103" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F103" s="24" t="str">
@@ -26019,8 +26021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26041,7 +26043,7 @@
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>COUNT(A$4:A$64994)</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B1">
         <f>COUNT(B$4:B$64994)</f>
@@ -26061,7 +26063,7 @@
       </c>
       <c r="H1">
         <f>COUNT(H$10:H$64994)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J1">
         <f t="shared" ref="J1:P1" si="0">COUNT(J$4:J$65000)</f>
@@ -26069,7 +26071,7 @@
       </c>
       <c r="K1">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L1">
         <f>COUNT(L$4:L$65000)</f>
@@ -26081,7 +26083,7 @@
       </c>
       <c r="N1">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O1">
         <f t="shared" si="0"/>
@@ -26093,17 +26095,17 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="M2" s="83" t="s">
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="M2" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -26293,7 +26295,7 @@
       </c>
       <c r="X5">
         <f ca="1">AVERAGEIF(I4:I49994,"=1",H10:H49994)</f>
-        <v>12.720784313725494</v>
+        <v>12.825185185185191</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -26553,7 +26555,7 @@
       </c>
       <c r="X9">
         <f ca="1">SUMIF(I4:I49994,"=1",H10:H49994)</f>
-        <v>648.76000000000022</v>
+        <v>692.56000000000029</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -29137,7 +29139,7 @@
       <c r="H54" s="60">
         <v>12.27</v>
       </c>
-      <c r="I54" s="87">
+      <c r="I54" s="82">
         <f>IF(IF(GroteHoogte!D54&gt;0,1,0)+IF(GroteHoogte!H54&gt;0,1,0)=2,1,0)</f>
         <v>1</v>
       </c>
@@ -29153,7 +29155,7 @@
       <c r="M54" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="N54" s="88">
+      <c r="N54" s="83">
         <v>42577</v>
       </c>
       <c r="O54" s="70" t="s">
@@ -29170,7 +29172,7 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="94">
+      <c r="A55" s="88">
         <v>9694</v>
       </c>
       <c r="B55" s="28" t="s">
@@ -29226,7 +29228,7 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="94">
+      <c r="A56" s="88">
         <v>9694</v>
       </c>
       <c r="B56" s="28" t="s">
@@ -29282,7 +29284,7 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="94">
+      <c r="A57" s="88">
         <v>9694</v>
       </c>
       <c r="B57" s="28" t="s">
@@ -29341,6 +29343,9 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="88">
+        <v>9699</v>
+      </c>
       <c r="B58" s="28" t="s">
         <v>49</v>
       </c>
@@ -29394,6 +29399,9 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="88">
+        <v>9699</v>
+      </c>
       <c r="B59" s="28" t="s">
         <v>41</v>
       </c>
@@ -29446,6 +29454,9 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="88">
+        <v>9699</v>
+      </c>
       <c r="B60" s="28" t="s">
         <v>22</v>
       </c>
@@ -29498,6 +29509,9 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="88">
+        <v>9699</v>
+      </c>
       <c r="B61" s="28" t="s">
         <v>49</v>
       </c>
@@ -29509,17 +29523,31 @@
         <v/>
       </c>
       <c r="G61" s="24"/>
-      <c r="H61" s="12"/>
+      <c r="H61" s="12">
+        <v>14.6</v>
+      </c>
       <c r="I61" s="2">
         <f>IF(IF(GroteHoogte!D61&gt;0,1,0)+IF(GroteHoogte!H61&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="29"/>
+      <c r="J61" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="29">
+        <v>729</v>
+      </c>
+      <c r="L61" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M61" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N61" s="32">
+        <v>42577</v>
+      </c>
+      <c r="O61" s="29" t="s">
+        <v>19</v>
+      </c>
       <c r="P61" s="29"/>
       <c r="Q61">
         <f t="shared" si="6"/>
@@ -29527,6 +29555,9 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="88">
+        <v>9699</v>
+      </c>
       <c r="B62" s="28" t="s">
         <v>41</v>
       </c>
@@ -29538,17 +29569,31 @@
         <v/>
       </c>
       <c r="G62" s="24"/>
-      <c r="H62" s="12"/>
+      <c r="H62" s="12">
+        <v>14.6</v>
+      </c>
       <c r="I62" s="2">
         <f>IF(IF(GroteHoogte!D62&gt;0,1,0)+IF(GroteHoogte!H62&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="29"/>
+      <c r="J62" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="29">
+        <v>729</v>
+      </c>
+      <c r="L62" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M62" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N62" s="32">
+        <v>42577</v>
+      </c>
+      <c r="O62" s="29" t="s">
+        <v>19</v>
+      </c>
       <c r="P62" s="29"/>
       <c r="Q62">
         <f t="shared" si="6"/>
@@ -29556,13 +29601,15 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="89"/>
+      <c r="A63" s="88">
+        <v>9699</v>
+      </c>
       <c r="B63" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
       <c r="F63" s="26" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -29571,24 +29618,38 @@
         <f>D63*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
         <v>6.3632954111653559</v>
       </c>
-      <c r="H63" s="91"/>
+      <c r="H63" s="86">
+        <v>14.6</v>
+      </c>
       <c r="I63" s="2">
         <f>IF(IF(GroteHoogte!D63&gt;0,1,0)+IF(GroteHoogte!H63&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J63" s="92"/>
-      <c r="K63" s="92"/>
-      <c r="L63" s="92"/>
-      <c r="M63" s="92"/>
-      <c r="N63" s="93"/>
-      <c r="O63" s="92"/>
-      <c r="P63" s="92"/>
-      <c r="Q63" s="89">
+      <c r="J63" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="29">
+        <v>729</v>
+      </c>
+      <c r="L63" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M63" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N63" s="32">
+        <v>42577</v>
+      </c>
+      <c r="O63" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="P63" s="87"/>
+      <c r="Q63" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R63" s="89"/>
-      <c r="S63" s="89"/>
+      <c r="R63" s="84"/>
+      <c r="S63" s="84"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="69"/>
@@ -29605,10 +29666,26 @@
         <f>IF(IF(GroteHoogte!D64&gt;0,1,0)+IF(GroteHoogte!H64&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L64" s="29"/>
-      <c r="N64" s="14"/>
-    </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J64" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="29">
+        <v>729</v>
+      </c>
+      <c r="L64" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M64" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N64" s="32">
+        <v>42577</v>
+      </c>
+      <c r="O64" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -29625,9 +29702,26 @@
         <f>IF(IF(GroteHoogte!D65&gt;0,1,0)+IF(GroteHoogte!H65&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N65" s="14"/>
-    </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J65" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="29">
+        <v>729</v>
+      </c>
+      <c r="L65" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N65" s="32">
+        <v>42577</v>
+      </c>
+      <c r="O65" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
@@ -29641,9 +29735,26 @@
         <f>IF(IF(GroteHoogte!D66&gt;0,1,0)+IF(GroteHoogte!H66&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N66" s="14"/>
-    </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J66" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="29">
+        <v>729</v>
+      </c>
+      <c r="L66" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M66" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N66" s="32">
+        <v>42577</v>
+      </c>
+      <c r="O66" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
@@ -29660,9 +29771,26 @@
         <f>IF(IF(GroteHoogte!D67&gt;0,1,0)+IF(GroteHoogte!H67&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N67" s="14"/>
-    </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J67" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="29">
+        <v>729</v>
+      </c>
+      <c r="L67" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M67" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N67" s="32">
+        <v>42577</v>
+      </c>
+      <c r="O67" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
@@ -29681,7 +29809,7 @@
       </c>
       <c r="N68" s="14"/>
     </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
@@ -29700,7 +29828,7 @@
       </c>
       <c r="N69" s="14"/>
     </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
@@ -29719,7 +29847,7 @@
       </c>
       <c r="N70" s="14"/>
     </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="26" t="str">
@@ -29736,7 +29864,7 @@
       </c>
       <c r="N71" s="14"/>
     </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
@@ -29755,7 +29883,7 @@
       </c>
       <c r="N72" s="14"/>
     </row>
-    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -29774,11 +29902,11 @@
       </c>
       <c r="N73" s="14"/>
     </row>
-    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="26" t="str">
-        <f t="shared" ref="F74:F105" si="7">IF(I74,H74-G74,TRIM(""))</f>
+        <f t="shared" ref="F74:F97" si="7">IF(I74,H74-G74,TRIM(""))</f>
         <v/>
       </c>
       <c r="G74" s="24" t="str">
@@ -29791,7 +29919,7 @@
       </c>
       <c r="N74" s="14"/>
     </row>
-    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
@@ -29810,7 +29938,7 @@
       </c>
       <c r="N75" s="14"/>
     </row>
-    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
@@ -29828,7 +29956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
@@ -29846,7 +29974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
@@ -29864,7 +29992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -29882,7 +30010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -41153,20 +41281,20 @@
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -41948,15 +42076,15 @@
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G4" s="8" t="s">
@@ -42233,18 +42361,18 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="N2" s="83" t="s">
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="N2" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -51045,14 +51173,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86" t="s">
+      <c r="D1" s="93"/>
+      <c r="E1" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="86"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="64" t="s">
         <v>138</v>
       </c>
@@ -51498,7 +51626,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G5:G27"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51516,6 +51644,14 @@
         <v>144</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
@@ -51532,6 +51668,14 @@
       <c r="E4" s="65" t="s">
         <v>138</v>
       </c>
+      <c r="G4" s="17">
+        <f>AVERAGE(G5:G33)</f>
+        <v>-0.63333333333333364</v>
+      </c>
+      <c r="H4" s="17">
+        <f>AVERAGE(H5:H33)</f>
+        <v>-1.9047619047616951E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -52066,6 +52210,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2016Robbertmetingen.xlsx
+++ b/2016Robbertmetingen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Kalibratiemetingen" sheetId="1" r:id="rId1"/>
@@ -26021,8 +26021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52218,8 +52218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2016Robbertmetingen.xlsx
+++ b/2016Robbertmetingen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Kalibratiemetingen" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,10 @@
     <sheet name="Gehakas" sheetId="12" r:id="rId7"/>
     <sheet name="Gehakas_nieuw" sheetId="14" r:id="rId8"/>
     <sheet name="SanAgustin22juli" sheetId="16" r:id="rId9"/>
-    <sheet name="Augostometer" sheetId="9" r:id="rId10"/>
-    <sheet name="GroteHoogte" sheetId="18" r:id="rId11"/>
+    <sheet name="OudeMeter" sheetId="19" r:id="rId10"/>
+    <sheet name="PergaBooster" sheetId="20" r:id="rId11"/>
+    <sheet name="Augostometer" sheetId="9" r:id="rId12"/>
+    <sheet name="GroteHoogte" sheetId="18" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Grafiek_kalibratiemetingen!$T$2:$U$236</definedName>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="197">
   <si>
     <t>Sample nummer</t>
   </si>
@@ -555,6 +557,75 @@
   <si>
     <t>gemidd</t>
   </si>
+  <si>
+    <t xml:space="preserve">Oude meter gevonden met calibratiecoefficienten! Geeft wel battery voltage 0,0V </t>
+  </si>
+  <si>
+    <t>Oude meter</t>
+  </si>
+  <si>
+    <t>Sample nr</t>
+  </si>
+  <si>
+    <t>Oude meter cycli</t>
+  </si>
+  <si>
+    <t>Oude meter temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gehaka </t>
+  </si>
+  <si>
+    <t>Gehaka temp</t>
+  </si>
+  <si>
+    <t>warm, recht uit de zon</t>
+  </si>
+  <si>
+    <t>PergaBooster</t>
+  </si>
+  <si>
+    <t>Cycli</t>
+  </si>
+  <si>
+    <t>Pergamino</t>
+  </si>
+  <si>
+    <t>Gehaka</t>
+  </si>
+  <si>
+    <t>Temp nog niet gekalibreerd</t>
+  </si>
+  <si>
+    <t>Oro</t>
+  </si>
+  <si>
+    <t>Gebruikte humsen</t>
+  </si>
+  <si>
+    <t>temp gekalibreerd, na afkoelen</t>
+  </si>
+  <si>
+    <t>oude JT</t>
+  </si>
+  <si>
+    <t>Humsen leeg/hum</t>
+  </si>
+  <si>
+    <t>superwarm</t>
+  </si>
+  <si>
+    <t>humsen leeg/hum</t>
+  </si>
+  <si>
+    <t>Na gebruik van pilador is de café oro zeer warm.</t>
+  </si>
+  <si>
+    <t>na afkoelen</t>
+  </si>
+  <si>
+    <t>achtereenvolgende metingen, lijkt zich te stabiliseren</t>
+  </si>
 </sst>
 </file>
 
@@ -787,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -912,6 +983,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -18665,6 +18740,588 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10225</v>
+      </c>
+      <c r="B4">
+        <v>12.6</v>
+      </c>
+      <c r="C4">
+        <v>4334</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>30.6</v>
+      </c>
+      <c r="H4">
+        <f>E4-B4</f>
+        <v>1.4000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10225</v>
+      </c>
+      <c r="B5">
+        <v>12.7</v>
+      </c>
+      <c r="C5">
+        <v>4370</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>30.6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H11" si="0">E5-B5</f>
+        <v>1.3000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10227</v>
+      </c>
+      <c r="B6">
+        <v>13.3</v>
+      </c>
+      <c r="C6">
+        <v>4668</v>
+      </c>
+      <c r="D6">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>13.7</v>
+      </c>
+      <c r="F6">
+        <v>31.1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10228</v>
+      </c>
+      <c r="B7">
+        <v>13.3</v>
+      </c>
+      <c r="C7">
+        <v>4662</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>13.8</v>
+      </c>
+      <c r="F7">
+        <v>31.2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10226</v>
+      </c>
+      <c r="B8">
+        <v>12.8</v>
+      </c>
+      <c r="C8">
+        <v>4421</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>12.9</v>
+      </c>
+      <c r="F8">
+        <v>30.7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10238</v>
+      </c>
+      <c r="B9">
+        <v>12.7</v>
+      </c>
+      <c r="C9">
+        <v>4379</v>
+      </c>
+      <c r="D9">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>31.6</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10239</v>
+      </c>
+      <c r="B10">
+        <v>12.4</v>
+      </c>
+      <c r="C10">
+        <v>4231</v>
+      </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>12.8</v>
+      </c>
+      <c r="F10">
+        <v>31.7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.40000000000000036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>454</v>
+      </c>
+      <c r="B11">
+        <v>11.8</v>
+      </c>
+      <c r="C11">
+        <v>3952</v>
+      </c>
+      <c r="D11">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>12.1</v>
+      </c>
+      <c r="F11">
+        <v>30.6</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999893</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C1" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="R1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3">
+        <v>18669</v>
+      </c>
+      <c r="D3">
+        <v>850</v>
+      </c>
+      <c r="E3">
+        <v>6552</v>
+      </c>
+      <c r="M3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4">
+        <v>18688</v>
+      </c>
+      <c r="D4">
+        <v>837</v>
+      </c>
+      <c r="E4">
+        <v>6552</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="M4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="17">
+        <v>18661</v>
+      </c>
+      <c r="D5">
+        <v>860</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>22.8</v>
+      </c>
+      <c r="G5">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6">
+        <v>26.6</v>
+      </c>
+      <c r="I6">
+        <v>10830</v>
+      </c>
+      <c r="J6">
+        <v>29</v>
+      </c>
+      <c r="K6">
+        <v>27.2</v>
+      </c>
+      <c r="L6">
+        <v>35.6</v>
+      </c>
+      <c r="M6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7">
+        <v>23.8</v>
+      </c>
+      <c r="I7">
+        <v>9550</v>
+      </c>
+      <c r="J7">
+        <v>31</v>
+      </c>
+      <c r="K7">
+        <v>28</v>
+      </c>
+      <c r="L7">
+        <v>31.7</v>
+      </c>
+      <c r="M7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8">
+        <v>21.5</v>
+      </c>
+      <c r="I8">
+        <v>8481</v>
+      </c>
+      <c r="J8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9">
+        <v>20.7</v>
+      </c>
+      <c r="I9">
+        <v>8077</v>
+      </c>
+      <c r="J9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>7760</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11">
+        <v>19.7</v>
+      </c>
+      <c r="I11">
+        <v>7646</v>
+      </c>
+      <c r="J11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12">
+        <v>20.6</v>
+      </c>
+      <c r="I12">
+        <v>8062</v>
+      </c>
+      <c r="J12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13">
+        <v>20.6</v>
+      </c>
+      <c r="I13">
+        <v>8042</v>
+      </c>
+      <c r="J13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14">
+        <v>20.2</v>
+      </c>
+      <c r="I14">
+        <v>7852</v>
+      </c>
+      <c r="J14">
+        <v>31</v>
+      </c>
+      <c r="K14" s="17">
+        <v>27.3</v>
+      </c>
+      <c r="L14">
+        <v>31.3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y573"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -26017,7 +26674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X567"/>
   <sheetViews>
@@ -52218,7 +52875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/2016Robbertmetingen.xlsx
+++ b/2016Robbertmetingen.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="202">
   <si>
     <t>Sample nummer</t>
   </si>
@@ -558,9 +558,6 @@
     <t>gemidd</t>
   </si>
   <si>
-    <t xml:space="preserve">Oude meter gevonden met calibratiecoefficienten! Geeft wel battery voltage 0,0V </t>
-  </si>
-  <si>
     <t>Oude meter</t>
   </si>
   <si>
@@ -625,6 +622,24 @@
   </si>
   <si>
     <t>achtereenvolgende metingen, lijkt zich te stabiliseren</t>
+  </si>
+  <si>
+    <t>warm van pilador</t>
+  </si>
+  <si>
+    <t>warm uit zon</t>
+  </si>
+  <si>
+    <t>kalibratiewaarden</t>
+  </si>
+  <si>
+    <t>warm na pilador, eigenlijk te hoog om correct te kunnen meten</t>
+  </si>
+  <si>
+    <t>Oude meter gevonden met calibratiecoefficienten! Geeft wel battery voltage 0,0V. Heb gemarkeerd met JT.</t>
+  </si>
+  <si>
+    <t>nagemeten, gaf opnieuw 14,3 en 18,2. Vreemd</t>
   </si>
 </sst>
 </file>
@@ -970,6 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -985,7 +1001,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7273,18 +7288,18 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="N2" s="90" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="N2" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:21" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -18740,10 +18755,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18755,39 +18770,39 @@
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>179</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>180</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10225</v>
       </c>
@@ -18811,7 +18826,7 @@
         <v>1.4000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10225</v>
       </c>
@@ -18831,11 +18846,11 @@
         <v>30.6</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H11" si="0">E5-B5</f>
+        <f t="shared" ref="H5:H16" si="0">E5-B5</f>
         <v>1.3000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10227</v>
       </c>
@@ -18859,7 +18874,7 @@
         <v>0.39999999999999858</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10228</v>
       </c>
@@ -18883,7 +18898,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10226</v>
       </c>
@@ -18907,7 +18922,7 @@
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10238</v>
       </c>
@@ -18931,7 +18946,7 @@
         <v>0.30000000000000071</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10239</v>
       </c>
@@ -18955,7 +18970,7 @@
         <v>0.40000000000000036</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>454</v>
       </c>
@@ -18977,6 +18992,129 @@
       <c r="H11">
         <f t="shared" si="0"/>
         <v>0.29999999999999893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10325</v>
+      </c>
+      <c r="B12">
+        <v>13.1</v>
+      </c>
+      <c r="C12">
+        <v>4556</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>13.4</v>
+      </c>
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10322</v>
+      </c>
+      <c r="B13">
+        <v>13.2</v>
+      </c>
+      <c r="C13">
+        <v>4593</v>
+      </c>
+      <c r="D13">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>12.8</v>
+      </c>
+      <c r="C14">
+        <v>4423</v>
+      </c>
+      <c r="D14">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>12.6</v>
+      </c>
+      <c r="F14">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10319</v>
+      </c>
+      <c r="B15">
+        <v>9.6</v>
+      </c>
+      <c r="C15">
+        <v>2939</v>
+      </c>
+      <c r="D15">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>10.8</v>
+      </c>
+      <c r="F15">
+        <v>321</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10321</v>
+      </c>
+      <c r="B16">
+        <v>14.3</v>
+      </c>
+      <c r="C16">
+        <v>5099</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>18.2</v>
+      </c>
+      <c r="F16">
+        <v>31.9</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>3.8999999999999986</v>
+      </c>
+      <c r="J16" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -18987,10 +19125,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19002,69 +19140,69 @@
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C1" s="95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" s="95"/>
       <c r="E1" s="95"/>
       <c r="F1" s="95"/>
       <c r="G1" s="95"/>
       <c r="H1" s="95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I1" s="95"/>
       <c r="J1" s="95"/>
       <c r="K1" s="95"/>
       <c r="L1" s="95"/>
       <c r="R1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>130</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>130</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>130</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3">
         <v>18669</v>
@@ -19076,15 +19214,15 @@
         <v>6552</v>
       </c>
       <c r="M3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4">
         <v>18688</v>
@@ -19102,20 +19240,20 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="17">
+        <v>181</v>
+      </c>
+      <c r="C5" s="18">
         <v>18661</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="17">
         <v>860</v>
       </c>
       <c r="E5">
@@ -19128,15 +19266,15 @@
         <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H6">
         <v>26.6</v>
@@ -19154,15 +19292,24 @@
         <v>35.6</v>
       </c>
       <c r="M6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="U6" t="s">
+        <v>198</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H7">
         <v>23.8</v>
@@ -19180,15 +19327,21 @@
         <v>31.7</v>
       </c>
       <c r="M7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="W7">
+        <v>860</v>
+      </c>
+      <c r="X7">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H8">
         <v>21.5</v>
@@ -19199,13 +19352,19 @@
       <c r="J8">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <v>623</v>
+      </c>
+      <c r="X8">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H9">
         <v>20.7</v>
@@ -19217,12 +19376,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H10">
         <v>20</v>
@@ -19234,12 +19393,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H11">
         <v>19.7</v>
@@ -19251,12 +19410,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H12">
         <v>20.6</v>
@@ -19268,12 +19427,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H13">
         <v>20.6</v>
@@ -19285,12 +19444,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H14">
         <v>20.2</v>
@@ -19308,7 +19467,153 @@
         <v>31.3</v>
       </c>
       <c r="M14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15">
+        <v>18557</v>
+      </c>
+      <c r="D15">
+        <v>626</v>
+      </c>
+      <c r="E15">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>14.9</v>
+      </c>
+      <c r="G15">
+        <v>34</v>
+      </c>
+      <c r="M15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="18">
+        <v>18446</v>
+      </c>
+      <c r="D16" s="17">
+        <v>623</v>
+      </c>
+      <c r="E16">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>13.7</v>
+      </c>
+      <c r="G16">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="K17" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="L17">
+        <v>35</v>
+      </c>
+      <c r="M17" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="K18" s="17">
+        <v>13.1</v>
+      </c>
+      <c r="L18">
+        <v>32.5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19">
+        <v>18494</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1279</v>
+      </c>
+      <c r="E19">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>18463</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1458</v>
+      </c>
+      <c r="E20">
+        <v>31</v>
+      </c>
+      <c r="M20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>18474</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1416</v>
+      </c>
+      <c r="E21">
+        <v>31</v>
+      </c>
+      <c r="F21" s="18">
+        <v>29.7</v>
+      </c>
+      <c r="G21">
+        <v>32.5</v>
+      </c>
+      <c r="K21">
+        <v>41.2</v>
+      </c>
+      <c r="L21">
+        <v>35</v>
+      </c>
+      <c r="M21" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -19317,6 +19622,7 @@
     <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19401,18 +19707,18 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="N2" s="90" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="N2" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -26752,17 +27058,17 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="M2" s="90" t="s">
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="M2" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -41938,20 +42244,20 @@
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -42733,15 +43039,15 @@
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G4" s="8" t="s">
@@ -43018,18 +43324,18 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="N2" s="90" t="s">
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="N2" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -51830,14 +52136,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93" t="s">
+      <c r="D1" s="94"/>
+      <c r="E1" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="93"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="64" t="s">
         <v>138</v>
       </c>

--- a/2016Robbertmetingen.xlsx
+++ b/2016Robbertmetingen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Kalibratiemetingen" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="SanAgustin22juli" sheetId="16" r:id="rId9"/>
     <sheet name="OudeMeter" sheetId="19" r:id="rId10"/>
     <sheet name="PergaBooster" sheetId="20" r:id="rId11"/>
-    <sheet name="Augostometer" sheetId="9" r:id="rId12"/>
-    <sheet name="GroteHoogte" sheetId="18" r:id="rId13"/>
+    <sheet name="LeegHoogtes" sheetId="21" r:id="rId12"/>
+    <sheet name="Augostometer" sheetId="9" r:id="rId13"/>
+    <sheet name="GroteHoogte" sheetId="18" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Grafiek_kalibratiemetingen!$T$2:$U$236</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="219">
   <si>
     <t>Sample nummer</t>
   </si>
@@ -641,6 +642,57 @@
   <si>
     <t>nagemeten, gaf opnieuw 14,3 en 18,2. Vreemd</t>
   </si>
+  <si>
+    <t>supernat en recht uit pilador</t>
+  </si>
+  <si>
+    <t>na afkoelen niet meer meetbaar, humedad muy alta</t>
+  </si>
+  <si>
+    <t>In de superwarme bus</t>
+  </si>
+  <si>
+    <t>In iets frissere bus onderweg</t>
+  </si>
+  <si>
+    <t>In nog frissere bus onderweg</t>
+  </si>
+  <si>
+    <t>Cajamarca hostel ochtend koud</t>
+  </si>
+  <si>
+    <t>cv fris in hostel cajamarca</t>
+  </si>
+  <si>
+    <t>cumbemayo</t>
+  </si>
+  <si>
+    <t>cumbemayo vrij warm 3600m</t>
+  </si>
+  <si>
+    <t>koud in slaapkamer en in vochtige zak gezeten</t>
+  </si>
+  <si>
+    <t>Jaén warme bureau met ventilator (batterij mss verplaatst)</t>
+  </si>
+  <si>
+    <t>Gebruikte meter: 3,0-4</t>
+  </si>
+  <si>
+    <t>Jaén opnieuw met ventilator dag erna</t>
+  </si>
+  <si>
+    <t>29,3 temp</t>
+  </si>
+  <si>
+    <t>batterij verplaatst, vergelijk enkel binnen dit blok</t>
+  </si>
+  <si>
+    <t>Gehaka augosto</t>
+  </si>
+  <si>
+    <t>s avonds</t>
+  </si>
 </sst>
 </file>
 
@@ -873,7 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -986,6 +1038,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1009,7 +1064,119 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="68">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1019,6 +1186,20 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2528,6 +2709,9 @@
                       <c:pt idx="113">
                         <c:v>15.8</c:v>
                       </c:pt>
+                      <c:pt idx="114">
+                        <c:v>11.7</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:xVal>
@@ -2881,6 +3065,9 @@
                       </c:pt>
                       <c:pt idx="113">
                         <c:v>5505</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>3933</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3540,6 +3727,9 @@
                 <c:pt idx="103">
                   <c:v>15.8</c:v>
                 </c:pt>
+                <c:pt idx="104">
+                  <c:v>11.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3857,6 +4047,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>5505</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7203,8 +7396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U573"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q118" sqref="Q118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7232,27 +7425,27 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>COUNT(A$4:A$65000)</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1">
         <f>COUNT(B$4:B$65000)</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1">
         <f>COUNT(C$4:C$65000)</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D1">
         <f>COUNT(D$4:D$65000)</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G1">
         <f>COUNT(G$4:G$65000)</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H1">
         <f>COUNT(H$4:H$65000)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J1">
         <f t="shared" ref="J1:Q1" si="0">COUNT(J$4:J$65000)</f>
@@ -7264,7 +7457,7 @@
       </c>
       <c r="L1">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M1">
         <f t="shared" si="0"/>
@@ -7276,7 +7469,7 @@
       </c>
       <c r="O1">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P1">
         <f t="shared" si="0"/>
@@ -7288,18 +7481,18 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="N2" s="91" t="s">
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="N2" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:21" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -7375,11 +7568,11 @@
       </c>
       <c r="E4" s="26">
         <f>IF(I4,G4-F4,TRIM(""))</f>
-        <v>2.4932182440782462</v>
+        <v>2.4921132822015544</v>
       </c>
       <c r="F4" s="24">
         <f>IF(Kalibratiemetingen!C4&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C4+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>15.306781755921754</v>
+        <v>15.307886717798446</v>
       </c>
       <c r="G4" s="2">
         <v>17.8</v>
@@ -7424,7 +7617,7 @@
       </c>
       <c r="U4" s="48">
         <f>COUNTIF(I4:I50003,"=1")</f>
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -7442,11 +7635,11 @@
       </c>
       <c r="E5" s="26">
         <f t="shared" ref="E5:E68" si="1">IF(I5,G5-F5,TRIM(""))</f>
-        <v>0.20410249245238354</v>
+        <v>0.20438443425456931</v>
       </c>
       <c r="F5" s="24">
         <f>IF(Kalibratiemetingen!C5&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C5+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.395897507547616</v>
+        <v>14.39561556574543</v>
       </c>
       <c r="G5" s="2">
         <v>14.6</v>
@@ -7491,7 +7684,7 @@
       </c>
       <c r="U5" s="50">
         <f>-SUM(R4:R50003)</f>
-        <v>-6690606.5000000019</v>
+        <v>-6736622.6000000015</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -7509,11 +7702,11 @@
       </c>
       <c r="E6" s="26">
         <f t="shared" si="1"/>
-        <v>0.81226451871190974</v>
+        <v>0.81484277364751634</v>
       </c>
       <c r="F6" s="24">
         <f>IF(Kalibratiemetingen!C6&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C6+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.88773548128809</v>
+        <v>12.885157226352483</v>
       </c>
       <c r="G6" s="2">
         <v>13.7</v>
@@ -7558,7 +7751,7 @@
       </c>
       <c r="U6" s="51">
         <f>AVERAGEIF(I4:I50003,"=1",G4:G50003)</f>
-        <v>12.979816513761453</v>
+        <v>12.968181818181804</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -7576,11 +7769,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" si="1"/>
-        <v>0.32250039800712571</v>
+        <v>0.3269213465630294</v>
       </c>
       <c r="F7" s="24">
         <f>IF(Kalibratiemetingen!C7&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C7+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.677499601992874</v>
+        <v>11.673078653436971</v>
       </c>
       <c r="G7" s="2">
         <v>12</v>
@@ -7625,7 +7818,7 @@
       </c>
       <c r="U7" s="51">
         <f>AVERAGEIF(I4:I50003,"=1",C4:C50003)</f>
-        <v>4641.5963302752298</v>
+        <v>4635.1545454545458</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -7643,11 +7836,11 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>0.22976120367419206</v>
+        <v>0.23008221318564104</v>
       </c>
       <c r="F8" s="24">
         <f>IF(Kalibratiemetingen!C8&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C8+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.370238796325808</v>
+        <v>14.369917786814359</v>
       </c>
       <c r="G8" s="2">
         <v>14.6</v>
@@ -7692,7 +7885,7 @@
       </c>
       <c r="U8" s="51">
         <f>SUMIF(I4:I50003,"=1",C4:C50003)/U4</f>
-        <v>4641.5963302752298</v>
+        <v>4635.1545454545458</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -7708,11 +7901,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>1.3149453722549858</v>
+        <v>1.314634787133329</v>
       </c>
       <c r="F9" s="24">
         <f>IF(Kalibratiemetingen!C9&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C9+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.785054627745016</v>
+        <v>14.785365212866672</v>
       </c>
       <c r="G9" s="2">
         <v>16.100000000000001</v>
@@ -7757,7 +7950,7 @@
       </c>
       <c r="U9" s="51">
         <f>SUMIF(I4:I50003,"=1",C4:C50003)</f>
-        <v>505934</v>
+        <v>509867</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -7773,11 +7966,11 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>0.29382060450132386</v>
+        <v>0.29530496357753222</v>
       </c>
       <c r="F10" s="24">
         <f>IF(Kalibratiemetingen!C10&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C10+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.606179395498676</v>
+        <v>13.604695036422468</v>
       </c>
       <c r="G10" s="2">
         <v>13.9</v>
@@ -7822,7 +8015,7 @@
       </c>
       <c r="U10" s="51">
         <f>SUMIF(I4:I50003,"=1",G4:G50003)</f>
-        <v>1414.7999999999984</v>
+        <v>1426.4999999999984</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -7840,11 +8033,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>2.7425218956349084E-2</v>
+        <v>3.1396888855713456E-2</v>
       </c>
       <c r="F11" s="24">
         <f>IF(Kalibratiemetingen!C11&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C11+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.972574781043651</v>
+        <v>11.968603111144287</v>
       </c>
       <c r="G11" s="2">
         <v>12</v>
@@ -7889,7 +8082,7 @@
       </c>
       <c r="U11" s="51">
         <f>SUMIF(I4:I50003,"=1",S4:S500003)</f>
-        <v>2435102116</v>
+        <v>2450570605</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -7907,11 +8100,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>0.53097056460465097</v>
+        <v>0.53144567452486768</v>
       </c>
       <c r="F12" s="24">
         <f>IF(Kalibratiemetingen!C12&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C12+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.26902943539535</v>
+        <v>14.268554325475133</v>
       </c>
       <c r="G12" s="2">
         <v>14.8</v>
@@ -7969,11 +8162,11 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>-0.33097361461525487</v>
+        <v>-0.3301360431701994</v>
       </c>
       <c r="F13" s="24">
         <f>IF(Kalibratiemetingen!C13&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C13+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.030973614615254</v>
+        <v>14.030136043170199</v>
       </c>
       <c r="G13" s="2">
         <v>13.7</v>
@@ -8018,7 +8211,7 @@
       </c>
       <c r="U13" s="51">
         <f>U5+U6*U9</f>
-        <v>-123676.01192661561</v>
+        <v>-124574.64090909902</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -8036,11 +8229,11 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>-1.1540848581772192</v>
+        <v>-1.1520644033127727</v>
       </c>
       <c r="F14" s="24">
         <f>IF(Kalibratiemetingen!C14&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C14+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.254084858177219</v>
+        <v>13.252064403312772</v>
       </c>
       <c r="G14" s="2">
         <v>12.1</v>
@@ -8085,7 +8278,7 @@
       </c>
       <c r="U14" s="51">
         <f>-U11+(U9*U9)/U4</f>
-        <v>-86760718.238532066</v>
+        <v>-87258262.372727394</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -8103,11 +8296,11 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>0.31494537225498398</v>
+        <v>0.31463478713332726</v>
       </c>
       <c r="F15" s="24">
         <f>IF(Kalibratiemetingen!C15&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C15+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.785054627745016</v>
+        <v>14.785365212866672</v>
       </c>
       <c r="G15" s="5">
         <v>15.1</v>
@@ -8164,11 +8357,11 @@
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>-0.31499443092143231</v>
+        <v>-0.31032605354018905</v>
       </c>
       <c r="F16" s="24">
         <f>IF(Kalibratiemetingen!C16&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C16+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.514994430921432</v>
+        <v>11.510326053540188</v>
       </c>
       <c r="G16" s="5">
         <v>11.2</v>
@@ -8214,7 +8407,7 @@
       </c>
       <c r="U16" s="51">
         <f>U13/U14</f>
-        <v>1.4254839567670703E-3</v>
+        <v>1.4276543850595274E-3</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8232,11 +8425,11 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>-0.45611734264137027</v>
+        <v>-0.45166383766107998</v>
       </c>
       <c r="F17" s="24">
         <f>IF(Kalibratiemetingen!C17&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C17+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.65611734264137</v>
+        <v>11.651663837661079</v>
       </c>
       <c r="G17" s="5">
         <v>11.2</v>
@@ -8282,7 +8475,7 @@
       </c>
       <c r="U17" s="54">
         <f>U6-U16*U7</f>
-        <v>6.3632954111652049</v>
+        <v>6.3507831059350215</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -8300,11 +8493,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>1.8132577566160624</v>
+        <v>1.8161420419409069</v>
       </c>
       <c r="F18" s="24">
         <f>IF(Kalibratiemetingen!C18&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C18+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.686742243383938</v>
+        <v>12.683857958059093</v>
       </c>
       <c r="G18" s="9">
         <v>14.5</v>
@@ -8361,11 +8554,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>1.0418915414660201</v>
+        <v>1.0507575271648761</v>
       </c>
       <c r="F19" s="24">
         <f>IF(Kalibratiemetingen!C19&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C19+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>8.7581084585339806</v>
+        <v>8.7492424728351246</v>
       </c>
       <c r="G19" s="12">
         <v>9.8000000000000007</v>
@@ -8422,11 +8615,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>-0.41806152186127221</v>
+        <v>-0.41324555535614316</v>
       </c>
       <c r="F20" s="24">
         <f>IF(Kalibratiemetingen!C20&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C20+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.418061521861272</v>
+        <v>11.413245555356143</v>
       </c>
       <c r="G20" s="12">
         <v>11</v>
@@ -8483,11 +8676,11 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>-0.71706364387281241</v>
+        <v>-0.71696618847548521</v>
       </c>
       <c r="F21" s="24">
         <f>IF(Kalibratiemetingen!C21&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C21+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.517063643872813</v>
+        <v>14.516966188475486</v>
       </c>
       <c r="G21" s="12">
         <v>13.8</v>
@@ -8544,11 +8737,11 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>-0.73421546000986382</v>
+        <v>-0.73109893885772692</v>
       </c>
       <c r="F22" s="24">
         <f>IF(Kalibratiemetingen!C22&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C22+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.534215460009865</v>
+        <v>12.531098938857728</v>
       </c>
       <c r="G22" s="12">
         <v>11.8</v>
@@ -8605,11 +8798,11 @@
       </c>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
-        <v>2.1980774727127894E-2</v>
+        <v>2.7771263535571578E-2</v>
       </c>
       <c r="F23" s="24">
         <f>IF(Kalibratiemetingen!C23&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C23+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>10.778019225272873</v>
+        <v>10.772228736464429</v>
       </c>
       <c r="G23" s="12">
         <v>10.8</v>
@@ -8666,11 +8859,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>-0.42142747297049965</v>
+        <v>-0.42027084856645125</v>
       </c>
       <c r="F24" s="24">
         <f>IF(Kalibratiemetingen!C24&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C24+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.8214274729705</v>
+        <v>13.820270848566452</v>
       </c>
       <c r="G24" s="12">
         <v>13.4</v>
@@ -8727,11 +8920,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>0.55511177455800009</v>
+        <v>0.56171400354782186</v>
       </c>
       <c r="F25" s="24">
         <f>IF(Kalibratiemetingen!C25&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C25+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>10.244888225442001</v>
+        <v>10.238285996452179</v>
       </c>
       <c r="G25" s="12">
         <v>10.8</v>
@@ -8788,11 +8981,11 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>-0.32298634281049488</v>
+        <v>-0.3177210976488265</v>
       </c>
       <c r="F26" s="24">
         <f>IF(Kalibratiemetingen!C26&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C26+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.122986342810496</v>
+        <v>11.117721097648827</v>
       </c>
       <c r="G26" s="12">
         <v>10.8</v>
@@ -8849,11 +9042,11 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>5.191593781923487E-2</v>
+        <v>5.7752005621820146E-2</v>
       </c>
       <c r="F27" s="24">
         <f>IF(Kalibratiemetingen!C27&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C27+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>10.748084062180766</v>
+        <v>10.742247994378181</v>
       </c>
       <c r="G27" s="12">
         <v>10.8</v>
@@ -8910,11 +9103,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>-7.352201029195804E-2</v>
+        <v>-7.2901481676147739E-2</v>
       </c>
       <c r="F28" s="24">
         <f>IF(Kalibratiemetingen!C28&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C28+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.173522010291958</v>
+        <v>14.172901481676147</v>
       </c>
       <c r="G28" s="12">
         <v>14.1</v>
@@ -8974,11 +9167,11 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>-0.10717263340282912</v>
+        <v>-0.10599430471585691</v>
       </c>
       <c r="F29" s="24">
         <f>IF(Kalibratiemetingen!C29&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C29+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.807172633402828</v>
+        <v>13.805994304715856</v>
       </c>
       <c r="G29" s="12">
         <v>13.7</v>
@@ -9035,11 +9228,11 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>-0.2552942191076788</v>
+        <v>-0.25342786465199829</v>
       </c>
       <c r="F30" s="24">
         <f>IF(Kalibratiemetingen!C30&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C30+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.355294219107678</v>
+        <v>13.353427864651998</v>
       </c>
       <c r="G30" s="12">
         <v>13.1</v>
@@ -9150,11 +9343,11 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>-0.68687098918286082</v>
+        <v>-0.68490045416914214</v>
       </c>
       <c r="F32" s="24">
         <f>IF(Kalibratiemetingen!C32&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C32+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.28687098918286</v>
+        <v>13.284900454169142</v>
       </c>
       <c r="G32" s="12">
         <v>12.6</v>
@@ -9211,11 +9404,11 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>-0.27520962593087717</v>
+        <v>-0.27139422686856918</v>
       </c>
       <c r="F33" s="24">
         <f>IF(Kalibratiemetingen!C33&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C33+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.075209625930878</v>
+        <v>12.07139422686857</v>
       </c>
       <c r="G33" s="12">
         <v>11.8</v>
@@ -9272,11 +9465,11 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>-0.48764810406070502</v>
+        <v>-0.48613552941669447</v>
       </c>
       <c r="F34" s="24">
         <f>IF(Kalibratiemetingen!C34&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C34+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.587648104060705</v>
+        <v>13.586135529416694</v>
       </c>
       <c r="G34" s="12">
         <v>13.1</v>
@@ -9333,11 +9526,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>-0.9409520023126241</v>
+        <v>-0.94012962386561405</v>
       </c>
       <c r="F35" s="24">
         <f>IF(Kalibratiemetingen!C35&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C35+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.040952002312624</v>
+        <v>14.040129623865614</v>
       </c>
       <c r="G35" s="12">
         <v>13.1</v>
@@ -9394,11 +9587,11 @@
       </c>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
-        <v>-0.43032524553633245</v>
+        <v>-0.42994346403269112</v>
       </c>
       <c r="F36" s="24">
         <f>IF(Kalibratiemetingen!C36&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C36+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.330325245536333</v>
+        <v>14.329943464032691</v>
       </c>
       <c r="G36" s="12">
         <v>13.9</v>
@@ -9455,11 +9648,11 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>-0.51395518436143206</v>
+        <v>-0.51202588748527234</v>
       </c>
       <c r="F37" s="24">
         <f>IF(Kalibratiemetingen!C37&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C37+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.313955184361433</v>
+        <v>13.312025887485273</v>
       </c>
       <c r="G37" s="12">
         <v>12.8</v>
@@ -9516,11 +9709,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>-0.52125735860003708</v>
+        <v>-0.51720755328214452</v>
       </c>
       <c r="F38" s="24">
         <f>IF(Kalibratiemetingen!C38&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C38+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.921257358600037</v>
+        <v>11.917207553282145</v>
       </c>
       <c r="G38" s="12">
         <v>11.4</v>
@@ -9577,11 +9770,11 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>-9.8074782900550161E-3</v>
+        <v>-8.7854204401391911E-3</v>
       </c>
       <c r="F39" s="24">
         <f>IF(Kalibratiemetingen!C39&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C39+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.909807478290055</v>
+        <v>13.90878542044014</v>
       </c>
       <c r="G39" s="12">
         <v>13.9</v>
@@ -9638,11 +9831,11 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>-0.57356801894780496</v>
+        <v>-0.56990237943767674</v>
       </c>
       <c r="F40" s="24">
         <f>IF(Kalibratiemetingen!C40&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C40+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.173568018947805</v>
+        <v>12.169902379437676</v>
       </c>
       <c r="G40" s="12">
         <v>11.6</v>
@@ -9703,7 +9896,7 @@
       </c>
       <c r="F41" s="24">
         <f>IF(Kalibratiemetingen!C41&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C41+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.500693582697917</v>
+        <v>13.499048611928066</v>
       </c>
       <c r="I41" s="2">
         <f>IF(IF(Kalibratiemetingen!C41&gt;0,1,0)+IF(Kalibratiemetingen!G41&gt;0,1,0)=2,1,0)</f>
@@ -9757,11 +9950,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>-0.407260010630214</v>
+        <v>-0.40501600165164575</v>
       </c>
       <c r="F42" s="24">
         <f>IF(Kalibratiemetingen!C42&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C42+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.107260010630213</v>
+        <v>13.105016001651645</v>
       </c>
       <c r="G42" s="12">
         <v>12.7</v>
@@ -9822,7 +10015,7 @@
       </c>
       <c r="F43" s="24">
         <f>IF(Kalibratiemetingen!C43&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C43+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.504970034568217</v>
+        <v>13.503331575083244</v>
       </c>
       <c r="I43" s="2">
         <f>IF(IF(Kalibratiemetingen!C43&gt;0,1,0)+IF(Kalibratiemetingen!G43&gt;0,1,0)=2,1,0)</f>
@@ -9873,11 +10066,11 @@
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>-0.58851259616593588</v>
+        <v>-0.58639230160003741</v>
       </c>
       <c r="F44" s="24">
         <f>IF(Kalibratiemetingen!C44&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C44+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.188512596165936</v>
+        <v>13.186392301600037</v>
       </c>
       <c r="G44" s="12">
         <v>12.6</v>
@@ -9934,11 +10127,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>0.13066706435095732</v>
+        <v>0.13235978454324204</v>
       </c>
       <c r="F45" s="24">
         <f>IF(Kalibratiemetingen!C45&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C45+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.469332935649042</v>
+        <v>13.467640215456758</v>
       </c>
       <c r="G45" s="12">
         <v>13.6</v>
@@ -9995,11 +10188,11 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>-0.40626677272606138</v>
+        <v>-0.4037167333582552</v>
       </c>
       <c r="F46" s="24">
         <f>IF(Kalibratiemetingen!C46&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C46+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.906266772726061</v>
+        <v>12.903716733358255</v>
       </c>
       <c r="G46" s="12">
         <v>12.5</v>
@@ -10056,11 +10249,11 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>-0.21633253765081406</v>
+        <v>-0.21273201098945904</v>
       </c>
       <c r="F47" s="24">
         <f>IF(Kalibratiemetingen!C47&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C47+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.216332537650814</v>
+        <v>12.212732010989459</v>
       </c>
       <c r="G47" s="12">
         <v>12</v>
@@ -10117,11 +10310,11 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>-0.32553381047033803</v>
+        <v>-0.32149051643732385</v>
       </c>
       <c r="F48" s="24">
         <f>IF(Kalibratiemetingen!C48&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C48+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.925533810470338</v>
+        <v>11.921490516437323</v>
       </c>
       <c r="G48" s="12">
         <v>11.6</v>
@@ -10178,11 +10371,11 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>8.8422168927944966E-2</v>
+        <v>8.8680236018916503E-2</v>
       </c>
       <c r="F49" s="24">
         <f>IF(Kalibratiemetingen!C49&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C49+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.411577831072055</v>
+        <v>14.411319763981083</v>
       </c>
       <c r="G49" s="12">
         <v>14.5</v>
@@ -10239,11 +10432,11 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>-0.36833969774488828</v>
+        <v>-0.3663409471633674</v>
       </c>
       <c r="F50" s="24">
         <f>IF(Kalibratiemetingen!C50&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C50+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.268339697744889</v>
+        <v>13.266340947163368</v>
       </c>
       <c r="G50" s="12">
         <v>12.9</v>
@@ -10300,11 +10493,11 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>-0.74751843024492182</v>
+        <v>-0.74609701358919445</v>
       </c>
       <c r="F51" s="24">
         <f>IF(Kalibratiemetingen!C51&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C51+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.647518430244922</v>
+        <v>13.646097013589195</v>
       </c>
       <c r="G51" s="12">
         <v>12.9</v>
@@ -10361,11 +10554,11 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>-0.93369583672986423</v>
+        <v>-0.9319488558302691</v>
       </c>
       <c r="F52" s="24">
         <f>IF(Kalibratiemetingen!C52&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C52+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.433695836729864</v>
+        <v>13.431948855830269</v>
       </c>
       <c r="G52" s="12">
         <v>12.5</v>
@@ -10425,11 +10618,11 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>0.10587284523438178</v>
+        <v>0.10691877779551362</v>
       </c>
       <c r="F53" s="24">
         <f>IF(Kalibratiemetingen!C53&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C53+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.894127154765618</v>
+        <v>13.893081222204486</v>
       </c>
       <c r="G53" s="12">
         <v>14</v>
@@ -10486,11 +10679,11 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>-8.6783611955475237E-2</v>
+        <v>-8.5878757233354364E-2</v>
       </c>
       <c r="F54" s="24">
         <f>IF(Kalibratiemetingen!C54&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C54+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.986783611955476</v>
+        <v>13.985878757233355</v>
       </c>
       <c r="G54" s="12">
         <v>13.9</v>
@@ -10547,11 +10740,11 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>-0.59861972966222865</v>
+        <v>-0.59742837840549967</v>
       </c>
       <c r="F55" s="24">
         <f>IF(Kalibratiemetingen!C55&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C55+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.798619729662228</v>
+        <v>13.797428378405499</v>
       </c>
       <c r="G55" s="12">
         <v>13.2</v>
@@ -10608,11 +10801,11 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>-0.79939684454007143</v>
+        <v>-0.79866345365305236</v>
       </c>
       <c r="F56" s="24">
         <f>IF(Kalibratiemetingen!C56&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C56+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.099396844540072</v>
+        <v>14.098663453653053</v>
       </c>
       <c r="G56" s="12">
         <v>13.3</v>
@@ -10669,11 +10862,11 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>-1.0502406523595322</v>
+        <v>-1.0479098262492652</v>
       </c>
       <c r="F57" s="24">
         <f>IF(Kalibratiemetingen!C57&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C57+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.050240652359532</v>
+        <v>13.047909826249265</v>
       </c>
       <c r="G57" s="12">
         <v>12</v>
@@ -10730,11 +10923,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>-0.93481782043294004</v>
+        <v>-0.93429062023370513</v>
       </c>
       <c r="F58" s="24">
         <f>IF(Kalibratiemetingen!C58&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C58+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.234817820432941</v>
+        <v>14.234290620233706</v>
       </c>
       <c r="G58" s="12">
         <v>13.3</v>
@@ -10791,11 +10984,11 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>-0.66134102375997728</v>
+        <v>-0.66024517134811944</v>
       </c>
       <c r="F59" s="24">
         <f>IF(Kalibratiemetingen!C59&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C59+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.861341023759977</v>
+        <v>13.860245171348119</v>
       </c>
       <c r="G59" s="12">
         <v>13.2</v>
@@ -10852,11 +11045,11 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>-0.81758326715281271</v>
+        <v>-0.81611627150294375</v>
       </c>
       <c r="F60" s="24">
         <f>IF(Kalibratiemetingen!C60&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C60+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.617583267152813</v>
+        <v>13.616116271502944</v>
       </c>
       <c r="G60" s="12">
         <v>12.8</v>
@@ -10913,11 +11106,11 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>-2.5575179041878116E-2</v>
+        <v>-2.3511315611584038E-2</v>
       </c>
       <c r="F61" s="24">
         <f>IF(Kalibratiemetingen!C61&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C61+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.225575179041877</v>
+        <v>13.223511315611583</v>
       </c>
       <c r="G61" s="12">
         <v>13.2</v>
@@ -10974,11 +11167,11 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>-0.5434581014009261</v>
+        <v>-0.54187824347985014</v>
       </c>
       <c r="F62" s="24">
         <f>IF(Kalibratiemetingen!C62&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C62+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.543458101400926</v>
+        <v>13.54187824347985</v>
       </c>
       <c r="G62" s="12">
         <v>13</v>
@@ -11035,11 +11228,11 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>-0.80726001063021258</v>
+        <v>-0.80501600165164433</v>
       </c>
       <c r="F63" s="24">
         <f>IF(Kalibratiemetingen!C63&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C63+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.107260010630213</v>
+        <v>13.105016001651645</v>
       </c>
       <c r="G63" s="12">
         <v>12.3</v>
@@ -11096,11 +11289,11 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>-0.79291779383515859</v>
+        <v>-0.79171776086526258</v>
       </c>
       <c r="F64" s="24">
         <f>IF(Kalibratiemetingen!C64&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C64+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.792917793835159</v>
+        <v>13.791717760865263</v>
       </c>
       <c r="G64" s="12">
         <v>13</v>
@@ -11157,11 +11350,11 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>-0.8473023072186141</v>
+        <v>-0.84603282054335871</v>
       </c>
       <c r="F65" s="24">
         <f>IF(Kalibratiemetingen!C65&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C65+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.747302307218614</v>
+        <v>13.746032820543359</v>
       </c>
       <c r="G65" s="12">
         <v>12.9</v>
@@ -11218,11 +11411,11 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>-0.7287296472091036</v>
+        <v>-0.72545251436332592</v>
       </c>
       <c r="F66" s="24">
         <f>IF(Kalibratiemetingen!C66&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C66+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.428729647209103</v>
+        <v>12.425452514363325</v>
       </c>
       <c r="G66" s="12">
         <v>11.7</v>
@@ -11279,11 +11472,11 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>-0.67067104237842301</v>
+        <v>-0.6700461729060283</v>
       </c>
       <c r="F67" s="24">
         <f>IF(Kalibratiemetingen!C67&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C67+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.170671042378423</v>
+        <v>14.170046172906028</v>
       </c>
       <c r="G67" s="12">
         <v>13.5</v>
@@ -11343,11 +11536,11 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>-0.39270167080885088</v>
+        <v>-0.39165356781942684</v>
       </c>
       <c r="F68" s="24">
         <f>IF(Kalibratiemetingen!C68&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C68+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.892701670808851</v>
+        <v>13.891653567819427</v>
       </c>
       <c r="G68" s="12">
         <v>13.5</v>
@@ -11406,12 +11599,12 @@
         <v>31</v>
       </c>
       <c r="E69" s="26">
-        <f t="shared" ref="E69:E117" si="4">IF(I69,G69-F69,TRIM(""))</f>
-        <v>0.16090572769675937</v>
+        <f t="shared" ref="E69:E118" si="4">IF(I69,G69-F69,TRIM(""))</f>
+        <v>0.1614264166111159</v>
       </c>
       <c r="F69" s="24">
         <f>IF(Kalibratiemetingen!C69&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C69+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.239094272303241</v>
+        <v>14.238573583388884</v>
       </c>
       <c r="G69" s="12">
         <v>14.4</v>
@@ -11445,7 +11638,7 @@
         <v>19</v>
       </c>
       <c r="R69">
-        <f t="shared" ref="R69:R117" si="5">G69*C69</f>
+        <f t="shared" ref="R69:R118" si="5">G69*C69</f>
         <v>79560</v>
       </c>
       <c r="S69">
@@ -11468,11 +11661,11 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="4"/>
-        <v>-1.0818174224347139</v>
+        <v>-1.0793824157664087</v>
       </c>
       <c r="F70" s="24">
         <f>IF(Kalibratiemetingen!C70&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C70+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.981817422434714</v>
+        <v>12.979382415766409</v>
       </c>
       <c r="G70" s="12">
         <v>11.9</v>
@@ -11529,11 +11722,11 @@
       </c>
       <c r="E71" s="26">
         <f t="shared" si="4"/>
-        <v>-0.40829925719020999</v>
+        <v>-0.40331616770656176</v>
       </c>
       <c r="F71" s="24">
         <f>IF(Kalibratiemetingen!C71&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C71+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.30829925719021</v>
+        <v>11.303316167706562</v>
       </c>
       <c r="G71" s="12">
         <v>10.9</v>
@@ -11590,11 +11783,11 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="4"/>
-        <v>-0.71101683922051606</v>
+        <v>-0.71014888177936442</v>
       </c>
       <c r="F72" s="24">
         <f>IF(Kalibratiemetingen!C72&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C72+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.011016839220517</v>
+        <v>14.010148881779365</v>
       </c>
       <c r="G72" s="12">
         <v>13.3</v>
@@ -11651,11 +11844,11 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="4"/>
-        <v>-0.44000477306431662</v>
+        <v>-0.43583125333375428</v>
       </c>
       <c r="F73" s="24">
         <f>IF(Kalibratiemetingen!C73&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C73+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.840004773064317</v>
+        <v>11.835831253333755</v>
       </c>
       <c r="G73" s="12">
         <v>11.4</v>
@@ -11712,11 +11905,11 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="4"/>
-        <v>-0.45322036607198868</v>
+        <v>-0.45180763112943367</v>
       </c>
       <c r="F74" s="24">
         <f>IF(Kalibratiemetingen!C74&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C74+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.653220366071988</v>
+        <v>13.651807631129433</v>
       </c>
       <c r="G74" s="12">
         <v>13.2</v>
@@ -11773,11 +11966,11 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="4"/>
-        <v>-0.1894184568427022</v>
+        <v>-0.18866987295763771</v>
       </c>
       <c r="F75" s="24">
         <f>IF(Kalibratiemetingen!C75&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C75+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.089418456842703</v>
+        <v>14.088669872957638</v>
       </c>
       <c r="G75" s="12">
         <v>13.9</v>
@@ -11834,11 +12027,11 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="4"/>
-        <v>-0.49849098386330581</v>
+        <v>-0.49638588229545277</v>
       </c>
       <c r="F76" s="24">
         <f>IF(Kalibratiemetingen!C76&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C76+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.198490983863305</v>
+        <v>13.196385882295452</v>
       </c>
       <c r="G76" s="12">
         <v>12.7</v>
@@ -11899,7 +12092,7 @@
       </c>
       <c r="F77" s="24">
         <f>IF(Kalibratiemetingen!C77&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C77+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.23840453465278</v>
+        <v>13.236360205077119</v>
       </c>
       <c r="I77" s="2">
         <f>IF(IF(Kalibratiemetingen!C77&gt;0,1,0)+IF(Kalibratiemetingen!G77&gt;0,1,0)=2,1,0)</f>
@@ -11953,11 +12146,11 @@
       </c>
       <c r="E78" s="26">
         <f t="shared" si="4"/>
-        <v>-0.66043516308320704</v>
+        <v>-0.65796759999051702</v>
       </c>
       <c r="F78" s="24">
         <f>IF(Kalibratiemetingen!C78&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C78+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.960435163083208</v>
+        <v>12.957967599990518</v>
       </c>
       <c r="G78" s="12">
         <v>12.3</v>
@@ -12014,11 +12207,11 @@
       </c>
       <c r="E79" s="26">
         <f t="shared" si="4"/>
-        <v>-0.36134102375997657</v>
+        <v>-0.36024517134811873</v>
       </c>
       <c r="F79" s="24">
         <f>IF(Kalibratiemetingen!C79&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C79+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.861341023759977</v>
+        <v>13.860245171348119</v>
       </c>
       <c r="G79" s="12">
         <v>13.5</v>
@@ -12079,7 +12272,7 @@
       </c>
       <c r="F80" s="24">
         <f>IF(Kalibratiemetingen!C80&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C80+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.268339697744889</v>
+        <v>13.266340947163368</v>
       </c>
       <c r="I80" s="2">
         <f>IF(IF(Kalibratiemetingen!C80&gt;0,1,0)+IF(Kalibratiemetingen!G80&gt;0,1,0)=2,1,0)</f>
@@ -12133,11 +12326,11 @@
       </c>
       <c r="E81" s="26">
         <f t="shared" si="4"/>
-        <v>0.29610594047901273</v>
+        <v>0.30200929155866518</v>
       </c>
       <c r="F81" s="24">
         <f>IF(Kalibratiemetingen!C81&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C81+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>10.703894059520987</v>
+        <v>10.697990708441335</v>
       </c>
       <c r="G81" s="12">
         <v>11</v>
@@ -12194,11 +12387,11 @@
       </c>
       <c r="E82" s="26">
         <f t="shared" si="4"/>
-        <v>-0.72566255626926157</v>
+        <v>-0.72253301254736968</v>
       </c>
       <c r="F82" s="24">
         <f>IF(Kalibratiemetingen!C82&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C82+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.525662556269262</v>
+        <v>12.52253301254737</v>
       </c>
       <c r="G82" s="12">
         <v>11.8</v>
@@ -12255,11 +12448,11 @@
       </c>
       <c r="E83" s="26">
         <f t="shared" si="4"/>
-        <v>-0.58216229125994445</v>
+        <v>-0.58048910492229133</v>
       </c>
       <c r="F83" s="24">
         <f>IF(Kalibratiemetingen!C83&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C83+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.482162291259945</v>
+        <v>13.480489104922292</v>
       </c>
       <c r="G83" s="12">
         <v>12.9</v>
@@ -12316,11 +12509,11 @@
       </c>
       <c r="E84" s="26">
         <f t="shared" si="4"/>
-        <v>-3.4390214464632862E-2</v>
+        <v>-2.9142332729303888E-2</v>
       </c>
       <c r="F84" s="24">
         <f>IF(Kalibratiemetingen!C84&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C84+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.134390214464633</v>
+        <v>11.129142332729304</v>
       </c>
       <c r="G84" s="12">
         <v>11.1</v>
@@ -12377,11 +12570,11 @@
       </c>
       <c r="E85" s="26">
         <f t="shared" si="4"/>
-        <v>0.3579627424715337</v>
+        <v>0.36456931231793988</v>
       </c>
       <c r="F85" s="24">
         <f>IF(Kalibratiemetingen!C85&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C85+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>10.242037257528466</v>
+        <v>10.23543068768206</v>
       </c>
       <c r="G85" s="12">
         <v>10.6</v>
@@ -12438,11 +12631,11 @@
       </c>
       <c r="E86" s="26">
         <f t="shared" si="4"/>
-        <v>-0.29123481828054487</v>
+        <v>-0.28820511426010675</v>
       </c>
       <c r="F86" s="24">
         <f>IF(Kalibratiemetingen!C86&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C86+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.591234818280546</v>
+        <v>12.588205114260107</v>
       </c>
       <c r="G86" s="12">
         <v>12.3</v>
@@ -12499,11 +12692,11 @@
       </c>
       <c r="E87" s="26">
         <f t="shared" si="4"/>
-        <v>-0.10190294362837449</v>
+        <v>-0.10041207326728951</v>
       </c>
       <c r="F87" s="24">
         <f>IF(Kalibratiemetingen!C87&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C87+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.601902943628374</v>
+        <v>13.60041207326729</v>
       </c>
       <c r="G87" s="12">
         <v>13.5</v>
@@ -12560,11 +12753,11 @@
       </c>
       <c r="E88" s="26">
         <f t="shared" si="4"/>
-        <v>-0.15157875908891505</v>
+        <v>-0.15031578369853626</v>
       </c>
       <c r="F88" s="24">
         <f>IF(Kalibratiemetingen!C88&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C88+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.751578759088915</v>
+        <v>13.750315783698536</v>
       </c>
       <c r="G88" s="12">
         <v>13.6</v>
@@ -12624,11 +12817,11 @@
       </c>
       <c r="E89" s="26">
         <f t="shared" si="4"/>
-        <v>-6.6049721682892581E-2</v>
+        <v>-6.4656520594967404E-2</v>
       </c>
       <c r="F89" s="24">
         <f>IF(Kalibratiemetingen!C89&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C89+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.666049721682892</v>
+        <v>13.664656520594967</v>
       </c>
       <c r="G89" s="12">
         <v>13.6</v>
@@ -12688,11 +12881,11 @@
       </c>
       <c r="E90" s="26">
         <f t="shared" si="4"/>
-        <v>-0.50177419782945165</v>
+        <v>-0.49936957715724262</v>
       </c>
       <c r="F90" s="24">
         <f>IF(Kalibratiemetingen!C90&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C90+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.001774197829452</v>
+        <v>12.999369577157243</v>
       </c>
       <c r="G90" s="12">
         <v>12.5</v>
@@ -12749,11 +12942,11 @@
       </c>
       <c r="E91" s="26">
         <f t="shared" si="4"/>
-        <v>-0.72678453997233738</v>
+        <v>-0.72487477695080749</v>
       </c>
       <c r="F91" s="24">
         <f>IF(Kalibratiemetingen!C91&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C91+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.326784539972337</v>
+        <v>13.324874776950807</v>
       </c>
       <c r="G91" s="12">
         <v>12.6</v>
@@ -12810,11 +13003,11 @@
       </c>
       <c r="E92" s="26">
         <f t="shared" si="4"/>
-        <v>-0.55810381844967338</v>
+        <v>-0.5542623742478554</v>
       </c>
       <c r="F92" s="24">
         <f>IF(Kalibratiemetingen!C92&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C92+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.058103818449673</v>
+        <v>12.054262374247855</v>
       </c>
       <c r="G92" s="12">
         <v>11.5</v>
@@ -12871,11 +13064,11 @@
       </c>
       <c r="E93" s="26">
         <f t="shared" si="4"/>
-        <v>-0.61918350556434909</v>
+        <v>-0.61558731975957848</v>
       </c>
       <c r="F93" s="24">
         <f>IF(Kalibratiemetingen!C93&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C93+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.219183505564349</v>
+        <v>12.215587319759578</v>
       </c>
       <c r="G93" s="12">
         <v>11.6</v>
@@ -12932,11 +13125,11 @@
       </c>
       <c r="E94" s="26">
         <f t="shared" si="4"/>
-        <v>-1.6806152274966735E-2</v>
+        <v>-1.4881196255389639E-2</v>
       </c>
       <c r="F94" s="24">
         <f>IF(Kalibratiemetingen!C94&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C94+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.316806152274967</v>
+        <v>13.31488119625539</v>
       </c>
       <c r="G94" s="12">
         <v>13.3</v>
@@ -12993,11 +13186,11 @@
       </c>
       <c r="E95" s="26">
         <f t="shared" si="4"/>
-        <v>-0.72458194113772478</v>
+        <v>-0.72221204731819455</v>
       </c>
       <c r="F95" s="24">
         <f>IF(Kalibratiemetingen!C95&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C95+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.024581941137725</v>
+        <v>13.022212047318195</v>
       </c>
       <c r="G95" s="12">
         <v>12.3</v>
@@ -13054,11 +13247,11 @@
       </c>
       <c r="E96" s="26">
         <f t="shared" si="4"/>
-        <v>-0.67477737987826281</v>
+        <v>-0.67126584077689877</v>
       </c>
       <c r="F96" s="24">
         <f>IF(Kalibratiemetingen!C96&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C96+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.274777379878262</v>
+        <v>12.271265840776898</v>
       </c>
       <c r="G96" s="12">
         <v>11.6</v>
@@ -13115,11 +13308,11 @@
       </c>
       <c r="E97" s="26">
         <f t="shared" si="4"/>
-        <v>-0.10350318203991193</v>
+        <v>-9.9883121523925311E-2</v>
       </c>
       <c r="F97" s="24">
         <f>IF(Kalibratiemetingen!C97&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C97+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.203503182039912</v>
+        <v>12.199883121523925</v>
       </c>
       <c r="G97" s="12">
         <v>12.1</v>
@@ -13176,11 +13369,11 @@
       </c>
       <c r="E98" s="26">
         <f t="shared" si="4"/>
-        <v>1.3552037918696893</v>
+        <v>1.355715799070877</v>
       </c>
       <c r="F98" s="24">
         <f>IF(Kalibratiemetingen!C98&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C98+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.24479620813031</v>
+        <v>14.244284200929123</v>
       </c>
       <c r="G98" s="12">
         <v>15.6</v>
@@ -13237,11 +13430,11 @@
       </c>
       <c r="E99" s="26">
         <f>IF(I99,G99-F99,TRIM(""))</f>
-        <v>1.2226337838903536</v>
+        <v>1.2229439412603451</v>
       </c>
       <c r="F99" s="24">
         <f>IF(Kalibratiemetingen!C99&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C99+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.377366216109646</v>
+        <v>14.377056058739655</v>
       </c>
       <c r="G99" s="12">
         <v>15.6</v>
@@ -13301,11 +13494,11 @@
       </c>
       <c r="E100" s="26">
         <f>IF(I100,G100-F100,TRIM(""))</f>
-        <v>1.3409489523020195</v>
+        <v>1.3414392552202816</v>
       </c>
       <c r="F100" s="24">
         <f>IF(Kalibratiemetingen!C100&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C100+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.25905104769798</v>
+        <v>14.258560744779718</v>
       </c>
       <c r="G100" s="12">
         <v>15.6</v>
@@ -13362,11 +13555,11 @@
       </c>
       <c r="E101" s="26">
         <f t="shared" si="4"/>
-        <v>1.3594802437399895</v>
+        <v>1.3599987622260556</v>
       </c>
       <c r="F101" s="24">
         <f>IF(Kalibratiemetingen!C101&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C101+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.24051975626001</v>
+        <v>14.240001237773944</v>
       </c>
       <c r="G101" s="12">
         <v>15.6</v>
@@ -13426,11 +13619,11 @@
       </c>
       <c r="E102" s="26">
         <f t="shared" si="4"/>
-        <v>-0.69058644920162493</v>
+        <v>-0.68801253512260274</v>
       </c>
       <c r="F102" s="24">
         <f>IF(Kalibratiemetingen!C102&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C102+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.890586449201624</v>
+        <v>12.888012535122602</v>
       </c>
       <c r="G102" s="12">
         <v>12.2</v>
@@ -13487,11 +13680,11 @@
       </c>
       <c r="E103" s="26">
         <f t="shared" si="4"/>
-        <v>0.35714425902214941</v>
+        <v>0.36131343789612558</v>
       </c>
       <c r="F103" s="24">
         <f>IF(Kalibratiemetingen!C103&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C103+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.84285574097785</v>
+        <v>11.838686562103874</v>
       </c>
       <c r="G103" s="12">
         <v>12.2</v>
@@ -13551,11 +13744,11 @@
       </c>
       <c r="E104" s="26">
         <f t="shared" si="4"/>
-        <v>0.17087947530981928</v>
+        <v>0.17643989871926458</v>
       </c>
       <c r="F104" s="24">
         <f>IF(Kalibratiemetingen!C104&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C104+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>10.92912052469018</v>
+        <v>10.923560101280735</v>
       </c>
       <c r="G104" s="12">
         <v>11.1</v>
@@ -13615,11 +13808,11 @@
       </c>
       <c r="E105" s="26">
         <f t="shared" si="4"/>
-        <v>1.5650027850279837</v>
+        <v>1.5726858873074505</v>
       </c>
       <c r="F105" s="24">
         <f>IF(Kalibratiemetingen!C105&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C105+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>9.5349972149720159</v>
+        <v>9.5273141126925491</v>
       </c>
       <c r="G105" s="12">
         <v>11.1</v>
@@ -13676,11 +13869,11 @@
       </c>
       <c r="E106" s="26">
         <f t="shared" si="4"/>
-        <v>0.66979886017828427</v>
+        <v>0.67611893349008589</v>
       </c>
       <c r="F106" s="24">
         <f>IF(Kalibratiemetingen!C106&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C106+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>10.430201139821715</v>
+        <v>10.423881066509914</v>
       </c>
       <c r="G106" s="12">
         <v>11.1</v>
@@ -13737,11 +13930,11 @@
       </c>
       <c r="E107" s="26">
         <f t="shared" si="4"/>
-        <v>0.58141885485872713</v>
+        <v>0.58760436161639795</v>
       </c>
       <c r="F107" s="24">
         <f>IF(Kalibratiemetingen!C107&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C107+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>10.518581145141273</v>
+        <v>10.512395638383602</v>
       </c>
       <c r="G107" s="12">
         <v>11.1</v>
@@ -13798,11 +13991,11 @@
       </c>
       <c r="E108" s="26">
         <f t="shared" si="4"/>
-        <v>0.35761787364630315</v>
+        <v>0.36346262316205724</v>
       </c>
       <c r="F108" s="24">
         <f>IF(Kalibratiemetingen!C108&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C108+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>10.742382126353696</v>
+        <v>10.736537376837942</v>
       </c>
       <c r="G108" s="12">
         <v>11.1</v>
@@ -13859,11 +14052,11 @@
       </c>
       <c r="E109" s="26">
         <f t="shared" si="4"/>
-        <v>-7.5729249210876759E-2</v>
+        <v>-7.0544309896028778E-2</v>
       </c>
       <c r="F109" s="24">
         <f>IF(Kalibratiemetingen!C109&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C109+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.175729249210876</v>
+        <v>11.170544309896028</v>
       </c>
       <c r="G109" s="12">
         <v>11.1</v>
@@ -13920,11 +14113,11 @@
       </c>
       <c r="E110" s="26">
         <f t="shared" si="4"/>
-        <v>-3.3911959756171228E-2</v>
+        <v>-3.2013048876104122E-2</v>
       </c>
       <c r="F110" s="24">
         <f>IF(Kalibratiemetingen!C110&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C110+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.333911959756172</v>
+        <v>13.332013048876105</v>
       </c>
       <c r="G110" s="12">
         <v>13.3</v>
@@ -13981,11 +14174,11 @@
       </c>
       <c r="E111" s="26">
         <f t="shared" si="4"/>
-        <v>1.4028931315219264</v>
+        <v>1.403020972915348</v>
       </c>
       <c r="F111" s="24">
         <f>IF(Kalibratiemetingen!C111&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C111+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.497106868478074</v>
+        <v>14.496979027084652</v>
       </c>
       <c r="G111" s="12">
         <v>15.9</v>
@@ -14042,11 +14235,11 @@
       </c>
       <c r="E112" s="26">
         <f t="shared" si="4"/>
-        <v>1.359912489792606</v>
+        <v>1.3601271483177264</v>
       </c>
       <c r="F112" s="24">
         <f>IF(Kalibratiemetingen!C112&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C112+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.440087510207395</v>
+        <v>14.439872851682274</v>
       </c>
       <c r="G112" s="12">
         <v>15.8</v>
@@ -14103,11 +14296,11 @@
       </c>
       <c r="E113" s="26">
         <f t="shared" si="4"/>
-        <v>2.6471245027532433</v>
+        <v>2.6492990580264522</v>
       </c>
       <c r="F113" s="24">
         <f>IF(Kalibratiemetingen!C113&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C113+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.152875497246757</v>
+        <v>13.150700941973549</v>
       </c>
       <c r="G113" s="12">
         <v>15.8</v>
@@ -14164,11 +14357,11 @@
       </c>
       <c r="E114" s="26">
         <f t="shared" si="4"/>
-        <v>2.8424158048303259</v>
+        <v>2.8448877087796021</v>
       </c>
       <c r="F114" s="24">
         <f>IF(Kalibratiemetingen!C114&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C114+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>12.957584195169675</v>
+        <v>12.955112291220399</v>
       </c>
       <c r="G114" s="12">
         <v>15.8</v>
@@ -14225,11 +14418,11 @@
       </c>
       <c r="E115" s="26">
         <f t="shared" si="4"/>
-        <v>2.4646625562870614</v>
+        <v>2.4665592967388363</v>
       </c>
       <c r="F115" s="24">
         <f>IF(Kalibratiemetingen!C115&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C115+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.335337443712939</v>
+        <v>13.333440703261164</v>
       </c>
       <c r="G115" s="12">
         <v>15.8</v>
@@ -14286,11 +14479,11 @@
       </c>
       <c r="E116" s="26">
         <f t="shared" si="4"/>
-        <v>2.5245328824712772</v>
+        <v>2.5265207809113353</v>
       </c>
       <c r="F116" s="24">
         <f>IF(Kalibratiemetingen!C116&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C116+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.275467117528724</v>
+        <v>13.273479219088665</v>
       </c>
       <c r="G116" s="12">
         <v>15.8</v>
@@ -14347,11 +14540,11 @@
       </c>
       <c r="E117" s="58">
         <f t="shared" si="4"/>
-        <v>1.5894154068320994</v>
+        <v>1.5899795043123071</v>
       </c>
       <c r="F117" s="59">
         <f>IF(Kalibratiemetingen!C117&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C117+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.210584593167901</v>
+        <v>14.210020495687694</v>
       </c>
       <c r="G117" s="60">
         <v>15.8</v>
@@ -14397,17 +14590,64 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F118" s="24" t="str">
+      <c r="A118" s="69">
+        <v>545</v>
+      </c>
+      <c r="B118" s="85">
+        <v>21172</v>
+      </c>
+      <c r="C118" s="85">
+        <v>3933</v>
+      </c>
+      <c r="D118" s="85">
+        <v>30</v>
+      </c>
+      <c r="E118" s="26">
+        <f t="shared" si="4"/>
+        <v>-0.26574780237416817</v>
+      </c>
+      <c r="F118" s="24">
         <f>IF(Kalibratiemetingen!C118&gt;0,Grafiek_kalibratiemetingen!$R$13*Kalibratiemetingen!C118+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>11.965747802374167</v>
+      </c>
+      <c r="G118" s="86">
+        <v>11.7</v>
+      </c>
+      <c r="H118" s="86">
+        <v>26.6</v>
       </c>
       <c r="I118" s="2">
         <f>IF(IF(Kalibratiemetingen!C118&gt;0,1,0)+IF(Kalibratiemetingen!G118&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J118" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="K118" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="L118" s="69">
+        <v>729</v>
+      </c>
+      <c r="M118" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="N118" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="O118" s="55">
+        <v>42594</v>
+      </c>
+      <c r="P118" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="R118" s="69">
+        <f t="shared" si="5"/>
+        <v>46016.1</v>
       </c>
       <c r="S118">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15468489</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -18694,32 +18934,32 @@
     <mergeCell ref="N2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:I1048576">
-    <cfRule type="notContainsBlanks" dxfId="49" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="67" priority="12">
       <formula>LEN(TRIM(G4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="48" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="66" priority="10">
       <formula>LEN(TRIM(B4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="notContainsBlanks" dxfId="47" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="65" priority="4">
       <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:I1048576">
-    <cfRule type="containsBlanks" dxfId="46" priority="1">
+    <cfRule type="containsBlanks" dxfId="64" priority="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E1048576">
-    <cfRule type="notContainsBlanks" dxfId="45" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="63" priority="3">
       <formula>LEN(TRIM(E4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I1048576">
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18757,7 +18997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -19125,10 +19365,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19141,20 +19381,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
       <c r="R1" t="s">
         <v>193</v>
       </c>
@@ -19614,6 +19854,51 @@
       </c>
       <c r="M21" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22">
+        <v>18760</v>
+      </c>
+      <c r="D22">
+        <v>1698</v>
+      </c>
+      <c r="E22">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>29.3</v>
+      </c>
+      <c r="G22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="L23">
+        <v>41</v>
+      </c>
+      <c r="M23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="M24" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -19627,6 +19912,155 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1">
+        <v>19847</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2">
+        <v>19970</v>
+      </c>
+      <c r="F2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3">
+        <v>19937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4">
+        <v>19873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5">
+        <v>19685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6">
+        <v>19386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7">
+        <v>19317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8">
+        <v>19449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9">
+        <v>19504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10">
+        <v>19488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11">
+        <v>19373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12">
+        <v>19378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13">
+        <v>20827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14">
+        <v>20980</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15">
+        <v>21505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16">
+        <v>21212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y573"/>
   <sheetViews>
@@ -19707,18 +20141,18 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="N2" s="91" t="s">
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="N2" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -19801,11 +20235,11 @@
       </c>
       <c r="E4" s="39">
         <f>IF(I4,G4-F4,TRIM(""))</f>
-        <v>-11.597180325452543</v>
+        <v>-11.611060428258634</v>
       </c>
       <c r="F4" s="40">
         <f>IF(Augostometer!C4&gt;0,Grafiek_kalibratiemetingen!$R$13*Augostometer!C4+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>23.697180325452543</v>
+        <v>23.711060428258634</v>
       </c>
       <c r="G4" s="41">
         <v>12.1</v>
@@ -19870,11 +20304,11 @@
       </c>
       <c r="E5" s="39">
         <f t="shared" ref="E5:E68" si="1">IF(I5,G5-F5,TRIM(""))</f>
-        <v>-2.1044457712039115</v>
+        <v>-2.1092013934685188</v>
       </c>
       <c r="F5" s="40">
         <f>IF(Augostometer!C5&gt;0,Grafiek_kalibratiemetingen!$R$13*Augostometer!C5+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>17.704445771203911</v>
+        <v>17.709201393468518</v>
       </c>
       <c r="G5" s="41">
         <v>15.6</v>
@@ -19939,11 +20373,11 @@
       </c>
       <c r="E6" s="39">
         <f t="shared" si="1"/>
-        <v>-0.68155993083686717</v>
+        <v>-0.67729742354631561</v>
       </c>
       <c r="F6" s="40">
         <f>IF(Augostometer!C6&gt;0,Grafiek_kalibratiemetingen!$R$13*Augostometer!C6+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.781559930836867</v>
+        <v>11.777297423546315</v>
       </c>
       <c r="G6" s="41">
         <v>11.1</v>
@@ -20008,11 +20442,11 @@
       </c>
       <c r="E7" s="39">
         <f t="shared" si="1"/>
-        <v>-1.4351626892581706</v>
+        <v>-1.4353973093895895</v>
       </c>
       <c r="F7" s="40">
         <f>IF(Augostometer!C7&gt;0,Grafiek_kalibratiemetingen!$R$13*Augostometer!C7+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.735162689258171</v>
+        <v>14.73539730938959</v>
       </c>
       <c r="G7" s="41">
         <v>13.3</v>
@@ -20077,11 +20511,11 @@
       </c>
       <c r="E8" s="39">
         <f t="shared" si="1"/>
-        <v>0.11995757043158939</v>
+        <v>0.11813202636180087</v>
       </c>
       <c r="F8" s="40">
         <f>IF(Augostometer!C8&gt;0,Grafiek_kalibratiemetingen!$R$13*Augostometer!C8+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>15.780042429568411</v>
+        <v>15.781867973638199</v>
       </c>
       <c r="G8" s="41">
         <v>15.9</v>
@@ -20146,11 +20580,11 @@
       </c>
       <c r="E9" s="39">
         <f t="shared" si="1"/>
-        <v>3.5637893956028677E-2</v>
+        <v>3.3836224597457942E-2</v>
       </c>
       <c r="F9" s="40">
         <f>IF(Augostometer!C9&gt;0,Grafiek_kalibratiemetingen!$R$13*Augostometer!C9+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>15.764362106043972</v>
+        <v>15.766163775402543</v>
       </c>
       <c r="G9" s="41">
         <v>15.8</v>
@@ -20215,11 +20649,11 @@
       </c>
       <c r="E10" s="39">
         <f t="shared" si="1"/>
-        <v>-1.054903341626602</v>
+        <v>-1.0553202777345838</v>
       </c>
       <c r="F10" s="40">
         <f>IF(Augostometer!C10&gt;0,Grafiek_kalibratiemetingen!$R$13*Augostometer!C10+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.854903341626603</v>
+        <v>14.855320277734585</v>
       </c>
       <c r="G10" s="41">
         <v>13.8</v>
@@ -20284,11 +20718,11 @@
       </c>
       <c r="E11" s="39">
         <f t="shared" si="1"/>
-        <v>-1.2801298067957951</v>
+        <v>-1.2808896705739841</v>
       </c>
       <c r="F11" s="40">
         <f>IF(Augostometer!C11&gt;0,Grafiek_kalibratiemetingen!$R$13*Augostometer!C11+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>15.080129806795796</v>
+        <v>15.080889670573985</v>
       </c>
       <c r="G11" s="41">
         <v>13.8</v>
@@ -20346,11 +20780,11 @@
       </c>
       <c r="E12" s="39">
         <f t="shared" si="1"/>
-        <v>-0.21158247115636009</v>
+        <v>-0.20629986256835231</v>
       </c>
       <c r="F12" s="40">
         <f>IF(Augostometer!C12&gt;0,Grafiek_kalibratiemetingen!$R$13*Augostometer!C12+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>11.11158247115636</v>
+        <v>11.106299862568353</v>
       </c>
       <c r="G12" s="31">
         <v>10.9</v>
@@ -20415,11 +20849,11 @@
       </c>
       <c r="E13" s="39">
         <f t="shared" si="1"/>
-        <v>-1.4168061522749671</v>
+        <v>-1.41488119625539</v>
       </c>
       <c r="F13" s="40">
         <f>IF(Augostometer!C13&gt;0,Grafiek_kalibratiemetingen!$R$13*Augostometer!C13+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>13.316806152274967</v>
+        <v>13.31488119625539</v>
       </c>
       <c r="G13" s="31">
         <v>11.9</v>
@@ -20484,11 +20918,11 @@
       </c>
       <c r="E14" s="39">
         <f t="shared" si="1"/>
-        <v>-0.79909334428638168</v>
+        <v>-0.7995775636714324</v>
       </c>
       <c r="F14" s="40">
         <f>IF(Augostometer!C14&gt;0,Grafiek_kalibratiemetingen!$R$13*Augostometer!C14+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v>14.899093344286381</v>
+        <v>14.899577563671432</v>
       </c>
       <c r="G14" s="31">
         <v>14.1</v>
@@ -26820,132 +27254,132 @@
     <mergeCell ref="N2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:I9 G15:I1048576 I10:I14">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="27">
       <formula>LEN(TRIM(G4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:D9 B15:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="26">
       <formula>LEN(TRIM(B4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="24">
       <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:I9 B15:I1048576 E10:F14 I10:I14">
-    <cfRule type="containsBlanks" dxfId="30" priority="21">
+    <cfRule type="containsBlanks" dxfId="48" priority="21">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E1048576">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="23">
       <formula>LEN(TRIM(E4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I1048576">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="containsBlanks" dxfId="27" priority="1">
+    <cfRule type="containsBlanks" dxfId="45" priority="1">
       <formula>LEN(TRIM(G14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:D10">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="20">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:D10">
-    <cfRule type="containsBlanks" dxfId="25" priority="19">
+    <cfRule type="containsBlanks" dxfId="43" priority="19">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:D11">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="18">
       <formula>LEN(TRIM(B11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:D11">
-    <cfRule type="containsBlanks" dxfId="23" priority="17">
+    <cfRule type="containsBlanks" dxfId="41" priority="17">
       <formula>LEN(TRIM(B11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="16">
       <formula>LEN(TRIM(B12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="containsBlanks" dxfId="21" priority="15">
+    <cfRule type="containsBlanks" dxfId="39" priority="15">
       <formula>LEN(TRIM(B12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:D13">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="14">
       <formula>LEN(TRIM(B13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:D13">
-    <cfRule type="containsBlanks" dxfId="19" priority="13">
+    <cfRule type="containsBlanks" dxfId="37" priority="13">
       <formula>LEN(TRIM(B13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="12">
       <formula>LEN(TRIM(B14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="containsBlanks" dxfId="17" priority="11">
+    <cfRule type="containsBlanks" dxfId="35" priority="11">
       <formula>LEN(TRIM(B14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H10">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="10">
       <formula>LEN(TRIM(G10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H10">
-    <cfRule type="containsBlanks" dxfId="15" priority="9">
+    <cfRule type="containsBlanks" dxfId="33" priority="9">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H11">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="8">
       <formula>LEN(TRIM(G11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H11">
-    <cfRule type="containsBlanks" dxfId="13" priority="7">
+    <cfRule type="containsBlanks" dxfId="31" priority="7">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H12">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="6">
       <formula>LEN(TRIM(G12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H12">
-    <cfRule type="containsBlanks" dxfId="11" priority="5">
+    <cfRule type="containsBlanks" dxfId="29" priority="5">
       <formula>LEN(TRIM(G12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="4">
       <formula>LEN(TRIM(G13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="27" priority="3">
       <formula>LEN(TRIM(G13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="2">
       <formula>LEN(TRIM(G14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26980,12 +27414,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X567"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:K54"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27006,7 +27440,7 @@
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>COUNT(A$4:A$64994)</f>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <f>COUNT(B$4:B$64994)</f>
@@ -27014,19 +27448,19 @@
       </c>
       <c r="C1">
         <f>COUNT(C$4:C$64994)</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D1">
         <f>COUNT(D$4:D$64994)</f>
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E1">
         <f>COUNT(E$4:E$64994)</f>
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H1">
         <f>COUNT(H$10:H$64994)</f>
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="J1">
         <f t="shared" ref="J1:P1" si="0">COUNT(J$4:J$65000)</f>
@@ -27034,7 +27468,7 @@
       </c>
       <c r="K1">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="L1">
         <f>COUNT(L$4:L$65000)</f>
@@ -27046,7 +27480,7 @@
       </c>
       <c r="N1">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="O1">
         <f t="shared" si="0"/>
@@ -27058,17 +27492,17 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="M2" s="91" t="s">
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="M2" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -27130,7 +27564,7 @@
       </c>
       <c r="X3">
         <f>COUNTIF(I4:I49994,"=1")</f>
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -27258,7 +27692,7 @@
       </c>
       <c r="X5">
         <f ca="1">AVERAGEIF(I4:I49994,"=1",H10:H49994)</f>
-        <v>12.825185185185191</v>
+        <v>12.516363636363637</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -27279,11 +27713,11 @@
       </c>
       <c r="F6" s="39">
         <f>IF(I6,GroteHoogte!H6-GroteHoogte!G6,TRIM(""))</f>
-        <v>-1.4483180854422582</v>
+        <v>-1.4463345278587845</v>
       </c>
       <c r="G6" s="24">
         <f>D6*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.278318085442258</v>
+        <v>13.276334527858785</v>
       </c>
       <c r="H6" s="41">
         <v>11.83</v>
@@ -27324,7 +27758,7 @@
       </c>
       <c r="X6">
         <f>AVERAGEIF(I4:I49994,"=1",D4:D49994)</f>
-        <v>5142.9824561403511</v>
+        <v>4844.7976190476193</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -27387,7 +27821,7 @@
       </c>
       <c r="X7">
         <f>SUMIF(I4:I49994,"=1",D4:D49994)/X3</f>
-        <v>5142.9824561403511</v>
+        <v>4844.7976190476193</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -27450,7 +27884,7 @@
       </c>
       <c r="X8">
         <f>SUMIF(I4:I49994,"=1",D4:D49994)</f>
-        <v>293150</v>
+        <v>406963</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -27471,11 +27905,11 @@
       </c>
       <c r="F9" s="39">
         <f>IF(I9,GroteHoogte!H9-GroteHoogte!G9,TRIM(""))</f>
-        <v>-0.67538159633506112</v>
+        <v>-0.67244956158778457</v>
       </c>
       <c r="G9" s="24">
         <f>D9*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>12.655381596335062</v>
+        <v>12.652449561587785</v>
       </c>
       <c r="H9" s="41">
         <v>11.98</v>
@@ -27518,7 +27952,7 @@
       </c>
       <c r="X9">
         <f ca="1">SUMIF(I4:I49994,"=1",H10:H49994)</f>
-        <v>692.56000000000029</v>
+        <v>963.7600000000001</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -27660,11 +28094,11 @@
       </c>
       <c r="F12" s="39">
         <f t="shared" si="2"/>
-        <v>-0.98410647047984945</v>
+        <v>-0.98207082261735756</v>
       </c>
       <c r="G12" s="24">
         <f>D12*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.244106470479849</v>
+        <v>13.242070822617357</v>
       </c>
       <c r="H12" s="41">
         <v>12.26</v>
@@ -27768,7 +28202,7 @@
       </c>
       <c r="X13">
         <f>-X10+(X8*X8)/X3</f>
-        <v>59308361.017543793</v>
+        <v>523296427.44047618</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -27845,11 +28279,11 @@
       </c>
       <c r="F15" s="39">
         <f t="shared" si="2"/>
-        <v>-1.0760948023218759</v>
+        <v>-1.0726613986390419</v>
       </c>
       <c r="G15" s="24">
         <f>D15*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>12.326094802321876</v>
+        <v>12.322661398639042</v>
       </c>
       <c r="H15" s="31">
         <v>11.25</v>
@@ -28030,11 +28464,11 @@
       </c>
       <c r="F18" s="39">
         <f t="shared" si="2"/>
-        <v>-0.60976518170165583</v>
+        <v>-0.60776860154842716</v>
       </c>
       <c r="G18" s="24">
         <f>D18*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.269765181701656</v>
+        <v>13.267768601548427</v>
       </c>
       <c r="H18" s="31">
         <v>12.66</v>
@@ -28203,11 +28637,11 @@
       </c>
       <c r="F21" s="39">
         <f t="shared" si="2"/>
-        <v>-1.240045213618993</v>
+        <v>-1.2388560327905598</v>
       </c>
       <c r="G21" s="24">
         <f>D21*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.800045213618994</v>
+        <v>13.79885603279056</v>
       </c>
       <c r="H21" s="31">
         <v>12.56</v>
@@ -28374,11 +28808,11 @@
       </c>
       <c r="F24" s="39">
         <f t="shared" si="2"/>
-        <v>0.98971797906892789</v>
+        <v>0.99006937457647481</v>
       </c>
       <c r="G24" s="24">
         <f>D24*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>14.350282020931072</v>
+        <v>14.349930625423525</v>
       </c>
       <c r="H24" s="31">
         <v>15.34</v>
@@ -28545,11 +28979,11 @@
       </c>
       <c r="F27" s="39">
         <f t="shared" si="2"/>
-        <v>-0.95384712284828055</v>
+        <v>-0.95199379096235504</v>
       </c>
       <c r="G27" s="24">
         <f>D27*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.363847122848281</v>
+        <v>13.361993790962355</v>
       </c>
       <c r="H27" s="31">
         <v>12.41</v>
@@ -28716,11 +29150,11 @@
       </c>
       <c r="F30" s="39">
         <f t="shared" si="2"/>
-        <v>-0.86421453199300302</v>
+        <v>-0.86210291914027515</v>
       </c>
       <c r="G30" s="24">
         <f>D30*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.194214531993003</v>
+        <v>13.192102919140275</v>
       </c>
       <c r="H30" s="31">
         <v>12.33</v>
@@ -28887,11 +29321,11 @@
       </c>
       <c r="F33" s="39">
         <f t="shared" si="2"/>
-        <v>-1.1814500132899912</v>
+        <v>-1.1792732875884884</v>
       </c>
       <c r="G33" s="24">
         <f>D33*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.151450013289992</v>
+        <v>13.149273287588489</v>
       </c>
       <c r="H33" s="12">
         <v>11.97</v>
@@ -29060,11 +29494,11 @@
       </c>
       <c r="F36" s="39">
         <f t="shared" si="2"/>
-        <v>-1.1090087511095792</v>
+        <v>-1.1075439258880042</v>
       </c>
       <c r="G36" s="24">
         <f>D36*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.619008751109579</v>
+        <v>13.617543925888004</v>
       </c>
       <c r="H36" s="12">
         <v>12.51</v>
@@ -29231,11 +29665,11 @@
       </c>
       <c r="F39" s="39">
         <f t="shared" si="2"/>
-        <v>0.6569318480632873</v>
+        <v>0.65723332372010645</v>
       </c>
       <c r="G39" s="24">
         <f>D39*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>14.383068151936712</v>
+        <v>14.382766676279893</v>
       </c>
       <c r="H39" s="12">
         <v>15.04</v>
@@ -29406,12 +29840,12 @@
         <v>29</v>
       </c>
       <c r="F42" s="39">
-        <f t="shared" ref="F42:F73" si="5">IF(I42,H42-G42,TRIM(""))</f>
-        <v>-0.94594258818660037</v>
+        <f t="shared" ref="F42:F63" si="5">IF(I42,H42-G42,TRIM(""))</f>
+        <v>-0.94362044378950394</v>
       </c>
       <c r="G42" s="24">
         <f>D42*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.0559425881866</v>
+        <v>13.053620443789503</v>
       </c>
       <c r="H42" s="12">
         <v>12.11</v>
@@ -29578,11 +30012,11 @@
       </c>
       <c r="F45" s="39">
         <f t="shared" si="5"/>
-        <v>-1.250002917030594</v>
+        <v>-1.2478392138988461</v>
       </c>
       <c r="G45" s="24">
         <f>D45*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.160002917030594</v>
+        <v>13.157839213898846</v>
       </c>
       <c r="H45" s="12">
         <v>11.91</v>
@@ -29749,11 +30183,11 @@
       </c>
       <c r="F48" s="39">
         <f t="shared" si="5"/>
-        <v>-1.1861164146245056</v>
+        <v>-1.1826678179436243</v>
       </c>
       <c r="G48" s="24">
         <f>D48*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>12.316116414624506</v>
+        <v>12.312667817943625</v>
       </c>
       <c r="H48" s="12">
         <v>11.13</v>
@@ -29920,11 +30354,11 @@
       </c>
       <c r="F51" s="39">
         <f t="shared" si="5"/>
-        <v>-1.0992897110437791</v>
+        <v>-1.0976273768475888</v>
       </c>
       <c r="G51" s="24">
         <f>D51*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.48928971104378</v>
+        <v>13.487627376847589</v>
       </c>
       <c r="H51" s="12">
         <v>12.39</v>
@@ -30093,11 +30527,11 @@
       </c>
       <c r="F54" s="58">
         <f t="shared" si="5"/>
-        <v>-1.0225729250099285</v>
+        <v>-1.0206110717093786</v>
       </c>
       <c r="G54" s="59">
         <f>D54*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.292572925009928</v>
+        <v>13.290611071709378</v>
       </c>
       <c r="H54" s="60">
         <v>12.27</v>
@@ -30264,11 +30698,11 @@
       </c>
       <c r="F57" s="26">
         <f t="shared" si="5"/>
-        <v>-1.0918597190231143</v>
+        <v>-1.0903992346581237</v>
       </c>
       <c r="G57" s="24">
         <f>D57*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.621859719023114</v>
+        <v>13.620399234658123</v>
       </c>
       <c r="H57" s="12">
         <v>12.53</v>
@@ -30434,11 +30868,11 @@
       </c>
       <c r="F60" s="26">
         <f t="shared" si="5"/>
-        <v>0.69602505936965997</v>
+        <v>0.69595973264505062</v>
       </c>
       <c r="G60" s="24">
         <f>D60*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>14.62397494063034</v>
+        <v>14.62404026735495</v>
       </c>
       <c r="H60" s="12">
         <v>15.32</v>
@@ -30564,46 +30998,46 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="88">
+      <c r="A63" s="90">
         <v>9699</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="26" t="str">
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="58" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G63" s="24">
+      <c r="G63" s="59">
         <f>D63*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>6.3632954111653559</v>
-      </c>
-      <c r="H63" s="86">
+        <v>6.3507831059351725</v>
+      </c>
+      <c r="H63" s="60">
         <v>14.6</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="61">
         <f>IF(IF(GroteHoogte!D63&gt;0,1,0)+IF(GroteHoogte!H63&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J63" s="29" t="s">
+      <c r="J63" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="K63" s="29">
+      <c r="K63" s="71">
         <v>729</v>
       </c>
-      <c r="L63" s="29" t="s">
+      <c r="L63" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="M63" s="29" t="s">
+      <c r="M63" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="N63" s="32">
+      <c r="N63" s="72">
         <v>42577</v>
       </c>
-      <c r="O63" s="29" t="s">
+      <c r="O63" s="71" t="s">
         <v>19</v>
       </c>
       <c r="P63" s="87"/>
@@ -30614,56 +31048,87 @@
       <c r="R63" s="84"/>
       <c r="S63" s="84"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="69"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G64" s="24"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="2">
-        <f>IF(IF(GroteHoogte!D64&gt;0,1,0)+IF(GroteHoogte!H64&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="K64" s="29">
-        <v>729</v>
-      </c>
-      <c r="L64" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="M64" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="N64" s="32">
-        <v>42577</v>
-      </c>
-      <c r="O64" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J64" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K64" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L64" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M64" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N64" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O64" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P64" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q64" s="69">
+        <f>H65*D65</f>
+        <v>70118.399999999994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="88">
+        <v>10526</v>
+      </c>
+      <c r="B65" s="91" t="s">
+        <v>49</v>
+      </c>
       <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G65" s="24" t="str">
-        <f>IF(GroteHoogte!D65&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D65+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H65" s="12"/>
+      <c r="D65" s="13">
+        <v>5312</v>
+      </c>
+      <c r="E65" s="13">
+        <v>30</v>
+      </c>
+      <c r="F65" s="26">
+        <f t="shared" ref="F65:F90" si="7">IF(I65,H65-G65,TRIM(""))</f>
+        <v>-0.20000000000000107</v>
+      </c>
+      <c r="G65" s="24">
+        <v>13.4</v>
+      </c>
+      <c r="H65" s="12">
+        <v>13.2</v>
+      </c>
       <c r="I65" s="2">
         <f>IF(IF(GroteHoogte!D65&gt;0,1,0)+IF(GroteHoogte!H65&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="29" t="s">
         <v>14</v>
@@ -30678,25 +31143,43 @@
         <v>16</v>
       </c>
       <c r="N65" s="32">
-        <v>42577</v>
+        <v>42594</v>
       </c>
       <c r="O65" s="29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q65" s="69">
+        <f>H68*D68</f>
+        <v>72905.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B66" s="91" t="s">
+        <v>41</v>
+      </c>
       <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G66" s="24"/>
-      <c r="H66" s="12"/>
+      <c r="D66" s="13">
+        <v>5182</v>
+      </c>
+      <c r="E66" s="13">
+        <v>30</v>
+      </c>
+      <c r="F66" s="26">
+        <f t="shared" si="7"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="G66" s="24">
+        <v>12.9</v>
+      </c>
+      <c r="H66" s="12">
+        <v>13.2</v>
+      </c>
       <c r="I66" s="2">
         <f>IF(IF(GroteHoogte!D66&gt;0,1,0)+IF(GroteHoogte!H66&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>14</v>
@@ -30711,28 +31194,43 @@
         <v>16</v>
       </c>
       <c r="N66" s="32">
-        <v>42577</v>
+        <v>42594</v>
       </c>
       <c r="O66" s="29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G67" s="24" t="str">
+      <c r="Q66" s="69">
+        <f>H71*D71</f>
+        <v>44045</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B67" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="13">
+        <v>21146</v>
+      </c>
+      <c r="D67" s="13">
+        <v>4968</v>
+      </c>
+      <c r="E67" s="13">
+        <v>30</v>
+      </c>
+      <c r="F67" s="26">
+        <f t="shared" si="7"/>
+        <v>-0.24337009091074613</v>
+      </c>
+      <c r="G67" s="24">
         <f>IF(GroteHoogte!D67&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D67+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H67" s="12"/>
+        <v>13.443370090910745</v>
+      </c>
+      <c r="H67" s="12">
+        <v>13.2</v>
+      </c>
       <c r="I67" s="2">
         <f>IF(IF(GroteHoogte!D67&gt;0,1,0)+IF(GroteHoogte!H67&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" s="29" t="s">
         <v>14</v>
@@ -30747,447 +31245,1146 @@
         <v>16</v>
       </c>
       <c r="N67" s="32">
-        <v>42577</v>
+        <v>42594</v>
       </c>
       <c r="O67" s="29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="P67" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q67" s="69">
+        <f>H74*D74</f>
+        <v>29570.400000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="88">
+        <v>10525</v>
+      </c>
+      <c r="B68" s="91" t="s">
+        <v>49</v>
+      </c>
       <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G68" s="24" t="str">
-        <f>IF(GroteHoogte!D68&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D68+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H68" s="12"/>
+      <c r="D68" s="13">
+        <v>5245</v>
+      </c>
+      <c r="E68" s="13">
+        <v>30</v>
+      </c>
+      <c r="F68" s="26">
+        <f t="shared" si="7"/>
+        <v>0.70000000000000107</v>
+      </c>
+      <c r="G68" s="24">
+        <v>13.2</v>
+      </c>
+      <c r="H68" s="12">
+        <v>13.9</v>
+      </c>
       <c r="I68" s="2">
         <f>IF(IF(GroteHoogte!D68&gt;0,1,0)+IF(GroteHoogte!H68&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N68" s="14"/>
-    </row>
-    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J68" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="29">
+        <v>729</v>
+      </c>
+      <c r="L68" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M68" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N68" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O68" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q68" s="69">
+        <f>H77*D77</f>
+        <v>62775</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B69" s="91" t="s">
+        <v>41</v>
+      </c>
       <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G69" s="24" t="str">
-        <f>IF(GroteHoogte!D69&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D69+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H69" s="12"/>
+      <c r="D69" s="13">
+        <v>5339</v>
+      </c>
+      <c r="E69" s="13">
+        <v>30</v>
+      </c>
+      <c r="F69" s="26">
+        <f t="shared" si="7"/>
+        <v>0.70000000000000107</v>
+      </c>
+      <c r="G69" s="24">
+        <v>13.2</v>
+      </c>
+      <c r="H69" s="12">
+        <v>13.9</v>
+      </c>
       <c r="I69" s="2">
         <f>IF(IF(GroteHoogte!D69&gt;0,1,0)+IF(GroteHoogte!H69&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N69" s="14"/>
-    </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G70" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J69" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="29">
+        <v>729</v>
+      </c>
+      <c r="L69" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M69" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N69" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O69" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q69" s="69">
+        <f>H80*D80</f>
+        <v>51062.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B70" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="13">
+        <v>21165</v>
+      </c>
+      <c r="D70" s="13">
+        <v>5117</v>
+      </c>
+      <c r="E70" s="13">
+        <v>30</v>
+      </c>
+      <c r="F70" s="26">
+        <f t="shared" si="7"/>
+        <v>0.24390940571539055</v>
+      </c>
+      <c r="G70" s="24">
         <f>IF(GroteHoogte!D70&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D70+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H70" s="12"/>
+        <v>13.65609059428461</v>
+      </c>
+      <c r="H70" s="12">
+        <v>13.9</v>
+      </c>
       <c r="I70" s="2">
         <f>IF(IF(GroteHoogte!D70&gt;0,1,0)+IF(GroteHoogte!H70&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N70" s="14"/>
-    </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J70" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="29">
+        <v>729</v>
+      </c>
+      <c r="L70" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M70" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N70" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O70" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q70" s="69">
+        <f>H83*D83</f>
+        <v>53133.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="88">
+        <v>542</v>
+      </c>
+      <c r="B71" s="91" t="s">
+        <v>49</v>
+      </c>
       <c r="C71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G71" s="24" t="str">
-        <f>IF(GroteHoogte!D71&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D71+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+      <c r="D71" s="13">
+        <v>3830</v>
+      </c>
+      <c r="E71" s="13">
+        <v>30</v>
+      </c>
+      <c r="F71" s="26">
+        <f t="shared" si="7"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="G71" s="24">
+        <v>10.3</v>
+      </c>
+      <c r="H71" s="12">
+        <v>11.5</v>
       </c>
       <c r="I71" s="2">
         <f>IF(IF(GroteHoogte!D71&gt;0,1,0)+IF(GroteHoogte!H71&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N71" s="14"/>
-    </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J71" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="29">
+        <v>729</v>
+      </c>
+      <c r="L71" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M71" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N71" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O71" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q71" s="69">
+        <f>H86*D86</f>
+        <v>40216.700000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B72" s="91" t="s">
+        <v>41</v>
+      </c>
       <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G72" s="24" t="str">
-        <f>IF(GroteHoogte!D72&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D72+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H72" s="12"/>
+      <c r="D72" s="13">
+        <v>3813</v>
+      </c>
+      <c r="E72" s="13">
+        <v>30</v>
+      </c>
+      <c r="F72" s="26">
+        <f t="shared" si="7"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="G72" s="24">
+        <v>10.1</v>
+      </c>
+      <c r="H72" s="12">
+        <v>11.5</v>
+      </c>
       <c r="I72" s="2">
         <f>IF(IF(GroteHoogte!D72&gt;0,1,0)+IF(GroteHoogte!H72&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N72" s="14"/>
-    </row>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G73" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J72" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="29">
+        <v>729</v>
+      </c>
+      <c r="L72" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M72" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O72" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q72" s="69" t="e">
+        <f>H89*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B73" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="13">
+        <v>21129</v>
+      </c>
+      <c r="D73" s="13">
+        <v>3725</v>
+      </c>
+      <c r="E73" s="13">
+        <v>30</v>
+      </c>
+      <c r="F73" s="26">
+        <f t="shared" si="7"/>
+        <v>-0.16879569028179375</v>
+      </c>
+      <c r="G73" s="24">
         <f>IF(GroteHoogte!D73&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D73+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H73" s="12"/>
+        <v>11.668795690281794</v>
+      </c>
+      <c r="H73" s="12">
+        <v>11.5</v>
+      </c>
       <c r="I73" s="2">
         <f>IF(IF(GroteHoogte!D73&gt;0,1,0)+IF(GroteHoogte!H73&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N73" s="14"/>
-    </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J73" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="29">
+        <v>729</v>
+      </c>
+      <c r="L73" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M73" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N73" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O73" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="88">
+        <v>540</v>
+      </c>
+      <c r="B74" s="91" t="s">
+        <v>49</v>
+      </c>
       <c r="C74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="26" t="str">
-        <f t="shared" ref="F74:F97" si="7">IF(I74,H74-G74,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="G74" s="24" t="str">
-        <f>IF(GroteHoogte!D74&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D74+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+      <c r="D74" s="13">
+        <v>2738</v>
+      </c>
+      <c r="E74" s="13">
+        <v>30</v>
+      </c>
+      <c r="F74" s="26">
+        <f t="shared" si="7"/>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="G74" s="24">
+        <v>8.1</v>
+      </c>
+      <c r="H74" s="12">
+        <v>10.8</v>
       </c>
       <c r="I74" s="2">
         <f>IF(IF(GroteHoogte!D74&gt;0,1,0)+IF(GroteHoogte!H74&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N74" s="14"/>
-    </row>
-    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J74" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="29">
+        <v>729</v>
+      </c>
+      <c r="L74" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M74" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N74" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O74" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B75" s="91" t="s">
+        <v>41</v>
+      </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="26" t="str">
+      <c r="D75" s="13">
+        <v>2643</v>
+      </c>
+      <c r="E75" s="13">
+        <v>30</v>
+      </c>
+      <c r="F75" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G75" s="24" t="str">
-        <f>IF(GroteHoogte!D75&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D75+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H75" s="12"/>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="G75" s="24">
+        <v>7.8</v>
+      </c>
+      <c r="H75" s="12">
+        <v>10.8</v>
+      </c>
       <c r="I75" s="2">
         <f>IF(IF(GroteHoogte!D75&gt;0,1,0)+IF(GroteHoogte!H75&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N75" s="14"/>
-    </row>
-    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="26" t="str">
+        <v>1</v>
+      </c>
+      <c r="J75" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="29">
+        <v>729</v>
+      </c>
+      <c r="L75" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M75" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N75" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O75" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B76" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="13">
+        <v>21160</v>
+      </c>
+      <c r="D76" s="13">
+        <v>2555</v>
+      </c>
+      <c r="E76" s="13">
+        <v>30</v>
+      </c>
+      <c r="F76" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G76" s="24" t="str">
+        <v>0.80155994023781751</v>
+      </c>
+      <c r="G76" s="24">
         <f>IF(GroteHoogte!D76&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D76+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H76" s="12"/>
+        <v>9.9984400597621832</v>
+      </c>
+      <c r="H76" s="12">
+        <v>10.8</v>
+      </c>
       <c r="I76" s="2">
         <f>IF(IF(GroteHoogte!D76&gt;0,1,0)+IF(GroteHoogte!H76&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" s="29">
+        <v>729</v>
+      </c>
+      <c r="L76" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M76" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N76" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O76" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="88">
+        <v>10520</v>
+      </c>
+      <c r="B77" s="91" t="s">
+        <v>49</v>
+      </c>
       <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="26" t="str">
+      <c r="D77" s="13">
+        <v>5022</v>
+      </c>
+      <c r="E77" s="13">
+        <v>30</v>
+      </c>
+      <c r="F77" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G77" s="24" t="str">
-        <f>IF(GroteHoogte!D77&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D77+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H77" s="12"/>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="G77" s="24">
+        <v>12.8</v>
+      </c>
+      <c r="H77" s="12">
+        <v>12.5</v>
+      </c>
       <c r="I77" s="2">
         <f>IF(IF(GroteHoogte!D77&gt;0,1,0)+IF(GroteHoogte!H77&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J77" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" s="29">
+        <v>729</v>
+      </c>
+      <c r="L77" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M77" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N77" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O77" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B78" s="91" t="s">
+        <v>41</v>
+      </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="26" t="str">
+      <c r="D78" s="13">
+        <v>5136</v>
+      </c>
+      <c r="E78" s="13">
+        <v>30</v>
+      </c>
+      <c r="F78" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G78" s="24" t="str">
-        <f>IF(GroteHoogte!D78&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D78+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H78" s="12"/>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="G78" s="24">
+        <v>12.8</v>
+      </c>
+      <c r="H78" s="12">
+        <v>12.5</v>
+      </c>
       <c r="I78" s="2">
         <f>IF(IF(GroteHoogte!D78&gt;0,1,0)+IF(GroteHoogte!H78&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="26" t="str">
+        <v>1</v>
+      </c>
+      <c r="J78" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" s="29">
+        <v>729</v>
+      </c>
+      <c r="L78" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M78" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N78" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O78" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B79" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="13">
+        <v>21168</v>
+      </c>
+      <c r="D79" s="13">
+        <v>4735</v>
+      </c>
+      <c r="E79" s="13">
+        <v>30</v>
+      </c>
+      <c r="F79" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G79" s="24" t="str">
+        <v>-0.6107266191918832</v>
+      </c>
+      <c r="G79" s="24">
         <f>IF(GroteHoogte!D79&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D79+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H79" s="12"/>
+        <v>13.110726619191883</v>
+      </c>
+      <c r="H79" s="12">
+        <v>12.5</v>
+      </c>
       <c r="I79" s="2">
         <f>IF(IF(GroteHoogte!D79&gt;0,1,0)+IF(GroteHoogte!H79&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J79" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" s="29">
+        <v>729</v>
+      </c>
+      <c r="L79" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M79" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N79" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O79" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="88">
+        <v>10519</v>
+      </c>
+      <c r="B80" s="91" t="s">
+        <v>49</v>
+      </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="26" t="str">
+      <c r="D80" s="13">
+        <v>4291</v>
+      </c>
+      <c r="E80" s="13">
+        <v>29</v>
+      </c>
+      <c r="F80" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G80" s="24" t="str">
-        <f>IF(GroteHoogte!D80&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D80+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H80" s="12"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="G80" s="24">
+        <v>11.3</v>
+      </c>
+      <c r="H80" s="12">
+        <v>11.9</v>
+      </c>
       <c r="I80" s="2">
         <f>IF(IF(GroteHoogte!D80&gt;0,1,0)+IF(GroteHoogte!H80&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J80" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="29">
+        <v>729</v>
+      </c>
+      <c r="L80" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M80" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N80" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O80" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="91" t="s">
+        <v>41</v>
+      </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="26" t="str">
+      <c r="D81" s="13">
+        <v>4258</v>
+      </c>
+      <c r="E81" s="13">
+        <v>30</v>
+      </c>
+      <c r="F81" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G81" s="24" t="str">
-        <f>IF(GroteHoogte!D81&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D81+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H81" s="12"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="G81" s="24">
+        <v>11</v>
+      </c>
+      <c r="H81" s="12">
+        <v>11.9</v>
+      </c>
       <c r="I81" s="2">
         <f>IF(IF(GroteHoogte!D81&gt;0,1,0)+IF(GroteHoogte!H81&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="26" t="str">
+        <v>1</v>
+      </c>
+      <c r="J81" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="29">
+        <v>729</v>
+      </c>
+      <c r="L81" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M81" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N81" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O81" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B82" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="13">
+        <v>21149</v>
+      </c>
+      <c r="D82" s="13">
+        <v>4168</v>
+      </c>
+      <c r="E82" s="13">
+        <v>30</v>
+      </c>
+      <c r="F82" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G82" s="24" t="str">
+        <v>-0.4012465828631484</v>
+      </c>
+      <c r="G82" s="24">
         <f>IF(GroteHoogte!D82&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D82+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H82" s="12"/>
+        <v>12.301246582863149</v>
+      </c>
+      <c r="H82" s="12">
+        <v>11.9</v>
+      </c>
       <c r="I82" s="2">
         <f>IF(IF(GroteHoogte!D82&gt;0,1,0)+IF(GroteHoogte!H82&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J82" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" s="29">
+        <v>729</v>
+      </c>
+      <c r="L82" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M82" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N82" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O82" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="88">
+        <v>547</v>
+      </c>
+      <c r="B83" s="91" t="s">
+        <v>49</v>
+      </c>
       <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="26" t="str">
+      <c r="D83" s="13">
+        <v>4465</v>
+      </c>
+      <c r="E83" s="13">
+        <v>29</v>
+      </c>
+      <c r="F83" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G83" s="24" t="str">
-        <f>IF(GroteHoogte!D83&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D83+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H83" s="12"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="G83" s="24">
+        <v>11.6</v>
+      </c>
+      <c r="H83" s="12">
+        <v>11.9</v>
+      </c>
       <c r="I83" s="2">
         <f>IF(IF(GroteHoogte!D83&gt;0,1,0)+IF(GroteHoogte!H83&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J83" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" s="29">
+        <v>729</v>
+      </c>
+      <c r="L83" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M83" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O83" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B84" s="91" t="s">
+        <v>41</v>
+      </c>
       <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="26" t="str">
+      <c r="D84" s="13">
+        <v>4386</v>
+      </c>
+      <c r="E84" s="13">
+        <v>30</v>
+      </c>
+      <c r="F84" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G84" s="24" t="str">
-        <f>IF(GroteHoogte!D84&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D84+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H84" s="12"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="G84" s="24">
+        <v>11.3</v>
+      </c>
+      <c r="H84" s="12">
+        <v>11.9</v>
+      </c>
       <c r="I84" s="2">
         <f>IF(IF(GroteHoogte!D84&gt;0,1,0)+IF(GroteHoogte!H84&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="26" t="str">
+        <v>1</v>
+      </c>
+      <c r="J84" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" s="29">
+        <v>729</v>
+      </c>
+      <c r="L84" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M84" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N84" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O84" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="13">
+        <v>21127</v>
+      </c>
+      <c r="D85" s="13">
+        <v>4138</v>
+      </c>
+      <c r="E85" s="13">
+        <v>30</v>
+      </c>
+      <c r="F85" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G85" s="24" t="str">
+        <v>-0.35841695131136397</v>
+      </c>
+      <c r="G85" s="24">
         <f>IF(GroteHoogte!D85&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D85+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H85" s="12"/>
+        <v>12.258416951311364</v>
+      </c>
+      <c r="H85" s="12">
+        <v>11.9</v>
+      </c>
       <c r="I85" s="2">
         <f>IF(IF(GroteHoogte!D85&gt;0,1,0)+IF(GroteHoogte!H85&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J85" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="29">
+        <v>729</v>
+      </c>
+      <c r="L85" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M85" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N85" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O85" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="88">
+        <v>548</v>
+      </c>
+      <c r="B86" s="91" t="s">
+        <v>49</v>
+      </c>
       <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="26" t="str">
+      <c r="D86" s="13">
+        <v>3559</v>
+      </c>
+      <c r="E86" s="13">
+        <v>29</v>
+      </c>
+      <c r="F86" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G86" s="24" t="str">
-        <f>IF(GroteHoogte!D86&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D86+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H86" s="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="G86" s="24">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H86" s="12">
+        <v>11.3</v>
+      </c>
       <c r="I86" s="2">
         <f>IF(IF(GroteHoogte!D86&gt;0,1,0)+IF(GroteHoogte!H86&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J86" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="29">
+        <v>729</v>
+      </c>
+      <c r="L86" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M86" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N86" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O86" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B87" s="91" t="s">
+        <v>41</v>
+      </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="26" t="str">
+      <c r="D87" s="13">
+        <v>3532</v>
+      </c>
+      <c r="E87" s="13">
+        <v>30</v>
+      </c>
+      <c r="F87" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G87" s="24" t="str">
-        <f>IF(GroteHoogte!D87&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D87+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H87" s="12"/>
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="G87" s="24">
+        <v>9.6</v>
+      </c>
+      <c r="H87" s="12">
+        <v>11.3</v>
+      </c>
       <c r="I87" s="2">
         <f>IF(IF(GroteHoogte!D87&gt;0,1,0)+IF(GroteHoogte!H87&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="26" t="str">
+        <v>1</v>
+      </c>
+      <c r="J87" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" s="29">
+        <v>729</v>
+      </c>
+      <c r="L87" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M87" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N87" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O87" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="13">
+        <v>21101</v>
+      </c>
+      <c r="D88" s="13">
+        <v>3492</v>
+      </c>
+      <c r="E88" s="13">
+        <v>30</v>
+      </c>
+      <c r="F88" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G88" s="24" t="str">
+        <v>-3.615221856292905E-2</v>
+      </c>
+      <c r="G88" s="24">
         <f>IF(GroteHoogte!D88&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D88+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H88" s="12"/>
+        <v>11.33615221856293</v>
+      </c>
+      <c r="H88" s="12">
+        <v>11.3</v>
+      </c>
       <c r="I88" s="2">
         <f>IF(IF(GroteHoogte!D88&gt;0,1,0)+IF(GroteHoogte!H88&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J88" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" s="29">
+        <v>729</v>
+      </c>
+      <c r="L88" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M88" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N88" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O88" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="88">
+        <v>545</v>
+      </c>
+      <c r="B89" s="91" t="s">
+        <v>49</v>
+      </c>
       <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="26" t="str">
+      <c r="D89" s="13">
+        <v>4135</v>
+      </c>
+      <c r="E89" s="13">
+        <v>28</v>
+      </c>
+      <c r="F89" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G89" s="24" t="str">
-        <f>IF(GroteHoogte!D89&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D89+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H89" s="12"/>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="G89" s="24">
+        <v>11</v>
+      </c>
+      <c r="H89" s="12">
+        <v>11.7</v>
+      </c>
       <c r="I89" s="2">
         <f>IF(IF(GroteHoogte!D89&gt;0,1,0)+IF(GroteHoogte!H89&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J89" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" s="29">
+        <v>729</v>
+      </c>
+      <c r="L89" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M89" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N89" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O89" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="91" t="s">
+        <v>41</v>
+      </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="26" t="str">
+      <c r="D90" s="13">
+        <v>4083</v>
+      </c>
+      <c r="E90" s="13">
+        <v>29</v>
+      </c>
+      <c r="F90" s="26">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G90" s="24" t="str">
-        <f>IF(GroteHoogte!D90&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D90+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="H90" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="G90" s="24">
+        <v>10.7</v>
+      </c>
+      <c r="H90" s="12">
+        <v>11.7</v>
+      </c>
       <c r="I90" s="2">
         <f>IF(IF(GroteHoogte!D90&gt;0,1,0)+IF(GroteHoogte!H90&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F91" s="26" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G91" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J90" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" s="29">
+        <v>729</v>
+      </c>
+      <c r="L90" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M90" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N90" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O90" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="13">
+        <v>21139</v>
+      </c>
+      <c r="D91" s="13">
+        <v>3946</v>
+      </c>
+      <c r="E91" s="13">
+        <v>29</v>
+      </c>
+      <c r="F91" s="26">
+        <f>IF(I91,H91-G91,TRIM(""))</f>
+        <v>-0.2843073093799422</v>
+      </c>
+      <c r="G91" s="24">
         <f>IF(GroteHoogte!D91&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D91+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>11.984307309379941</v>
+      </c>
+      <c r="H91" s="12">
+        <v>11.7</v>
       </c>
       <c r="I91" s="2">
         <f>IF(IF(GroteHoogte!D91&gt;0,1,0)+IF(GroteHoogte!H91&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J91" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" s="29">
+        <v>729</v>
+      </c>
+      <c r="L91" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M91" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="32">
+        <v>42594</v>
+      </c>
+      <c r="O91" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F92" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F92:F97" si="8">IF(I92,H92-G92,TRIM(""))</f>
         <v/>
       </c>
       <c r="G92" s="24" t="str">
@@ -31199,9 +32396,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F93" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G93" s="24" t="str">
@@ -31213,9 +32410,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F94" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G94" s="24" t="str">
@@ -31227,9 +32424,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F95" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G95" s="24" t="str">
@@ -31241,9 +32438,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F96" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G96" s="24" t="str">
@@ -31257,7 +32454,7 @@
     </row>
     <row r="97" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F97" s="26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G97" s="24" t="str">
@@ -35638,34 +36835,124 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="M2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:I1048576">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+  <conditionalFormatting sqref="H92:I1048576 H4:I63 H65:I65 I65:I91 H66:H91">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="25">
       <formula>LEN(TRIM(H4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:E1048576">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="C4:E63 C65:E1048576">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="24">
       <formula>LEN(TRIM(C4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G1048576">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="4">
+  <conditionalFormatting sqref="G4:G63 G65:G1048576">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="22">
       <formula>LEN(TRIM(G4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:I1048576">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+  <conditionalFormatting sqref="C91:H91 C92:I1048576 C4:I63 G65:I65 G89:H90 G86:H86 G83:H83 G80:H80 G77:H77 G74:H74 G71:H71 G68:H68 I65:I91 H87:H88 H84:H85 H81:H82 H78:H79 H75:H76 H72:H73 H69:H70 H66:H67 G65:G92 C65:F91">
+    <cfRule type="containsBlanks" dxfId="21" priority="19">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="F4:F63 F65:F1048576">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="21">
       <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I1048576">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+  <conditionalFormatting sqref="I4:I63 I65:I1048576">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="18">
+      <formula>LEN(TRIM(G67))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="containsBlanks" dxfId="17" priority="17">
+      <formula>LEN(TRIM(G67))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="16">
+      <formula>LEN(TRIM(G88))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G88">
+    <cfRule type="containsBlanks" dxfId="14" priority="15">
+      <formula>LEN(TRIM(G88))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G85">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="14">
+      <formula>LEN(TRIM(G85))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G85">
+    <cfRule type="containsBlanks" dxfId="12" priority="13">
+      <formula>LEN(TRIM(G85))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
+      <formula>LEN(TRIM(G82))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="containsBlanks" dxfId="10" priority="11">
+      <formula>LEN(TRIM(G82))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="10">
+      <formula>LEN(TRIM(G79))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
+      <formula>LEN(TRIM(G79))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+      <formula>LEN(TRIM(G76))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(G76))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(G73))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(G73))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(G70))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(G70))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(G67))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(G67))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -35674,7 +36961,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="notBetween" id="{83D2047F-29C6-4704-BCC5-3CB6D4BA3DD3}">
+          <x14:cfRule type="cellIs" priority="20" operator="notBetween" id="{83D2047F-29C6-4704-BCC5-3CB6D4BA3DD3}">
             <xm:f>-Grafiek_kalibratiemetingen!$AC$4-1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
             <xm:f>Grafiek_kalibratiemetingen!$AC$4+1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
             <x14:dxf>
@@ -35690,7 +36977,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F4:F49994</xm:sqref>
+          <xm:sqref>F4:F63 F65:F49994</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -35725,7 +37012,7 @@
       </c>
       <c r="R1">
         <f>COUNTIF(V3:V50000,"=1")</f>
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="17:29" x14ac:dyDescent="0.25">
@@ -35734,7 +37021,7 @@
       </c>
       <c r="R2" s="18">
         <f>-SUM(W3:W50000)</f>
-        <v>-6690606.5</v>
+        <v>-6736622.5999999996</v>
       </c>
       <c r="T2" t="s">
         <v>92</v>
@@ -35762,7 +37049,7 @@
       </c>
       <c r="AC2">
         <f>MAX(AA3:AA50000)</f>
-        <v>2.4932182440782462</v>
+        <v>2.4921132822015544</v>
       </c>
     </row>
     <row r="3" spans="17:29" x14ac:dyDescent="0.25">
@@ -35771,7 +37058,7 @@
       </c>
       <c r="R3">
         <f>AVERAGEIF(V3:V50000,"=1",T3:T50000)</f>
-        <v>12.979816513761454</v>
+        <v>12.968181818181806</v>
       </c>
       <c r="T3">
         <f>Kalibratiemetingen!G19</f>
@@ -35795,18 +37082,18 @@
       </c>
       <c r="Z3">
         <f>IF(V3,$R$13*U3+$R$14)</f>
-        <v>8.7581084585339806</v>
+        <v>8.7492424728351246</v>
       </c>
       <c r="AA3">
         <f>ABS(T3-Z3)</f>
-        <v>1.0418915414660201</v>
+        <v>1.0507575271648761</v>
       </c>
       <c r="AB3" s="17" t="s">
         <v>105</v>
       </c>
       <c r="AC3">
         <f>MIN(AA3:AA50000)</f>
-        <v>9.8074782900550161E-3</v>
+        <v>8.7854204401391911E-3</v>
       </c>
     </row>
     <row r="4" spans="17:29" x14ac:dyDescent="0.25">
@@ -35815,7 +37102,7 @@
       </c>
       <c r="R4">
         <f>AVERAGEIF(V3:V50000,"=1",U3:U50000)</f>
-        <v>4641.5963302752298</v>
+        <v>4635.1545454545458</v>
       </c>
       <c r="T4">
         <f>Kalibratiemetingen!G85</f>
@@ -35839,18 +37126,18 @@
       </c>
       <c r="Z4">
         <f t="shared" ref="Z4:Z67" si="3">IF(V4,$R$13*U4+$R$14)</f>
-        <v>10.242037257528466</v>
+        <v>10.23543068768206</v>
       </c>
       <c r="AA4">
         <f t="shared" ref="AA4:AA67" si="4">ABS(T4-Z4)</f>
-        <v>0.3579627424715337</v>
+        <v>0.36456931231793988</v>
       </c>
       <c r="AB4" s="17" t="s">
         <v>106</v>
       </c>
       <c r="AC4">
         <f>AVERAGEIF(V3:V50000,"=1",AA3:AA50000)</f>
-        <v>0.51561512786493124</v>
+        <v>0.51465036577991596</v>
       </c>
     </row>
     <row r="5" spans="17:29" x14ac:dyDescent="0.25">
@@ -35859,7 +37146,7 @@
       </c>
       <c r="R5">
         <f>SUMIF(V3:V50000,"=1",U3:U50000)/R1</f>
-        <v>4641.5963302752298</v>
+        <v>4635.1545454545458</v>
       </c>
       <c r="T5">
         <f>Kalibratiemetingen!G26</f>
@@ -35883,18 +37170,18 @@
       </c>
       <c r="Z5">
         <f t="shared" si="3"/>
-        <v>11.122986342810496</v>
+        <v>11.117721097648827</v>
       </c>
       <c r="AA5">
         <f t="shared" si="4"/>
-        <v>0.32298634281049488</v>
+        <v>0.3177210976488265</v>
       </c>
       <c r="AB5" s="17" t="s">
         <v>109</v>
       </c>
       <c r="AC5">
         <f>_xlfn.STDEV.P(AA3:AA50000)</f>
-        <v>0.39359352980538653</v>
+        <v>0.39355413840093456</v>
       </c>
     </row>
     <row r="6" spans="17:29" x14ac:dyDescent="0.25">
@@ -35903,7 +37190,7 @@
       </c>
       <c r="R6">
         <f>SUMIF(V3:V50000,"=1",U3:U50000)</f>
-        <v>505934</v>
+        <v>509867</v>
       </c>
       <c r="T6">
         <f>Kalibratiemetingen!G23</f>
@@ -35927,18 +37214,18 @@
       </c>
       <c r="Z6">
         <f t="shared" si="3"/>
-        <v>10.778019225272873</v>
+        <v>10.772228736464429</v>
       </c>
       <c r="AA6">
         <f t="shared" si="4"/>
-        <v>2.1980774727127894E-2</v>
+        <v>2.7771263535571578E-2</v>
       </c>
       <c r="AB6" s="17" t="s">
         <v>110</v>
       </c>
       <c r="AC6">
         <f>_xlfn.STDEV.S(AA3:AA50000)</f>
-        <v>0.39592941695844286</v>
+        <v>0.39588979177505756</v>
       </c>
     </row>
     <row r="7" spans="17:29" x14ac:dyDescent="0.25">
@@ -35947,7 +37234,7 @@
       </c>
       <c r="R7">
         <f>SUMIF(V3:V50000,"=1",T3:T50000)</f>
-        <v>1414.7999999999986</v>
+        <v>1426.4999999999986</v>
       </c>
       <c r="T7">
         <f>Kalibratiemetingen!G27</f>
@@ -35971,11 +37258,11 @@
       </c>
       <c r="Z7">
         <f t="shared" si="3"/>
-        <v>10.748084062180766</v>
+        <v>10.742247994378181</v>
       </c>
       <c r="AA7">
         <f t="shared" si="4"/>
-        <v>5.191593781923487E-2</v>
+        <v>5.7752005621820146E-2</v>
       </c>
     </row>
     <row r="8" spans="17:29" x14ac:dyDescent="0.25">
@@ -35984,7 +37271,7 @@
       </c>
       <c r="R8">
         <f>SUMIF(V3:V50000,"=1",X3:X500000)</f>
-        <v>2435102116</v>
+        <v>2450570605</v>
       </c>
       <c r="T8">
         <f>Kalibratiemetingen!G25</f>
@@ -36008,11 +37295,11 @@
       </c>
       <c r="Z8">
         <f t="shared" si="3"/>
-        <v>10.244888225442001</v>
+        <v>10.238285996452179</v>
       </c>
       <c r="AA8">
         <f t="shared" si="4"/>
-        <v>0.55511177455800009</v>
+        <v>0.56171400354782186</v>
       </c>
     </row>
     <row r="9" spans="17:29" x14ac:dyDescent="0.25">
@@ -36038,11 +37325,11 @@
       </c>
       <c r="Z9">
         <f t="shared" si="3"/>
-        <v>11.30829925719021</v>
+        <v>11.303316167706562</v>
       </c>
       <c r="AA9">
         <f t="shared" si="4"/>
-        <v>0.40829925719020999</v>
+        <v>0.40331616770656176</v>
       </c>
     </row>
     <row r="10" spans="17:29" x14ac:dyDescent="0.25">
@@ -36051,7 +37338,7 @@
       </c>
       <c r="R10">
         <f>R2+R3*R6</f>
-        <v>-123676.01192661282</v>
+        <v>-124574.64090909623</v>
       </c>
       <c r="T10">
         <f>Kalibratiemetingen!G20</f>
@@ -36075,11 +37362,11 @@
       </c>
       <c r="Z10">
         <f t="shared" si="3"/>
-        <v>11.418061521861272</v>
+        <v>11.413245555356143</v>
       </c>
       <c r="AA10">
         <f t="shared" si="4"/>
-        <v>0.41806152186127221</v>
+        <v>0.41324555535614316</v>
       </c>
     </row>
     <row r="11" spans="17:29" x14ac:dyDescent="0.25">
@@ -36088,7 +37375,7 @@
       </c>
       <c r="R11">
         <f>-R8+(R6*R6)/R1</f>
-        <v>-86760718.238532066</v>
+        <v>-87258262.372727394</v>
       </c>
       <c r="T11">
         <f>Kalibratiemetingen!G81</f>
@@ -36112,11 +37399,11 @@
       </c>
       <c r="Z11">
         <f t="shared" si="3"/>
-        <v>10.703894059520987</v>
+        <v>10.697990708441335</v>
       </c>
       <c r="AA11">
         <f t="shared" si="4"/>
-        <v>0.29610594047901273</v>
+        <v>0.30200929155866518</v>
       </c>
     </row>
     <row r="12" spans="17:29" x14ac:dyDescent="0.25">
@@ -36142,11 +37429,11 @@
       </c>
       <c r="Z12">
         <f t="shared" si="3"/>
-        <v>11.134390214464633</v>
+        <v>11.129142332729304</v>
       </c>
       <c r="AA12">
         <f t="shared" si="4"/>
-        <v>3.4390214464632862E-2</v>
+        <v>2.9142332729303888E-2</v>
       </c>
     </row>
     <row r="13" spans="17:29" x14ac:dyDescent="0.25">
@@ -36155,7 +37442,7 @@
       </c>
       <c r="R13">
         <f>R10/R11</f>
-        <v>1.4254839567670382E-3</v>
+        <v>1.4276543850594953E-3</v>
       </c>
       <c r="T13">
         <f>Kalibratiemetingen!G17</f>
@@ -36179,11 +37466,11 @@
       </c>
       <c r="Z13">
         <f t="shared" si="3"/>
-        <v>11.65611734264137</v>
+        <v>11.651663837661079</v>
       </c>
       <c r="AA13">
         <f t="shared" si="4"/>
-        <v>0.45611734264137027</v>
+        <v>0.45166383766107998</v>
       </c>
     </row>
     <row r="14" spans="17:29" x14ac:dyDescent="0.25">
@@ -36192,7 +37479,7 @@
       </c>
       <c r="R14">
         <f>R3-R13*R4</f>
-        <v>6.3632954111653559</v>
+        <v>6.3507831059351725</v>
       </c>
       <c r="T14">
         <f>Kalibratiemetingen!G16</f>
@@ -36216,11 +37503,11 @@
       </c>
       <c r="Z14">
         <f t="shared" si="3"/>
-        <v>11.514994430921432</v>
+        <v>11.510326053540188</v>
       </c>
       <c r="AA14">
         <f t="shared" si="4"/>
-        <v>0.31499443092143231</v>
+        <v>0.31032605354018905</v>
       </c>
     </row>
     <row r="15" spans="17:29" x14ac:dyDescent="0.25">
@@ -36246,11 +37533,11 @@
       </c>
       <c r="Z15">
         <f t="shared" si="3"/>
-        <v>11.921257358600037</v>
+        <v>11.917207553282145</v>
       </c>
       <c r="AA15">
         <f t="shared" si="4"/>
-        <v>0.52125735860003708</v>
+        <v>0.51720755328214452</v>
       </c>
     </row>
     <row r="16" spans="17:29" x14ac:dyDescent="0.25">
@@ -36276,11 +37563,11 @@
       </c>
       <c r="Z16">
         <f t="shared" si="3"/>
-        <v>11.840004773064317</v>
+        <v>11.835831253333755</v>
       </c>
       <c r="AA16">
         <f t="shared" si="4"/>
-        <v>0.44000477306431662</v>
+        <v>0.43583125333375428</v>
       </c>
     </row>
     <row r="17" spans="20:27" x14ac:dyDescent="0.25">
@@ -36306,11 +37593,11 @@
       </c>
       <c r="Z17">
         <f t="shared" si="3"/>
-        <v>12.058103818449673</v>
+        <v>12.054262374247855</v>
       </c>
       <c r="AA17">
         <f t="shared" si="4"/>
-        <v>0.55810381844967338</v>
+        <v>0.5542623742478554</v>
       </c>
     </row>
     <row r="18" spans="20:27" x14ac:dyDescent="0.25">
@@ -36336,11 +37623,11 @@
       </c>
       <c r="Z18">
         <f t="shared" si="3"/>
-        <v>12.219183505564349</v>
+        <v>12.215587319759578</v>
       </c>
       <c r="AA18">
         <f t="shared" si="4"/>
-        <v>0.61918350556434909</v>
+        <v>0.61558731975957848</v>
       </c>
     </row>
     <row r="19" spans="20:27" x14ac:dyDescent="0.25">
@@ -36366,11 +37653,11 @@
       </c>
       <c r="Z19">
         <f t="shared" si="3"/>
-        <v>12.173568018947805</v>
+        <v>12.169902379437676</v>
       </c>
       <c r="AA19">
         <f t="shared" si="4"/>
-        <v>0.57356801894780496</v>
+        <v>0.56990237943767674</v>
       </c>
     </row>
     <row r="20" spans="20:27" x14ac:dyDescent="0.25">
@@ -36396,11 +37683,11 @@
       </c>
       <c r="Z20">
         <f t="shared" si="3"/>
-        <v>11.925533810470338</v>
+        <v>11.921490516437323</v>
       </c>
       <c r="AA20">
         <f t="shared" si="4"/>
-        <v>0.32553381047033803</v>
+        <v>0.32149051643732385</v>
       </c>
     </row>
     <row r="21" spans="20:27" x14ac:dyDescent="0.25">
@@ -36426,11 +37713,11 @@
       </c>
       <c r="Z21">
         <f t="shared" si="3"/>
-        <v>12.428729647209103</v>
+        <v>12.425452514363325</v>
       </c>
       <c r="AA21">
         <f t="shared" si="4"/>
-        <v>0.7287296472091036</v>
+        <v>0.72545251436332592</v>
       </c>
     </row>
     <row r="22" spans="20:27" x14ac:dyDescent="0.25">
@@ -36456,11 +37743,11 @@
       </c>
       <c r="Z22">
         <f t="shared" si="3"/>
-        <v>12.534215460009865</v>
+        <v>12.531098938857728</v>
       </c>
       <c r="AA22">
         <f t="shared" si="4"/>
-        <v>0.73421546000986382</v>
+        <v>0.73109893885772692</v>
       </c>
     </row>
     <row r="23" spans="20:27" x14ac:dyDescent="0.25">
@@ -36486,11 +37773,11 @@
       </c>
       <c r="Z23">
         <f t="shared" si="3"/>
-        <v>12.525662556269262</v>
+        <v>12.52253301254737</v>
       </c>
       <c r="AA23">
         <f t="shared" si="4"/>
-        <v>0.72566255626926157</v>
+        <v>0.72253301254736968</v>
       </c>
     </row>
     <row r="24" spans="20:27" x14ac:dyDescent="0.25">
@@ -36516,11 +37803,11 @@
       </c>
       <c r="Z24">
         <f t="shared" si="3"/>
-        <v>12.075209625930878</v>
+        <v>12.07139422686857</v>
       </c>
       <c r="AA24">
         <f t="shared" si="4"/>
-        <v>0.27520962593087717</v>
+        <v>0.27139422686856918</v>
       </c>
     </row>
     <row r="25" spans="20:27" x14ac:dyDescent="0.25">
@@ -36546,11 +37833,11 @@
       </c>
       <c r="Z25">
         <f t="shared" si="3"/>
-        <v>12.981817422434714</v>
+        <v>12.979382415766409</v>
       </c>
       <c r="AA25">
         <f t="shared" si="4"/>
-        <v>1.0818174224347139</v>
+        <v>1.0793824157664087</v>
       </c>
     </row>
     <row r="26" spans="20:27" x14ac:dyDescent="0.25">
@@ -36576,11 +37863,11 @@
       </c>
       <c r="Z26">
         <f t="shared" si="3"/>
-        <v>13.050240652359532</v>
+        <v>13.047909826249265</v>
       </c>
       <c r="AA26">
         <f t="shared" si="4"/>
-        <v>1.0502406523595322</v>
+        <v>1.0479098262492652</v>
       </c>
     </row>
     <row r="27" spans="20:27" x14ac:dyDescent="0.25">
@@ -36606,11 +37893,11 @@
       </c>
       <c r="Z27">
         <f t="shared" si="3"/>
-        <v>12.216332537650814</v>
+        <v>12.212732010989459</v>
       </c>
       <c r="AA27">
         <f t="shared" si="4"/>
-        <v>0.21633253765081406</v>
+        <v>0.21273201098945904</v>
       </c>
     </row>
     <row r="28" spans="20:27" x14ac:dyDescent="0.25">
@@ -36636,11 +37923,11 @@
       </c>
       <c r="Z28">
         <f t="shared" si="3"/>
-        <v>11.972574781043651</v>
+        <v>11.968603111144287</v>
       </c>
       <c r="AA28">
         <f t="shared" si="4"/>
-        <v>2.7425218956349084E-2</v>
+        <v>3.1396888855713456E-2</v>
       </c>
     </row>
     <row r="29" spans="20:27" x14ac:dyDescent="0.25">
@@ -36666,11 +37953,11 @@
       </c>
       <c r="Z29">
         <f t="shared" si="3"/>
-        <v>11.677499601992874</v>
+        <v>11.673078653436971</v>
       </c>
       <c r="AA29">
         <f t="shared" si="4"/>
-        <v>0.32250039800712571</v>
+        <v>0.3269213465630294</v>
       </c>
     </row>
     <row r="30" spans="20:27" x14ac:dyDescent="0.25">
@@ -36696,11 +37983,11 @@
       </c>
       <c r="Z30">
         <f t="shared" si="3"/>
-        <v>13.254084858177219</v>
+        <v>13.252064403312772</v>
       </c>
       <c r="AA30">
         <f t="shared" si="4"/>
-        <v>1.1540848581772192</v>
+        <v>1.1520644033127727</v>
       </c>
     </row>
     <row r="31" spans="20:27" x14ac:dyDescent="0.25">
@@ -36726,11 +38013,11 @@
       </c>
       <c r="Z31">
         <f t="shared" si="3"/>
-        <v>13.107260010630213</v>
+        <v>13.105016001651645</v>
       </c>
       <c r="AA31">
         <f t="shared" si="4"/>
-        <v>0.80726001063021258</v>
+        <v>0.80501600165164433</v>
       </c>
     </row>
     <row r="32" spans="20:27" x14ac:dyDescent="0.25">
@@ -36756,11 +38043,11 @@
       </c>
       <c r="Z32">
         <f t="shared" si="3"/>
-        <v>12.960435163083208</v>
+        <v>12.957967599990518</v>
       </c>
       <c r="AA32">
         <f t="shared" si="4"/>
-        <v>0.66043516308320704</v>
+        <v>0.65796759999051702</v>
       </c>
     </row>
     <row r="33" spans="20:27" x14ac:dyDescent="0.25">
@@ -36786,11 +38073,11 @@
       </c>
       <c r="Z33">
         <f t="shared" si="3"/>
-        <v>12.591234818280546</v>
+        <v>12.588205114260107</v>
       </c>
       <c r="AA33">
         <f t="shared" si="4"/>
-        <v>0.29123481828054487</v>
+        <v>0.28820511426010675</v>
       </c>
     </row>
     <row r="34" spans="20:27" x14ac:dyDescent="0.25">
@@ -36816,11 +38103,11 @@
       </c>
       <c r="Z34">
         <f t="shared" si="3"/>
-        <v>13.433695836729864</v>
+        <v>13.431948855830269</v>
       </c>
       <c r="AA34">
         <f t="shared" si="4"/>
-        <v>0.93369583672986423</v>
+        <v>0.9319488558302691</v>
       </c>
     </row>
     <row r="35" spans="20:27" x14ac:dyDescent="0.25">
@@ -36846,11 +38133,11 @@
       </c>
       <c r="Z35">
         <f t="shared" si="3"/>
-        <v>13.001774197829452</v>
+        <v>12.999369577157243</v>
       </c>
       <c r="AA35">
         <f t="shared" si="4"/>
-        <v>0.50177419782945165</v>
+        <v>0.49936957715724262</v>
       </c>
     </row>
     <row r="36" spans="20:27" x14ac:dyDescent="0.25">
@@ -36876,11 +38163,11 @@
       </c>
       <c r="Z36">
         <f t="shared" si="3"/>
-        <v>12.906266772726061</v>
+        <v>12.903716733358255</v>
       </c>
       <c r="AA36">
         <f t="shared" si="4"/>
-        <v>0.40626677272606138</v>
+        <v>0.4037167333582552</v>
       </c>
     </row>
     <row r="37" spans="20:27" x14ac:dyDescent="0.25">
@@ -36906,11 +38193,11 @@
       </c>
       <c r="Z37">
         <f t="shared" si="3"/>
-        <v>13.326784539972337</v>
+        <v>13.324874776950807</v>
       </c>
       <c r="AA37">
         <f t="shared" si="4"/>
-        <v>0.72678453997233738</v>
+        <v>0.72487477695080749</v>
       </c>
     </row>
     <row r="38" spans="20:27" x14ac:dyDescent="0.25">
@@ -36936,11 +38223,11 @@
       </c>
       <c r="Z38">
         <f t="shared" si="3"/>
-        <v>13.28687098918286</v>
+        <v>13.284900454169142</v>
       </c>
       <c r="AA38">
         <f t="shared" si="4"/>
-        <v>0.68687098918286082</v>
+        <v>0.68490045416914214</v>
       </c>
     </row>
     <row r="39" spans="20:27" x14ac:dyDescent="0.25">
@@ -36966,11 +38253,11 @@
       </c>
       <c r="Z39">
         <f t="shared" si="3"/>
-        <v>13.188512596165936</v>
+        <v>13.186392301600037</v>
       </c>
       <c r="AA39">
         <f t="shared" si="4"/>
-        <v>0.58851259616593588</v>
+        <v>0.58639230160003741</v>
       </c>
     </row>
     <row r="40" spans="20:27" x14ac:dyDescent="0.25">
@@ -36996,11 +38283,11 @@
       </c>
       <c r="Z40">
         <f t="shared" si="3"/>
-        <v>13.198490983863305</v>
+        <v>13.196385882295452</v>
       </c>
       <c r="AA40">
         <f t="shared" si="4"/>
-        <v>0.49849098386330581</v>
+        <v>0.49638588229545277</v>
       </c>
     </row>
     <row r="41" spans="20:27" x14ac:dyDescent="0.25">
@@ -37026,11 +38313,11 @@
       </c>
       <c r="Z41">
         <f t="shared" si="3"/>
-        <v>13.107260010630213</v>
+        <v>13.105016001651645</v>
       </c>
       <c r="AA41">
         <f t="shared" si="4"/>
-        <v>0.407260010630214</v>
+        <v>0.40501600165164575</v>
       </c>
     </row>
     <row r="42" spans="20:27" x14ac:dyDescent="0.25">
@@ -37056,11 +38343,11 @@
       </c>
       <c r="Z42">
         <f t="shared" si="3"/>
-        <v>13.617583267152813</v>
+        <v>13.616116271502944</v>
       </c>
       <c r="AA42">
         <f t="shared" si="4"/>
-        <v>0.81758326715281271</v>
+        <v>0.81611627150294375</v>
       </c>
     </row>
     <row r="43" spans="20:27" x14ac:dyDescent="0.25">
@@ -37086,11 +38373,11 @@
       </c>
       <c r="Z43">
         <f t="shared" si="3"/>
-        <v>13.313955184361433</v>
+        <v>13.312025887485273</v>
       </c>
       <c r="AA43">
         <f t="shared" si="4"/>
-        <v>0.51395518436143206</v>
+        <v>0.51202588748527234</v>
       </c>
     </row>
     <row r="44" spans="20:27" x14ac:dyDescent="0.25">
@@ -37116,11 +38403,11 @@
       </c>
       <c r="Z44">
         <f t="shared" si="3"/>
-        <v>13.747302307218614</v>
+        <v>13.746032820543359</v>
       </c>
       <c r="AA44">
         <f t="shared" si="4"/>
-        <v>0.8473023072186141</v>
+        <v>0.84603282054335871</v>
       </c>
     </row>
     <row r="45" spans="20:27" x14ac:dyDescent="0.25">
@@ -37146,11 +38433,11 @@
       </c>
       <c r="Z45">
         <f t="shared" si="3"/>
-        <v>13.647518430244922</v>
+        <v>13.646097013589195</v>
       </c>
       <c r="AA45">
         <f t="shared" si="4"/>
-        <v>0.74751843024492182</v>
+        <v>0.74609701358919445</v>
       </c>
     </row>
     <row r="46" spans="20:27" x14ac:dyDescent="0.25">
@@ -37176,11 +38463,11 @@
       </c>
       <c r="Z46">
         <f t="shared" si="3"/>
-        <v>13.482162291259945</v>
+        <v>13.480489104922292</v>
       </c>
       <c r="AA46">
         <f t="shared" si="4"/>
-        <v>0.58216229125994445</v>
+        <v>0.58048910492229133</v>
       </c>
     </row>
     <row r="47" spans="20:27" x14ac:dyDescent="0.25">
@@ -37206,11 +38493,11 @@
       </c>
       <c r="Z47">
         <f t="shared" si="3"/>
-        <v>13.268339697744889</v>
+        <v>13.266340947163368</v>
       </c>
       <c r="AA47">
         <f t="shared" si="4"/>
-        <v>0.36833969774488828</v>
+        <v>0.3663409471633674</v>
       </c>
     </row>
     <row r="48" spans="20:27" x14ac:dyDescent="0.25">
@@ -37236,11 +38523,11 @@
       </c>
       <c r="Z48">
         <f t="shared" si="3"/>
-        <v>13.792917793835159</v>
+        <v>13.791717760865263</v>
       </c>
       <c r="AA48">
         <f t="shared" si="4"/>
-        <v>0.79291779383515859</v>
+        <v>0.79171776086526258</v>
       </c>
     </row>
     <row r="49" spans="20:27" x14ac:dyDescent="0.25">
@@ -37266,11 +38553,11 @@
       </c>
       <c r="Z49">
         <f t="shared" si="3"/>
-        <v>13.543458101400926</v>
+        <v>13.54187824347985</v>
       </c>
       <c r="AA49">
         <f t="shared" si="4"/>
-        <v>0.5434581014009261</v>
+        <v>0.54187824347985014</v>
       </c>
     </row>
     <row r="50" spans="20:27" x14ac:dyDescent="0.25">
@@ -37296,11 +38583,11 @@
       </c>
       <c r="Z50">
         <f t="shared" si="3"/>
-        <v>14.040952002312624</v>
+        <v>14.040129623865614</v>
       </c>
       <c r="AA50">
         <f t="shared" si="4"/>
-        <v>0.9409520023126241</v>
+        <v>0.94012962386561405</v>
       </c>
     </row>
     <row r="51" spans="20:27" x14ac:dyDescent="0.25">
@@ -37326,11 +38613,11 @@
       </c>
       <c r="Z51">
         <f t="shared" si="3"/>
-        <v>13.587648104060705</v>
+        <v>13.586135529416694</v>
       </c>
       <c r="AA51">
         <f t="shared" si="4"/>
-        <v>0.48764810406070502</v>
+        <v>0.48613552941669447</v>
       </c>
     </row>
     <row r="52" spans="20:27" x14ac:dyDescent="0.25">
@@ -37356,11 +38643,11 @@
       </c>
       <c r="Z52">
         <f t="shared" si="3"/>
-        <v>13.355294219107678</v>
+        <v>13.353427864651998</v>
       </c>
       <c r="AA52">
         <f t="shared" si="4"/>
-        <v>0.2552942191076788</v>
+        <v>0.25342786465199829</v>
       </c>
     </row>
     <row r="53" spans="20:27" x14ac:dyDescent="0.25">
@@ -37386,11 +38673,11 @@
       </c>
       <c r="Z53">
         <f t="shared" si="3"/>
-        <v>13.861341023759977</v>
+        <v>13.860245171348119</v>
       </c>
       <c r="AA53">
         <f t="shared" si="4"/>
-        <v>0.66134102375997728</v>
+        <v>0.66024517134811944</v>
       </c>
     </row>
     <row r="54" spans="20:27" x14ac:dyDescent="0.25">
@@ -37416,11 +38703,11 @@
       </c>
       <c r="Z54">
         <f t="shared" si="3"/>
-        <v>13.798619729662228</v>
+        <v>13.797428378405499</v>
       </c>
       <c r="AA54">
         <f t="shared" si="4"/>
-        <v>0.59861972966222865</v>
+        <v>0.59742837840549967</v>
       </c>
     </row>
     <row r="55" spans="20:27" x14ac:dyDescent="0.25">
@@ -37446,11 +38733,11 @@
       </c>
       <c r="Z55">
         <f t="shared" si="3"/>
-        <v>13.653220366071988</v>
+        <v>13.651807631129433</v>
       </c>
       <c r="AA55">
         <f t="shared" si="4"/>
-        <v>0.45322036607198868</v>
+        <v>0.45180763112943367</v>
       </c>
     </row>
     <row r="56" spans="20:27" x14ac:dyDescent="0.25">
@@ -37476,11 +38763,11 @@
       </c>
       <c r="Z56">
         <f t="shared" si="3"/>
-        <v>13.225575179041877</v>
+        <v>13.223511315611583</v>
       </c>
       <c r="AA56">
         <f t="shared" si="4"/>
-        <v>2.5575179041878116E-2</v>
+        <v>2.3511315611584038E-2</v>
       </c>
     </row>
     <row r="57" spans="20:27" x14ac:dyDescent="0.25">
@@ -37506,11 +38793,11 @@
       </c>
       <c r="Z57">
         <f t="shared" si="3"/>
-        <v>14.234817820432941</v>
+        <v>14.234290620233706</v>
       </c>
       <c r="AA57">
         <f t="shared" si="4"/>
-        <v>0.93481782043294004</v>
+        <v>0.93429062023370513</v>
       </c>
     </row>
     <row r="58" spans="20:27" x14ac:dyDescent="0.25">
@@ -37536,11 +38823,11 @@
       </c>
       <c r="Z58">
         <f t="shared" si="3"/>
-        <v>14.099396844540072</v>
+        <v>14.098663453653053</v>
       </c>
       <c r="AA58">
         <f t="shared" si="4"/>
-        <v>0.79939684454007143</v>
+        <v>0.79866345365305236</v>
       </c>
     </row>
     <row r="59" spans="20:27" x14ac:dyDescent="0.25">
@@ -37566,11 +38853,11 @@
       </c>
       <c r="Z59">
         <f t="shared" si="3"/>
-        <v>14.011016839220517</v>
+        <v>14.010148881779365</v>
       </c>
       <c r="AA59">
         <f t="shared" si="4"/>
-        <v>0.71101683922051606</v>
+        <v>0.71014888177936442</v>
       </c>
     </row>
     <row r="60" spans="20:27" x14ac:dyDescent="0.25">
@@ -37596,11 +38883,11 @@
       </c>
       <c r="Z60">
         <f t="shared" si="3"/>
-        <v>13.8214274729705</v>
+        <v>13.820270848566452</v>
       </c>
       <c r="AA60">
         <f t="shared" si="4"/>
-        <v>0.42142747297049965</v>
+        <v>0.42027084856645125</v>
       </c>
     </row>
     <row r="61" spans="20:27" x14ac:dyDescent="0.25">
@@ -37626,11 +38913,11 @@
       </c>
       <c r="Z61">
         <f t="shared" si="3"/>
-        <v>14.170671042378423</v>
+        <v>14.170046172906028</v>
       </c>
       <c r="AA61">
         <f t="shared" si="4"/>
-        <v>0.67067104237842301</v>
+        <v>0.6700461729060283</v>
       </c>
     </row>
     <row r="62" spans="20:27" x14ac:dyDescent="0.25">
@@ -37656,11 +38943,11 @@
       </c>
       <c r="Z62">
         <f t="shared" si="3"/>
-        <v>13.892701670808851</v>
+        <v>13.891653567819427</v>
       </c>
       <c r="AA62">
         <f t="shared" si="4"/>
-        <v>0.39270167080885088</v>
+        <v>0.39165356781942684</v>
       </c>
     </row>
     <row r="63" spans="20:27" x14ac:dyDescent="0.25">
@@ -37686,11 +38973,11 @@
       </c>
       <c r="Z63">
         <f t="shared" si="3"/>
-        <v>13.861341023759977</v>
+        <v>13.860245171348119</v>
       </c>
       <c r="AA63">
         <f t="shared" si="4"/>
-        <v>0.36134102375997657</v>
+        <v>0.36024517134811873</v>
       </c>
     </row>
     <row r="64" spans="20:27" x14ac:dyDescent="0.25">
@@ -37716,11 +39003,11 @@
       </c>
       <c r="Z64">
         <f t="shared" si="3"/>
-        <v>13.601902943628374</v>
+        <v>13.60041207326729</v>
       </c>
       <c r="AA64">
         <f t="shared" si="4"/>
-        <v>0.10190294362837449</v>
+        <v>0.10041207326728951</v>
       </c>
     </row>
     <row r="65" spans="20:27" x14ac:dyDescent="0.25">
@@ -37746,11 +39033,11 @@
       </c>
       <c r="Z65">
         <f t="shared" si="3"/>
-        <v>13.751578759088915</v>
+        <v>13.750315783698536</v>
       </c>
       <c r="AA65">
         <f t="shared" si="4"/>
-        <v>0.15157875908891505</v>
+        <v>0.15031578369853626</v>
       </c>
     </row>
     <row r="66" spans="20:27" x14ac:dyDescent="0.25">
@@ -37776,11 +39063,11 @@
       </c>
       <c r="Z66">
         <f t="shared" si="3"/>
-        <v>13.666049721682892</v>
+        <v>13.664656520594967</v>
       </c>
       <c r="AA66">
         <f t="shared" si="4"/>
-        <v>6.6049721682892581E-2</v>
+        <v>6.4656520594967404E-2</v>
       </c>
     </row>
     <row r="67" spans="20:27" x14ac:dyDescent="0.25">
@@ -37806,11 +39093,11 @@
       </c>
       <c r="Z67">
         <f t="shared" si="3"/>
-        <v>13.469332935649042</v>
+        <v>13.467640215456758</v>
       </c>
       <c r="AA67">
         <f t="shared" si="4"/>
-        <v>0.13066706435095732</v>
+        <v>0.13235978454324204</v>
       </c>
     </row>
     <row r="68" spans="20:27" x14ac:dyDescent="0.25">
@@ -37836,11 +39123,11 @@
       </c>
       <c r="Z68">
         <f t="shared" ref="Z68:Z131" si="8">IF(V68,$R$13*U68+$R$14)</f>
-        <v>14.030973614615254</v>
+        <v>14.030136043170199</v>
       </c>
       <c r="AA68">
         <f t="shared" ref="AA68:AA87" si="9">ABS(T68-Z68)</f>
-        <v>0.33097361461525487</v>
+        <v>0.3301360431701994</v>
       </c>
     </row>
     <row r="69" spans="20:27" x14ac:dyDescent="0.25">
@@ -37866,11 +39153,11 @@
       </c>
       <c r="Z69">
         <f t="shared" si="8"/>
-        <v>13.807172633402828</v>
+        <v>13.805994304715856</v>
       </c>
       <c r="AA69">
         <f t="shared" si="9"/>
-        <v>0.10717263340282912</v>
+        <v>0.10599430471585691</v>
       </c>
     </row>
     <row r="70" spans="20:27" x14ac:dyDescent="0.25">
@@ -37896,11 +39183,11 @@
       </c>
       <c r="Z70">
         <f t="shared" si="8"/>
-        <v>12.88773548128809</v>
+        <v>12.885157226352483</v>
       </c>
       <c r="AA70">
         <f t="shared" si="9"/>
-        <v>0.81226451871190974</v>
+        <v>0.81484277364751634</v>
       </c>
     </row>
     <row r="71" spans="20:27" x14ac:dyDescent="0.25">
@@ -37926,11 +39213,11 @@
       </c>
       <c r="Z71">
         <f t="shared" si="8"/>
-        <v>14.517063643872813</v>
+        <v>14.516966188475486</v>
       </c>
       <c r="AA71">
         <f t="shared" si="9"/>
-        <v>0.71706364387281241</v>
+        <v>0.71696618847548521</v>
       </c>
     </row>
     <row r="72" spans="20:27" x14ac:dyDescent="0.25">
@@ -37956,11 +39243,11 @@
       </c>
       <c r="Z72">
         <f t="shared" si="8"/>
-        <v>14.330325245536333</v>
+        <v>14.329943464032691</v>
       </c>
       <c r="AA72">
         <f t="shared" si="9"/>
-        <v>0.43032524553633245</v>
+        <v>0.42994346403269112</v>
       </c>
     </row>
     <row r="73" spans="20:27" x14ac:dyDescent="0.25">
@@ -37986,11 +39273,11 @@
       </c>
       <c r="Z73">
         <f t="shared" si="8"/>
-        <v>14.089418456842703</v>
+        <v>14.088669872957638</v>
       </c>
       <c r="AA73">
         <f t="shared" si="9"/>
-        <v>0.1894184568427022</v>
+        <v>0.18866987295763771</v>
       </c>
     </row>
     <row r="74" spans="20:27" x14ac:dyDescent="0.25">
@@ -38016,11 +39303,11 @@
       </c>
       <c r="Z74">
         <f t="shared" si="8"/>
-        <v>13.986783611955476</v>
+        <v>13.985878757233355</v>
       </c>
       <c r="AA74">
         <f t="shared" si="9"/>
-        <v>8.6783611955475237E-2</v>
+        <v>8.5878757233354364E-2</v>
       </c>
     </row>
     <row r="75" spans="20:27" x14ac:dyDescent="0.25">
@@ -38046,11 +39333,11 @@
       </c>
       <c r="Z75">
         <f t="shared" si="8"/>
-        <v>13.909807478290055</v>
+        <v>13.90878542044014</v>
       </c>
       <c r="AA75">
         <f t="shared" si="9"/>
-        <v>9.8074782900550161E-3</v>
+        <v>8.7854204401391911E-3</v>
       </c>
     </row>
     <row r="76" spans="20:27" x14ac:dyDescent="0.25">
@@ -38076,11 +39363,11 @@
       </c>
       <c r="Z76">
         <f t="shared" si="8"/>
-        <v>13.606179395498676</v>
+        <v>13.604695036422468</v>
       </c>
       <c r="AA76">
         <f t="shared" si="9"/>
-        <v>0.29382060450132386</v>
+        <v>0.29530496357753222</v>
       </c>
     </row>
     <row r="77" spans="20:27" x14ac:dyDescent="0.25">
@@ -38106,11 +39393,11 @@
       </c>
       <c r="Z77">
         <f t="shared" si="8"/>
-        <v>13.894127154765618</v>
+        <v>13.893081222204486</v>
       </c>
       <c r="AA77">
         <f t="shared" si="9"/>
-        <v>0.10587284523438178</v>
+        <v>0.10691877779551362</v>
       </c>
     </row>
     <row r="78" spans="20:27" x14ac:dyDescent="0.25">
@@ -38136,11 +39423,11 @@
       </c>
       <c r="Z78">
         <f t="shared" si="8"/>
-        <v>14.173522010291958</v>
+        <v>14.172901481676147</v>
       </c>
       <c r="AA78">
         <f t="shared" si="9"/>
-        <v>7.352201029195804E-2</v>
+        <v>7.2901481676147739E-2</v>
       </c>
     </row>
     <row r="79" spans="20:27" x14ac:dyDescent="0.25">
@@ -38166,11 +39453,11 @@
       </c>
       <c r="Z79">
         <f t="shared" si="8"/>
-        <v>14.239094272303241</v>
+        <v>14.238573583388884</v>
       </c>
       <c r="AA79">
         <f t="shared" si="9"/>
-        <v>0.16090572769675937</v>
+        <v>0.1614264166111159</v>
       </c>
     </row>
     <row r="80" spans="20:27" x14ac:dyDescent="0.25">
@@ -38196,11 +39483,11 @@
       </c>
       <c r="Z80">
         <f t="shared" si="8"/>
-        <v>14.411577831072055</v>
+        <v>14.411319763981083</v>
       </c>
       <c r="AA80">
         <f t="shared" si="9"/>
-        <v>8.8422168927944966E-2</v>
+        <v>8.8680236018916503E-2</v>
       </c>
     </row>
     <row r="81" spans="20:27" x14ac:dyDescent="0.25">
@@ -38226,11 +39513,11 @@
       </c>
       <c r="Z81">
         <f t="shared" si="8"/>
-        <v>12.686742243383938</v>
+        <v>12.683857958059093</v>
       </c>
       <c r="AA81">
         <f t="shared" si="9"/>
-        <v>1.8132577566160624</v>
+        <v>1.8161420419409069</v>
       </c>
     </row>
     <row r="82" spans="20:27" x14ac:dyDescent="0.25">
@@ -38256,11 +39543,11 @@
       </c>
       <c r="Z82">
         <f t="shared" si="8"/>
-        <v>14.395897507547616</v>
+        <v>14.39561556574543</v>
       </c>
       <c r="AA82">
         <f t="shared" si="9"/>
-        <v>0.20410249245238354</v>
+        <v>0.20438443425456931</v>
       </c>
     </row>
     <row r="83" spans="20:27" x14ac:dyDescent="0.25">
@@ -38286,11 +39573,11 @@
       </c>
       <c r="Z83">
         <f t="shared" si="8"/>
-        <v>14.370238796325808</v>
+        <v>14.369917786814359</v>
       </c>
       <c r="AA83">
         <f t="shared" si="9"/>
-        <v>0.22976120367419206</v>
+        <v>0.23008221318564104</v>
       </c>
     </row>
     <row r="84" spans="20:27" x14ac:dyDescent="0.25">
@@ -38316,11 +39603,11 @@
       </c>
       <c r="Z84">
         <f t="shared" si="8"/>
-        <v>14.26902943539535</v>
+        <v>14.268554325475133</v>
       </c>
       <c r="AA84">
         <f t="shared" si="9"/>
-        <v>0.53097056460465097</v>
+        <v>0.53144567452486768</v>
       </c>
     </row>
     <row r="85" spans="20:27" x14ac:dyDescent="0.25">
@@ -38346,11 +39633,11 @@
       </c>
       <c r="Z85">
         <f t="shared" si="8"/>
-        <v>14.785054627745016</v>
+        <v>14.785365212866672</v>
       </c>
       <c r="AA85">
         <f t="shared" si="9"/>
-        <v>0.31494537225498398</v>
+        <v>0.31463478713332726</v>
       </c>
     </row>
     <row r="86" spans="20:27" x14ac:dyDescent="0.25">
@@ -38376,11 +39663,11 @@
       </c>
       <c r="Z86">
         <f t="shared" si="8"/>
-        <v>14.785054627745016</v>
+        <v>14.785365212866672</v>
       </c>
       <c r="AA86">
         <f t="shared" si="9"/>
-        <v>1.3149453722549858</v>
+        <v>1.314634787133329</v>
       </c>
     </row>
     <row r="87" spans="20:27" x14ac:dyDescent="0.25">
@@ -38406,11 +39693,11 @@
       </c>
       <c r="Z87">
         <f t="shared" si="8"/>
-        <v>15.306781755921754</v>
+        <v>15.307886717798446</v>
       </c>
       <c r="AA87">
         <f t="shared" si="9"/>
-        <v>2.4932182440782462</v>
+        <v>2.4921132822015544</v>
       </c>
     </row>
     <row r="88" spans="20:27" x14ac:dyDescent="0.25">
@@ -38540,7 +39827,7 @@
       </c>
       <c r="Z92">
         <f t="shared" si="8"/>
-        <v>13.316806152274967</v>
+        <v>13.31488119625539</v>
       </c>
     </row>
     <row r="93" spans="20:27" x14ac:dyDescent="0.25">
@@ -38566,7 +39853,7 @@
       </c>
       <c r="Z93">
         <f t="shared" si="8"/>
-        <v>13.024581941137725</v>
+        <v>13.022212047318195</v>
       </c>
     </row>
     <row r="94" spans="20:27" x14ac:dyDescent="0.25">
@@ -38592,7 +39879,7 @@
       </c>
       <c r="Z94">
         <f t="shared" si="8"/>
-        <v>12.274777379878262</v>
+        <v>12.271265840776898</v>
       </c>
     </row>
     <row r="95" spans="20:27" x14ac:dyDescent="0.25">
@@ -38618,7 +39905,7 @@
       </c>
       <c r="Z95">
         <f t="shared" si="8"/>
-        <v>12.203503182039912</v>
+        <v>12.199883121523925</v>
       </c>
     </row>
     <row r="96" spans="20:27" x14ac:dyDescent="0.25">
@@ -38644,7 +39931,7 @@
       </c>
       <c r="Z96">
         <f t="shared" si="8"/>
-        <v>14.24479620813031</v>
+        <v>14.244284200929123</v>
       </c>
     </row>
     <row r="97" spans="20:26" x14ac:dyDescent="0.25">
@@ -38670,7 +39957,7 @@
       </c>
       <c r="Z97">
         <f t="shared" si="8"/>
-        <v>14.377366216109646</v>
+        <v>14.377056058739655</v>
       </c>
     </row>
     <row r="98" spans="20:26" x14ac:dyDescent="0.25">
@@ -38696,7 +39983,7 @@
       </c>
       <c r="Z98">
         <f t="shared" si="8"/>
-        <v>14.25905104769798</v>
+        <v>14.258560744779718</v>
       </c>
     </row>
     <row r="99" spans="20:26" x14ac:dyDescent="0.25">
@@ -38722,7 +40009,7 @@
       </c>
       <c r="Z99">
         <f t="shared" si="8"/>
-        <v>14.24051975626001</v>
+        <v>14.240001237773944</v>
       </c>
     </row>
     <row r="100" spans="20:26" x14ac:dyDescent="0.25">
@@ -38748,7 +40035,7 @@
       </c>
       <c r="Z100">
         <f t="shared" si="8"/>
-        <v>12.890586449201624</v>
+        <v>12.888012535122602</v>
       </c>
     </row>
     <row r="101" spans="20:26" x14ac:dyDescent="0.25">
@@ -38774,7 +40061,7 @@
       </c>
       <c r="Z101">
         <f t="shared" si="8"/>
-        <v>11.84285574097785</v>
+        <v>11.838686562103874</v>
       </c>
     </row>
     <row r="102" spans="20:26" x14ac:dyDescent="0.25">
@@ -38800,7 +40087,7 @@
       </c>
       <c r="Z102">
         <f t="shared" si="8"/>
-        <v>10.92912052469018</v>
+        <v>10.923560101280735</v>
       </c>
     </row>
     <row r="103" spans="20:26" x14ac:dyDescent="0.25">
@@ -38826,7 +40113,7 @@
       </c>
       <c r="Z103">
         <f t="shared" si="8"/>
-        <v>9.5349972149720159</v>
+        <v>9.5273141126925491</v>
       </c>
     </row>
     <row r="104" spans="20:26" x14ac:dyDescent="0.25">
@@ -38852,7 +40139,7 @@
       </c>
       <c r="Z104">
         <f t="shared" si="8"/>
-        <v>10.430201139821715</v>
+        <v>10.423881066509914</v>
       </c>
     </row>
     <row r="105" spans="20:26" x14ac:dyDescent="0.25">
@@ -38878,7 +40165,7 @@
       </c>
       <c r="Z105">
         <f t="shared" si="8"/>
-        <v>10.518581145141273</v>
+        <v>10.512395638383602</v>
       </c>
     </row>
     <row r="106" spans="20:26" x14ac:dyDescent="0.25">
@@ -38904,7 +40191,7 @@
       </c>
       <c r="Z106">
         <f t="shared" si="8"/>
-        <v>10.742382126353696</v>
+        <v>10.736537376837942</v>
       </c>
     </row>
     <row r="107" spans="20:26" x14ac:dyDescent="0.25">
@@ -38930,7 +40217,7 @@
       </c>
       <c r="Z107">
         <f t="shared" si="8"/>
-        <v>11.175729249210876</v>
+        <v>11.170544309896028</v>
       </c>
     </row>
     <row r="108" spans="20:26" x14ac:dyDescent="0.25">
@@ -38956,7 +40243,7 @@
       </c>
       <c r="Z108">
         <f t="shared" si="8"/>
-        <v>13.333911959756172</v>
+        <v>13.332013048876105</v>
       </c>
     </row>
     <row r="109" spans="20:26" x14ac:dyDescent="0.25">
@@ -38982,7 +40269,7 @@
       </c>
       <c r="Z109">
         <f t="shared" si="8"/>
-        <v>14.497106868478074</v>
+        <v>14.496979027084652</v>
       </c>
     </row>
     <row r="110" spans="20:26" x14ac:dyDescent="0.25">
@@ -39008,7 +40295,7 @@
       </c>
       <c r="Z110">
         <f t="shared" si="8"/>
-        <v>14.440087510207395</v>
+        <v>14.439872851682274</v>
       </c>
     </row>
     <row r="111" spans="20:26" x14ac:dyDescent="0.25">
@@ -39034,7 +40321,7 @@
       </c>
       <c r="Z111">
         <f t="shared" si="8"/>
-        <v>13.152875497246757</v>
+        <v>13.150700941973549</v>
       </c>
     </row>
     <row r="112" spans="20:26" x14ac:dyDescent="0.25">
@@ -39060,7 +40347,7 @@
       </c>
       <c r="Z112">
         <f t="shared" si="8"/>
-        <v>12.957584195169675</v>
+        <v>12.955112291220399</v>
       </c>
     </row>
     <row r="113" spans="20:26" x14ac:dyDescent="0.25">
@@ -39086,7 +40373,7 @@
       </c>
       <c r="Z113">
         <f t="shared" si="8"/>
-        <v>13.335337443712939</v>
+        <v>13.333440703261164</v>
       </c>
     </row>
     <row r="114" spans="20:26" x14ac:dyDescent="0.25">
@@ -39112,7 +40399,7 @@
       </c>
       <c r="Z114">
         <f t="shared" si="8"/>
-        <v>13.275467117528724</v>
+        <v>13.273479219088665</v>
       </c>
     </row>
     <row r="115" spans="20:26" x14ac:dyDescent="0.25">
@@ -39138,33 +40425,33 @@
       </c>
       <c r="Z115">
         <f t="shared" si="8"/>
-        <v>14.210584593167901</v>
+        <v>14.210020495687694</v>
       </c>
     </row>
     <row r="116" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T116">
         <f>Kalibratiemetingen!G118</f>
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="U116">
         <f>Kalibratiemetingen!C118</f>
-        <v>0</v>
+        <v>3933</v>
       </c>
       <c r="V116">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W116">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>46016.1</v>
       </c>
       <c r="X116">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z116" t="b">
+        <v>15468489</v>
+      </c>
+      <c r="Z116">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>11.965747802374167</v>
       </c>
     </row>
     <row r="117" spans="20:26" x14ac:dyDescent="0.25">
@@ -41944,10 +43231,10 @@
     <sortCondition descending="1" ref="V2"/>
   </sortState>
   <conditionalFormatting sqref="T3:U50001">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42244,20 +43531,20 @@
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -43039,15 +44326,15 @@
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G4" s="8" t="s">
@@ -43246,7 +44533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y567"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
@@ -43324,18 +44611,18 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="N2" s="91" t="s">
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="N2" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -43553,11 +44840,11 @@
       </c>
       <c r="F6" s="39">
         <f t="shared" si="1"/>
-        <v>3.4166401343416197E-2</v>
+        <v>3.5407672450869399E-2</v>
       </c>
       <c r="G6" s="24">
         <f>D6*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.765833598656585</v>
+        <v>13.764592327549131</v>
       </c>
       <c r="H6" s="41">
         <v>13.8</v>
@@ -43754,11 +45041,11 @@
       </c>
       <c r="F9" s="39">
         <f t="shared" si="1"/>
-        <v>-0.20959135526374695</v>
+        <v>-0.20872122739430488</v>
       </c>
       <c r="G9" s="24">
         <f>D9*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>14.009591355263748</v>
+        <v>14.008721227394306</v>
       </c>
       <c r="H9" s="41">
         <v>13.8</v>
@@ -43948,11 +45235,11 @@
       </c>
       <c r="F12" s="39">
         <f t="shared" si="1"/>
-        <v>0.46979886017828498</v>
+        <v>0.4761189334900866</v>
       </c>
       <c r="G12" s="24">
         <f>D12*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>10.430201139821715</v>
+        <v>10.423881066509914</v>
       </c>
       <c r="H12" s="41">
         <v>10.9</v>
@@ -44142,11 +45429,11 @@
       </c>
       <c r="F15" s="39">
         <f t="shared" si="1"/>
-        <v>-0.45317899750044965</v>
+        <v>-0.449786831955171</v>
       </c>
       <c r="G15" s="24">
         <f>D15*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>12.35317899750045</v>
+        <v>12.349786831955171</v>
       </c>
       <c r="H15" s="31">
         <v>11.9</v>
@@ -44336,11 +45623,11 @@
       </c>
       <c r="F18" s="39">
         <f t="shared" si="1"/>
-        <v>0.47528931306335132</v>
+        <v>0.47674545657175749</v>
       </c>
       <c r="G18" s="24">
         <f>D18*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.624710686936648</v>
+        <v>13.623254543428242</v>
       </c>
       <c r="H18" s="31">
         <v>14.1</v>
@@ -44516,11 +45803,11 @@
       </c>
       <c r="F21" s="39">
         <f t="shared" si="1"/>
-        <v>-0.43507995211509431</v>
+        <v>-0.43135571104106951</v>
       </c>
       <c r="G21" s="24">
         <f>D21*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>12.135079952115094</v>
+        <v>12.131355711041069</v>
       </c>
       <c r="H21" s="31">
         <v>11.7</v>
@@ -44696,11 +45983,11 @@
       </c>
       <c r="F24" s="39">
         <f t="shared" si="1"/>
-        <v>-0.4914509413068533</v>
+        <v>-0.4882693073059432</v>
       </c>
       <c r="G24" s="24">
         <f>D24*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>12.491450941306853</v>
+        <v>12.488269307305943</v>
       </c>
       <c r="H24" s="31">
         <v>12</v>
@@ -44876,11 +46163,11 @@
       </c>
       <c r="F27" s="39">
         <f t="shared" si="1"/>
-        <v>-0.66371837704935821</v>
+        <v>-0.66095129485230686</v>
       </c>
       <c r="G27" s="24">
         <f>D27*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>12.763718377049358</v>
+        <v>12.760951294852307</v>
       </c>
       <c r="H27" s="31">
         <v>12.1</v>
@@ -45056,11 +46343,11 @@
       </c>
       <c r="F30" s="39">
         <f t="shared" si="1"/>
-        <v>-6.7475205639659919E-2</v>
+        <v>-6.6084174980026944E-2</v>
       </c>
       <c r="G30" s="24">
         <f>D30*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.66747520563966</v>
+        <v>13.666084174980027</v>
       </c>
       <c r="H30" s="31">
         <v>13.6</v>
@@ -45236,11 +46523,11 @@
       </c>
       <c r="F33" s="39">
         <f t="shared" si="1"/>
-        <v>1.1055157781450831E-2</v>
+        <v>1.3479312308293245E-2</v>
       </c>
       <c r="G33" s="24">
         <f>D33*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>12.988944842218549</v>
+        <v>12.986520687691707</v>
       </c>
       <c r="H33" s="12">
         <v>13</v>
@@ -45416,11 +46703,11 @@
       </c>
       <c r="F36" s="39">
         <f t="shared" si="1"/>
-        <v>-3.0628538849441274</v>
+        <v>-3.0606945226689657</v>
       </c>
       <c r="G36" s="24">
         <f>D36*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.162853884944127</v>
+        <v>13.160694522668965</v>
       </c>
       <c r="H36" s="12">
         <v>10.1</v>
@@ -45595,11 +46882,11 @@
       </c>
       <c r="F39" s="39">
         <f t="shared" si="1"/>
-        <v>-1.705577035075601</v>
+        <v>-1.7015033550464906</v>
       </c>
       <c r="G39" s="24">
         <f>D39*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>11.9055770350756</v>
+        <v>11.90150335504649</v>
       </c>
       <c r="H39" s="12">
         <v>10.199999999999999</v>
@@ -45778,11 +47065,11 @@
       </c>
       <c r="F42" s="39">
         <f t="shared" si="1"/>
-        <v>-1.7244945639103406</v>
+        <v>-1.7231903503824064</v>
       </c>
       <c r="G42" s="24">
         <f>D42*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.724494563910341</v>
+        <v>13.723190350382406</v>
       </c>
       <c r="H42" s="12">
         <v>12</v>
@@ -45958,11 +47245,11 @@
       </c>
       <c r="F45" s="39">
         <f t="shared" si="1"/>
-        <v>-1.2562460884402924</v>
+        <v>-1.2527063337711262</v>
       </c>
       <c r="G45" s="24">
         <f>D45*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>12.256246088440292</v>
+        <v>12.252706333771126</v>
       </c>
       <c r="H45" s="12">
         <v>11</v>
@@ -46138,11 +47425,11 @@
       </c>
       <c r="F48" s="39">
         <f t="shared" si="1"/>
-        <v>-1.383155529164096</v>
+        <v>-1.3817883732156808</v>
       </c>
       <c r="G48" s="24">
         <f>D48*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.683155529164097</v>
+        <v>13.681788373215682</v>
       </c>
       <c r="H48" s="12">
         <v>12.3</v>
@@ -46318,11 +47605,11 @@
       </c>
       <c r="F51" s="39">
         <f t="shared" si="1"/>
-        <v>-1.6073887564291365</v>
+        <v>-1.6060584977616923</v>
       </c>
       <c r="G51" s="24">
         <f>D51*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.707388756429136</v>
+        <v>13.706058497761692</v>
       </c>
       <c r="H51" s="12">
         <v>12.1</v>
@@ -46498,11 +47785,11 @@
       </c>
       <c r="F54" s="26">
         <f t="shared" ref="F54:F62" si="10">IF(J54,H54-G54,TRIM(""))</f>
-        <v>-2.0067403873502148</v>
+        <v>-2.0058659186241865</v>
       </c>
       <c r="G54" s="24">
         <f>D54*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>14.006740387350215</v>
+        <v>14.005865918624187</v>
       </c>
       <c r="H54" s="12">
         <v>12</v>
@@ -46678,11 +47965,11 @@
       </c>
       <c r="F57" s="26">
         <f t="shared" si="10"/>
-        <v>-1.532054229746791</v>
+        <v>-1.5304570083993738</v>
       </c>
       <c r="G57" s="24">
         <f>D57*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.532054229746791</v>
+        <v>13.530457008399374</v>
       </c>
       <c r="H57" s="12">
         <v>12</v>
@@ -46857,11 +48144,11 @@
       </c>
       <c r="F60" s="26">
         <f t="shared" si="10"/>
-        <v>-1.5971942457054595</v>
+        <v>-1.5960007240204419</v>
       </c>
       <c r="G60" s="24">
         <f>D60*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.797194245705459</v>
+        <v>13.796000724020441</v>
       </c>
       <c r="H60" s="12">
         <v>12.2</v>
@@ -47025,11 +48312,11 @@
       </c>
       <c r="F63" s="58">
         <f t="shared" ref="F63:F97" si="11">IF(J63,H63-G63,TRIM(""))</f>
-        <v>-1.3497210290795341</v>
+        <v>-1.348759743221807</v>
       </c>
       <c r="G63" s="59">
         <f>D63*Grafiek_kalibratiemetingen!$R$13+Grafiek_kalibratiemetingen!$R$14</f>
-        <v>13.949721029079534</v>
+        <v>13.948759743221807</v>
       </c>
       <c r="H63" s="60">
         <v>12.6</v>
@@ -52054,32 +53341,32 @@
     <mergeCell ref="N2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:J1048576">
-    <cfRule type="notContainsBlanks" dxfId="40" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="58" priority="7">
       <formula>LEN(TRIM(H4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E1048576">
-    <cfRule type="notContainsBlanks" dxfId="39" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="6">
       <formula>LEN(TRIM(C4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G1048576">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="4">
       <formula>LEN(TRIM(G4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:J1048576">
-    <cfRule type="containsBlanks" dxfId="37" priority="1">
+    <cfRule type="containsBlanks" dxfId="55" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="54" priority="3">
       <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J1048576">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52136,14 +53423,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94" t="s">
+      <c r="D1" s="97"/>
+      <c r="E1" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="94"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="64" t="s">
         <v>138</v>
       </c>

--- a/2016Robbertmetingen.xlsx
+++ b/2016Robbertmetingen.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="253">
   <si>
     <t>Sample nummer</t>
   </si>
@@ -693,6 +693,108 @@
   <si>
     <t>s avonds</t>
   </si>
+  <si>
+    <t>Gehaka kapot</t>
+  </si>
+  <si>
+    <t>zonnig middag</t>
+  </si>
+  <si>
+    <t>temperatuur van gehaka: 24,1°C (sample temp)</t>
+  </si>
+  <si>
+    <t>Chirinos hospedaje</t>
+  </si>
+  <si>
+    <t>gehaka zegt 23,8°</t>
+  </si>
+  <si>
+    <t>gehaka zegt 23,9°</t>
+  </si>
+  <si>
+    <t>gehaka zegt 23,7°</t>
+  </si>
+  <si>
+    <t>gehaka zegt 23,6°</t>
+  </si>
+  <si>
+    <t>gehaka zegt 23,1°</t>
+  </si>
+  <si>
+    <t>chirinos buiten</t>
+  </si>
+  <si>
+    <t>bewolkt middag</t>
+  </si>
+  <si>
+    <t>74,5F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 soles kalkibratie </t>
+  </si>
+  <si>
+    <t>precios cambian quasi cada mes</t>
+  </si>
+  <si>
+    <t>zonnig ochtend</t>
+  </si>
+  <si>
+    <t>prosperidad de chirinos</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 21,1°C</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 21,3°C</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 21,6°C</t>
+  </si>
+  <si>
+    <t>deze gemeten na de tweede, daarna weer normale volgorde</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 21,7</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 21,8</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 22</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 22,2</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 22,3</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 21,2°C</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 21,4°C</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 21,5°C</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 21,7°C</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 22°C</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 22,3°C</t>
+  </si>
+  <si>
+    <t>Start meting: 8u18</t>
+  </si>
+  <si>
+    <t>Einde meting: 9u00</t>
+  </si>
+  <si>
+    <t>Vervlogen tijd: 42 minuten</t>
+  </si>
 </sst>
 </file>
 
@@ -925,7 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1041,6 +1143,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1064,7 +1167,170 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="87">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1174,18 +1440,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7396,8 +7650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U573"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q118" sqref="Q118"/>
+    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7481,18 +7735,18 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="N2" s="94" t="s">
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="N2" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:21" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -14614,7 +14868,7 @@
         <v>11.7</v>
       </c>
       <c r="H118" s="86">
-        <v>26.6</v>
+        <v>28.6</v>
       </c>
       <c r="I118" s="2">
         <f>IF(IF(Kalibratiemetingen!C118&gt;0,1,0)+IF(Kalibratiemetingen!G118&gt;0,1,0)=2,1,0)</f>
@@ -18934,32 +19188,32 @@
     <mergeCell ref="N2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:I1048576">
-    <cfRule type="notContainsBlanks" dxfId="67" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="86" priority="12">
       <formula>LEN(TRIM(G4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="66" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="85" priority="10">
       <formula>LEN(TRIM(B4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="notContainsBlanks" dxfId="65" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="84" priority="4">
       <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:I1048576">
-    <cfRule type="containsBlanks" dxfId="64" priority="1">
+    <cfRule type="containsBlanks" dxfId="83" priority="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E1048576">
-    <cfRule type="notContainsBlanks" dxfId="63" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="82" priority="3">
       <formula>LEN(TRIM(E4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I1048576">
-    <cfRule type="cellIs" dxfId="62" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19381,20 +19635,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98" t="s">
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
       <c r="R1" t="s">
         <v>193</v>
       </c>
@@ -20141,18 +20395,18 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="N2" s="94" t="s">
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="N2" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -27254,132 +27508,132 @@
     <mergeCell ref="N2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:I9 G15:I1048576 I10:I14">
-    <cfRule type="notContainsBlanks" dxfId="51" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="70" priority="27">
       <formula>LEN(TRIM(G4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:D9 B15:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="50" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="69" priority="26">
       <formula>LEN(TRIM(B4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="notContainsBlanks" dxfId="49" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="68" priority="24">
       <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:I9 B15:I1048576 E10:F14 I10:I14">
-    <cfRule type="containsBlanks" dxfId="48" priority="21">
+    <cfRule type="containsBlanks" dxfId="67" priority="21">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E1048576">
-    <cfRule type="notContainsBlanks" dxfId="47" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="66" priority="23">
       <formula>LEN(TRIM(E4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I1048576">
-    <cfRule type="cellIs" dxfId="46" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="containsBlanks" dxfId="45" priority="1">
+    <cfRule type="containsBlanks" dxfId="64" priority="1">
       <formula>LEN(TRIM(G14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:D10">
-    <cfRule type="notContainsBlanks" dxfId="44" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="63" priority="20">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:D10">
-    <cfRule type="containsBlanks" dxfId="43" priority="19">
+    <cfRule type="containsBlanks" dxfId="62" priority="19">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:D11">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="61" priority="18">
       <formula>LEN(TRIM(B11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:D11">
-    <cfRule type="containsBlanks" dxfId="41" priority="17">
+    <cfRule type="containsBlanks" dxfId="60" priority="17">
       <formula>LEN(TRIM(B11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="notContainsBlanks" dxfId="40" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="59" priority="16">
       <formula>LEN(TRIM(B12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="containsBlanks" dxfId="39" priority="15">
+    <cfRule type="containsBlanks" dxfId="58" priority="15">
       <formula>LEN(TRIM(B12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:D13">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="14">
       <formula>LEN(TRIM(B13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:D13">
-    <cfRule type="containsBlanks" dxfId="37" priority="13">
+    <cfRule type="containsBlanks" dxfId="56" priority="13">
       <formula>LEN(TRIM(B13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="12">
       <formula>LEN(TRIM(B14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="containsBlanks" dxfId="35" priority="11">
+    <cfRule type="containsBlanks" dxfId="54" priority="11">
       <formula>LEN(TRIM(B14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H10">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="53" priority="10">
       <formula>LEN(TRIM(G10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H10">
-    <cfRule type="containsBlanks" dxfId="33" priority="9">
+    <cfRule type="containsBlanks" dxfId="52" priority="9">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H11">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="8">
       <formula>LEN(TRIM(G11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H11">
-    <cfRule type="containsBlanks" dxfId="31" priority="7">
+    <cfRule type="containsBlanks" dxfId="50" priority="7">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H12">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="6">
       <formula>LEN(TRIM(G12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H12">
-    <cfRule type="containsBlanks" dxfId="29" priority="5">
+    <cfRule type="containsBlanks" dxfId="48" priority="5">
       <formula>LEN(TRIM(G12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="4">
       <formula>LEN(TRIM(G13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="containsBlanks" dxfId="27" priority="3">
+    <cfRule type="containsBlanks" dxfId="46" priority="3">
       <formula>LEN(TRIM(G13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="2">
       <formula>LEN(TRIM(G14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27418,8 +27672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P186" sqref="P186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27429,7 +27683,8 @@
     <col min="5" max="6" width="8.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="102.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
@@ -27440,7 +27695,7 @@
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>COUNT(A$4:A$64994)</f>
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B1">
         <f>COUNT(B$4:B$64994)</f>
@@ -27448,19 +27703,19 @@
       </c>
       <c r="C1">
         <f>COUNT(C$4:C$64994)</f>
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D1">
         <f>COUNT(D$4:D$64994)</f>
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="E1">
         <f>COUNT(E$4:E$64994)</f>
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="H1">
         <f>COUNT(H$10:H$64994)</f>
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="J1">
         <f t="shared" ref="J1:P1" si="0">COUNT(J$4:J$65000)</f>
@@ -27468,7 +27723,7 @@
       </c>
       <c r="K1">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="L1">
         <f>COUNT(L$4:L$65000)</f>
@@ -27480,7 +27735,7 @@
       </c>
       <c r="N1">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="O1">
         <f t="shared" si="0"/>
@@ -27492,17 +27747,17 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="M2" s="94" t="s">
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="M2" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -27564,7 +27819,7 @@
       </c>
       <c r="X3">
         <f>COUNTIF(I4:I49994,"=1")</f>
-        <v>84</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -27692,7 +27947,7 @@
       </c>
       <c r="X5">
         <f ca="1">AVERAGEIF(I4:I49994,"=1",H10:H49994)</f>
-        <v>12.516363636363637</v>
+        <v>11.972866666666668</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -27758,7 +28013,7 @@
       </c>
       <c r="X6">
         <f>AVERAGEIF(I4:I49994,"=1",D4:D49994)</f>
-        <v>4844.7976190476193</v>
+        <v>4237.939393939394</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -27821,7 +28076,7 @@
       </c>
       <c r="X7">
         <f>SUMIF(I4:I49994,"=1",D4:D49994)/X3</f>
-        <v>4844.7976190476193</v>
+        <v>4237.939393939394</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -27884,7 +28139,7 @@
       </c>
       <c r="X8">
         <f>SUMIF(I4:I49994,"=1",D4:D49994)</f>
-        <v>406963</v>
+        <v>699260</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -27952,7 +28207,7 @@
       </c>
       <c r="X9">
         <f ca="1">SUMIF(I4:I49994,"=1",H10:H49994)</f>
-        <v>963.7600000000001</v>
+        <v>1795.9300000000003</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -28202,7 +28457,7 @@
       </c>
       <c r="X13">
         <f>-X10+(X8*X8)/X3</f>
-        <v>523296427.44047618</v>
+        <v>1515064554.6060605</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -31143,7 +31398,7 @@
         <v>16</v>
       </c>
       <c r="N65" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O65" s="29" t="s">
         <v>19</v>
@@ -31194,7 +31449,7 @@
         <v>16</v>
       </c>
       <c r="N66" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O66" s="29" t="s">
         <v>19</v>
@@ -31245,7 +31500,7 @@
         <v>16</v>
       </c>
       <c r="N67" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O67" s="29" t="s">
         <v>19</v>
@@ -31299,7 +31554,7 @@
         <v>16</v>
       </c>
       <c r="N68" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O68" s="29" t="s">
         <v>19</v>
@@ -31347,7 +31602,7 @@
         <v>16</v>
       </c>
       <c r="N69" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O69" s="29" t="s">
         <v>19</v>
@@ -31398,7 +31653,7 @@
         <v>16</v>
       </c>
       <c r="N70" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O70" s="29" t="s">
         <v>19</v>
@@ -31449,7 +31704,7 @@
         <v>16</v>
       </c>
       <c r="N71" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O71" s="29" t="s">
         <v>19</v>
@@ -31497,7 +31752,7 @@
         <v>16</v>
       </c>
       <c r="N72" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O72" s="29" t="s">
         <v>19</v>
@@ -31548,7 +31803,7 @@
         <v>16</v>
       </c>
       <c r="N73" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O73" s="29" t="s">
         <v>19</v>
@@ -31595,7 +31850,7 @@
         <v>16</v>
       </c>
       <c r="N74" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O74" s="29" t="s">
         <v>19</v>
@@ -31639,7 +31894,7 @@
         <v>16</v>
       </c>
       <c r="N75" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O75" s="29" t="s">
         <v>19</v>
@@ -31686,7 +31941,7 @@
         <v>16</v>
       </c>
       <c r="N76" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O76" s="29" t="s">
         <v>19</v>
@@ -31733,7 +31988,7 @@
         <v>16</v>
       </c>
       <c r="N77" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O77" s="29" t="s">
         <v>19</v>
@@ -31777,7 +32032,7 @@
         <v>16</v>
       </c>
       <c r="N78" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O78" s="29" t="s">
         <v>19</v>
@@ -31824,7 +32079,7 @@
         <v>16</v>
       </c>
       <c r="N79" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O79" s="29" t="s">
         <v>19</v>
@@ -31871,13 +32126,13 @@
         <v>16</v>
       </c>
       <c r="N80" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O80" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B81" s="91" t="s">
         <v>41</v>
       </c>
@@ -31915,13 +32170,13 @@
         <v>16</v>
       </c>
       <c r="N81" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O81" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B82" s="91" t="s">
         <v>22</v>
       </c>
@@ -31962,13 +32217,13 @@
         <v>16</v>
       </c>
       <c r="N82" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O82" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="88">
         <v>547</v>
       </c>
@@ -32009,13 +32264,13 @@
         <v>16</v>
       </c>
       <c r="N83" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O83" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B84" s="91" t="s">
         <v>41</v>
       </c>
@@ -32053,13 +32308,13 @@
         <v>16</v>
       </c>
       <c r="N84" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O84" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B85" s="91" t="s">
         <v>22</v>
       </c>
@@ -32100,13 +32355,13 @@
         <v>16</v>
       </c>
       <c r="N85" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O85" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="88">
         <v>548</v>
       </c>
@@ -32147,13 +32402,13 @@
         <v>16</v>
       </c>
       <c r="N86" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O86" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B87" s="91" t="s">
         <v>41</v>
       </c>
@@ -32191,13 +32446,13 @@
         <v>16</v>
       </c>
       <c r="N87" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O87" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B88" s="91" t="s">
         <v>22</v>
       </c>
@@ -32238,13 +32493,13 @@
         <v>16</v>
       </c>
       <c r="N88" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O88" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="88">
         <v>545</v>
       </c>
@@ -32285,13 +32540,13 @@
         <v>16</v>
       </c>
       <c r="N89" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O89" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B90" s="91" t="s">
         <v>41</v>
       </c>
@@ -32329,13 +32584,13 @@
         <v>16</v>
       </c>
       <c r="N90" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O90" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B91" s="91" t="s">
         <v>22</v>
       </c>
@@ -32376,317 +32631,1314 @@
         <v>16</v>
       </c>
       <c r="N91" s="32">
-        <v>42594</v>
+        <v>42593</v>
       </c>
       <c r="O91" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F92" s="26" t="str">
-        <f t="shared" ref="F92:F97" si="8">IF(I92,H92-G92,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="G92" s="24" t="str">
-        <f>IF(GroteHoogte!D92&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D92+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I92" s="2">
-        <f>IF(IF(GroteHoogte!D92&gt;0,1,0)+IF(GroteHoogte!H92&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F93" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G93" s="24" t="str">
-        <f>IF(GroteHoogte!D93&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D93+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+    <row r="92" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H92" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="I92" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J92" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K92" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L92" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M92" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N92" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O92" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P92" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>10526</v>
+      </c>
+      <c r="B93" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="13">
+        <v>4867</v>
+      </c>
+      <c r="E93" s="13">
+        <v>25</v>
+      </c>
+      <c r="F93" s="26">
+        <f>IF(I93,H93-G93,TRIM(""))</f>
+        <v>0.15000000000000036</v>
+      </c>
+      <c r="G93">
+        <v>12.5</v>
+      </c>
+      <c r="H93" s="12">
+        <v>12.65</v>
       </c>
       <c r="I93" s="2">
         <f>IF(IF(GroteHoogte!D93&gt;0,1,0)+IF(GroteHoogte!H93&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F94" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G94" s="24" t="str">
-        <f>IF(GroteHoogte!D94&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D94+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J93" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K93" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L93" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M93" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N93" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O93" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P93" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B94" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" s="13">
+        <v>4878</v>
+      </c>
+      <c r="E94" s="13">
+        <v>24</v>
+      </c>
+      <c r="F94" s="26">
+        <f>IF(I94,H94-G94,TRIM(""))</f>
+        <v>0.34999999999999964</v>
+      </c>
+      <c r="G94" s="24">
+        <v>12.3</v>
+      </c>
+      <c r="H94" s="12">
+        <v>12.65</v>
       </c>
       <c r="I94" s="2">
         <f>IF(IF(GroteHoogte!D94&gt;0,1,0)+IF(GroteHoogte!H94&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F95" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G95" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J94" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K94" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L94" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M94" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N94" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O94" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B95" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95">
+        <v>20996</v>
+      </c>
+      <c r="D95">
+        <v>4531</v>
+      </c>
+      <c r="E95">
+        <v>24</v>
+      </c>
+      <c r="F95" s="26">
+        <f t="shared" ref="F95:F119" si="8">IF(I95,H95-G95,TRIM(""))</f>
+        <v>-0.16948512463974552</v>
+      </c>
+      <c r="G95" s="24">
         <f>IF(GroteHoogte!D95&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D95+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>12.819485124639746</v>
+      </c>
+      <c r="H95">
+        <v>12.65</v>
       </c>
       <c r="I95" s="2">
         <f>IF(IF(GroteHoogte!D95&gt;0,1,0)+IF(GroteHoogte!H95&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F96" s="26" t="str">
+        <v>1</v>
+      </c>
+      <c r="J95" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K95" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L95" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M95" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N95" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O95" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="88">
+        <v>10525</v>
+      </c>
+      <c r="B96" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96">
+        <v>5052</v>
+      </c>
+      <c r="E96">
+        <v>26</v>
+      </c>
+      <c r="F96" s="26">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G96" s="24" t="str">
-        <f>IF(GroteHoogte!D96&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D96+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>0.73999999999999844</v>
+      </c>
+      <c r="G96" s="24">
+        <v>12.8</v>
+      </c>
+      <c r="H96">
+        <v>13.54</v>
       </c>
       <c r="I96" s="2">
         <f>IF(IF(GroteHoogte!D96&gt;0,1,0)+IF(GroteHoogte!H96&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F97" s="26" t="str">
+        <v>1</v>
+      </c>
+      <c r="J96" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K96" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L96" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M96" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N96" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O96" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P96" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B97" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97">
+        <v>5141</v>
+      </c>
+      <c r="E97">
+        <v>25</v>
+      </c>
+      <c r="F97" s="26">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G97" s="24" t="str">
-        <f>IF(GroteHoogte!D97&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D97+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>0.73999999999999844</v>
+      </c>
+      <c r="G97" s="24">
+        <v>12.8</v>
+      </c>
+      <c r="H97">
+        <v>13.54</v>
       </c>
       <c r="I97" s="2">
         <f>IF(IF(GroteHoogte!D97&gt;0,1,0)+IF(GroteHoogte!H97&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G98" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J97" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K97" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L97" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M97" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N97" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O97" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B98" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98">
+        <v>20904</v>
+      </c>
+      <c r="D98">
+        <v>4801</v>
+      </c>
+      <c r="E98">
+        <v>25</v>
+      </c>
+      <c r="F98" s="26">
+        <f t="shared" si="8"/>
+        <v>0.33504819139418984</v>
+      </c>
+      <c r="G98" s="24">
         <f>IF(GroteHoogte!D98&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D98+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>13.204951808605809</v>
+      </c>
+      <c r="H98">
+        <v>13.54</v>
       </c>
       <c r="I98" s="2">
         <f>IF(IF(GroteHoogte!D98&gt;0,1,0)+IF(GroteHoogte!H98&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G99" s="24" t="str">
-        <f>IF(GroteHoogte!D99&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D99+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J98" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K98" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L98" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M98" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N98" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O98" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>542</v>
+      </c>
+      <c r="B99" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99">
+        <v>3418</v>
+      </c>
+      <c r="E99">
+        <v>26</v>
+      </c>
+      <c r="F99" s="26">
+        <f t="shared" si="8"/>
+        <v>1.5299999999999994</v>
+      </c>
+      <c r="G99" s="24">
+        <v>9.5</v>
+      </c>
+      <c r="H99">
+        <v>11.03</v>
       </c>
       <c r="I99" s="2">
         <f>IF(IF(GroteHoogte!D99&gt;0,1,0)+IF(GroteHoogte!H99&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G100" s="24" t="str">
-        <f>IF(GroteHoogte!D100&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D100+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J99" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K99" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L99" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M99" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N99" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O99" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P99" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B100" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100">
+        <v>3379</v>
+      </c>
+      <c r="E100">
+        <v>26</v>
+      </c>
+      <c r="F100" s="26">
+        <f t="shared" si="8"/>
+        <v>1.7299999999999986</v>
+      </c>
+      <c r="G100" s="24">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H100">
+        <v>11.03</v>
       </c>
       <c r="I100" s="2">
         <f>IF(IF(GroteHoogte!D100&gt;0,1,0)+IF(GroteHoogte!H100&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G101" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J100" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K100" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L100" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M100" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N100" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O100" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B101" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101">
+        <v>20929</v>
+      </c>
+      <c r="D101">
+        <v>3169</v>
+      </c>
+      <c r="E101">
+        <v>25</v>
+      </c>
+      <c r="F101" s="26">
+        <f t="shared" si="8"/>
+        <v>0.15498014781128511</v>
+      </c>
+      <c r="G101" s="24">
         <f>IF(GroteHoogte!D101&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D101+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>10.875019852188714</v>
+      </c>
+      <c r="H101">
+        <v>11.03</v>
       </c>
       <c r="I101" s="2">
         <f>IF(IF(GroteHoogte!D101&gt;0,1,0)+IF(GroteHoogte!H101&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G102" s="24" t="str">
-        <f>IF(GroteHoogte!D102&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D102+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J101" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K101" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L101" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M101" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N101" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O101" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>540</v>
+      </c>
+      <c r="B102" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102">
+        <v>2282</v>
+      </c>
+      <c r="E102">
+        <v>26</v>
+      </c>
+      <c r="F102" s="26">
+        <f t="shared" si="8"/>
+        <v>3.13</v>
+      </c>
+      <c r="G102" s="24">
+        <v>7.2</v>
+      </c>
+      <c r="H102">
+        <v>10.33</v>
       </c>
       <c r="I102" s="2">
         <f>IF(IF(GroteHoogte!D102&gt;0,1,0)+IF(GroteHoogte!H102&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G103" s="24" t="str">
-        <f>IF(GroteHoogte!D103&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D103+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J102" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K102" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L102" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M102" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N102" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O102" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P102" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B103" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103">
+        <v>2261</v>
+      </c>
+      <c r="E103">
+        <v>26</v>
+      </c>
+      <c r="F103" s="26">
+        <f t="shared" si="8"/>
+        <v>3.33</v>
+      </c>
+      <c r="G103" s="24">
+        <v>7</v>
+      </c>
+      <c r="H103">
+        <v>10.33</v>
       </c>
       <c r="I103" s="2">
         <f>IF(IF(GroteHoogte!D103&gt;0,1,0)+IF(GroteHoogte!H103&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G104" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J103" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K103" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L103" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M103" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N103" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O103" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B104" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104">
+        <v>20916</v>
+      </c>
+      <c r="D104">
+        <v>2129</v>
+      </c>
+      <c r="E104">
+        <v>25</v>
+      </c>
+      <c r="F104" s="26">
+        <f t="shared" si="8"/>
+        <v>0.93974070827316147</v>
+      </c>
+      <c r="G104" s="24">
         <f>IF(GroteHoogte!D104&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D104+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>9.3902592917268386</v>
+      </c>
+      <c r="H104">
+        <v>10.33</v>
       </c>
       <c r="I104" s="2">
         <f>IF(IF(GroteHoogte!D104&gt;0,1,0)+IF(GroteHoogte!H104&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G105" s="24" t="str">
-        <f>IF(GroteHoogte!D105&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D105+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J104" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K104" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L104" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M104" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N104" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O104" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>10520</v>
+      </c>
+      <c r="B105" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105">
+        <v>4713</v>
+      </c>
+      <c r="E105">
+        <v>26</v>
+      </c>
+      <c r="F105" s="26">
+        <f t="shared" si="8"/>
+        <v>-8.9999999999999858E-2</v>
+      </c>
+      <c r="G105" s="24">
+        <v>12.2</v>
+      </c>
+      <c r="H105">
+        <v>12.11</v>
       </c>
       <c r="I105" s="2">
         <f>IF(IF(GroteHoogte!D105&gt;0,1,0)+IF(GroteHoogte!H105&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G106" s="24" t="str">
-        <f>IF(GroteHoogte!D106&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D106+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J105" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K105" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L105" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M105" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N105" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O105" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P105" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B106" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106">
+        <v>4623</v>
+      </c>
+      <c r="E106">
+        <v>26</v>
+      </c>
+      <c r="F106" s="26">
+        <f t="shared" si="8"/>
+        <v>0.30999999999999872</v>
+      </c>
+      <c r="G106" s="24">
+        <v>11.8</v>
+      </c>
+      <c r="H106">
+        <v>12.11</v>
       </c>
       <c r="I106" s="2">
         <f>IF(IF(GroteHoogte!D106&gt;0,1,0)+IF(GroteHoogte!H106&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G107" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J106" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K106" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L106" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M106" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N106" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O106" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B107" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107">
+        <v>20919</v>
+      </c>
+      <c r="D107">
+        <v>4390</v>
+      </c>
+      <c r="E107">
+        <v>25</v>
+      </c>
+      <c r="F107" s="26">
+        <f t="shared" si="8"/>
+        <v>-0.50818585634635838</v>
+      </c>
+      <c r="G107" s="24">
         <f>IF(GroteHoogte!D107&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D107+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>12.618185856346358</v>
+      </c>
+      <c r="H107">
+        <v>12.11</v>
       </c>
       <c r="I107" s="2">
         <f>IF(IF(GroteHoogte!D107&gt;0,1,0)+IF(GroteHoogte!H107&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G108" s="24" t="str">
-        <f>IF(GroteHoogte!D108&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D108+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J107" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K107" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L107" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M107" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N107" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O107" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>10519</v>
+      </c>
+      <c r="B108" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108">
+        <v>3922</v>
+      </c>
+      <c r="E108">
+        <v>25</v>
+      </c>
+      <c r="F108" s="26">
+        <f t="shared" si="8"/>
+        <v>0.92999999999999972</v>
+      </c>
+      <c r="G108" s="24">
+        <v>10.5</v>
+      </c>
+      <c r="H108">
+        <v>11.43</v>
       </c>
       <c r="I108" s="2">
         <f>IF(IF(GroteHoogte!D108&gt;0,1,0)+IF(GroteHoogte!H108&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G109" s="24" t="str">
-        <f>IF(GroteHoogte!D109&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D109+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J108" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K108" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L108" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M108" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N108" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O108" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P108" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B109" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109">
+        <v>3816</v>
+      </c>
+      <c r="E109">
+        <v>26</v>
+      </c>
+      <c r="F109" s="26">
+        <f t="shared" si="8"/>
+        <v>1.2300000000000004</v>
+      </c>
+      <c r="G109" s="24">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H109">
+        <v>11.43</v>
       </c>
       <c r="I109" s="2">
         <f>IF(IF(GroteHoogte!D109&gt;0,1,0)+IF(GroteHoogte!H109&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G110" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J109" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K109" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L109" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M109" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N109" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O109" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B110" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110">
+        <v>20917</v>
+      </c>
+      <c r="D110">
+        <v>3653</v>
+      </c>
+      <c r="E110">
+        <v>25</v>
+      </c>
+      <c r="F110" s="26">
+        <f t="shared" si="8"/>
+        <v>-0.13600457455750892</v>
+      </c>
+      <c r="G110" s="24">
         <f>IF(GroteHoogte!D110&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D110+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>11.566004574557509</v>
+      </c>
+      <c r="H110">
+        <v>11.43</v>
       </c>
       <c r="I110" s="2">
         <f>IF(IF(GroteHoogte!D110&gt;0,1,0)+IF(GroteHoogte!H110&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G111" s="24" t="str">
-        <f>IF(GroteHoogte!D111&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D111+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J110" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K110" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L110" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M110" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N110" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O110" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>547</v>
+      </c>
+      <c r="B111" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111">
+        <v>3837</v>
+      </c>
+      <c r="E111">
+        <v>25</v>
+      </c>
+      <c r="F111" s="26">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G111" s="24">
+        <v>10.4</v>
+      </c>
+      <c r="H111">
+        <v>11.4</v>
       </c>
       <c r="I111" s="2">
         <f>IF(IF(GroteHoogte!D111&gt;0,1,0)+IF(GroteHoogte!H111&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G112" s="24" t="str">
-        <f>IF(GroteHoogte!D112&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D112+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J111" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K111" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L111" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M111" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N111" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O111" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P111" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B112" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112">
+        <v>3851</v>
+      </c>
+      <c r="E112">
+        <v>25</v>
+      </c>
+      <c r="F112" s="26">
+        <f t="shared" si="8"/>
+        <v>1.2000000000000011</v>
+      </c>
+      <c r="G112" s="24">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H112">
+        <v>11.4</v>
       </c>
       <c r="I112" s="2">
         <f>IF(IF(GroteHoogte!D112&gt;0,1,0)+IF(GroteHoogte!H112&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G113" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J112" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K112" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L112" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M112" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N112" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O112" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B113" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113">
+        <v>20909</v>
+      </c>
+      <c r="D113">
+        <v>3643</v>
+      </c>
+      <c r="E113">
+        <v>25</v>
+      </c>
+      <c r="F113" s="26">
+        <f t="shared" si="8"/>
+        <v>-0.15172803070691465</v>
+      </c>
+      <c r="G113" s="24">
         <f>IF(GroteHoogte!D113&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D113+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>11.551728030706915</v>
+      </c>
+      <c r="H113">
+        <v>11.4</v>
       </c>
       <c r="I113" s="2">
         <f>IF(IF(GroteHoogte!D113&gt;0,1,0)+IF(GroteHoogte!H113&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G114" s="24" t="str">
-        <f>IF(GroteHoogte!D114&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D114+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J113" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K113" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L113" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M113" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N113" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O113" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>548</v>
+      </c>
+      <c r="B114" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114">
+        <v>3195</v>
+      </c>
+      <c r="E114">
+        <v>25</v>
+      </c>
+      <c r="F114" s="26">
+        <f t="shared" si="8"/>
+        <v>1.8699999999999992</v>
+      </c>
+      <c r="G114" s="24">
+        <v>9</v>
+      </c>
+      <c r="H114">
+        <v>10.87</v>
       </c>
       <c r="I114" s="2">
         <f>IF(IF(GroteHoogte!D114&gt;0,1,0)+IF(GroteHoogte!H114&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G115" s="24" t="str">
-        <f>IF(GroteHoogte!D115&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D115+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>228</v>
+      </c>
+      <c r="K114" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L114" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M114" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N114" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O114" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="P114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B115" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D115">
+        <v>2911</v>
+      </c>
+      <c r="E115">
+        <v>24</v>
+      </c>
+      <c r="F115" s="26">
+        <f t="shared" si="8"/>
+        <v>2.5699999999999985</v>
+      </c>
+      <c r="G115" s="24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H115">
+        <v>10.87</v>
       </c>
       <c r="I115" s="2">
         <f>IF(IF(GroteHoogte!D115&gt;0,1,0)+IF(GroteHoogte!H115&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G116" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>228</v>
+      </c>
+      <c r="K115" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L115" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M115" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N115" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O115" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B116" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116">
+        <v>20866</v>
+      </c>
+      <c r="D116">
+        <v>2823</v>
+      </c>
+      <c r="E116">
+        <v>24</v>
+      </c>
+      <c r="F116" s="26">
+        <f t="shared" si="8"/>
+        <v>0.48894856504187167</v>
+      </c>
+      <c r="G116" s="24">
         <f>IF(GroteHoogte!D116&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D116+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>10.381051434958128</v>
+      </c>
+      <c r="H116">
+        <v>10.87</v>
       </c>
       <c r="I116" s="2">
         <f>IF(IF(GroteHoogte!D116&gt;0,1,0)+IF(GroteHoogte!H116&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G117" s="24" t="str">
-        <f>IF(GroteHoogte!D117&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D117+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>228</v>
+      </c>
+      <c r="K116" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L116" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M116" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N116" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O116" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>545</v>
+      </c>
+      <c r="B117" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117">
+        <v>3659</v>
+      </c>
+      <c r="E117">
+        <v>25</v>
+      </c>
+      <c r="F117" s="26">
+        <f t="shared" si="8"/>
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="G117" s="24">
+        <v>10</v>
+      </c>
+      <c r="H117">
+        <v>11.24</v>
       </c>
       <c r="I117" s="2">
         <f>IF(IF(GroteHoogte!D117&gt;0,1,0)+IF(GroteHoogte!H117&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G118" s="24" t="str">
-        <f>IF(GroteHoogte!D118&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D118+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>228</v>
+      </c>
+      <c r="K117" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L117" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M117" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N117" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O117" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="P117" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B118" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D118">
+        <v>3576</v>
+      </c>
+      <c r="E118">
+        <v>23</v>
+      </c>
+      <c r="F118" s="26">
+        <f t="shared" si="8"/>
+        <v>1.5400000000000009</v>
+      </c>
+      <c r="G118" s="24">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H118">
+        <v>11.24</v>
       </c>
       <c r="I118" s="2">
         <f>IF(IF(GroteHoogte!D118&gt;0,1,0)+IF(GroteHoogte!H118&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G119" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>228</v>
+      </c>
+      <c r="K118" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L118" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M118" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N118" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O118" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B119" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119">
+        <v>20880</v>
+      </c>
+      <c r="D119">
+        <v>3460</v>
+      </c>
+      <c r="E119">
+        <v>24</v>
+      </c>
+      <c r="F119" s="26">
+        <f t="shared" si="8"/>
+        <v>-5.0467278241026037E-2</v>
+      </c>
+      <c r="G119" s="24">
         <f>IF(GroteHoogte!D119&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D119+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>11.290467278241026</v>
+      </c>
+      <c r="H119">
+        <v>11.24</v>
       </c>
       <c r="I119" s="2">
         <f>IF(IF(GroteHoogte!D119&gt;0,1,0)+IF(GroteHoogte!H119&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="7:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>228</v>
+      </c>
+      <c r="K119" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L119" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M119" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N119" s="93">
+        <v>42594</v>
+      </c>
+      <c r="O119" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G120" s="24" t="str">
         <f>IF(GroteHoogte!D120&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D120+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -32696,7 +33948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G121" s="24" t="str">
         <f>IF(GroteHoogte!D121&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D121+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -32706,27 +33958,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G122" s="24" t="str">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>545</v>
+      </c>
+      <c r="C122">
+        <v>20980</v>
+      </c>
+      <c r="D122">
+        <v>3702</v>
+      </c>
+      <c r="E122">
+        <v>25</v>
+      </c>
+      <c r="G122" s="24">
         <f>IF(GroteHoogte!D122&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D122+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>11.635959639425424</v>
       </c>
       <c r="I122" s="2">
         <f>IF(IF(GroteHoogte!D122&gt;0,1,0)+IF(GroteHoogte!H122&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G123" s="24" t="str">
+      <c r="J122" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>10519</v>
+      </c>
+      <c r="C123">
+        <v>20993</v>
+      </c>
+      <c r="D123">
+        <v>4069</v>
+      </c>
+      <c r="E123">
+        <v>26</v>
+      </c>
+      <c r="G123" s="24">
         <f>IF(GroteHoogte!D123&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D123+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>12.159908798742258</v>
       </c>
       <c r="I123" s="2">
         <f>IF(IF(GroteHoogte!D123&gt;0,1,0)+IF(GroteHoogte!H123&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="J123" t="s">
+        <v>234</v>
+      </c>
+      <c r="P123" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G124" s="24" t="str">
         <f>IF(GroteHoogte!D124&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D124+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -32735,8 +34020,11 @@
         <f>IF(IF(GroteHoogte!D124&gt;0,1,0)+IF(GroteHoogte!H124&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="P124" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G125" s="24" t="str">
         <f>IF(GroteHoogte!D125&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D125+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -32745,8 +34033,11 @@
         <f>IF(IF(GroteHoogte!D125&gt;0,1,0)+IF(GroteHoogte!H125&gt;0,1,0)=2,1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="P125" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G126" s="24" t="str">
         <f>IF(GroteHoogte!D126&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D126+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -32756,7 +34047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G127" s="24" t="str">
         <f>IF(GroteHoogte!D127&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D127+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -32766,7 +34057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G128" s="24" t="str">
         <f>IF(GroteHoogte!D128&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D128+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -32776,7 +34067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G129" s="24" t="str">
         <f>IF(GroteHoogte!D129&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D129+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -32786,567 +34077,2621 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G130" s="24" t="str">
-        <f>IF(GroteHoogte!D130&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D130+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I130" s="2">
-        <f>IF(IF(GroteHoogte!D130&gt;0,1,0)+IF(GroteHoogte!H130&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G131" s="24" t="str">
-        <f>IF(GroteHoogte!D131&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D131+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+    <row r="130" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G130" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H130" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="I130" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J130" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K130" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L130" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M130" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N130" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O130" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P130" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>10526</v>
+      </c>
+      <c r="B131" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="13">
+        <v>4604</v>
+      </c>
+      <c r="E131" s="13">
+        <v>22</v>
+      </c>
+      <c r="F131" s="26">
+        <f>IF(I131,H131-G131,TRIM(""))</f>
+        <v>0.53999999999999915</v>
+      </c>
+      <c r="G131" s="24">
+        <v>11.9</v>
+      </c>
+      <c r="H131" s="12">
+        <v>12.44</v>
       </c>
       <c r="I131" s="2">
         <f>IF(IF(GroteHoogte!D131&gt;0,1,0)+IF(GroteHoogte!H131&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G132" s="24" t="str">
-        <f>IF(GroteHoogte!D132&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D132+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J131" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K131" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L131" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M131" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N131" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O131" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P131" s="29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B132" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D132" s="13">
+        <v>4693</v>
+      </c>
+      <c r="E132" s="13">
+        <v>21</v>
+      </c>
+      <c r="F132" s="26">
+        <f>IF(I132,H132-G132,TRIM(""))</f>
+        <v>0.53999999999999915</v>
+      </c>
+      <c r="G132" s="24">
+        <v>11.9</v>
+      </c>
+      <c r="H132" s="12">
+        <v>12.44</v>
       </c>
       <c r="I132" s="2">
         <f>IF(IF(GroteHoogte!D132&gt;0,1,0)+IF(GroteHoogte!H132&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G133" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J132" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K132" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L132" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M132" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N132" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O132" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B133" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133">
+        <v>20801</v>
+      </c>
+      <c r="D133">
+        <v>4334</v>
+      </c>
+      <c r="E133">
+        <v>20</v>
+      </c>
+      <c r="F133" s="26">
+        <f t="shared" ref="F133:F157" si="9">IF(I133,H133-G133,TRIM(""))</f>
+        <v>-9.823721078302583E-2</v>
+      </c>
+      <c r="G133" s="24">
         <f>IF(GroteHoogte!D133&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D133+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>12.538237210783025</v>
+      </c>
+      <c r="H133">
+        <v>12.44</v>
       </c>
       <c r="I133" s="2">
         <f>IF(IF(GroteHoogte!D133&gt;0,1,0)+IF(GroteHoogte!H133&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G134" s="24" t="str">
-        <f>IF(GroteHoogte!D134&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D134+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J133" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K133" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L133" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M133" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N133" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O133" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" s="88">
+        <v>10525</v>
+      </c>
+      <c r="B134" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134">
+        <v>4880</v>
+      </c>
+      <c r="E134">
+        <v>23</v>
+      </c>
+      <c r="F134" s="26">
+        <f t="shared" si="9"/>
+        <v>0.85999999999999943</v>
+      </c>
+      <c r="G134" s="24">
+        <v>12.5</v>
+      </c>
+      <c r="H134">
+        <v>13.36</v>
       </c>
       <c r="I134" s="2">
         <f>IF(IF(GroteHoogte!D134&gt;0,1,0)+IF(GroteHoogte!H134&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G135" s="24" t="str">
-        <f>IF(GroteHoogte!D135&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D135+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J134" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K134" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L134" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M134" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N134" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O134" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P134" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B135" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D135">
+        <v>4943</v>
+      </c>
+      <c r="E135">
+        <v>22</v>
+      </c>
+      <c r="F135" s="26">
+        <f t="shared" si="9"/>
+        <v>0.95999999999999908</v>
+      </c>
+      <c r="G135" s="24">
+        <v>12.4</v>
+      </c>
+      <c r="H135">
+        <v>13.36</v>
       </c>
       <c r="I135" s="2">
         <f>IF(IF(GroteHoogte!D135&gt;0,1,0)+IF(GroteHoogte!H135&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G136" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J135" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K135" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L135" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M135" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N135" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O135" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B136" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136">
+        <v>20909</v>
+      </c>
+      <c r="D136">
+        <v>4657</v>
+      </c>
+      <c r="E136">
+        <v>22</v>
+      </c>
+      <c r="F136" s="26">
+        <f t="shared" si="9"/>
+        <v>0.36063042284275681</v>
+      </c>
+      <c r="G136" s="24">
         <f>IF(GroteHoogte!D136&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D136+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>12.999369577157243</v>
+      </c>
+      <c r="H136">
+        <v>13.36</v>
       </c>
       <c r="I136" s="2">
         <f>IF(IF(GroteHoogte!D136&gt;0,1,0)+IF(GroteHoogte!H136&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G137" s="24" t="str">
-        <f>IF(GroteHoogte!D137&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D137+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J136" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K136" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L136" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M136" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N136" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O136" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>542</v>
+      </c>
+      <c r="B137" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137">
+        <v>3076</v>
+      </c>
+      <c r="E137">
+        <v>23</v>
+      </c>
+      <c r="F137" s="26">
+        <f t="shared" si="9"/>
+        <v>2.33</v>
+      </c>
+      <c r="G137" s="24">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H137">
+        <v>11.13</v>
       </c>
       <c r="I137" s="2">
         <f>IF(IF(GroteHoogte!D137&gt;0,1,0)+IF(GroteHoogte!H137&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G138" s="24" t="str">
-        <f>IF(GroteHoogte!D138&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D138+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J137" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K137" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L137" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M137" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N137" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O137" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P137" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B138" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D138">
+        <v>2960</v>
+      </c>
+      <c r="E138">
+        <v>23</v>
+      </c>
+      <c r="F138" s="26">
+        <f t="shared" si="9"/>
+        <v>2.7300000000000004</v>
+      </c>
+      <c r="G138" s="24">
+        <v>8.4</v>
+      </c>
+      <c r="H138">
+        <v>11.13</v>
       </c>
       <c r="I138" s="2">
         <f>IF(IF(GroteHoogte!D138&gt;0,1,0)+IF(GroteHoogte!H138&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G139" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J138" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K138" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L138" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M138" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N138" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O138" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B139" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139">
+        <v>20945</v>
+      </c>
+      <c r="D139">
+        <v>2843</v>
+      </c>
+      <c r="E139">
+        <v>23</v>
+      </c>
+      <c r="F139" s="26">
+        <f t="shared" si="9"/>
+        <v>0.72039547734068243</v>
+      </c>
+      <c r="G139" s="24">
         <f>IF(GroteHoogte!D139&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D139+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>10.409604522659318</v>
+      </c>
+      <c r="H139">
+        <v>11.13</v>
       </c>
       <c r="I139" s="2">
         <f>IF(IF(GroteHoogte!D139&gt;0,1,0)+IF(GroteHoogte!H139&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G140" s="24" t="str">
-        <f>IF(GroteHoogte!D140&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D140+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J139" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K139" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L139" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M139" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N139" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O139" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>540</v>
+      </c>
+      <c r="B140" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D140">
+        <v>2120</v>
+      </c>
+      <c r="E140">
+        <v>24</v>
+      </c>
+      <c r="F140" s="26">
+        <f t="shared" si="9"/>
+        <v>3.5900000000000007</v>
+      </c>
+      <c r="G140" s="24">
+        <v>6.8</v>
+      </c>
+      <c r="H140">
+        <v>10.39</v>
       </c>
       <c r="I140" s="2">
         <f>IF(IF(GroteHoogte!D140&gt;0,1,0)+IF(GroteHoogte!H140&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G141" s="24" t="str">
-        <f>IF(GroteHoogte!D141&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D141+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J140" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K140" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L140" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M140" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N140" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O140" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P140" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B141" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D141">
+        <v>2113</v>
+      </c>
+      <c r="E141">
+        <v>24</v>
+      </c>
+      <c r="F141" s="26">
+        <f t="shared" si="9"/>
+        <v>3.6900000000000004</v>
+      </c>
+      <c r="G141" s="24">
+        <v>6.7</v>
+      </c>
+      <c r="H141">
+        <v>10.39</v>
       </c>
       <c r="I141" s="2">
         <f>IF(IF(GroteHoogte!D141&gt;0,1,0)+IF(GroteHoogte!H141&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G142" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J141" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K141" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L141" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M141" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N141" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O141" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B142" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142">
+        <v>20959</v>
+      </c>
+      <c r="D142">
+        <v>1993</v>
+      </c>
+      <c r="E142">
+        <v>23</v>
+      </c>
+      <c r="F142" s="26">
+        <f t="shared" si="9"/>
+        <v>1.1939017046412541</v>
+      </c>
+      <c r="G142" s="24">
         <f>IF(GroteHoogte!D142&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D142+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>9.1960982953587465</v>
+      </c>
+      <c r="H142">
+        <v>10.39</v>
       </c>
       <c r="I142" s="2">
         <f>IF(IF(GroteHoogte!D142&gt;0,1,0)+IF(GroteHoogte!H142&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G143" s="24" t="str">
-        <f>IF(GroteHoogte!D143&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D143+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J142" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K142" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L142" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M142" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N142" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O142" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>10520</v>
+      </c>
+      <c r="B143" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D143">
+        <v>4392</v>
+      </c>
+      <c r="E143">
+        <v>24</v>
+      </c>
+      <c r="F143" s="26">
+        <f t="shared" si="9"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="G143" s="24">
+        <v>11.5</v>
+      </c>
+      <c r="H143">
+        <v>11.68</v>
       </c>
       <c r="I143" s="2">
         <f>IF(IF(GroteHoogte!D143&gt;0,1,0)+IF(GroteHoogte!H143&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G144" s="24" t="str">
-        <f>IF(GroteHoogte!D144&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D144+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J143" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K143" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L143" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M143" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N143" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O143" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P143" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B144" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144">
+        <v>4344</v>
+      </c>
+      <c r="E144">
+        <v>24</v>
+      </c>
+      <c r="F144" s="26">
+        <f t="shared" si="9"/>
+        <v>0.48000000000000043</v>
+      </c>
+      <c r="G144" s="24">
+        <v>11.2</v>
+      </c>
+      <c r="H144">
+        <v>11.68</v>
       </c>
       <c r="I144" s="2">
         <f>IF(IF(GroteHoogte!D144&gt;0,1,0)+IF(GroteHoogte!H144&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G145" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J144" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K144" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L144" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M144" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N144" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O144" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B145" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145">
+        <v>20985</v>
+      </c>
+      <c r="D145">
+        <v>4125</v>
+      </c>
+      <c r="E145">
+        <v>23</v>
+      </c>
+      <c r="F145" s="26">
+        <f t="shared" si="9"/>
+        <v>-0.55985744430559237</v>
+      </c>
+      <c r="G145" s="24">
         <f>IF(GroteHoogte!D145&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D145+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>12.239857444305592</v>
+      </c>
+      <c r="H145">
+        <v>11.68</v>
       </c>
       <c r="I145" s="2">
         <f>IF(IF(GroteHoogte!D145&gt;0,1,0)+IF(GroteHoogte!H145&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G146" s="24" t="str">
-        <f>IF(GroteHoogte!D146&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D146+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J145" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K145" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L145" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M145" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N145" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O145" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>10519</v>
+      </c>
+      <c r="B146" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D146">
+        <v>3600</v>
+      </c>
+      <c r="E146">
+        <v>23</v>
+      </c>
+      <c r="F146" s="26">
+        <f t="shared" si="9"/>
+        <v>1.5899999999999999</v>
+      </c>
+      <c r="G146" s="24">
+        <v>9.9</v>
+      </c>
+      <c r="H146">
+        <v>11.49</v>
       </c>
       <c r="I146" s="2">
         <f>IF(IF(GroteHoogte!D146&gt;0,1,0)+IF(GroteHoogte!H146&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G147" s="24" t="str">
-        <f>IF(GroteHoogte!D147&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D147+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J146" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K146" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L146" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M146" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N146" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O146" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P146" s="29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B147" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D147">
+        <v>3588</v>
+      </c>
+      <c r="E147">
+        <v>23</v>
+      </c>
+      <c r="F147" s="26">
+        <f t="shared" si="9"/>
+        <v>1.7900000000000009</v>
+      </c>
+      <c r="G147" s="24">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H147">
+        <v>11.49</v>
       </c>
       <c r="I147" s="2">
         <f>IF(IF(GroteHoogte!D147&gt;0,1,0)+IF(GroteHoogte!H147&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G148" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J147" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K147" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L147" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M147" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N147" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O147" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P147" s="29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B148" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148">
+        <v>20948</v>
+      </c>
+      <c r="D148">
+        <v>3429</v>
+      </c>
+      <c r="E148">
+        <v>22</v>
+      </c>
+      <c r="F148" s="26">
+        <f t="shared" si="9"/>
+        <v>0.24379000769581793</v>
+      </c>
+      <c r="G148" s="24">
         <f>IF(GroteHoogte!D148&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D148+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>11.246209992304182</v>
+      </c>
+      <c r="H148">
+        <v>11.49</v>
       </c>
       <c r="I148" s="2">
         <f>IF(IF(GroteHoogte!D148&gt;0,1,0)+IF(GroteHoogte!H148&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G149" s="24" t="str">
-        <f>IF(GroteHoogte!D149&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D149+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J148" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K148" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L148" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M148" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N148" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O148" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>547</v>
+      </c>
+      <c r="B149" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149">
+        <v>3608</v>
+      </c>
+      <c r="E149">
+        <v>25</v>
+      </c>
+      <c r="F149" s="26">
+        <f t="shared" si="9"/>
+        <v>1.3599999999999994</v>
+      </c>
+      <c r="G149" s="24">
+        <v>9.9</v>
+      </c>
+      <c r="H149">
+        <v>11.26</v>
       </c>
       <c r="I149" s="2">
         <f>IF(IF(GroteHoogte!D149&gt;0,1,0)+IF(GroteHoogte!H149&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G150" s="24" t="str">
-        <f>IF(GroteHoogte!D150&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D150+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J149" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K149" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L149" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M149" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N149" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O149" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P149" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B150" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150">
+        <v>3523</v>
+      </c>
+      <c r="E150">
+        <v>24</v>
+      </c>
+      <c r="F150" s="26">
+        <f t="shared" si="9"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="G150" s="24">
+        <v>9.6</v>
+      </c>
+      <c r="H150">
+        <v>11.26</v>
       </c>
       <c r="I150" s="2">
         <f>IF(IF(GroteHoogte!D150&gt;0,1,0)+IF(GroteHoogte!H150&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G151" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J150" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K150" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L150" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M150" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N150" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O150" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B151" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151">
+        <v>20973</v>
+      </c>
+      <c r="D151">
+        <v>3420</v>
+      </c>
+      <c r="E151">
+        <v>24</v>
+      </c>
+      <c r="F151" s="26">
+        <f t="shared" si="9"/>
+        <v>2.663889716135337E-2</v>
+      </c>
+      <c r="G151" s="24">
         <f>IF(GroteHoogte!D151&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D151+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>11.233361102838646</v>
+      </c>
+      <c r="H151">
+        <v>11.26</v>
       </c>
       <c r="I151" s="2">
         <f>IF(IF(GroteHoogte!D151&gt;0,1,0)+IF(GroteHoogte!H151&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G152" s="24" t="str">
-        <f>IF(GroteHoogte!D152&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D152+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J151" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K151" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L151" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M151" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N151" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O151" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>548</v>
+      </c>
+      <c r="B152" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152">
+        <v>2822</v>
+      </c>
+      <c r="E152">
+        <v>25</v>
+      </c>
+      <c r="F152" s="26">
+        <f t="shared" si="9"/>
+        <v>2.5499999999999989</v>
+      </c>
+      <c r="G152" s="24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H152">
+        <v>10.85</v>
       </c>
       <c r="I152" s="2">
         <f>IF(IF(GroteHoogte!D152&gt;0,1,0)+IF(GroteHoogte!H152&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G153" s="24" t="str">
-        <f>IF(GroteHoogte!D153&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D153+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J152" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K152" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L152" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M152" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N152" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O152" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P152" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B153" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D153">
+        <v>2835</v>
+      </c>
+      <c r="E153">
+        <v>24</v>
+      </c>
+      <c r="F153" s="26">
+        <f t="shared" si="9"/>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="G153" s="24">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H153">
+        <v>10.85</v>
       </c>
       <c r="I153" s="2">
         <f>IF(IF(GroteHoogte!D153&gt;0,1,0)+IF(GroteHoogte!H153&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G154" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J153" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K153" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L153" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M153" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N153" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O153" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B154" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154">
+        <v>20971</v>
+      </c>
+      <c r="D154">
+        <v>2673</v>
+      </c>
+      <c r="E154">
+        <v>24</v>
+      </c>
+      <c r="F154" s="26">
+        <f t="shared" si="9"/>
+        <v>0.68309672280079603</v>
+      </c>
+      <c r="G154" s="24">
         <f>IF(GroteHoogte!D154&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D154+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>10.166903277199204</v>
+      </c>
+      <c r="H154">
+        <v>10.85</v>
       </c>
       <c r="I154" s="2">
         <f>IF(IF(GroteHoogte!D154&gt;0,1,0)+IF(GroteHoogte!H154&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G155" s="24" t="str">
-        <f>IF(GroteHoogte!D155&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D155+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J154" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K154" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L154" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M154" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N154" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O154" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>545</v>
+      </c>
+      <c r="B155" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D155">
+        <v>3423</v>
+      </c>
+      <c r="E155">
+        <v>25</v>
+      </c>
+      <c r="F155" s="26">
+        <f t="shared" si="9"/>
+        <v>1.6500000000000004</v>
+      </c>
+      <c r="G155" s="24">
+        <v>9.5</v>
+      </c>
+      <c r="H155">
+        <v>11.15</v>
       </c>
       <c r="I155" s="2">
         <f>IF(IF(GroteHoogte!D155&gt;0,1,0)+IF(GroteHoogte!H155&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G156" s="24" t="str">
-        <f>IF(GroteHoogte!D156&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D156+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J155" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K155" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L155" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M155" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N155" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O155" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P155" s="29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B156" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156">
+        <v>3257</v>
+      </c>
+      <c r="E156">
+        <v>24</v>
+      </c>
+      <c r="F156" s="26">
+        <f t="shared" si="9"/>
+        <v>2.1500000000000004</v>
+      </c>
+      <c r="G156" s="24">
+        <v>9</v>
+      </c>
+      <c r="H156">
+        <v>11.15</v>
       </c>
       <c r="I156" s="2">
         <f>IF(IF(GroteHoogte!D156&gt;0,1,0)+IF(GroteHoogte!H156&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G157" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J156" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K156" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L156" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M156" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N156" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O156" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B157" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157">
+        <v>20979</v>
+      </c>
+      <c r="D157">
+        <v>3109</v>
+      </c>
+      <c r="E157">
+        <v>24</v>
+      </c>
+      <c r="F157" s="26">
+        <f t="shared" si="9"/>
+        <v>0.36063941091485674</v>
+      </c>
+      <c r="G157" s="24">
         <f>IF(GroteHoogte!D157&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D157+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>10.789360589085144</v>
+      </c>
+      <c r="H157">
+        <v>11.15</v>
       </c>
       <c r="I157" s="2">
         <f>IF(IF(GroteHoogte!D157&gt;0,1,0)+IF(GroteHoogte!H157&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G158" s="24" t="str">
-        <f>IF(GroteHoogte!D158&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D158+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I158" s="2">
-        <f>IF(IF(GroteHoogte!D158&gt;0,1,0)+IF(GroteHoogte!H158&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G159" s="24" t="str">
-        <f>IF(GroteHoogte!D159&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D159+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J157" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K157" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L157" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M157" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N157" s="93">
+        <v>42595</v>
+      </c>
+      <c r="O157" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G158" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H158" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="I158" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J158" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K158" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L158" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M158" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N158" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O158" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P158" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>10526</v>
+      </c>
+      <c r="B159" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D159" s="13">
+        <v>4618</v>
+      </c>
+      <c r="E159" s="13">
+        <v>21</v>
+      </c>
+      <c r="F159" s="26">
+        <f>IF(I159,H159-G159,TRIM(""))</f>
+        <v>0.58999999999999986</v>
+      </c>
+      <c r="G159" s="24">
+        <v>12</v>
+      </c>
+      <c r="H159" s="12">
+        <v>12.59</v>
       </c>
       <c r="I159" s="2">
         <f>IF(IF(GroteHoogte!D159&gt;0,1,0)+IF(GroteHoogte!H159&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G160" s="24" t="str">
-        <f>IF(GroteHoogte!D160&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D160+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J159" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K159" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L159" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M159" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N159" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O159" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P159" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B160" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" s="13">
+        <v>4500</v>
+      </c>
+      <c r="E160" s="13">
+        <v>21</v>
+      </c>
+      <c r="F160" s="26">
+        <f>IF(I160,H160-G160,TRIM(""))</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="G160" s="24">
+        <v>11.5</v>
+      </c>
+      <c r="H160" s="12">
+        <v>12.59</v>
       </c>
       <c r="I160" s="2">
         <f>IF(IF(GroteHoogte!D160&gt;0,1,0)+IF(GroteHoogte!H160&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G161" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J160" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K160" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L160" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M160" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N160" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O160" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P160" s="29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B161" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161">
+        <v>20651</v>
+      </c>
+      <c r="D161">
+        <v>4333</v>
+      </c>
+      <c r="E161">
+        <v>21</v>
+      </c>
+      <c r="F161" s="26">
+        <f t="shared" ref="F161:F185" si="10">IF(I161,H161-G161,TRIM(""))</f>
+        <v>5.3190443602034065E-2</v>
+      </c>
+      <c r="G161" s="24">
         <f>IF(GroteHoogte!D161&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D161+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>12.536809556397966</v>
+      </c>
+      <c r="H161">
+        <v>12.59</v>
       </c>
       <c r="I161" s="2">
         <f>IF(IF(GroteHoogte!D161&gt;0,1,0)+IF(GroteHoogte!H161&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G162" s="24" t="str">
-        <f>IF(GroteHoogte!D162&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D162+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J161" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K161" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L161" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M161" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N161" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O161" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" s="88">
+        <v>10525</v>
+      </c>
+      <c r="B162" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162">
+        <v>4877</v>
+      </c>
+      <c r="E162">
+        <v>22</v>
+      </c>
+      <c r="F162" s="26">
+        <f t="shared" si="10"/>
+        <v>0.94999999999999929</v>
+      </c>
+      <c r="G162" s="24">
+        <v>12.3</v>
+      </c>
+      <c r="H162">
+        <v>13.25</v>
       </c>
       <c r="I162" s="2">
         <f>IF(IF(GroteHoogte!D162&gt;0,1,0)+IF(GroteHoogte!H162&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G163" s="24" t="str">
-        <f>IF(GroteHoogte!D163&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D163+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J162" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K162" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L162" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M162" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N162" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O162" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P162" s="29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B163" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D163">
+        <v>4743</v>
+      </c>
+      <c r="E163">
+        <v>22</v>
+      </c>
+      <c r="F163" s="26">
+        <f t="shared" si="10"/>
+        <v>1.0500000000000007</v>
+      </c>
+      <c r="G163" s="24">
+        <v>12.2</v>
+      </c>
+      <c r="H163">
+        <v>13.25</v>
       </c>
       <c r="I163" s="2">
         <f>IF(IF(GroteHoogte!D163&gt;0,1,0)+IF(GroteHoogte!H163&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G164" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J163" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K163" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L163" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M163" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N163" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O163" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B164" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164">
+        <v>20758</v>
+      </c>
+      <c r="D164">
+        <v>4647</v>
+      </c>
+      <c r="E164">
+        <v>22</v>
+      </c>
+      <c r="F164" s="26">
+        <f t="shared" si="10"/>
+        <v>0.26490696669335279</v>
+      </c>
+      <c r="G164" s="24">
         <f>IF(GroteHoogte!D164&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D164+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>12.985093033306647</v>
+      </c>
+      <c r="H164">
+        <v>13.25</v>
       </c>
       <c r="I164" s="2">
         <f>IF(IF(GroteHoogte!D164&gt;0,1,0)+IF(GroteHoogte!H164&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G165" s="24" t="str">
-        <f>IF(GroteHoogte!D165&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D165+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J164" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K164" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L164" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M164" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N164" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O164" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>542</v>
+      </c>
+      <c r="B165" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D165">
+        <v>2938</v>
+      </c>
+      <c r="E165">
+        <v>23</v>
+      </c>
+      <c r="F165" s="26">
+        <f t="shared" si="10"/>
+        <v>2.66</v>
+      </c>
+      <c r="G165" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="H165">
+        <v>11.16</v>
       </c>
       <c r="I165" s="2">
         <f>IF(IF(GroteHoogte!D165&gt;0,1,0)+IF(GroteHoogte!H165&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G166" s="24" t="str">
-        <f>IF(GroteHoogte!D166&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D166+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J165" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K165" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L165" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M165" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N165" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O165" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P165" s="29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B166" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D166">
+        <v>2988</v>
+      </c>
+      <c r="E166">
+        <v>23</v>
+      </c>
+      <c r="F166" s="26">
+        <f t="shared" si="10"/>
+        <v>2.66</v>
+      </c>
+      <c r="G166" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="H166">
+        <v>11.16</v>
       </c>
       <c r="I166" s="2">
         <f>IF(IF(GroteHoogte!D166&gt;0,1,0)+IF(GroteHoogte!H166&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G167" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J166" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K166" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L166" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M166" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N166" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O166" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B167" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167">
+        <v>20748</v>
+      </c>
+      <c r="D167">
+        <v>2846</v>
+      </c>
+      <c r="E167">
+        <v>22</v>
+      </c>
+      <c r="F167" s="26">
+        <f t="shared" si="10"/>
+        <v>0.74611251418550495</v>
+      </c>
+      <c r="G167" s="24">
         <f>IF(GroteHoogte!D167&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D167+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>10.413887485814495</v>
+      </c>
+      <c r="H167">
+        <v>11.16</v>
       </c>
       <c r="I167" s="2">
         <f>IF(IF(GroteHoogte!D167&gt;0,1,0)+IF(GroteHoogte!H167&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G168" s="24" t="str">
-        <f>IF(GroteHoogte!D168&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D168+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J167" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K167" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L167" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M167" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N167" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O167" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>540</v>
+      </c>
+      <c r="B168" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D168">
+        <v>2059</v>
+      </c>
+      <c r="E168">
+        <v>23</v>
+      </c>
+      <c r="F168" s="26">
+        <f t="shared" si="10"/>
+        <v>3.7499999999999991</v>
+      </c>
+      <c r="G168" s="24">
+        <v>6.7</v>
+      </c>
+      <c r="H168">
+        <v>10.45</v>
       </c>
       <c r="I168" s="2">
         <f>IF(IF(GroteHoogte!D168&gt;0,1,0)+IF(GroteHoogte!H168&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G169" s="24" t="str">
-        <f>IF(GroteHoogte!D169&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D169+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J168" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K168" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L168" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M168" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N168" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O168" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P168" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B169" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D169">
+        <v>2141</v>
+      </c>
+      <c r="E169">
+        <v>23</v>
+      </c>
+      <c r="F169" s="26">
+        <f t="shared" si="10"/>
+        <v>3.6499999999999995</v>
+      </c>
+      <c r="G169" s="24">
+        <v>6.8</v>
+      </c>
+      <c r="H169">
+        <v>10.45</v>
       </c>
       <c r="I169" s="2">
         <f>IF(IF(GroteHoogte!D169&gt;0,1,0)+IF(GroteHoogte!H169&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G170" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J169" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K169" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L169" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M169" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N169" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O169" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B170" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170">
+        <v>20831</v>
+      </c>
+      <c r="D170">
+        <v>1947</v>
+      </c>
+      <c r="E170">
+        <v>23</v>
+      </c>
+      <c r="F170" s="26">
+        <f t="shared" si="10"/>
+        <v>1.3195738063539899</v>
+      </c>
+      <c r="G170" s="24">
         <f>IF(GroteHoogte!D170&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D170+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>9.1304261936460094</v>
+      </c>
+      <c r="H170">
+        <v>10.45</v>
       </c>
       <c r="I170" s="2">
         <f>IF(IF(GroteHoogte!D170&gt;0,1,0)+IF(GroteHoogte!H170&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G171" s="24" t="str">
-        <f>IF(GroteHoogte!D171&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D171+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J170" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K170" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L170" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M170" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N170" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O170" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>10520</v>
+      </c>
+      <c r="B171" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D171">
+        <v>4369</v>
+      </c>
+      <c r="E171">
+        <v>23</v>
+      </c>
+      <c r="F171" s="26">
+        <f t="shared" si="10"/>
+        <v>0.50999999999999979</v>
+      </c>
+      <c r="G171" s="24">
+        <v>11.4</v>
+      </c>
+      <c r="H171">
+        <v>11.91</v>
       </c>
       <c r="I171" s="2">
         <f>IF(IF(GroteHoogte!D171&gt;0,1,0)+IF(GroteHoogte!H171&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G172" s="24" t="str">
-        <f>IF(GroteHoogte!D172&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D172+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J171" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K171" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L171" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M171" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N171" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O171" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P171" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B172" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D172">
+        <v>4334</v>
+      </c>
+      <c r="E172">
+        <v>23</v>
+      </c>
+      <c r="F172" s="26">
+        <f t="shared" si="10"/>
+        <v>0.71000000000000085</v>
+      </c>
+      <c r="G172" s="24">
+        <v>11.2</v>
+      </c>
+      <c r="H172">
+        <v>11.91</v>
       </c>
       <c r="I172" s="2">
         <f>IF(IF(GroteHoogte!D172&gt;0,1,0)+IF(GroteHoogte!H172&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G173" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J172" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K172" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L172" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M172" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N172" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O172" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B173" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173">
+        <v>20827</v>
+      </c>
+      <c r="D173">
+        <v>4183</v>
+      </c>
+      <c r="E173">
+        <v>23</v>
+      </c>
+      <c r="F173" s="26">
+        <f t="shared" si="10"/>
+        <v>-0.41266139863904172</v>
+      </c>
+      <c r="G173" s="24">
         <f>IF(GroteHoogte!D173&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D173+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>12.322661398639042</v>
+      </c>
+      <c r="H173">
+        <v>11.91</v>
       </c>
       <c r="I173" s="2">
         <f>IF(IF(GroteHoogte!D173&gt;0,1,0)+IF(GroteHoogte!H173&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G174" s="24" t="str">
-        <f>IF(GroteHoogte!D174&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D174+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J173" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K173" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L173" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M173" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N173" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O173" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>10519</v>
+      </c>
+      <c r="B174" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D174">
+        <v>3605</v>
+      </c>
+      <c r="E174">
+        <v>23</v>
+      </c>
+      <c r="F174" s="26">
+        <f t="shared" si="10"/>
+        <v>1.4100000000000001</v>
+      </c>
+      <c r="G174" s="24">
+        <v>9.9</v>
+      </c>
+      <c r="H174">
+        <v>11.31</v>
       </c>
       <c r="I174" s="2">
         <f>IF(IF(GroteHoogte!D174&gt;0,1,0)+IF(GroteHoogte!H174&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G175" s="24" t="str">
-        <f>IF(GroteHoogte!D175&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D175+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J174" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K174" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L174" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M174" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N174" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O174" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P174" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B175" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D175">
+        <v>3696</v>
+      </c>
+      <c r="E175">
+        <v>23</v>
+      </c>
+      <c r="F175" s="26">
+        <f t="shared" si="10"/>
+        <v>1.4100000000000001</v>
+      </c>
+      <c r="G175" s="24">
+        <v>9.9</v>
+      </c>
+      <c r="H175">
+        <v>11.31</v>
       </c>
       <c r="I175" s="2">
         <f>IF(IF(GroteHoogte!D175&gt;0,1,0)+IF(GroteHoogte!H175&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G176" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J175" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K175" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L175" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M175" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N175" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O175" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B176" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176">
+        <v>20792</v>
+      </c>
+      <c r="D176">
+        <v>3428</v>
+      </c>
+      <c r="E176">
+        <v>23</v>
+      </c>
+      <c r="F176" s="26">
+        <f t="shared" si="10"/>
+        <v>6.5217662080877759E-2</v>
+      </c>
+      <c r="G176" s="24">
         <f>IF(GroteHoogte!D176&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D176+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>11.244782337919123</v>
+      </c>
+      <c r="H176">
+        <v>11.31</v>
       </c>
       <c r="I176" s="2">
         <f>IF(IF(GroteHoogte!D176&gt;0,1,0)+IF(GroteHoogte!H176&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G177" s="24" t="str">
-        <f>IF(GroteHoogte!D177&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D177+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J176" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K176" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L176" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M176" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N176" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O176" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>547</v>
+      </c>
+      <c r="B177" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D177">
+        <v>3556</v>
+      </c>
+      <c r="E177">
+        <v>23</v>
+      </c>
+      <c r="F177" s="26">
+        <f t="shared" si="10"/>
+        <v>1.4899999999999984</v>
+      </c>
+      <c r="G177" s="24">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H177">
+        <v>11.29</v>
       </c>
       <c r="I177" s="2">
         <f>IF(IF(GroteHoogte!D177&gt;0,1,0)+IF(GroteHoogte!H177&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G178" s="24" t="str">
-        <f>IF(GroteHoogte!D178&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D178+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J177" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K177" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L177" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M177" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N177" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O177" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P177" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B178" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D178">
+        <v>3625</v>
+      </c>
+      <c r="E178">
+        <v>23</v>
+      </c>
+      <c r="F178" s="26">
+        <f t="shared" si="10"/>
+        <v>1.4899999999999984</v>
+      </c>
+      <c r="G178" s="24">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H178">
+        <v>11.29</v>
       </c>
       <c r="I178" s="2">
         <f>IF(IF(GroteHoogte!D178&gt;0,1,0)+IF(GroteHoogte!H178&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G179" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J178" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K178" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L178" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M178" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N178" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O178" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B179" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179">
+        <v>20838</v>
+      </c>
+      <c r="D179">
+        <v>3406</v>
+      </c>
+      <c r="E179">
+        <v>23</v>
+      </c>
+      <c r="F179" s="26">
+        <f t="shared" si="10"/>
+        <v>7.6626058552186294E-2</v>
+      </c>
+      <c r="G179" s="24">
         <f>IF(GroteHoogte!D179&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D179+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>11.213373941447813</v>
+      </c>
+      <c r="H179">
+        <v>11.29</v>
       </c>
       <c r="I179" s="2">
         <f>IF(IF(GroteHoogte!D179&gt;0,1,0)+IF(GroteHoogte!H179&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G180" s="24" t="str">
-        <f>IF(GroteHoogte!D180&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D180+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J179" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K179" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L179" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M179" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N179" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O179" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>548</v>
+      </c>
+      <c r="B180" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D180">
+        <v>2804</v>
+      </c>
+      <c r="E180">
+        <v>23</v>
+      </c>
+      <c r="F180" s="26">
+        <f t="shared" si="10"/>
+        <v>2.6100000000000012</v>
+      </c>
+      <c r="G180" s="24">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H180">
+        <v>10.81</v>
       </c>
       <c r="I180" s="2">
         <f>IF(IF(GroteHoogte!D180&gt;0,1,0)+IF(GroteHoogte!H180&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G181" s="24" t="str">
-        <f>IF(GroteHoogte!D181&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D181+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J180" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K180" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L180" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M180" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N180" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O180" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P180" s="29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B181" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D181">
+        <v>2806</v>
+      </c>
+      <c r="E181">
+        <v>23</v>
+      </c>
+      <c r="F181" s="26">
+        <f t="shared" si="10"/>
+        <v>2.7100000000000009</v>
+      </c>
+      <c r="G181" s="24">
+        <v>8.1</v>
+      </c>
+      <c r="H181">
+        <v>10.81</v>
       </c>
       <c r="I181" s="2">
         <f>IF(IF(GroteHoogte!D181&gt;0,1,0)+IF(GroteHoogte!H181&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G182" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J181" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K181" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L181" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M181" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N181" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O181" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B182" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182">
+        <v>20827</v>
+      </c>
+      <c r="D182">
+        <v>2656</v>
+      </c>
+      <c r="E182">
+        <v>23</v>
+      </c>
+      <c r="F182" s="26">
+        <f t="shared" si="10"/>
+        <v>0.66736684734680729</v>
+      </c>
+      <c r="G182" s="24">
         <f>IF(GroteHoogte!D182&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D182+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>10.142633152653193</v>
+      </c>
+      <c r="H182">
+        <v>10.81</v>
       </c>
       <c r="I182" s="2">
         <f>IF(IF(GroteHoogte!D182&gt;0,1,0)+IF(GroteHoogte!H182&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G183" s="24" t="str">
-        <f>IF(GroteHoogte!D183&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D183+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J182" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K182" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L182" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M182" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N182" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O182" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>545</v>
+      </c>
+      <c r="B183" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D183">
+        <v>3308</v>
+      </c>
+      <c r="E183">
+        <v>23</v>
+      </c>
+      <c r="F183" s="26">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="G183" s="24">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H183">
+        <v>11</v>
       </c>
       <c r="I183" s="2">
         <f>IF(IF(GroteHoogte!D183&gt;0,1,0)+IF(GroteHoogte!H183&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G184" s="24" t="str">
-        <f>IF(GroteHoogte!D184&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D184+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="J183" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K183" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L183" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M183" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N183" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O183" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P183" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B184" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D184">
+        <v>3390</v>
+      </c>
+      <c r="E184">
+        <v>23</v>
+      </c>
+      <c r="F184" s="26">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="G184" s="24">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H184">
+        <v>11</v>
       </c>
       <c r="I184" s="2">
         <f>IF(IF(GroteHoogte!D184&gt;0,1,0)+IF(GroteHoogte!H184&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G185" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J184" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K184" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L184" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M184" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N184" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O184" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P184" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B185" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185">
+        <v>20830</v>
+      </c>
+      <c r="D185">
+        <v>3150</v>
+      </c>
+      <c r="E185">
+        <v>23</v>
+      </c>
+      <c r="F185" s="26">
+        <f t="shared" si="10"/>
+        <v>0.15210558112741701</v>
+      </c>
+      <c r="G185" s="24">
         <f>IF(GroteHoogte!D185&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D185+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
+        <v>10.847894418872583</v>
+      </c>
+      <c r="H185">
+        <v>11</v>
       </c>
       <c r="I185" s="2">
         <f>IF(IF(GroteHoogte!D185&gt;0,1,0)+IF(GroteHoogte!H185&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="7:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J185" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K185" s="29">
+        <v>1820</v>
+      </c>
+      <c r="L185" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M185" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N185" s="93">
+        <v>42596</v>
+      </c>
+      <c r="O185" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P185" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G186" s="24" t="str">
         <f>IF(GroteHoogte!D186&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D186+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -33356,7 +36701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G187" s="24" t="str">
         <f>IF(GroteHoogte!D187&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D187+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -33366,7 +36711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G188" s="24" t="str">
         <f>IF(GroteHoogte!D188&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D188+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -33376,7 +36721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G189" s="24" t="str">
         <f>IF(GroteHoogte!D189&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D189+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -33386,7 +36731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G190" s="24" t="str">
         <f>IF(GroteHoogte!D190&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D190+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -33396,7 +36741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G191" s="24" t="str">
         <f>IF(GroteHoogte!D191&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D191+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -33406,7 +36751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G192" s="24" t="str">
         <f>IF(GroteHoogte!D192&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D192+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -36835,124 +40180,209 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="M2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H92:I1048576 H4:I63 H65:I65 I65:I91 H66:H91">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="25">
+  <conditionalFormatting sqref="H4:I63 H65:I65 I65:I91 H66:H91 H93:I129 H186:I1048576">
+    <cfRule type="notContainsBlanks" dxfId="43" priority="44">
       <formula>LEN(TRIM(H4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:E63 C65:E1048576">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="24">
+  <conditionalFormatting sqref="C4:E63 C65:E91 C93:E129 C186:E1048576 C159:E166 D167:E167">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="43">
       <formula>LEN(TRIM(C4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G63 G65:G1048576">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="22">
+  <conditionalFormatting sqref="G4:G63 G65:G91 G94:G129 G186:G1048576">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="41">
       <formula>LEN(TRIM(G4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91:H91 C92:I1048576 C4:I63 G65:I65 G89:H90 G86:H86 G83:H83 G80:H80 G77:H77 G74:H74 G71:H71 G68:H68 I65:I91 H87:H88 H84:H85 H81:H82 H78:H79 H75:H76 H72:H73 H69:H70 H66:H67 G65:G92 C65:F91">
-    <cfRule type="containsBlanks" dxfId="21" priority="19">
+  <conditionalFormatting sqref="C91:H91 C4:I63 G65:I65 G89:H90 G86:H86 G83:H83 G80:H80 G77:H77 G74:H74 G71:H71 G68:H68 I65:I91 H87:H88 H84:H85 H81:H82 H78:H79 H75:H76 H72:H73 H69:H70 H66:H67 C65:G91 C93:C94 H93:I93 D94:I94 I94:I111 F93:F108 D93:E93 C95:I129 C186:I1048576 C161:I166 D167:E167">
+    <cfRule type="containsBlanks" dxfId="40" priority="38">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F63 F65:F1048576">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="21">
+  <conditionalFormatting sqref="F4:F63 F65:F91 F93:F129 F186:F1048576">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="40">
       <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I63 I65:I1048576">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+  <conditionalFormatting sqref="I4:I63 I65:I91 I93:I129 I186:I1048576">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="37">
       <formula>LEN(TRIM(G67))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
+    <cfRule type="containsBlanks" dxfId="36" priority="36">
       <formula>LEN(TRIM(G67))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="35">
       <formula>LEN(TRIM(G88))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="containsBlanks" dxfId="14" priority="15">
+    <cfRule type="containsBlanks" dxfId="34" priority="34">
       <formula>LEN(TRIM(G88))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="33">
       <formula>LEN(TRIM(G85))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85">
-    <cfRule type="containsBlanks" dxfId="12" priority="13">
+    <cfRule type="containsBlanks" dxfId="32" priority="32">
       <formula>LEN(TRIM(G85))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="31">
       <formula>LEN(TRIM(G82))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="containsBlanks" dxfId="10" priority="11">
+    <cfRule type="containsBlanks" dxfId="30" priority="30">
       <formula>LEN(TRIM(G82))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="29">
       <formula>LEN(TRIM(G79))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79">
-    <cfRule type="containsBlanks" dxfId="8" priority="9">
+    <cfRule type="containsBlanks" dxfId="28" priority="28">
       <formula>LEN(TRIM(G79))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="27">
       <formula>LEN(TRIM(G76))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+    <cfRule type="containsBlanks" dxfId="26" priority="26">
       <formula>LEN(TRIM(G76))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="25">
       <formula>LEN(TRIM(G73))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="24" priority="24">
       <formula>LEN(TRIM(G73))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="23">
       <formula>LEN(TRIM(G70))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="22" priority="22">
       <formula>LEN(TRIM(G70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="21">
       <formula>LEN(TRIM(G67))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
+    <cfRule type="containsBlanks" dxfId="20" priority="20">
+      <formula>LEN(TRIM(G67))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H131:I157">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="19">
+      <formula>LEN(TRIM(H131))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131:E157">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="18">
+      <formula>LEN(TRIM(C131))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G131:G157 G186:G192">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="16">
+      <formula>LEN(TRIM(G131))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131:C132 H131:I131 D132:I132 D131:F131 C133:I157 G131:G157 G186:G192">
+    <cfRule type="containsBlanks" dxfId="16" priority="13">
+      <formula>LEN(TRIM(C131))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F131:F157">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="15">
+      <formula>LEN(TRIM(F131))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I131:I157">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H159:I185">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
+      <formula>LEN(TRIM(H159))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C168:E185 C167">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="11">
+      <formula>LEN(TRIM(C167))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G160:G185">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="9">
+      <formula>LEN(TRIM(G160))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159:C160 H159:I159 D160:I160 D159:F159 C167 F167:I167 C168:I185">
+    <cfRule type="containsBlanks" dxfId="8" priority="6">
+      <formula>LEN(TRIM(C159))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F159:F185">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+      <formula>LEN(TRIM(F159))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I159:I185">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G159">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(G159))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G159">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(G159))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F167">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(F167))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I167">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(I167))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G167">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G67))=0</formula>
+      <formula>LEN(TRIM(G167))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -36961,7 +40391,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="20" operator="notBetween" id="{83D2047F-29C6-4704-BCC5-3CB6D4BA3DD3}">
+          <x14:cfRule type="cellIs" priority="39" operator="notBetween" id="{83D2047F-29C6-4704-BCC5-3CB6D4BA3DD3}">
             <xm:f>-Grafiek_kalibratiemetingen!$AC$4-1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
             <xm:f>Grafiek_kalibratiemetingen!$AC$4+1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
             <x14:dxf>
@@ -36977,7 +40407,45 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F4:F63 F65:F49994</xm:sqref>
+          <xm:sqref>F4:F63 F65:F91 F93:F129 F186:F49994</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="14" operator="notBetween" id="{320B7893-36C6-46F0-AE82-3879FEC15F69}">
+            <xm:f>-Grafiek_kalibratiemetingen!$AC$4-1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
+            <xm:f>Grafiek_kalibratiemetingen!$AC$4+1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <numFmt numFmtId="2" formatCode="0.00"/>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F131:F157</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{ECC0D9CD-D0CC-41F9-9C92-4AC3A92F253C}">
+            <xm:f>-Grafiek_kalibratiemetingen!$AC$4-1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
+            <xm:f>Grafiek_kalibratiemetingen!$AC$4+1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <numFmt numFmtId="2" formatCode="0.00"/>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F159:F185</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -43231,10 +46699,10 @@
     <sortCondition descending="1" ref="V2"/>
   </sortState>
   <conditionalFormatting sqref="T3:U50001">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43531,20 +46999,20 @@
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -44326,15 +47794,15 @@
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G4" s="8" t="s">
@@ -44611,18 +48079,18 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="N2" s="94" t="s">
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="N2" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -53341,32 +56809,32 @@
     <mergeCell ref="N2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:J1048576">
-    <cfRule type="notContainsBlanks" dxfId="58" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="77" priority="7">
       <formula>LEN(TRIM(H4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E1048576">
-    <cfRule type="notContainsBlanks" dxfId="57" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="76" priority="6">
       <formula>LEN(TRIM(C4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G1048576">
-    <cfRule type="notContainsBlanks" dxfId="56" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="75" priority="4">
       <formula>LEN(TRIM(G4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:J1048576">
-    <cfRule type="containsBlanks" dxfId="55" priority="1">
+    <cfRule type="containsBlanks" dxfId="74" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="notContainsBlanks" dxfId="54" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="73" priority="3">
       <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J1048576">
-    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53423,14 +56891,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="97"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="64" t="s">
         <v>138</v>
       </c>

--- a/2016Robbertmetingen.xlsx
+++ b/2016Robbertmetingen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kalibratiemetingen" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Grafiek_kalibratiemetingen!$T$2:$U$236</definedName>
   </definedNames>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="268">
   <si>
     <t>Sample nummer</t>
   </si>
@@ -795,6 +795,51 @@
   <si>
     <t>Vervlogen tijd: 42 minuten</t>
   </si>
+  <si>
+    <t>Gehaka Augosto</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 32,4°C</t>
+  </si>
+  <si>
+    <t>Gehaka augosto zegt 32,1°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gehaka kapot zei eerst muy baja, geen idee waarom. Temp 32,3°C. Twee keer opnieuw gemeten en bijna exact hetzelfde 13,44 en 13,42. </t>
+  </si>
+  <si>
+    <t>Gehaka augosto zegt 31,8°C</t>
+  </si>
+  <si>
+    <t>Weegschalen wijken ook 1g af en heb opnieuw gemeten met andere weegschaal, verandert niks aan resultaten gehaka</t>
+  </si>
+  <si>
+    <t>Invloed ijzeren bureau ook eens gemeten, nauwelijks afwijking (max 0,1%)</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 32,0°C</t>
+  </si>
+  <si>
+    <t>Gehaka augosto zegt 31,6°C</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 31,8°C</t>
+  </si>
+  <si>
+    <t>Gehaka augosto zegt 31,4°C</t>
+  </si>
+  <si>
+    <t>Gehaka augosto zegt 31,5°C</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 32,1°C</t>
+  </si>
+  <si>
+    <t>Gehaka zegt 31,9°C</t>
+  </si>
+  <si>
+    <t>Gehaka kapot temperatuur vergeten</t>
+  </si>
 </sst>
 </file>
 
@@ -1167,7 +1212,62 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="100">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1205,13 +1305,82 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1258,30 +1427,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -19188,32 +19333,32 @@
     <mergeCell ref="N2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:I1048576">
-    <cfRule type="notContainsBlanks" dxfId="86" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="99" priority="12">
       <formula>LEN(TRIM(G4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="85" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="98" priority="10">
       <formula>LEN(TRIM(B4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="notContainsBlanks" dxfId="84" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="97" priority="4">
       <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:I1048576">
-    <cfRule type="containsBlanks" dxfId="83" priority="1">
+    <cfRule type="containsBlanks" dxfId="96" priority="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E1048576">
-    <cfRule type="notContainsBlanks" dxfId="82" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="95" priority="3">
       <formula>LEN(TRIM(E4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I1048576">
-    <cfRule type="cellIs" dxfId="81" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27508,132 +27653,132 @@
     <mergeCell ref="N2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:I9 G15:I1048576 I10:I14">
-    <cfRule type="notContainsBlanks" dxfId="70" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="83" priority="27">
       <formula>LEN(TRIM(G4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:D9 B15:D1048576">
-    <cfRule type="notContainsBlanks" dxfId="69" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="82" priority="26">
       <formula>LEN(TRIM(B4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="notContainsBlanks" dxfId="68" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="81" priority="24">
       <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:I9 B15:I1048576 E10:F14 I10:I14">
-    <cfRule type="containsBlanks" dxfId="67" priority="21">
+    <cfRule type="containsBlanks" dxfId="80" priority="21">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E1048576">
-    <cfRule type="notContainsBlanks" dxfId="66" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="79" priority="23">
       <formula>LEN(TRIM(E4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I1048576">
-    <cfRule type="cellIs" dxfId="65" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="containsBlanks" dxfId="64" priority="1">
+    <cfRule type="containsBlanks" dxfId="77" priority="1">
       <formula>LEN(TRIM(G14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:D10">
-    <cfRule type="notContainsBlanks" dxfId="63" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="76" priority="20">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:D10">
-    <cfRule type="containsBlanks" dxfId="62" priority="19">
+    <cfRule type="containsBlanks" dxfId="75" priority="19">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:D11">
-    <cfRule type="notContainsBlanks" dxfId="61" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="74" priority="18">
       <formula>LEN(TRIM(B11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:D11">
-    <cfRule type="containsBlanks" dxfId="60" priority="17">
+    <cfRule type="containsBlanks" dxfId="73" priority="17">
       <formula>LEN(TRIM(B11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="notContainsBlanks" dxfId="59" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="72" priority="16">
       <formula>LEN(TRIM(B12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
-    <cfRule type="containsBlanks" dxfId="58" priority="15">
+    <cfRule type="containsBlanks" dxfId="71" priority="15">
       <formula>LEN(TRIM(B12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:D13">
-    <cfRule type="notContainsBlanks" dxfId="57" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="70" priority="14">
       <formula>LEN(TRIM(B13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:D13">
-    <cfRule type="containsBlanks" dxfId="56" priority="13">
+    <cfRule type="containsBlanks" dxfId="69" priority="13">
       <formula>LEN(TRIM(B13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="notContainsBlanks" dxfId="55" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="68" priority="12">
       <formula>LEN(TRIM(B14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14">
-    <cfRule type="containsBlanks" dxfId="54" priority="11">
+    <cfRule type="containsBlanks" dxfId="67" priority="11">
       <formula>LEN(TRIM(B14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H10">
-    <cfRule type="notContainsBlanks" dxfId="53" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="66" priority="10">
       <formula>LEN(TRIM(G10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H10">
-    <cfRule type="containsBlanks" dxfId="52" priority="9">
+    <cfRule type="containsBlanks" dxfId="65" priority="9">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H11">
-    <cfRule type="notContainsBlanks" dxfId="51" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="64" priority="8">
       <formula>LEN(TRIM(G11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H11">
-    <cfRule type="containsBlanks" dxfId="50" priority="7">
+    <cfRule type="containsBlanks" dxfId="63" priority="7">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H12">
-    <cfRule type="notContainsBlanks" dxfId="49" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="62" priority="6">
       <formula>LEN(TRIM(G12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:H12">
-    <cfRule type="containsBlanks" dxfId="48" priority="5">
+    <cfRule type="containsBlanks" dxfId="61" priority="5">
       <formula>LEN(TRIM(G12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="notContainsBlanks" dxfId="47" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="60" priority="4">
       <formula>LEN(TRIM(G13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="containsBlanks" dxfId="46" priority="3">
+    <cfRule type="containsBlanks" dxfId="59" priority="3">
       <formula>LEN(TRIM(G13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="notContainsBlanks" dxfId="45" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="58" priority="2">
       <formula>LEN(TRIM(G14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27672,8 +27817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P186" sqref="P186"/>
+    <sheetView topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27684,10 +27829,11 @@
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="102.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="56" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24" customWidth="1"/>
     <col min="24" max="24" width="14.42578125" customWidth="1"/>
   </cols>
@@ -27695,7 +27841,7 @@
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>COUNT(A$4:A$64994)</f>
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B1">
         <f>COUNT(B$4:B$64994)</f>
@@ -27703,23 +27849,23 @@
       </c>
       <c r="C1">
         <f>COUNT(C$4:C$64994)</f>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D1">
         <f>COUNT(D$4:D$64994)</f>
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="E1">
         <f>COUNT(E$4:E$64994)</f>
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="H1">
         <f>COUNT(H$10:H$64994)</f>
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="J1">
         <f t="shared" ref="J1:P1" si="0">COUNT(J$4:J$65000)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K1">
         <f t="shared" si="0"/>
@@ -27727,7 +27873,7 @@
       </c>
       <c r="L1">
         <f>COUNT(L$4:L$65000)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M1">
         <f t="shared" si="0"/>
@@ -27739,7 +27885,7 @@
       </c>
       <c r="O1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P1">
         <f t="shared" si="0"/>
@@ -27947,7 +28093,7 @@
       </c>
       <c r="X5">
         <f ca="1">AVERAGEIF(I4:I49994,"=1",H10:H49994)</f>
-        <v>11.972866666666668</v>
+        <v>12.00587096774194</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -28207,7 +28353,7 @@
       </c>
       <c r="X9">
         <f ca="1">SUMIF(I4:I49994,"=1",H10:H49994)</f>
-        <v>1795.9300000000003</v>
+        <v>1860.9100000000005</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -36268,7 +36414,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>547</v>
       </c>
@@ -36317,7 +36463,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B178" s="91" t="s">
         <v>41</v>
       </c>
@@ -36360,7 +36506,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B179" s="91" t="s">
         <v>22</v>
       </c>
@@ -36407,7 +36553,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>548</v>
       </c>
@@ -36456,7 +36602,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B181" s="91" t="s">
         <v>41</v>
       </c>
@@ -36499,7 +36645,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B182" s="91" t="s">
         <v>22</v>
       </c>
@@ -36546,7 +36692,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>545</v>
       </c>
@@ -36595,7 +36741,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B184" s="91" t="s">
         <v>41</v>
       </c>
@@ -36641,7 +36787,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B185" s="91" t="s">
         <v>22</v>
       </c>
@@ -36691,287 +36837,1426 @@
         <v>252</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G186" s="24" t="str">
-        <f>IF(GroteHoogte!D186&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D186+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I186" s="2">
-        <f>IF(IF(GroteHoogte!D186&gt;0,1,0)+IF(GroteHoogte!H186&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G187" s="24" t="str">
-        <f>IF(GroteHoogte!D187&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D187+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I187" s="2">
+    <row r="186" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G186" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H186" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="I186" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="J186" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="K186" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L186" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M186" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N186" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O186" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P186" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q186" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>10526</v>
+      </c>
+      <c r="B187" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D187" s="13">
+        <v>5487</v>
+      </c>
+      <c r="E187" s="13">
+        <v>33</v>
+      </c>
+      <c r="F187" s="26">
+        <f t="shared" ref="F187:F213" si="11">IF(J187,H187-G187,TRIM(""))</f>
+        <v>-1</v>
+      </c>
+      <c r="G187" s="24">
+        <v>13.7</v>
+      </c>
+      <c r="H187" s="12">
+        <v>12.7</v>
+      </c>
+      <c r="I187" s="12">
+        <v>13.2</v>
+      </c>
+      <c r="J187" s="2">
         <f>IF(IF(GroteHoogte!D187&gt;0,1,0)+IF(GroteHoogte!H187&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G188" s="24" t="str">
-        <f>IF(GroteHoogte!D188&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D188+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I188" s="2">
+        <v>1</v>
+      </c>
+      <c r="K187" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L187" s="29">
+        <v>729</v>
+      </c>
+      <c r="M187" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N187" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O187" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P187" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q187" s="29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B188" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D188" s="13">
+        <v>5676</v>
+      </c>
+      <c r="E188" s="13">
+        <v>31</v>
+      </c>
+      <c r="F188" s="26">
+        <f t="shared" si="11"/>
+        <v>-1.2000000000000011</v>
+      </c>
+      <c r="G188" s="24">
+        <v>13.9</v>
+      </c>
+      <c r="H188" s="12">
+        <v>12.7</v>
+      </c>
+      <c r="I188" s="12">
+        <v>13.2</v>
+      </c>
+      <c r="J188" s="2">
         <f>IF(IF(GroteHoogte!D188&gt;0,1,0)+IF(GroteHoogte!H188&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G189" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="K188" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L188" s="29">
+        <v>729</v>
+      </c>
+      <c r="M188" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N188" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O188" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P188" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q188" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B189" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189">
+        <v>21054</v>
+      </c>
+      <c r="D189">
+        <v>5073</v>
+      </c>
+      <c r="E189">
+        <v>31</v>
+      </c>
+      <c r="F189" s="26">
+        <f t="shared" si="11"/>
+        <v>-0.8932738013419943</v>
+      </c>
+      <c r="G189" s="24">
         <f>IF(GroteHoogte!D189&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D189+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I189" s="2">
+        <v>13.593273801341994</v>
+      </c>
+      <c r="H189" s="12">
+        <v>12.7</v>
+      </c>
+      <c r="I189" s="12">
+        <v>13.2</v>
+      </c>
+      <c r="J189" s="2">
         <f>IF(IF(GroteHoogte!D189&gt;0,1,0)+IF(GroteHoogte!H189&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G190" s="24" t="str">
-        <f>IF(GroteHoogte!D190&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D190+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I190" s="2">
+        <v>1</v>
+      </c>
+      <c r="K189" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L189" s="29">
+        <v>729</v>
+      </c>
+      <c r="M189" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N189" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O189" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P189" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A190" s="88">
+        <v>10525</v>
+      </c>
+      <c r="B190" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D190">
+        <v>5415</v>
+      </c>
+      <c r="E190">
+        <v>34</v>
+      </c>
+      <c r="F190" s="26">
+        <f t="shared" si="11"/>
+        <v>-0.16000000000000014</v>
+      </c>
+      <c r="G190" s="24">
+        <v>13.6</v>
+      </c>
+      <c r="H190" s="12">
+        <v>13.44</v>
+      </c>
+      <c r="I190" s="12">
+        <v>13.8</v>
+      </c>
+      <c r="J190" s="2">
         <f>IF(IF(GroteHoogte!D190&gt;0,1,0)+IF(GroteHoogte!H190&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G191" s="24" t="str">
-        <f>IF(GroteHoogte!D191&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D191+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I191" s="2">
+        <v>1</v>
+      </c>
+      <c r="K190" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L190" s="29">
+        <v>729</v>
+      </c>
+      <c r="M190" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N190" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O190" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P190" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q190" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B191" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D191">
+        <v>5431</v>
+      </c>
+      <c r="E191">
+        <v>31</v>
+      </c>
+      <c r="F191" s="26">
+        <f t="shared" si="11"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="G191" s="24">
+        <v>13.4</v>
+      </c>
+      <c r="H191" s="12">
+        <v>13.44</v>
+      </c>
+      <c r="I191" s="12">
+        <v>13.8</v>
+      </c>
+      <c r="J191" s="2">
         <f>IF(IF(GroteHoogte!D191&gt;0,1,0)+IF(GroteHoogte!H191&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G192" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="K191" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L191" s="29">
+        <v>729</v>
+      </c>
+      <c r="M191" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N191" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O191" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P191" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q191" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B192" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192">
+        <v>21033</v>
+      </c>
+      <c r="D192">
+        <v>5181</v>
+      </c>
+      <c r="E192">
+        <v>31</v>
+      </c>
+      <c r="F192" s="26">
+        <f t="shared" si="11"/>
+        <v>-0.30746047492841733</v>
+      </c>
+      <c r="G192" s="24">
         <f>IF(GroteHoogte!D192&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D192+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I192" s="2">
+        <v>13.747460474928417</v>
+      </c>
+      <c r="H192" s="12">
+        <v>13.44</v>
+      </c>
+      <c r="I192" s="12">
+        <v>13.8</v>
+      </c>
+      <c r="J192" s="2">
         <f>IF(IF(GroteHoogte!D192&gt;0,1,0)+IF(GroteHoogte!H192&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G193" s="24" t="str">
-        <f>IF(GroteHoogte!D193&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D193+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I193" s="2">
+        <v>1</v>
+      </c>
+      <c r="K192" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L192" s="29">
+        <v>729</v>
+      </c>
+      <c r="M192" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N192" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O192" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P192" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>542</v>
+      </c>
+      <c r="B193" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D193">
+        <v>4440</v>
+      </c>
+      <c r="E193">
+        <v>33</v>
+      </c>
+      <c r="F193" s="26">
+        <f t="shared" si="11"/>
+        <v>-0.88999999999999879</v>
+      </c>
+      <c r="G193" s="24">
+        <v>11.6</v>
+      </c>
+      <c r="H193" s="12">
+        <v>10.71</v>
+      </c>
+      <c r="I193" s="12">
+        <v>11.5</v>
+      </c>
+      <c r="J193" s="2">
         <f>IF(IF(GroteHoogte!D193&gt;0,1,0)+IF(GroteHoogte!H193&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G194" s="24" t="str">
-        <f>IF(GroteHoogte!D194&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D194+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I194" s="2">
+        <v>1</v>
+      </c>
+      <c r="K193" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L193" s="29">
+        <v>729</v>
+      </c>
+      <c r="M193" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N193" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O193" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P193" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q193" s="29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B194" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D194">
+        <v>4280</v>
+      </c>
+      <c r="E194">
+        <v>32</v>
+      </c>
+      <c r="F194" s="26">
+        <f t="shared" si="11"/>
+        <v>-0.38999999999999879</v>
+      </c>
+      <c r="G194" s="24">
+        <v>11.1</v>
+      </c>
+      <c r="H194" s="12">
+        <v>10.71</v>
+      </c>
+      <c r="I194" s="12">
+        <v>11.5</v>
+      </c>
+      <c r="J194" s="2">
         <f>IF(IF(GroteHoogte!D194&gt;0,1,0)+IF(GroteHoogte!H194&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G195" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="K194" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L194" s="29">
+        <v>729</v>
+      </c>
+      <c r="M194" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N194" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O194" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P194" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B195" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195">
+        <v>20967</v>
+      </c>
+      <c r="D195">
+        <v>4071</v>
+      </c>
+      <c r="E195">
+        <v>31</v>
+      </c>
+      <c r="F195" s="26">
+        <f t="shared" si="11"/>
+        <v>-1.4527641075123761</v>
+      </c>
+      <c r="G195" s="24">
         <f>IF(GroteHoogte!D195&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D195+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I195" s="2">
+        <v>12.162764107512377</v>
+      </c>
+      <c r="H195" s="12">
+        <v>10.71</v>
+      </c>
+      <c r="I195" s="12">
+        <v>11.5</v>
+      </c>
+      <c r="J195" s="2">
         <f>IF(IF(GroteHoogte!D195&gt;0,1,0)+IF(GroteHoogte!H195&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G196" s="24" t="str">
-        <f>IF(GroteHoogte!D196&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D196+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I196" s="2">
+        <v>1</v>
+      </c>
+      <c r="K195" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L195" s="29">
+        <v>729</v>
+      </c>
+      <c r="M195" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N195" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O195" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P195" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q195" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>540</v>
+      </c>
+      <c r="B196" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D196">
+        <v>3267</v>
+      </c>
+      <c r="E196">
+        <v>32</v>
+      </c>
+      <c r="F196" s="26">
+        <f t="shared" si="11"/>
+        <v>0.65000000000000036</v>
+      </c>
+      <c r="G196" s="24">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H196" s="12">
+        <v>9.85</v>
+      </c>
+      <c r="I196" s="12">
+        <v>10.9</v>
+      </c>
+      <c r="J196" s="2">
         <f>IF(IF(GroteHoogte!D196&gt;0,1,0)+IF(GroteHoogte!H196&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G197" s="24" t="str">
-        <f>IF(GroteHoogte!D197&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D197+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I197" s="2">
+        <v>1</v>
+      </c>
+      <c r="K196" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L196" s="29">
+        <v>729</v>
+      </c>
+      <c r="M196" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N196" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O196" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P196" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q196" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B197" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D197">
+        <v>3258</v>
+      </c>
+      <c r="E197">
+        <v>31</v>
+      </c>
+      <c r="F197" s="26">
+        <f t="shared" si="11"/>
+        <v>0.84999999999999964</v>
+      </c>
+      <c r="G197" s="24">
+        <v>9</v>
+      </c>
+      <c r="H197" s="12">
+        <v>9.85</v>
+      </c>
+      <c r="I197" s="12">
+        <v>10.9</v>
+      </c>
+      <c r="J197" s="2">
         <f>IF(IF(GroteHoogte!D197&gt;0,1,0)+IF(GroteHoogte!H197&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G198" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="K197" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L197" s="29">
+        <v>729</v>
+      </c>
+      <c r="M197" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N197" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O197" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P197" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q197" s="29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B198" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C198">
+        <v>20958</v>
+      </c>
+      <c r="D198">
+        <v>3109</v>
+      </c>
+      <c r="E198">
+        <v>31</v>
+      </c>
+      <c r="F198" s="26">
+        <f t="shared" si="11"/>
+        <v>-0.93936058908514397</v>
+      </c>
+      <c r="G198" s="24">
         <f>IF(GroteHoogte!D198&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D198+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I198" s="2">
+        <v>10.789360589085144</v>
+      </c>
+      <c r="H198" s="12">
+        <v>9.85</v>
+      </c>
+      <c r="I198" s="12">
+        <v>10.9</v>
+      </c>
+      <c r="J198" s="2">
         <f>IF(IF(GroteHoogte!D198&gt;0,1,0)+IF(GroteHoogte!H198&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G199" s="24" t="str">
-        <f>IF(GroteHoogte!D199&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D199+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I199" s="2">
+        <v>1</v>
+      </c>
+      <c r="K198" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L198" s="29">
+        <v>729</v>
+      </c>
+      <c r="M198" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N198" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O198" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P198" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q198" s="29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>10520</v>
+      </c>
+      <c r="B199" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D199">
+        <v>5133</v>
+      </c>
+      <c r="E199">
+        <v>32</v>
+      </c>
+      <c r="F199" s="26">
+        <f t="shared" si="11"/>
+        <v>-1.2599999999999998</v>
+      </c>
+      <c r="G199" s="24">
+        <v>13</v>
+      </c>
+      <c r="H199" s="12">
+        <v>11.74</v>
+      </c>
+      <c r="I199" s="12">
+        <v>12.4</v>
+      </c>
+      <c r="J199" s="2">
         <f>IF(IF(GroteHoogte!D199&gt;0,1,0)+IF(GroteHoogte!H199&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G200" s="24" t="str">
-        <f>IF(GroteHoogte!D200&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D200+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I200" s="2">
+        <v>1</v>
+      </c>
+      <c r="K199" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L199" s="29">
+        <v>729</v>
+      </c>
+      <c r="M199" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N199" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O199" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P199" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q199" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B200" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D200">
+        <v>5139</v>
+      </c>
+      <c r="E200">
+        <v>31</v>
+      </c>
+      <c r="F200" s="26">
+        <f t="shared" si="11"/>
+        <v>-1.0600000000000005</v>
+      </c>
+      <c r="G200" s="24">
+        <v>12.8</v>
+      </c>
+      <c r="H200" s="12">
+        <v>11.74</v>
+      </c>
+      <c r="I200" s="12">
+        <v>12.4</v>
+      </c>
+      <c r="J200" s="2">
         <f>IF(IF(GroteHoogte!D200&gt;0,1,0)+IF(GroteHoogte!H200&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G201" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="K200" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L200" s="29">
+        <v>729</v>
+      </c>
+      <c r="M200" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N200" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O200" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P200" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q200" s="29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B201" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C201">
+        <v>21036</v>
+      </c>
+      <c r="D201">
+        <v>4775</v>
+      </c>
+      <c r="E201">
+        <v>30</v>
+      </c>
+      <c r="F201" s="26">
+        <f t="shared" si="11"/>
+        <v>-1.4278327945942628</v>
+      </c>
+      <c r="G201" s="24">
         <f>IF(GroteHoogte!D201&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D201+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I201" s="2">
+        <v>13.167832794594263</v>
+      </c>
+      <c r="H201" s="12">
+        <v>11.74</v>
+      </c>
+      <c r="I201" s="12">
+        <v>12.4</v>
+      </c>
+      <c r="J201" s="2">
         <f>IF(IF(GroteHoogte!D201&gt;0,1,0)+IF(GroteHoogte!H201&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G202" s="24" t="str">
-        <f>IF(GroteHoogte!D202&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D202+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I202" s="2">
+        <v>1</v>
+      </c>
+      <c r="K201" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L201" s="29">
+        <v>729</v>
+      </c>
+      <c r="M201" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N201" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O201" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P201" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>10519</v>
+      </c>
+      <c r="B202" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D202">
+        <v>4535</v>
+      </c>
+      <c r="E202">
+        <v>32</v>
+      </c>
+      <c r="F202" s="26">
+        <f t="shared" si="11"/>
+        <v>-0.39000000000000057</v>
+      </c>
+      <c r="G202" s="24">
+        <v>11.8</v>
+      </c>
+      <c r="H202" s="12">
+        <v>11.41</v>
+      </c>
+      <c r="I202" s="12">
+        <v>11.9</v>
+      </c>
+      <c r="J202" s="2">
         <f>IF(IF(GroteHoogte!D202&gt;0,1,0)+IF(GroteHoogte!H202&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G203" s="24" t="str">
-        <f>IF(GroteHoogte!D203&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D203+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I203" s="2">
+        <v>1</v>
+      </c>
+      <c r="K202" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L202" s="29">
+        <v>729</v>
+      </c>
+      <c r="M202" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N202" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O202" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P202" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q202" s="29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B203" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D203">
+        <v>4564</v>
+      </c>
+      <c r="E203">
+        <v>31</v>
+      </c>
+      <c r="F203" s="26">
+        <f t="shared" si="11"/>
+        <v>-0.1899999999999995</v>
+      </c>
+      <c r="G203" s="24">
+        <v>11.6</v>
+      </c>
+      <c r="H203" s="12">
+        <v>11.41</v>
+      </c>
+      <c r="I203" s="12">
+        <v>11.9</v>
+      </c>
+      <c r="J203" s="2">
         <f>IF(IF(GroteHoogte!D203&gt;0,1,0)+IF(GroteHoogte!H203&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G204" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="K203" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L203" s="29">
+        <v>729</v>
+      </c>
+      <c r="M203" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N203" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O203" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P203" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q203" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B204" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C204">
+        <v>20988</v>
+      </c>
+      <c r="D204">
+        <v>4257</v>
+      </c>
+      <c r="E204">
+        <v>31</v>
+      </c>
+      <c r="F204" s="26">
+        <f t="shared" si="11"/>
+        <v>-1.0183078231334441</v>
+      </c>
+      <c r="G204" s="24">
         <f>IF(GroteHoogte!D204&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D204+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I204" s="2">
+        <v>12.428307823133444</v>
+      </c>
+      <c r="H204" s="12">
+        <v>11.41</v>
+      </c>
+      <c r="I204" s="12">
+        <v>11.9</v>
+      </c>
+      <c r="J204" s="2">
         <f>IF(IF(GroteHoogte!D204&gt;0,1,0)+IF(GroteHoogte!H204&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G205" s="24" t="str">
-        <f>IF(GroteHoogte!D205&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D205+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I205" s="2">
+        <v>1</v>
+      </c>
+      <c r="K204" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L204" s="29">
+        <v>729</v>
+      </c>
+      <c r="M204" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N204" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O204" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P204" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>547</v>
+      </c>
+      <c r="B205" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D205">
+        <v>4779</v>
+      </c>
+      <c r="E205">
+        <v>32</v>
+      </c>
+      <c r="F205" s="26">
+        <f t="shared" si="11"/>
+        <v>-0.94000000000000128</v>
+      </c>
+      <c r="G205" s="24">
+        <v>12.3</v>
+      </c>
+      <c r="H205" s="12">
+        <v>11.36</v>
+      </c>
+      <c r="I205" s="12">
+        <v>12</v>
+      </c>
+      <c r="J205" s="2">
         <f>IF(IF(GroteHoogte!D205&gt;0,1,0)+IF(GroteHoogte!H205&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G206" s="24" t="str">
-        <f>IF(GroteHoogte!D206&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D206+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I206" s="2">
+        <v>1</v>
+      </c>
+      <c r="K205" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L205" s="29">
+        <v>729</v>
+      </c>
+      <c r="M205" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N205" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O205" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P205" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q205" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B206" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D206">
+        <v>4574</v>
+      </c>
+      <c r="E206">
+        <v>31</v>
+      </c>
+      <c r="F206" s="26">
+        <f t="shared" si="11"/>
+        <v>-0.33999999999999986</v>
+      </c>
+      <c r="G206" s="24">
+        <v>11.7</v>
+      </c>
+      <c r="H206" s="12">
+        <v>11.36</v>
+      </c>
+      <c r="I206" s="12">
+        <v>12</v>
+      </c>
+      <c r="J206" s="2">
         <f>IF(IF(GroteHoogte!D206&gt;0,1,0)+IF(GroteHoogte!H206&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G207" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="K206" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L206" s="29">
+        <v>729</v>
+      </c>
+      <c r="M206" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N206" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O206" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P206" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q206" s="29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B207" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C207">
+        <v>20947</v>
+      </c>
+      <c r="D207">
+        <v>4410</v>
+      </c>
+      <c r="E207">
+        <v>31</v>
+      </c>
+      <c r="F207" s="26">
+        <f t="shared" si="11"/>
+        <v>-1.2867389440475474</v>
+      </c>
+      <c r="G207" s="24">
         <f>IF(GroteHoogte!D207&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D207+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I207" s="2">
+        <v>12.646738944047547</v>
+      </c>
+      <c r="H207" s="12">
+        <v>11.36</v>
+      </c>
+      <c r="I207" s="12">
+        <v>12</v>
+      </c>
+      <c r="J207" s="2">
         <f>IF(IF(GroteHoogte!D207&gt;0,1,0)+IF(GroteHoogte!H207&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G208" s="24" t="str">
-        <f>IF(GroteHoogte!D208&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D208+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I208" s="2">
+        <v>1</v>
+      </c>
+      <c r="K207" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L207" s="29">
+        <v>729</v>
+      </c>
+      <c r="M207" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N207" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O207" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P207" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>548</v>
+      </c>
+      <c r="B208" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D208">
+        <v>4098</v>
+      </c>
+      <c r="E208">
+        <v>32</v>
+      </c>
+      <c r="F208" s="26">
+        <f t="shared" si="11"/>
+        <v>-0.24000000000000021</v>
+      </c>
+      <c r="G208" s="24">
+        <v>10.9</v>
+      </c>
+      <c r="H208" s="12">
+        <v>10.66</v>
+      </c>
+      <c r="I208" s="12">
+        <v>11.4</v>
+      </c>
+      <c r="J208" s="2">
         <f>IF(IF(GroteHoogte!D208&gt;0,1,0)+IF(GroteHoogte!H208&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G209" s="24" t="str">
-        <f>IF(GroteHoogte!D209&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D209+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I209" s="2">
+        <v>1</v>
+      </c>
+      <c r="K208" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L208" s="29">
+        <v>729</v>
+      </c>
+      <c r="M208" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N208" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O208" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P208" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q208" s="29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B209" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209">
+        <v>3985</v>
+      </c>
+      <c r="E209">
+        <v>31</v>
+      </c>
+      <c r="F209" s="26">
+        <f t="shared" si="11"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="G209" s="24">
+        <v>10.5</v>
+      </c>
+      <c r="H209" s="12">
+        <v>10.66</v>
+      </c>
+      <c r="I209" s="12">
+        <v>11.4</v>
+      </c>
+      <c r="J209" s="2">
         <f>IF(IF(GroteHoogte!D209&gt;0,1,0)+IF(GroteHoogte!H209&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G210" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="K209" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L209" s="29">
+        <v>729</v>
+      </c>
+      <c r="M209" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N209" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O209" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P209" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q209" s="29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B210" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210">
+        <v>20927</v>
+      </c>
+      <c r="D210">
+        <v>3847</v>
+      </c>
+      <c r="E210">
+        <v>31</v>
+      </c>
+      <c r="F210" s="26">
+        <f t="shared" si="11"/>
+        <v>-1.1829695252590504</v>
+      </c>
+      <c r="G210" s="24">
         <f>IF(GroteHoogte!D210&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D210+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I210" s="2">
+        <v>11.842969525259051</v>
+      </c>
+      <c r="H210" s="12">
+        <v>10.66</v>
+      </c>
+      <c r="I210" s="12">
+        <v>11.4</v>
+      </c>
+      <c r="J210" s="2">
         <f>IF(IF(GroteHoogte!D210&gt;0,1,0)+IF(GroteHoogte!H210&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G211" s="24" t="str">
-        <f>IF(GroteHoogte!D211&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D211+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I211" s="2">
+        <v>1</v>
+      </c>
+      <c r="K210" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L210" s="29">
+        <v>729</v>
+      </c>
+      <c r="M210" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N210" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O210" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P210" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>545</v>
+      </c>
+      <c r="B211" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D211">
+        <v>4477</v>
+      </c>
+      <c r="E211">
+        <v>31</v>
+      </c>
+      <c r="F211" s="26">
+        <f t="shared" si="11"/>
+        <v>-0.51999999999999957</v>
+      </c>
+      <c r="G211" s="24">
+        <v>11.5</v>
+      </c>
+      <c r="H211" s="12">
+        <v>10.98</v>
+      </c>
+      <c r="I211" s="12">
+        <v>11.9</v>
+      </c>
+      <c r="J211" s="2">
         <f>IF(IF(GroteHoogte!D211&gt;0,1,0)+IF(GroteHoogte!H211&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G212" s="24" t="str">
-        <f>IF(GroteHoogte!D212&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D212+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I212" s="2">
+        <v>1</v>
+      </c>
+      <c r="K211" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L211" s="29">
+        <v>729</v>
+      </c>
+      <c r="M211" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N211" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O211" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P211" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q211" s="29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B212" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D212">
+        <v>4395</v>
+      </c>
+      <c r="E212">
+        <v>31</v>
+      </c>
+      <c r="F212" s="26">
+        <f t="shared" si="11"/>
+        <v>-0.32000000000000028</v>
+      </c>
+      <c r="G212" s="24">
+        <v>11.3</v>
+      </c>
+      <c r="H212" s="12">
+        <v>10.98</v>
+      </c>
+      <c r="I212" s="12">
+        <v>11.9</v>
+      </c>
+      <c r="J212" s="2">
         <f>IF(IF(GroteHoogte!D212&gt;0,1,0)+IF(GroteHoogte!H212&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G213" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="K212" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L212" s="29">
+        <v>729</v>
+      </c>
+      <c r="M212" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N212" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O212" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P212" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q212" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B213" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C213">
+        <v>20939</v>
+      </c>
+      <c r="D213">
+        <v>4103</v>
+      </c>
+      <c r="E213">
+        <v>31</v>
+      </c>
+      <c r="F213" s="26">
+        <f t="shared" si="11"/>
+        <v>-1.2284490478342818</v>
+      </c>
+      <c r="G213" s="24">
         <f>IF(GroteHoogte!D213&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D213+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
-        <v/>
-      </c>
-      <c r="I213" s="2">
+        <v>12.208449047834282</v>
+      </c>
+      <c r="H213" s="12">
+        <v>10.98</v>
+      </c>
+      <c r="I213" s="12">
+        <v>11.9</v>
+      </c>
+      <c r="J213" s="2">
         <f>IF(IF(GroteHoogte!D213&gt;0,1,0)+IF(GroteHoogte!H213&gt;0,1,0)=2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="7:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K213" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L213" s="29">
+        <v>729</v>
+      </c>
+      <c r="M213" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N213" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O213" s="93">
+        <v>42597</v>
+      </c>
+      <c r="P213" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q213" s="29"/>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G214" s="24" t="str">
         <f>IF(GroteHoogte!D214&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D214+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -36981,7 +38266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G215" s="24" t="str">
         <f>IF(GroteHoogte!D215&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D215+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -36991,7 +38276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G216" s="24" t="str">
         <f>IF(GroteHoogte!D216&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D216+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -37001,7 +38286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G217" s="24" t="str">
         <f>IF(GroteHoogte!D217&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D217+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -37011,7 +38296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G218" s="24" t="str">
         <f>IF(GroteHoogte!D218&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D218+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -37021,7 +38306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G219" s="24" t="str">
         <f>IF(GroteHoogte!D219&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D219+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -37031,7 +38316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G220" s="24" t="str">
         <f>IF(GroteHoogte!D220&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D220+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -37041,7 +38326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G221" s="24" t="str">
         <f>IF(GroteHoogte!D221&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D221+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -37051,7 +38336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G222" s="24" t="str">
         <f>IF(GroteHoogte!D222&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D222+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -37061,7 +38346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G223" s="24" t="str">
         <f>IF(GroteHoogte!D223&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D223+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -37071,7 +38356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G224" s="24" t="str">
         <f>IF(GroteHoogte!D224&gt;0,Grafiek_kalibratiemetingen!$R$13*GroteHoogte!D224+Grafiek_kalibratiemetingen!$R$14,TRIM(""))</f>
         <v/>
@@ -40180,209 +41465,269 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="M2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:I63 H65:I65 I65:I91 H66:H91 H93:I129 H186:I1048576">
-    <cfRule type="notContainsBlanks" dxfId="43" priority="44">
+  <conditionalFormatting sqref="H4:I63 H65:I65 I65:I91 H66:H91 H93:I129 H214:I1048576 H187:J213">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="61">
       <formula>LEN(TRIM(H4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:E63 C65:E91 C93:E129 C186:E1048576 C159:E166 D167:E167">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="43">
+  <conditionalFormatting sqref="C4:E63 C65:E91 C93:E129 C214:E1048576 C159:E166 D167:E167">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="60">
       <formula>LEN(TRIM(C4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G63 G65:G91 G94:G129 G186:G1048576">
-    <cfRule type="notContainsBlanks" dxfId="41" priority="41">
+  <conditionalFormatting sqref="G4:G63 G65:G91 G94:G129 G214:G1048576">
+    <cfRule type="notContainsBlanks" dxfId="54" priority="58">
       <formula>LEN(TRIM(G4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91:H91 C4:I63 G65:I65 G89:H90 G86:H86 G83:H83 G80:H80 G77:H77 G74:H74 G71:H71 G68:H68 I65:I91 H87:H88 H84:H85 H81:H82 H78:H79 H75:H76 H72:H73 H69:H70 H66:H67 C65:G91 C93:C94 H93:I93 D94:I94 I94:I111 F93:F108 D93:E93 C95:I129 C186:I1048576 C161:I166 D167:E167">
-    <cfRule type="containsBlanks" dxfId="40" priority="38">
+  <conditionalFormatting sqref="C91:H91 C4:I63 G65:I65 G89:H90 G86:H86 G83:H83 G80:H80 G77:H77 G74:H74 G71:H71 G68:H68 I65:I91 H87:H88 H84:H85 H81:H82 H78:H79 H75:H76 H72:H73 H69:H70 H66:H67 C65:G91 C93:C94 H93:I93 D94:I94 I94:I111 F93:F108 D93:E93 C95:I129 C214:I1048576 C161:I166 D167:E167 C189:E194 D188:E188 C196:E213 G188:H213 H187:J213">
+    <cfRule type="containsBlanks" dxfId="53" priority="55">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F63 F65:F91 F93:F129 F186:F1048576">
-    <cfRule type="notContainsBlanks" dxfId="39" priority="40">
+  <conditionalFormatting sqref="F4:F63 F65:F91 F93:F129 F214:F1048576">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="57">
       <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I63 I65:I91 I93:I129 I186:I1048576">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+  <conditionalFormatting sqref="I4:I63 I65:I91 I93:I129 I214:I1048576">
+    <cfRule type="cellIs" dxfId="51" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="notContainsBlanks" dxfId="37" priority="37">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="54">
       <formula>LEN(TRIM(G67))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="containsBlanks" dxfId="36" priority="36">
+    <cfRule type="containsBlanks" dxfId="49" priority="53">
       <formula>LEN(TRIM(G67))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="notContainsBlanks" dxfId="35" priority="35">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="52">
       <formula>LEN(TRIM(G88))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="containsBlanks" dxfId="34" priority="34">
+    <cfRule type="containsBlanks" dxfId="47" priority="51">
       <formula>LEN(TRIM(G88))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="50">
       <formula>LEN(TRIM(G85))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85">
-    <cfRule type="containsBlanks" dxfId="32" priority="32">
+    <cfRule type="containsBlanks" dxfId="45" priority="49">
       <formula>LEN(TRIM(G85))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="31">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="48">
       <formula>LEN(TRIM(G82))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="containsBlanks" dxfId="30" priority="30">
+    <cfRule type="containsBlanks" dxfId="43" priority="47">
       <formula>LEN(TRIM(G82))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="46">
       <formula>LEN(TRIM(G79))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79">
-    <cfRule type="containsBlanks" dxfId="28" priority="28">
+    <cfRule type="containsBlanks" dxfId="41" priority="45">
       <formula>LEN(TRIM(G79))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="44">
       <formula>LEN(TRIM(G76))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="containsBlanks" dxfId="26" priority="26">
+    <cfRule type="containsBlanks" dxfId="39" priority="43">
       <formula>LEN(TRIM(G76))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="42">
       <formula>LEN(TRIM(G73))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="containsBlanks" dxfId="24" priority="24">
+    <cfRule type="containsBlanks" dxfId="37" priority="41">
       <formula>LEN(TRIM(G73))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="40">
       <formula>LEN(TRIM(G70))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="containsBlanks" dxfId="22" priority="22">
+    <cfRule type="containsBlanks" dxfId="35" priority="39">
       <formula>LEN(TRIM(G70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="38">
       <formula>LEN(TRIM(G67))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="containsBlanks" dxfId="20" priority="20">
+    <cfRule type="containsBlanks" dxfId="33" priority="37">
       <formula>LEN(TRIM(G67))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131:I157">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="36">
       <formula>LEN(TRIM(H131))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131:E157">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="35">
       <formula>LEN(TRIM(C131))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G131:G157 G186:G192">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="16">
+  <conditionalFormatting sqref="G131:G157">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="33">
       <formula>LEN(TRIM(G131))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C131:C132 H131:I131 D132:I132 D131:F131 C133:I157 G131:G157 G186:G192">
-    <cfRule type="containsBlanks" dxfId="16" priority="13">
+  <conditionalFormatting sqref="C131:C132 H131:I131 D132:I132 D131:F131 C133:I157 G131:G157">
+    <cfRule type="containsBlanks" dxfId="29" priority="30">
       <formula>LEN(TRIM(C131))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131:F157">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="32">
       <formula>LEN(TRIM(F131))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131:I157">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H159:I185">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="29">
       <formula>LEN(TRIM(H159))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C168:E185 C167">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="28">
       <formula>LEN(TRIM(C167))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G160:G185">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="26">
       <formula>LEN(TRIM(G160))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159:C160 H159:I159 D160:I160 D159:F159 C167 F167:I167 C168:I185">
-    <cfRule type="containsBlanks" dxfId="8" priority="6">
+    <cfRule type="containsBlanks" dxfId="23" priority="23">
       <formula>LEN(TRIM(C159))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F159:F185">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="25">
       <formula>LEN(TRIM(F159))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I159:I185">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G159">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="22">
       <formula>LEN(TRIM(G159))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G159">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="21">
       <formula>LEN(TRIM(G159))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F167">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="20">
       <formula>LEN(TRIM(F167))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I167">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="17" priority="19">
       <formula>LEN(TRIM(I167))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G167">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="16" priority="18">
       <formula>LEN(TRIM(G167))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C187:E194 D195:E195">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="17">
+      <formula>LEN(TRIM(C187))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D195:E195">
+    <cfRule type="containsBlanks" dxfId="14" priority="16">
+      <formula>LEN(TRIM(D195))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C196:E213 C195">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="14">
+      <formula>LEN(TRIM(C195))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G188:G213">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="12">
+      <formula>LEN(TRIM(G188))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C187:C188 D187:E187 C195">
+    <cfRule type="containsBlanks" dxfId="11" priority="9">
+      <formula>LEN(TRIM(C187))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J187:J213">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G187">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="8">
+      <formula>LEN(TRIM(G187))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G187">
+    <cfRule type="containsBlanks" dxfId="8" priority="7">
+      <formula>LEN(TRIM(G187))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J195">
+    <cfRule type="containsBlanks" dxfId="7" priority="5">
+      <formula>LEN(TRIM(J195))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G195">
+    <cfRule type="containsBlanks" dxfId="6" priority="4">
+      <formula>LEN(TRIM(G195))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F187:F213">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
+      <formula>LEN(TRIM(F187))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F187:F213">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="3">
+      <formula>LEN(TRIM(F187))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -40391,7 +41736,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" operator="notBetween" id="{83D2047F-29C6-4704-BCC5-3CB6D4BA3DD3}">
+          <x14:cfRule type="cellIs" priority="56" operator="notBetween" id="{83D2047F-29C6-4704-BCC5-3CB6D4BA3DD3}">
             <xm:f>-Grafiek_kalibratiemetingen!$AC$4-1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
             <xm:f>Grafiek_kalibratiemetingen!$AC$4+1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
             <x14:dxf>
@@ -40407,10 +41752,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F4:F63 F65:F91 F93:F129 F186:F49994</xm:sqref>
+          <xm:sqref>F4:F63 F65:F91 F93:F129 F214:F49994</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="14" operator="notBetween" id="{320B7893-36C6-46F0-AE82-3879FEC15F69}">
+          <x14:cfRule type="cellIs" priority="31" operator="notBetween" id="{320B7893-36C6-46F0-AE82-3879FEC15F69}">
             <xm:f>-Grafiek_kalibratiemetingen!$AC$4-1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
             <xm:f>Grafiek_kalibratiemetingen!$AC$4+1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
             <x14:dxf>
@@ -40429,7 +41774,7 @@
           <xm:sqref>F131:F157</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="notBetween" id="{ECC0D9CD-D0CC-41F9-9C92-4AC3A92F253C}">
+          <x14:cfRule type="cellIs" priority="24" operator="notBetween" id="{ECC0D9CD-D0CC-41F9-9C92-4AC3A92F253C}">
             <xm:f>-Grafiek_kalibratiemetingen!$AC$4-1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
             <xm:f>Grafiek_kalibratiemetingen!$AC$4+1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
             <x14:dxf>
@@ -40447,6 +41792,25 @@
           </x14:cfRule>
           <xm:sqref>F159:F185</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="notBetween" id="{6971CC7B-CADE-4B35-938E-381B44B5D2BA}">
+            <xm:f>-Grafiek_kalibratiemetingen!$AC$4-1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
+            <xm:f>Grafiek_kalibratiemetingen!$AC$4+1/2*Grafiek_kalibratiemetingen!$AC$5</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <numFmt numFmtId="2" formatCode="0.00"/>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F187:F213</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -40457,8 +41821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Q1:AC238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="Q13:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46699,10 +48063,10 @@
     <sortCondition descending="1" ref="V2"/>
   </sortState>
   <conditionalFormatting sqref="T3:U50001">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="91" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56809,32 +58173,32 @@
     <mergeCell ref="N2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:J1048576">
-    <cfRule type="notContainsBlanks" dxfId="77" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="90" priority="7">
       <formula>LEN(TRIM(H4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E1048576">
-    <cfRule type="notContainsBlanks" dxfId="76" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="89" priority="6">
       <formula>LEN(TRIM(C4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G1048576">
-    <cfRule type="notContainsBlanks" dxfId="75" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="88" priority="4">
       <formula>LEN(TRIM(G4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:J1048576">
-    <cfRule type="containsBlanks" dxfId="74" priority="1">
+    <cfRule type="containsBlanks" dxfId="87" priority="1">
       <formula>LEN(TRIM(C4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="notContainsBlanks" dxfId="73" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="86" priority="3">
       <formula>LEN(TRIM(F4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J1048576">
-    <cfRule type="cellIs" dxfId="72" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
